--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyoga\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9567A4-986A-4828-ABBB-4706E468F2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7D78BC-70C8-48A2-A8CC-0A9248FDD241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Summary" sheetId="6" r:id="rId1"/>
     <sheet name="PR Summary" sheetId="14" r:id="rId2"/>
-    <sheet name="Drop down list" sheetId="12" state="hidden" r:id="rId3"/>
+    <sheet name="Custom Column" sheetId="15" r:id="rId3"/>
+    <sheet name="Drop down list" sheetId="12" state="hidden" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PR Summary'!$A$1:$V$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PR Summary'!$A$1:$X$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Summary'!$A$4:$K$21</definedName>
     <definedName name="_Toc144131386" localSheetId="0">'Test Summary'!$B$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Test Summary'!$1:$4</definedName>
@@ -39,8 +40,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Wahyu Yoga Pratama</author>
+  </authors>
+  <commentList>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{9FE605C4-0F81-4ABF-9C3D-B9A8F8238C84}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wahyu Yoga Pratama:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Maximo table is CONTRACT, not PO
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M24" authorId="0" shapeId="0" xr:uid="{9AA872D1-1B0F-4355-8807-BF302BF94124}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wahyu Yoga Pratama:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+PR should be in PO level? Also, POLINE.PONUM refer to parent PO. Can not be used to store PRNUM.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="400">
   <si>
     <t>Test Status</t>
   </si>
@@ -434,6 +494,486 @@
     <t>PO Not authorized (54) (6 on coswin screen) is similar to WAPPR in contract and hence needs to be changed as needed. 0 is approved.</t>
   </si>
   <si>
+    <t>Peng Keong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAT_TRANSACTDM_0003.0001 </t>
+  </si>
+  <si>
+    <t>For Cost centers part of the GL account (cost center) list should use the Department mapping as provided by SBST for GL account string in PRLINE.</t>
+  </si>
+  <si>
+    <t>For Cost centers that are not part of the list provided by SBST, Department should be defaulted to NEL.</t>
+  </si>
+  <si>
+    <t>Coswin PR remarks should be populated as PR work log in maximo.</t>
+  </si>
+  <si>
+    <t>Coswin RFQ has no description. The RFQ description migrated in Maximo seems to be migrated from coswin’s By Fax/Box/Mail field which is incorrect.
+As per mapping sheet, it is mapped to RFQVENDOR. STE_CSWNNOTES field.</t>
+  </si>
+  <si>
+    <t>Coswin RFQ’s PR number needs to be mapped to RFQ.STE_PRNUM.</t>
+  </si>
+  <si>
+    <t>SAP GL CODE from cownin quotation details is migrated to RFQVENDOR.Need to re-map as part of GL Debit account.</t>
+  </si>
+  <si>
+    <t>Quotationline is not populated for RFQ CJ01951512003.</t>
+  </si>
+  <si>
+    <t>Move RFQ terms and conditions to RFQ.STE_Remarks column in RFQ main tab.</t>
+  </si>
+  <si>
+    <t>RFQ count in maximo is 162306 and coswin is 162129. Total count of quotations mismatch.</t>
+  </si>
+  <si>
+    <t>Maximo computes the value of the quotation at item level but not at vendor level.
+Rule Related - Document to be updated.</t>
+  </si>
+  <si>
+    <t>Remove the rounding up of cost values.</t>
+  </si>
+  <si>
+    <t>Need to check with Gareth if it was removed as part of cost  exercise.</t>
+  </si>
+  <si>
+    <t>Coswin Blanket PO Buyer to be mapped with PURCHVIEW.PURCHASEAGENT</t>
+  </si>
+  <si>
+    <t>Correct value from Coswin's "Amend By" to be populated instead of MAXADMIN.</t>
+  </si>
+  <si>
+    <t>Payment term mapping to be done.</t>
+  </si>
+  <si>
+    <t>A new field to be created.</t>
+  </si>
+  <si>
+    <t>Mapping change for blanket contracts:
+48 (COSWIN screen = 0) - APPR
+54 (COSWIN screen = 6) - WAPPR</t>
+  </si>
+  <si>
+    <t>Mapping Change for PO:
+48  - just created - APPR
+54  - not authorized - WAPPR</t>
+  </si>
+  <si>
+    <t>Population of default values based on system defaults for Contract Type as "BLANKET", "PRICE".</t>
+  </si>
+  <si>
+    <t>Value migrated in separate columns as cost center needs to be re-mapped to GL account field as a concatenation of Department-cost center - SAP GL Code(optional, only if available).
+The department should be defaulted as NEL for the cost centers that are not part of the list provided by SBST. Rest should be mapped as per the department-cost center mapping provided by SBST.</t>
+  </si>
+  <si>
+    <t>Re-mapping of coswin PR remarks from PR Terms and Conditions to PR work log.</t>
+  </si>
+  <si>
+    <t>RFQ Description to be removed.</t>
+  </si>
+  <si>
+    <t>Create a new custom field to migrate PRNUM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to verify in case of any script issues. </t>
+  </si>
+  <si>
+    <t>Create a new custom field RFQ.STE_REMARKS and move Coswin RFQ remarks.</t>
+  </si>
+  <si>
+    <t>Just a remark. No action required.</t>
+  </si>
+  <si>
+    <t>To analyse the reason for count mismatch. This can be verified with the latest copy of coswin db.</t>
+  </si>
+  <si>
+    <t>PR number in coswin is not migrated to PO : Sample PO AA10007683.</t>
+  </si>
+  <si>
+    <t>PR number in coswin to be mapped to POLINE.PONUM and POLINE.POLINENUM</t>
+  </si>
+  <si>
+    <t>PO AA10007683 has 1 line item in coswin but not in maximo.</t>
+  </si>
+  <si>
+    <t>To analyse the reason and if there is any issue with the scripts.</t>
+  </si>
+  <si>
+    <t>Delivery due date under the section "Purchase/Purchase Order/Purchase Order Details/Details" should be migrated to POLINE.REQDELIVERYDATE. The other Deliver due date at top level should be migrated to header level PO. Required date.</t>
+  </si>
+  <si>
+    <t>PO AA10013181 have a contract reference (WAGT21-110)in maximo but no reference in coswin.</t>
+  </si>
+  <si>
+    <t>For coswin number of amendments 1, it seems to be 0 in maximo. Should it be 1 instead? STE to verify.</t>
+  </si>
+  <si>
+    <t>Coswin PO remarks which are migrated to maximo's term n condition to be changed and migrated as part PO worklog.</t>
+  </si>
+  <si>
+    <t>Total cost value in PO is blank.STE to verify whether it was nullified as part of removing cost value exercise.</t>
+  </si>
+  <si>
+    <t>Re-mapping of fields.</t>
+  </si>
+  <si>
+    <t>To analyse the mismatch in data.</t>
+  </si>
+  <si>
+    <t>To analyse the current mapping and why the revision is 0 instead of 1.</t>
+  </si>
+  <si>
+    <t>Re-mapping.</t>
+  </si>
+  <si>
+    <t>The count of invoices(credit note + Invoice) is 67 records less in maximo after comparing with coswin's invoices + credit notes.</t>
+  </si>
+  <si>
+    <t>INV_DT and INV_RCT_DT is not mapped correctly. INV_DT should be mapped to INVOICE.CHANGEDATE and INV_RCT_DT should be mapped to INVOICE.INVOICEDATE.</t>
+  </si>
+  <si>
+    <t>Need to analyze.</t>
+  </si>
+  <si>
+    <t>Coswin Invoice SAP GL Code should be displayed on Maximo Invoice Main Tab. Currently it is mapped to INVOICECOST. STE_CSWNSAPGL.</t>
+  </si>
+  <si>
+    <t>For Credit note status mapping:
+48 - Created -  APPR
+49  - Validated - APPR
+50 - Partially used  - APPR
+51 - Used - PAID
+52 - Cancelled - CANCEL
+53  - Closed - PAID</t>
+  </si>
+  <si>
+    <t>STE to check from where uninvoiced total is coming in invoice application in maximo.For example : NI-C753M017</t>
+  </si>
+  <si>
+    <t>Remaining value for credit notes in coswin needs to be migrated to Invoice.STE_CSWNREMVALUE.</t>
+  </si>
+  <si>
+    <t>Re-map.</t>
+  </si>
+  <si>
+    <t>GLDebit account needs to be populated for Invoice line, PO line and PR line as per the agreed logic with SBST.</t>
+  </si>
+  <si>
+    <t>1. POREVISIONUM is missing from matrectrans records which is preventing material receipt to be displayed on screen.</t>
+  </si>
+  <si>
+    <t>2. GRN Ref num and GRN date to be displayed on screen? TBD by SBST.</t>
+  </si>
+  <si>
+    <t>3. PO Lines items in maximo is not migrated for PONUM: AA10009897. STE to verify the issue and rectify if it is happening for other POs as well.</t>
+  </si>
+  <si>
+    <t>4. Quantity is showing as -ve for transaction type of Return in material receipts.</t>
+  </si>
+  <si>
+    <t>5. The migration of DO remarks to MATRECTRANS.STE_CSWNRECEIPTREMARK is missing in maximo.The field is not created in database.</t>
+  </si>
+  <si>
+    <t>7. Service receipts needs to be created for service items.For example : PONUM: BB60015612, DO number: 00000015.</t>
+  </si>
+  <si>
+    <t>8. STE to check the treatment for non-PO receipts. For example: miscellaneous type DOs in coswin.</t>
+  </si>
+  <si>
+    <t>1. There is a discrepancy between the count of work orders by 700k in maximo.STE needs to verify for the extra work orders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Work order main tab duration field needs to be populated.STE to verify the logic for the duration field in work order. </t>
+  </si>
+  <si>
+    <t>5. STE to migrate work permit WIP_WO.WO_WORK_PERMIT from work order to maximo workorder.STEWP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. coswin wo type values are :
+U Unplanned - 80
+P Planned - 79
+O Others - 85
+it seems to be wrongly migrated: for example wo number :1202559. it is unplanned in coswin and hence STE_CSWNWOTYPE value should be 80 instead of 85.
+</t>
+  </si>
+  <si>
+    <t>7.Coswin Cost Type field is not migrated to any field in maximo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Labor 132794 should be migrated to labtrans (laborcode) instead of it's LAN ID: NEISTO03  </t>
+  </si>
+  <si>
+    <t>Chainage number from and to fields in coswin are:
+WIP_WO.FREE2 and WIP_WO.FREE3.It was not migrated early due to these two technical fields.</t>
+  </si>
+  <si>
+    <t>Need to check where Job Activ remarks and Spec. Text are migrated to in maximo.</t>
+  </si>
+  <si>
+    <t>1. The count in maximo is 6 times more than coswin.STE to verify from where this is coming.</t>
+  </si>
+  <si>
+    <t>2. The time for sanction from and sanction to is not migrated to target start and target finish in SR in maximo.</t>
+  </si>
+  <si>
+    <t>3. Coswin Job Request supervisor to be migrated to SR.STE_CSWNSUP field.</t>
+  </si>
+  <si>
+    <t>4. Failure reporting in coswin SR does not exist, but migrated sr record in maximo is having failure class and problem code populated. STE to verify on how the failure class and problem code is getting populated in maximo. Sample SR: 15JR133755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAT_TRANSACTDM_0011.0001 </t>
+  </si>
+  <si>
+    <t>Min Qty, Max Qty, Reorder Point, Safety Stock showing 0 on screen. It is having values in Coswin.</t>
+  </si>
+  <si>
+    <t>Population field is present in Coswin but is not mapped to Maximo.</t>
+  </si>
+  <si>
+    <t>Currently Coswin Stockout Risk %, Cyclic Re-order and No. of days in Cycle  is not mapped to any Maximo fields. To clarify if this field should be populated to a new field within Inventory. These fields are currently not available for verification.</t>
+  </si>
+  <si>
+    <t>Coswin ORG_SUPL_CD is currently mapped to Inventory Manufacturer. The mapping is incorrect as the Suppliers are Vendors. SBST proposed that the original Supplier Code to be mapped to a new separate field instead of Manufacturer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAT_TRANSACTDM_0012.0001 </t>
+  </si>
+  <si>
+    <t>Coswin GST not mapped correctly to Maximo Inventory Vendor Tax Code. It should display GST in Inventory Vendor for all Items that are associated with GST.</t>
+  </si>
+  <si>
+    <t>The Coswin Max Lead Time is mapped to Inventory Delivery Time. SBST feedback that the Max Lead Time should also be within the same Section as the Min, Average Lead Time in the Inventory Vendor Section.</t>
+  </si>
+  <si>
+    <t>Coswin First Procured Date is mapped to the Inventory Vendor Last Order Date. However, the Last Order Date is not showing the correct information. SBST proposed to store the First Procured Date.</t>
+  </si>
+  <si>
+    <t>Remarks Column is advised by SBST to be stored in the STK_ITEM. STE to check if the Remarks field can be retrieved and stored in Maximo Item Application.</t>
+  </si>
+  <si>
+    <t>1899-12-31 is visible for Last PO Date. To amend the mapping of the date value if it is NULL or 0.</t>
+  </si>
+  <si>
+    <t>Last Price is showing 0 for all records. User feedback that it should not show 0, but instead, the Unit Price of the Item should be displayed.</t>
+  </si>
+  <si>
+    <t>STE_CSWNLASTPO is not displayed correctly. TO check mapping of the field.</t>
+  </si>
+  <si>
+    <t>1. Coswin Demand "From" date should be migrated to MR.REQUIREDDATE and "To" date should be migrated to "STE_CSWNDEMTODATE".</t>
+  </si>
+  <si>
+    <t>2. Entered date needs to be displayed on screen.</t>
+  </si>
+  <si>
+    <t>3. Demand remarks should be migrated to STE_DEMREMARKS.</t>
+  </si>
+  <si>
+    <t>5. MATUSETRANS.STORELOC is "Transit" for all the items.It should be populated with the correct item location. For example: item TRAIN /GEN/AR/01.</t>
+  </si>
+  <si>
+    <t>6. Transfer transactions are not migrated to maximo. For example: Item number: TRAIN /GEN/AR/01.</t>
+  </si>
+  <si>
+    <t>7. Issue number from coswin is not migrated in maximo. Issues number exammple: ISS12577. This needs to be migrated to matusetrans.STE_ISSUENUM.</t>
+  </si>
+  <si>
+    <t>8. Need to populate coswin adjustments to invtrans in maximo.Coswin STK_ADJ table needs to be migrated to INVTRANS.</t>
+  </si>
+  <si>
+    <t>Need to re-visit scripts.</t>
+  </si>
+  <si>
+    <t>To be decided by SBST.</t>
+  </si>
+  <si>
+    <t>Create a dummy PO (CSWN_NONPO) and tag against it all the miscellaneous receipts.</t>
+  </si>
+  <si>
+    <t>2. Gl account needs to be populated as agreed with SBST.STE_CSWNACTIONAUTH field can be used as maintenance entity.The mapping from main entity to department can be found in the sheet shared by SBST.</t>
+  </si>
+  <si>
+    <t>re-map</t>
+  </si>
+  <si>
+    <t>This should be based on Actual Finish - Actual Start.</t>
+  </si>
+  <si>
+    <t>Re-map</t>
+  </si>
+  <si>
+    <t>To create a new field STE_CSWNCOSTTYPE.</t>
+  </si>
+  <si>
+    <t>Map to new fields.</t>
+  </si>
+  <si>
+    <t>Map as required.</t>
+  </si>
+  <si>
+    <t>Need to create a new field STE_CSWNPOPULATION.</t>
+  </si>
+  <si>
+    <t>Where is this GL mapping?</t>
+  </si>
+  <si>
+    <t>Need to see the data</t>
+  </si>
+  <si>
+    <t>What is the new mapping?</t>
+  </si>
+  <si>
+    <t>Which table? SR?</t>
+  </si>
+  <si>
+    <t>What is the mapping?</t>
+  </si>
+  <si>
+    <t>What is the mapping? Any example?</t>
+  </si>
+  <si>
+    <t>Need clarification</t>
+  </si>
+  <si>
+    <t>Need clarification?</t>
+  </si>
+  <si>
+    <t>Create two new custom fields.
+PO.STE_CSWNDATE and PO.STE_CSWNDEDUEDATE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a new custom field in maximo. </t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Need to check the script</t>
+  </si>
+  <si>
+    <t>Problem Analysis (Notes)</t>
+  </si>
+  <si>
+    <t>Need to check with Gareth if it was removed as part of cost exercise.</t>
+  </si>
+  <si>
+    <t>Currently not mapped yet.
+To confirm mapping:
+PORDER_.PO_PAY_DET
+&gt;&gt; CONTRACT.PAYMENTTERM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR number in coswin to be mapped to PO.STE_PRNUM </t>
+  </si>
+  <si>
+    <t>Remove mapping:
+PORDER_.SUPPLIER_.SUPPL_AGREE.SAGREE_CODE &gt;&gt; PO.CONTRACTREFNUM
+Keep mapping:
+PORDER_.PO_BLKT_REF  &gt;&gt; PO.CONTRACTREFNUM
+(PO_BLKT_REF -&gt; PO.PO_TYPE=49)</t>
+  </si>
+  <si>
+    <t>Change the mapping for INVOICEDATE:
+INVOICE_.INV_RCT_DT &gt;&gt; INVOICE.INVOICEDATE
+Mapping for CHANGEDATE is already correct:
+INVOICE_.INV_DT &gt;&gt; INVOICE.CHANGEDATE</t>
+  </si>
+  <si>
+    <t>Change transformation for INVOICE.STATUS.
+To confirm:
+This is also for NEG_INV?</t>
+  </si>
+  <si>
+    <t>Add new mapping:
+RCT_ITEMS.PORDERS_.PO_AMD_NO &gt;&gt; MATRECTRANS.POREVISIONNUM</t>
+  </si>
+  <si>
+    <t>Need to check the migrated data. Similar to row 25.
+Executing the query manually produce 144 po line items</t>
+  </si>
+  <si>
+    <t>Remove transformation for MATRECTRANS.QUANTITY</t>
+  </si>
+  <si>
+    <t>Add default value to MATRECTRANS.PONUM mapping:
+coalesce(RCT_PO_REF, 'CSWN_NONPO')
+Create a new master pkg to create the dummy PO</t>
+  </si>
+  <si>
+    <t>A new field to be created. CONTRACT.STE_REMARKS</t>
+  </si>
+  <si>
+    <t>Map ITEM_INFO via ITEM_ instead of directly from STOREITEM.
+Please verify the following fields:
+MAXLEVEL
+MINLEVEL
+SSTOCK
+DELIVERYTIME
+ISSUE1YRAGO
+ISSUE2YRAGO
+CURBALTOTAL
+AVBLBALANCE
+RESERVEDQTY
+ORDERQTY</t>
+  </si>
+  <si>
+    <t>Map to new fields: STE_CSWNSUPPLIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAT_TRANSACTDM_0014.0001 </t>
+  </si>
+  <si>
+    <t>New custom column: STE_CSWNDEMTODATE</t>
+  </si>
+  <si>
+    <t>New mapping.
+New custom column</t>
+  </si>
+  <si>
+    <t>New custom column: MATUSETRANS.STE_ISSUENUM</t>
+  </si>
+  <si>
+    <t>New custom column: MR.STE_DEMREMARKS</t>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>PO_PR_PRCost</t>
+  </si>
+  <si>
+    <t>DF-PR</t>
+  </si>
+  <si>
+    <t>0304</t>
+  </si>
+  <si>
+    <t>PO_RFQ</t>
+  </si>
+  <si>
+    <t>Need to extend Item related description to 104 char</t>
+  </si>
+  <si>
+    <t>WHEN DEM_STATUS=48 THEN 'APPR'
+WHEN DEM_STATUS=49 THEN 'APPR'
+WHEN DEM_STATUS=50 THEN 'CLOSE'
+WHEN DEM_STATUS=51 THEN 'CAN'
+WHEN DEM_STATUS=52 THEN 'WAPPR'
+WHEN DEM_STATUS=57 THEN 'APPR'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Requisions status mapping:
+4.
+   48 - 0 - No Issued - APPR
+   49 - 1 - Part Issued  - APPR
+   50 - 2 - Issue Completed - CLOSE
+   51 - 3 - Cancelled -  CAN
+   52 - 4 - Not Validated - WAPPR
+   57 - 9- Directly Issued - CLOSE </t>
+  </si>
+  <si>
     <t xml:space="preserve">Default the properties as standard values based on when contract type is selected as “BLANKET”,”PRICE” using scripts.
 For example:
 If Type is BLANKET:
@@ -444,412 +984,578 @@
 5. Acceptance Loss? – Y
 6. Vendor termination Allowed – Y
 7. Customer Termination Allowed? – Y.
+For Type = 'PRICE':
+1. Requires PO? - Y
+2. Create Release? – N
+3. Can Exceed amount – N
+4. Add Lines on use? – N
+5. Acceptance Loss? – Y
+6. Vendor termination Allowed – Y
+7. Customer Termination Allowed? – Y.
 </t>
   </si>
   <si>
-    <t>Peng Keong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAT_TRANSACTDM_0003.0001 </t>
-  </si>
-  <si>
-    <t>For Cost centers part of the GL account (cost center) list should use the Department mapping as provided by SBST for GL account string in PRLINE.</t>
-  </si>
-  <si>
-    <t>For Cost centers that are not part of the list provided by SBST, Department should be defaulted to NEL.</t>
-  </si>
-  <si>
-    <t>Coswin PR remarks should be populated as PR work log in maximo.</t>
-  </si>
-  <si>
-    <t>Coswin RFQ has no description. The RFQ description migrated in Maximo seems to be migrated from coswin’s By Fax/Box/Mail field which is incorrect.
-As per mapping sheet, it is mapped to RFQVENDOR. STE_CSWNNOTES field.</t>
-  </si>
-  <si>
-    <t>Coswin RFQ’s PR number needs to be mapped to RFQ.STE_PRNUM.</t>
-  </si>
-  <si>
-    <t>SAP GL CODE from cownin quotation details is migrated to RFQVENDOR.Need to re-map as part of GL Debit account.</t>
-  </si>
-  <si>
-    <t>Quotationline is not populated for RFQ CJ01951512003.</t>
-  </si>
-  <si>
-    <t>Move RFQ terms and conditions to RFQ.STE_Remarks column in RFQ main tab.</t>
-  </si>
-  <si>
-    <t>RFQ count in maximo is 162306 and coswin is 162129. Total count of quotations mismatch.</t>
-  </si>
-  <si>
-    <t>Maximo computes the value of the quotation at item level but not at vendor level.
-Rule Related - Document to be updated.</t>
-  </si>
-  <si>
-    <t>Remove the rounding up of cost values.</t>
-  </si>
-  <si>
-    <t>Create two new custom fields.</t>
-  </si>
-  <si>
-    <t>Create a new custom field in maximo.</t>
-  </si>
-  <si>
-    <t>Need to check with Gareth if it was removed as part of cost  exercise.</t>
-  </si>
-  <si>
-    <t>Coswin Blanket PO Buyer to be mapped with PURCHVIEW.PURCHASEAGENT</t>
-  </si>
-  <si>
-    <t>Correct value from Coswin's "Amend By" to be populated instead of MAXADMIN.</t>
-  </si>
-  <si>
-    <t>Payment term mapping to be done.</t>
-  </si>
-  <si>
-    <t>A new field to be created.</t>
-  </si>
-  <si>
-    <t>Mapping change for blanket contracts:
-48 (COSWIN screen = 0) - APPR
-54 (COSWIN screen = 6) - WAPPR</t>
-  </si>
-  <si>
-    <t>Mapping Change for PO:
-48  - just created - APPR
-54  - not authorized - WAPPR</t>
-  </si>
-  <si>
-    <t>Population of default values based on system defaults for Contract Type as "BLANKET", "PRICE".</t>
-  </si>
-  <si>
-    <t>Value migrated in separate columns as cost center needs to be re-mapped to GL account field as a concatenation of Department-cost center - SAP GL Code(optional, only if available).
-The department should be defaulted as NEL for the cost centers that are not part of the list provided by SBST. Rest should be mapped as per the department-cost center mapping provided by SBST.</t>
-  </si>
-  <si>
-    <t>Re-mapping of coswin PR remarks from PR Terms and Conditions to PR work log.</t>
-  </si>
-  <si>
-    <t>RFQ Description to be removed.</t>
-  </si>
-  <si>
-    <t>Create a new custom field to migrate PRNUM.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need to verify in case of any script issues. </t>
-  </si>
-  <si>
-    <t>Create a new custom field RFQ.STE_REMARKS and move Coswin RFQ remarks.</t>
-  </si>
-  <si>
-    <t>Just a remark. No action required.</t>
-  </si>
-  <si>
-    <t>To analyse the reason for count mismatch. This can be verified with the latest copy of coswin db.</t>
-  </si>
-  <si>
-    <t>PR number in coswin is not migrated to PO : Sample PO AA10007683.</t>
-  </si>
-  <si>
-    <t>PR number in coswin to be mapped to POLINE.PONUM and POLINE.POLINENUM</t>
-  </si>
-  <si>
-    <t>PO AA10007683 has 1 line item in coswin but not in maximo.</t>
-  </si>
-  <si>
-    <t>To analyse the reason and if there is any issue with the scripts.</t>
-  </si>
-  <si>
-    <t>Delivery due date under the section "Purchase/Purchase Order/Purchase Order Details/Details" should be migrated to POLINE.REQDELIVERYDATE. The other Deliver due date at top level should be migrated to header level PO. Required date.</t>
-  </si>
-  <si>
-    <t>PO AA10013181 have a contract reference (WAGT21-110)in maximo but no reference in coswin.</t>
-  </si>
-  <si>
-    <t>For coswin number of amendments 1, it seems to be 0 in maximo. Should it be 1 instead? STE to verify.</t>
-  </si>
-  <si>
-    <t>Coswin PO remarks which are migrated to maximo's term n condition to be changed and migrated as part PO worklog.</t>
-  </si>
-  <si>
-    <t>Total cost value in PO is blank.STE to verify whether it was nullified as part of removing cost value exercise.</t>
-  </si>
-  <si>
-    <t>Re-mapping of fields.</t>
-  </si>
-  <si>
-    <t>To analyse the mismatch in data.</t>
-  </si>
-  <si>
-    <t>To analyse the current mapping and why the revision is 0 instead of 1.</t>
-  </si>
-  <si>
-    <t>Re-mapping.</t>
-  </si>
-  <si>
-    <t>The count of invoices(credit note + Invoice) is 67 records less in maximo after comparing with coswin's invoices + credit notes.</t>
-  </si>
-  <si>
-    <t>INV_DT and INV_RCT_DT is not mapped correctly. INV_DT should be mapped to INVOICE.CHANGEDATE and INV_RCT_DT should be mapped to INVOICE.INVOICEDATE.</t>
-  </si>
-  <si>
-    <t>Need to analyze.</t>
-  </si>
-  <si>
-    <t>Coswin Invoice SAP GL Code should be displayed on Maximo Invoice Main Tab. Currently it is mapped to INVOICECOST. STE_CSWNSAPGL.</t>
-  </si>
-  <si>
-    <t>For Credit note status mapping:
-48 - Created -  APPR
-49  - Validated - APPR
-50 - Partially used  - APPR
-51 - Used - PAID
-52 - Cancelled - CANCEL
-53  - Closed - PAID</t>
-  </si>
-  <si>
-    <t>STE to check from where uninvoiced total is coming in invoice application in maximo.For example : NI-C753M017</t>
-  </si>
-  <si>
-    <t>Remaining value for credit notes in coswin needs to be migrated to Invoice.STE_CSWNREMVALUE.</t>
-  </si>
-  <si>
-    <t>Re-map.</t>
-  </si>
-  <si>
-    <t>GLDebit account needs to be populated for Invoice line, PO line and PR line as per the agreed logic with SBST.</t>
-  </si>
-  <si>
-    <t>1. POREVISIONUM is missing from matrectrans records which is preventing material receipt to be displayed on screen.</t>
-  </si>
-  <si>
-    <t>2. GRN Ref num and GRN date to be displayed on screen? TBD by SBST.</t>
-  </si>
-  <si>
-    <t>3. PO Lines items in maximo is not migrated for PONUM: AA10009897. STE to verify the issue and rectify if it is happening for other POs as well.</t>
-  </si>
-  <si>
-    <t>4. Quantity is showing as -ve for transaction type of Return in material receipts.</t>
-  </si>
-  <si>
-    <t>5. The migration of DO remarks to MATRECTRANS.STE_CSWNRECEIPTREMARK is missing in maximo.The field is not created in database.</t>
-  </si>
-  <si>
-    <t>7. Service receipts needs to be created for service items.For example : PONUM: BB60015612, DO number: 00000015.</t>
-  </si>
-  <si>
-    <t>8. STE to check the treatment for non-PO receipts. For example: miscellaneous type DOs in coswin.</t>
-  </si>
-  <si>
-    <t>1. There is a discrepancy between the count of work orders by 700k in maximo.STE needs to verify for the extra work orders.</t>
-  </si>
-  <si>
-    <t>3. Work order "supervisor" of coswin should be migrated to crew in maximo. Supervisor in coswin work order needs to be created as a crew record in maximo.The crew should further be associated with the relevant workorder.amcrew field.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Work order main tab duration field needs to be populated.STE to verify the logic for the duration field in work order. </t>
-  </si>
-  <si>
-    <t>5. STE to migrate work permit WIP_WO.WO_WORK_PERMIT from work order to maximo workorder.STEWP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. coswin wo type values are :
-U Unplanned - 80
-P Planned - 79
-O Others - 85
-it seems to be wrongly migrated: for example wo number :1202559. it is unplanned in coswin and hence STE_CSWNWOTYPE value should be 80 instead of 85.
+    <t xml:space="preserve">Re-mapping.
 </t>
   </si>
   <si>
-    <t>7.Coswin Cost Type field is not migrated to any field in maximo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. Labor 132794 should be migrated to labtrans (laborcode) instead of it's LAN ID: NEISTO03  </t>
-  </si>
-  <si>
-    <t>Chainage number from and to fields in coswin are:
-WIP_WO.FREE2 and WIP_WO.FREE3.It was not migrated early due to these two technical fields.</t>
-  </si>
-  <si>
-    <t>Need to check where Job Activ remarks and Spec. Text are migrated to in maximo.</t>
-  </si>
-  <si>
-    <t>1. The count in maximo is 6 times more than coswin.STE to verify from where this is coming.</t>
-  </si>
-  <si>
-    <t>2. The time for sanction from and sanction to is not migrated to target start and target finish in SR in maximo.</t>
-  </si>
-  <si>
-    <t>3. Coswin Job Request supervisor to be migrated to SR.STE_CSWNSUP field.</t>
-  </si>
-  <si>
-    <t>4. Failure reporting in coswin SR does not exist, but migrated sr record in maximo is having failure class and problem code populated. STE to verify on how the failure class and problem code is getting populated in maximo. Sample SR: 15JR133755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAT_TRANSACTDM_0011.0001 </t>
-  </si>
-  <si>
-    <t>Min Qty, Max Qty, Reorder Point, Safety Stock showing 0 on screen. It is having values in Coswin.</t>
-  </si>
-  <si>
-    <t>Population field is present in Coswin but is not mapped to Maximo.</t>
-  </si>
-  <si>
-    <t>Currently Coswin Stockout Risk %, Cyclic Re-order and No. of days in Cycle  is not mapped to any Maximo fields. To clarify if this field should be populated to a new field within Inventory. These fields are currently not available for verification.</t>
-  </si>
-  <si>
-    <t>Coswin ORG_SUPL_CD is currently mapped to Inventory Manufacturer. The mapping is incorrect as the Suppliers are Vendors. SBST proposed that the original Supplier Code to be mapped to a new separate field instead of Manufacturer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAT_TRANSACTDM_0012.0001 </t>
-  </si>
-  <si>
-    <t>Coswin GST not mapped correctly to Maximo Inventory Vendor Tax Code. It should display GST in Inventory Vendor for all Items that are associated with GST.</t>
-  </si>
-  <si>
-    <t>The Coswin Max Lead Time is mapped to Inventory Delivery Time. SBST feedback that the Max Lead Time should also be within the same Section as the Min, Average Lead Time in the Inventory Vendor Section.</t>
-  </si>
-  <si>
-    <t>Coswin First Procured Date is mapped to the Inventory Vendor Last Order Date. However, the Last Order Date is not showing the correct information. SBST proposed to store the First Procured Date.</t>
-  </si>
-  <si>
-    <t>Remarks Column is advised by SBST to be stored in the STK_ITEM. STE to check if the Remarks field can be retrieved and stored in Maximo Item Application.</t>
-  </si>
-  <si>
-    <t>1899-12-31 is visible for Last PO Date. To amend the mapping of the date value if it is NULL or 0.</t>
-  </si>
-  <si>
-    <t>Last Price is showing 0 for all records. User feedback that it should not show 0, but instead, the Unit Price of the Item should be displayed.</t>
-  </si>
-  <si>
-    <t>STE_CSWNLASTPO is not displayed correctly. TO check mapping of the field.</t>
-  </si>
-  <si>
-    <t>1. Coswin Demand "From" date should be migrated to MR.REQUIREDDATE and "To" date should be migrated to "STE_CSWNDEMTODATE".</t>
-  </si>
-  <si>
-    <t>2. Entered date needs to be displayed on screen.</t>
-  </si>
-  <si>
-    <t>3. Demand remarks should be migrated to STE_DEMREMARKS.</t>
-  </si>
-  <si>
-    <t>5. MATUSETRANS.STORELOC is "Transit" for all the items.It should be populated with the correct item location. For example: item TRAIN /GEN/AR/01.</t>
-  </si>
-  <si>
-    <t>6. Transfer transactions are not migrated to maximo. For example: Item number: TRAIN /GEN/AR/01.</t>
-  </si>
-  <si>
-    <t>7. Issue number from coswin is not migrated in maximo. Issues number exammple: ISS12577. This needs to be migrated to matusetrans.STE_ISSUENUM.</t>
-  </si>
-  <si>
-    <t>8. Need to populate coswin adjustments to invtrans in maximo.Coswin STK_ADJ table needs to be migrated to INVTRANS.</t>
-  </si>
-  <si>
-    <t>Material Requisions status mapping:
-4. 9- Directly Issued - Close 
-   0 - No Issued - APPR
-   1 - Part Issued  - APPR
-   2 - Issue Completed - COMP/CLOSE??
-   3 - Cancelled -  CAN
-   4 - Not Validated - WAPPR</t>
-  </si>
-  <si>
-    <t>Need to re-visit scripts.</t>
-  </si>
-  <si>
-    <t>To be decided by SBST.</t>
-  </si>
-  <si>
-    <t>Create a dummy PO (CSWN_NONPO) and tag against it all the miscellaneous receipts.</t>
-  </si>
-  <si>
-    <t>2. Gl account needs to be populated as agreed with SBST.STE_CSWNACTIONAUTH field can be used as maintenance entity.The mapping from main entity to department can be found in the sheet shared by SBST.</t>
-  </si>
-  <si>
-    <t>re-map</t>
-  </si>
-  <si>
-    <t>This should be based on Actual Finish - Actual Start.</t>
-  </si>
-  <si>
-    <t>Re-map</t>
-  </si>
-  <si>
-    <t>To create a new field STE_CSWNCOSTTYPE.</t>
-  </si>
-  <si>
-    <t>Map to new fields.</t>
-  </si>
-  <si>
-    <t>Map as required.</t>
-  </si>
-  <si>
-    <t>Need to create a new field STE_CSWNPOPULATION.</t>
-  </si>
-  <si>
-    <t>Where is this GL mapping?</t>
-  </si>
-  <si>
-    <t>Need to see the data</t>
-  </si>
-  <si>
-    <t>What is the logic?</t>
-  </si>
-  <si>
-    <t>Any example?</t>
-  </si>
-  <si>
-    <t>What is the new mapping?</t>
-  </si>
-  <si>
-    <t>Which table? SR?</t>
-  </si>
-  <si>
-    <t>What is the mapping?</t>
-  </si>
-  <si>
-    <t>What is the mapping? Any example?</t>
-  </si>
-  <si>
-    <t>Need to check the data</t>
-  </si>
-  <si>
-    <t>What is the logic and mapping?</t>
-  </si>
-  <si>
-    <t>Need clarification</t>
-  </si>
-  <si>
-    <t>Need clarification?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How? </t>
+    <t>Re-mapping.
+INVOICECOST.STE_CSWNSAPGL
+INVOICE.STE_CSWNSAPGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated columns. Nothing to do </t>
+  </si>
+  <si>
+    <t>How to create service receipts? SERVRECTRANS
+Notes: The transformation to get service items is quite messy! Should probably just do a lookup to migrated item table</t>
+  </si>
+  <si>
+    <t>Need to create new pkg!
+TransType='PCOUNTADJ'</t>
+  </si>
+  <si>
+    <t>Item with STE_MIGRATIONID=84190 has description truncated</t>
+  </si>
+  <si>
+    <r>
+      <t>di</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PK_DV_ITEMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>553226</t>
+    </r>
+  </si>
+  <si>
+    <t>Need to extend PRLine.Description to 104 char</t>
+  </si>
+  <si>
+    <t>Need to extend RFQLine.Description to 104 char</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>Need to extend InvVendor.Description to 104 char</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>MR_MRLine</t>
+  </si>
+  <si>
+    <t>InvVendor</t>
+  </si>
+  <si>
+    <t>Need  to extend MR.WONUM to 25 char (consistent with WORKORDER.WONUM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently no tax-code mapping
+ITEMS_.I_VAT_CD &gt;&gt; INVVENDOR.STE_TAX1CODE
+Need to confirm </t>
+  </si>
+  <si>
+    <t>Currently no tax-code mapping
+ITEMS_.I_VAT_CD &gt;&gt; INVVENDOR.STE_TAX1CODE
+Need to confirm 46:53</t>
+  </si>
+  <si>
+    <t>New mapping???
+What is the source table/column in COSWIN??
+ISS_ITEMS &gt;&gt; DEM_LOC_INT &gt;&gt; LOCATION_??
+Need to confirm</t>
+  </si>
+  <si>
+    <t>TR_ITEMS &gt;&gt; cswn_tr_items
+H_TRANSFER &gt;&gt; cswn_h_transfer
+H_TR_ITEMS &gt;&gt; NO DATA
+&gt;&gt; MATRECTRANS (IssueType= 'TRANSFER')
+Need to confirm</t>
+  </si>
+  <si>
+    <t>Update transformation</t>
+  </si>
+  <si>
+    <t>Pkg</t>
   </si>
   <si>
     <t>Create two new custom fields.
-PO.STE_CSWNDATE and PO.STE_CSWNDEDUEDATE.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a new custom field in maximo. </t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Removed hard-coded 0. Revert back to previous calculation</t>
-  </si>
-  <si>
-    <t>Need to check the script</t>
-  </si>
-  <si>
-    <t>Problem Analysis (Notes)</t>
+CONTRACT.STE_CSWNDATE and CONTRACT.STE_CSWNDELDUEDATE.</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>PO_Contract (Blanket)</t>
+  </si>
+  <si>
+    <t>Custom column: ste_actualstartdate (date) mapped from PO_VALID_FM</t>
+  </si>
+  <si>
+    <t>Not mapped yet but derived column exist. Check with gareth!</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>To confirm mapping
+PORDER_.PO_RMK.PO_TXT
+&gt;&gt; CONTRACT.STE_REMARKS
+Create new pkg: 0603B_CONTRACT_BLANKET.
+Pkg 0607-LD PO add filter: WHERE po.PO_TYPE != 49</t>
+  </si>
+  <si>
+    <t>New mapping:
+PORDER_.PO_AMD_WHO &gt;&gt; CONTRACT.CHANGEBY
+Default value is still set to MAXADMIN
+New custom column</t>
+  </si>
+  <si>
+    <t>New mapping:
+PORDER_.PO_REQ_BY
+&gt;&gt; CONTRACT.PURCHASEAGENT</t>
+  </si>
+  <si>
+    <t>In CONTRACT (PRICE), there is no Purchase Order reference. No mapping.
+In CONTRACT (BLANKET), it is mapped.
+New mapping:
+coswin PO Date =&gt; PORDER_.PO_DT
+coswin PO Del Due Date =&gt; PO_ITEMS.PO_ITEM_DEL_DT
+Need to create custom column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following need to be updated In Contract Level:
+6. Vendor termination Allowed – Y
+7. Customer Termination Allowed? – Y.
+The rest is in 0309-ContractPurch.
+No change for ContractPurch for Contract (PRICE)
+</t>
+  </si>
+  <si>
+    <t>0301 - Contract (PRICE)
+0302 - Contract (BLANKET)
+0309 - ContractPurch</t>
+  </si>
+  <si>
+    <t>Backend data is not rounded up.
+Mapping has no transformation:
+SUPL_AGREE_ITEM.SUPL_ITEMS.S_LAT_UNIT_RATE &gt;&gt; CONTRACTLINE.UNITCOST</t>
+  </si>
+  <si>
+    <t>No Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove mapping: RFQ.Description
+</t>
+  </si>
+  <si>
+    <t>New mapping: 
+DEVIS.DV_PREQ_REF &gt;&gt; RFQ.STE_PRNUM
+Need to create custom column</t>
+  </si>
+  <si>
+    <t>Backend data for RFQ CJ01951512003 has 4 quotation line</t>
+  </si>
+  <si>
+    <t>No action</t>
+  </si>
+  <si>
+    <t>DV_RMK.DEV_TEXT &gt;&gt; RFQ.STE_REMARK
+Update in pkg 0608 LD_RFQ_RFQLine</t>
+  </si>
+  <si>
+    <t>Backend data has consistent count</t>
+  </si>
+  <si>
+    <t>New mapping:
+PORDER_.PO_PREQ_REF &gt;&gt; PO.STE_PRNUM
+Need to create custom column</t>
+  </si>
+  <si>
+    <t>0306</t>
+  </si>
+  <si>
+    <t>PO_PO</t>
+  </si>
+  <si>
+    <t>Current mapping:
+PORDER_.PO_AMD_NO &gt;&gt; PO.REVISIONNUM
+For PO OS0124/032 (PO_AMD_NO=1), backend migrated data is correct (REVISIONNUM=1)</t>
+  </si>
+  <si>
+    <t>PORDER_.PO_RMK &gt;&gt; WORKLOG
+Update pkg 0607_LD_PO</t>
+  </si>
+  <si>
+    <t>Applicable to CONTRACT (BLANKET)
+PORDER_.PO_DELVD_VALUE -&gt; CONTRACT.STE_COMMITTEDCOST
+PORDER_.PO_PENDG_VALUE -&gt; CONTRACT.STE_AMOUNTREMAINING</t>
+  </si>
+  <si>
+    <t>Applicable to CONTRACT (BLANKET)
+PORDER_.PO_VALUE &gt;&gt; CONTRACTPURCH.MAXVOL</t>
+  </si>
+  <si>
+    <t>Current mapping:
+PORDER_.PO_VALUE &gt;&gt; PO.TOTALCOST
+Backend data show correct result.</t>
+  </si>
+  <si>
+    <t>Done - Not Verified</t>
+  </si>
+  <si>
+    <t>Currently INVVENDOR.LASTDATE is mapped to SUPL_ITEMS.S_L_DT_PO.
+New mapping:
+ITEM_.DT_FIRST_PROC &gt;&gt; INVENTORY.STE_FIRSTPROCDATE</t>
+  </si>
+  <si>
+    <t>Update mapping:
+SUPL_ITEMS.S_LAT_UNIT_RATE &gt;&gt; INVVENDOR.LASTCOST
+If SUPL_ITEMS.S_LAT_UNIT_RATE=0 then:
+SUPL_ITEMS.ITEM_.BUY_PRICE &gt;&gt; INVVENDOR.LASTCOST</t>
+  </si>
+  <si>
+    <t>Set to NULL if value = 1899-12-31.
+Set default value to NULL</t>
+  </si>
+  <si>
+    <t>New mapping
+New custom column
+Need to create new LD package</t>
+  </si>
+  <si>
+    <t>Currently MR.ENTERDATE is mapped to DEM_ISS.DEM_DT</t>
+  </si>
+  <si>
+    <t>Backend data for PO AA10007683 has 1 PO line item!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Currently the mapping is:
+PO_ITEMS.PO_ITEM_DEL_DT &gt;&gt; POLINE.REQDELIVERYDATE
+To confirm the new mapping:
+PORDER_.PO_REQ_DT &gt;&gt; POLINE.REQDELIVERYDATE ?
+In top PO Level:
+PORDER_.PO_REQ_DT &gt;&gt; PO.REQUIREDDATE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No PORDER_.PO_REQ_DT column</t>
+    </r>
+  </si>
+  <si>
+    <t>Need to check migrated data.
+Pkg still has error!</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>No Started</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Create a new custom field in maximo. CONTRACT.STE_CSWNSAPGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New mapping:
+PORDER_.PO_STRING1 &gt;&gt; CONTRACT.STE_CSWNSAPGL </t>
+  </si>
+  <si>
+    <t>With long description</t>
+  </si>
+  <si>
+    <t>Create new custom columns:
+STE_CSWNSAPGL
+STE_CSWNCC</t>
+  </si>
+  <si>
+    <t>New mapping:
+INVOICE_.INV_STRING1 &gt;&gt; INVOICE.STE_CSWNSAPGL
+New custom column: INVOICE.STE_CSWNSAPGL</t>
+  </si>
+  <si>
+    <t>Map to new fields: STE_REMARKS</t>
+  </si>
+  <si>
+    <t>New mapping:
+SUPL_RMK.SUPL_TXT &gt;&gt; INVVENDOR.STE_REMARKS
+Need to create new custom column (LD)
+Need to create new LD package</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>22,10</t>
+  </si>
+  <si>
+    <t>0206</t>
+  </si>
+  <si>
+    <t>INVTRANS</t>
+  </si>
+  <si>
+    <t>SERVRECTRANS</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>New custom column: INVTRANS.STE_CSWNCC</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNCC</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNSAPGL</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNDNDATE</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNFWDR</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNGRNDATE</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNGRNNUM</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNGRNREF</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNINSPSTATUS</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNINSPDATE</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNINSPREF</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNINSPSTAT</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNRCTSTATUS</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNRECEIPTCHANGEDATE</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNRECEIPTFORWARDER</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNRECEIPTTYPE</t>
+  </si>
+  <si>
+    <t>New custom column: INVTRANS.STE_SCCODE</t>
+  </si>
+  <si>
+    <t>New custom column: INVTRANS.STE_ADJVAL</t>
+  </si>
+  <si>
+    <t>New custom column: INVTRANS.STE_ADJUNITCOST</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>New custom column: PR.STE_CSWNSAPGL</t>
+  </si>
+  <si>
+    <t>New custom column: RFQ.STE_CSWNSAPGL</t>
+  </si>
+  <si>
+    <t>New custom column: RFQLINE.STE_CSWNSAPGL</t>
+  </si>
+  <si>
+    <t>New custom column: RFQLINE.STE_CSWNCC</t>
+  </si>
+  <si>
+    <t>New custom column: RFQ.STE_PRNUM</t>
+  </si>
+  <si>
+    <t>New custom column: RFQ.STE_REMARKS</t>
+  </si>
+  <si>
+    <t>New custom column: INVVENDOR.STE_REMARKS</t>
+  </si>
+  <si>
+    <t>New custom column: MR.STE_REMARKS</t>
+  </si>
+  <si>
+    <t>New custom column: CONTRACT.STE_CSWNDATE</t>
+  </si>
+  <si>
+    <t>New custom column: CONTRACT.STE_CSWNDELDUEDATE</t>
+  </si>
+  <si>
+    <t>New custom column: CONTRACT.STE_REMARKS</t>
+  </si>
+  <si>
+    <t>New custom column: CONTRACT.STE_GLACCOUNT</t>
+  </si>
+  <si>
+    <t>New custom column: STE_PRNUM</t>
+  </si>
+  <si>
+    <t>0308A</t>
+  </si>
+  <si>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>New custom column: INVOICE.STE_CSWNSAPGL</t>
+  </si>
+  <si>
+    <t>Dept-CC-SAPGL in INVOICECOST</t>
+  </si>
+  <si>
+    <t>ITEM.STKOUT_RISKP -&gt; STE_CSWNSTKRISK
+ITEM_INFO.I_CYCLIC_REORDER -&gt; STE_CYCLICREORDER
+ITEM_INFO.I_CYCLE -&gt; STE_NODAYSCYCL</t>
+  </si>
+  <si>
+    <t>INVENTORY</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>New custom column: INVENTORY.STE_CSWNSTKRISK</t>
+  </si>
+  <si>
+    <t>New custom column: INVENTORY.STE_CYCLICREORDER</t>
+  </si>
+  <si>
+    <t>New custom column: INVENTORY.STE_NODAYSCYCL</t>
+  </si>
+  <si>
+    <t>New custom column: INVENTORY.STE_CSWNSUPPLIER</t>
+  </si>
+  <si>
+    <t>Remove mapping on INVENTORY.MANUFACTURER
+Update mapping to custom column. 
+STORES_ITEMS.ITEM_.ORG_SUPL_CD &gt;&gt; INVENTORY.STE_CSWNSUPPLIER
+Need to create custom column</t>
+  </si>
+  <si>
+    <t>Keep mapping in INVENTORY:
+STORES_ITEMS. ITEM_. ITEM_INFO.MAX_LEAD_TIME &gt;&gt; INVENTORY.DELIVERYTIME
+Mapping INVVENDOR: 
+STORES_ITEMS. ITEM_. ITEM_INFO.MAX_LEAD_TIME &gt;&gt;INVVENDOR.PROMDELIVERYTIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>Missing mapping:
+SUPL_ITEMS.S_L_PO &gt;&gt; INVVENDOR.STE_CSWNLASTPO</t>
+  </si>
+  <si>
+    <t>New custom column: MR.STE_CSWNDEMTODATE</t>
+  </si>
+  <si>
+    <t>New custom column: MR.STE_CSWNCC</t>
+  </si>
+  <si>
+    <t>New mapping:
+ITEM_.ITEM_NUMBER1  &gt;&gt; INVENTORY.STE_CSWNPOPULATION
+Need to create custom mapping</t>
+  </si>
+  <si>
+    <t>New custom column: INVENTORY.STE_CSWNPOPULATION</t>
+  </si>
+  <si>
+    <t>New mapping:
+ISS_ITEMS.ISS_REF &gt;&gt; MATUSETRANS.STE_ISSUENUM
+New custom column</t>
+  </si>
+  <si>
+    <t>MATUSETRANS</t>
+  </si>
+  <si>
+    <t>WORKLOG. Update pkg 0604 LD PR</t>
+  </si>
+  <si>
+    <t>MATRECTRANS</t>
+  </si>
+  <si>
+    <t>New custom column: MATRECTRANS.STE_CSWNRECEIPTREMARK</t>
+  </si>
+  <si>
+    <t>CONTRACTTERM</t>
+  </si>
+  <si>
+    <t>New custom column: CONTRACTTERM.STE_MIGRATIONSOURCE</t>
+  </si>
+  <si>
+    <t>New mapping:
+RCT_ITEMS.RCT_RMK.RCT_TXT &gt;&gt; MATRECTRANS.STE_CSWNRECEIPTREMARK
+Need to create new custom column (LD)
+Need to create new LD package</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -914,8 +1620,58 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF8E00C6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006464"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -967,6 +1723,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,7 +1851,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1236,19 +1998,39 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1265,13 +2047,58 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2175,54 +3002,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A12" zoomScale="64" zoomScaleNormal="70" zoomScalePageLayoutView="64" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScale="64" zoomScaleNormal="70" zoomScalePageLayoutView="64" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="13" customWidth="1"/>
     <col min="4" max="4" width="13" style="13" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" style="13" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="13" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="49.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.88671875" style="13" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" style="13" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="49.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="60" t="s">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C3" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="19" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>41</v>
       </c>
@@ -2257,7 +3084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="19" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>63</v>
       </c>
@@ -2278,7 +3105,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" s="19" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="19" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
@@ -2299,7 +3126,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" s="19" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="19" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>67</v>
       </c>
@@ -2320,7 +3147,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" s="19" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="19" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>69</v>
       </c>
@@ -2341,7 +3168,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="19" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>71</v>
       </c>
@@ -2362,7 +3189,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" s="19" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="19" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>73</v>
       </c>
@@ -2383,7 +3210,7 @@
       <c r="J10" s="38"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" s="19" customFormat="1" ht="342.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="19" customFormat="1" ht="318" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>75</v>
       </c>
@@ -2406,7 +3233,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="19" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>77</v>
       </c>
@@ -2427,7 +3254,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" s="19" customFormat="1" ht="240.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="19" customFormat="1" ht="240.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>79</v>
       </c>
@@ -2448,7 +3275,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="19" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="19" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>81</v>
       </c>
@@ -2465,7 +3292,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" s="19" customFormat="1" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="19" customFormat="1" ht="235.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>83</v>
       </c>
@@ -2488,7 +3315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="19" customFormat="1" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="19" customFormat="1" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>85</v>
       </c>
@@ -2511,7 +3338,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="19" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="19" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>87</v>
       </c>
@@ -2532,7 +3359,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="19" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>89</v>
       </c>
@@ -2549,7 +3376,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" s="19" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="19" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>91</v>
       </c>
@@ -2568,7 +3395,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" s="19" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="19" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>93</v>
       </c>
@@ -2591,7 +3418,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="19" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="19" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>95</v>
       </c>
@@ -2608,7 +3435,7 @@
       <c r="J21" s="38"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
@@ -2621,7 +3448,7 @@
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:11" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -2634,7 +3461,7 @@
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" s="13"/>
@@ -2647,7 +3474,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -2662,7 +3489,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
@@ -2680,7 +3507,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
@@ -2698,7 +3525,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -2716,7 +3543,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -2734,7 +3561,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
@@ -2752,7 +3579,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
@@ -2770,7 +3597,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>12</v>
       </c>
@@ -2788,7 +3615,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>13</v>
       </c>
@@ -2806,7 +3633,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>14</v>
       </c>
@@ -2824,7 +3651,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="13"/>
@@ -2837,7 +3664,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" s="13"/>
@@ -2850,7 +3677,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" s="13"/>
@@ -2863,7 +3690,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" s="13"/>
@@ -2876,7 +3703,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" s="13"/>
@@ -2889,7 +3716,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>17</v>
       </c>
@@ -2906,7 +3733,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>21</v>
       </c>
@@ -2923,7 +3750,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -2940,7 +3767,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43" s="43">
         <f>B42/A42</f>
@@ -2956,7 +3783,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44" s="13"/>
@@ -2969,7 +3796,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45" s="13"/>
@@ -2982,7 +3809,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46" s="13"/>
@@ -2995,7 +3822,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47" s="13"/>
@@ -3035,38 +3862,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:V178"/>
+  <dimension ref="A1:Y178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G69" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="C16" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="9" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="30.140625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="37.5546875" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="36.33203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="30.109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="37.33203125" style="65" customWidth="1"/>
+    <col min="16" max="16" width="37.33203125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.5546875" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>45</v>
       </c>
@@ -3104,35 +3935,42 @@
         <v>52</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="N1" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="N1" s="30"/>
+      <c r="O1" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="R1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="S1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="T1" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="U1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="V1" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="W1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="31"/>
-    </row>
-    <row r="2" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y1" s="31"/>
+    </row>
+    <row r="2" spans="1:25" ht="147.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
       <c r="C2" s="38"/>
@@ -3147,25 +3985,34 @@
         <v>110</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K2" s="36"/>
-      <c r="L2" s="50" t="s">
-        <v>135</v>
+      <c r="L2" s="34" t="s">
+        <v>283</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="34"/>
+        <v>230</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="O2" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>288</v>
+      </c>
       <c r="Q2" s="34"/>
       <c r="R2" s="36"/>
       <c r="S2" s="34"/>
       <c r="T2" s="34"/>
       <c r="U2" s="36"/>
-    </row>
-    <row r="3" spans="1:22" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="36"/>
+    </row>
+    <row r="3" spans="1:25" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="34"/>
       <c r="C3" s="35"/>
@@ -3176,29 +4023,36 @@
       <c r="H3" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="48" t="s">
         <v>111</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K3" s="36"/>
-      <c r="L3" s="50" t="s">
-        <v>136</v>
+      <c r="L3" s="34" t="s">
+        <v>323</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="34"/>
+        <v>231</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="34" t="s">
+        <v>288</v>
+      </c>
       <c r="Q3" s="34"/>
       <c r="R3" s="36"/>
       <c r="S3" s="34"/>
       <c r="T3" s="34"/>
       <c r="U3" s="36"/>
-    </row>
-    <row r="4" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="36"/>
+    </row>
+    <row r="4" spans="1:25" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="35"/>
@@ -3213,25 +4067,32 @@
         <v>112</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="N4" s="34"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="34"/>
+        <v>133</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="O4" s="62"/>
+      <c r="P4" s="34" t="s">
+        <v>296</v>
+      </c>
       <c r="Q4" s="34"/>
       <c r="R4" s="36"/>
       <c r="S4" s="34"/>
       <c r="T4" s="34"/>
       <c r="U4" s="36"/>
-    </row>
-    <row r="5" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="36"/>
+    </row>
+    <row r="5" spans="1:25" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
@@ -3242,31 +4103,40 @@
       <c r="H5" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="48" t="s">
         <v>113</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K5" s="36"/>
-      <c r="L5" s="50" t="s">
-        <v>137</v>
+      <c r="L5" s="34" t="s">
+        <v>134</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="N5" s="34"/>
-      <c r="O5" s="36"/>
+        <v>232</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="O5" s="62">
+        <v>309</v>
+      </c>
       <c r="P5" s="34" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="34"/>
       <c r="R5" s="36"/>
-      <c r="S5" s="34"/>
+      <c r="S5" s="34" t="s">
+        <v>233</v>
+      </c>
       <c r="T5" s="34"/>
       <c r="U5" s="36"/>
-    </row>
-    <row r="6" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="36"/>
+    </row>
+    <row r="6" spans="1:25" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
       <c r="C6" s="35"/>
@@ -3277,31 +4147,38 @@
       <c r="H6" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="48" t="s">
         <v>114</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K6" s="36"/>
-      <c r="L6" s="50" t="s">
-        <v>137</v>
+      <c r="L6" s="34" t="s">
+        <v>235</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="36"/>
+        <v>232</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="O6" s="62"/>
       <c r="P6" s="34" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="36"/>
-      <c r="S6" s="34"/>
+      <c r="S6" s="34" t="s">
+        <v>233</v>
+      </c>
       <c r="T6" s="34"/>
       <c r="U6" s="36"/>
-    </row>
-    <row r="7" spans="1:22" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="36"/>
+    </row>
+    <row r="7" spans="1:25" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
@@ -3312,31 +4189,38 @@
       <c r="H7" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="48" t="s">
         <v>115</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="34" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="53" t="s">
-        <v>228</v>
+        <v>135</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="O7" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>288</v>
       </c>
       <c r="Q7" s="34"/>
       <c r="R7" s="36"/>
-      <c r="S7" s="34"/>
+      <c r="S7" s="44"/>
       <c r="T7" s="34"/>
       <c r="U7" s="36"/>
-    </row>
-    <row r="8" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="36"/>
+    </row>
+    <row r="8" spans="1:25" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="C8" s="35"/>
@@ -3351,25 +4235,34 @@
         <v>116</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K8" s="36"/>
       <c r="L8" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="34"/>
+        <v>136</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="O8" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>288</v>
+      </c>
       <c r="Q8" s="34"/>
       <c r="R8" s="36"/>
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="36"/>
-    </row>
-    <row r="9" spans="1:22" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="36"/>
+    </row>
+    <row r="9" spans="1:25" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
       <c r="C9" s="35"/>
@@ -3380,31 +4273,38 @@
       <c r="H9" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="48" t="s">
         <v>117</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K9" s="36"/>
       <c r="L9" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="53" t="s">
-        <v>228</v>
+        <v>137</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="O9" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>288</v>
       </c>
       <c r="Q9" s="34"/>
       <c r="R9" s="36"/>
-      <c r="S9" s="34"/>
+      <c r="S9" s="44"/>
       <c r="T9" s="34"/>
       <c r="U9" s="36"/>
-    </row>
-    <row r="10" spans="1:22" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="36"/>
+    </row>
+    <row r="10" spans="1:25" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
@@ -3415,29 +4315,34 @@
       <c r="H10" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="49" t="s">
         <v>118</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K10" s="36"/>
-      <c r="L10" s="50" t="s">
-        <v>141</v>
+      <c r="L10" s="34" t="s">
+        <v>245</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="N10" s="34"/>
-      <c r="O10" s="36"/>
+        <v>138</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="O10" s="62"/>
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="36"/>
       <c r="S10" s="34"/>
       <c r="T10" s="34"/>
       <c r="U10" s="36"/>
-    </row>
-    <row r="11" spans="1:22" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="36"/>
+    </row>
+    <row r="11" spans="1:25" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
       <c r="C11" s="35"/>
@@ -3452,25 +4357,34 @@
         <v>119</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K11" s="36"/>
       <c r="L11" s="34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M11" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="N11" s="34"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="34"/>
+        <v>139</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="O11" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>288</v>
+      </c>
       <c r="Q11" s="34"/>
       <c r="R11" s="36"/>
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
       <c r="U11" s="36"/>
-    </row>
-    <row r="12" spans="1:22" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="36"/>
+    </row>
+    <row r="12" spans="1:25" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="35"/>
@@ -3485,25 +4399,34 @@
         <v>120</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M12" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N12" s="34"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="34"/>
+        <v>140</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>288</v>
+      </c>
       <c r="Q12" s="34"/>
       <c r="R12" s="36"/>
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
       <c r="U12" s="36"/>
-    </row>
-    <row r="13" spans="1:22" ht="179.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="36"/>
+    </row>
+    <row r="13" spans="1:25" ht="289.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
       <c r="C13" s="35"/>
@@ -3514,29 +4437,38 @@
       <c r="H13" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="J13" s="33" t="s">
         <v>121</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>122</v>
       </c>
       <c r="K13" s="36"/>
       <c r="L13" s="34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M13" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="N13" s="34"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="34"/>
+        <v>141</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="O13" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>288</v>
+      </c>
       <c r="Q13" s="34"/>
       <c r="R13" s="36"/>
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="36"/>
-    </row>
-    <row r="14" spans="1:22" ht="141.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="36"/>
+    </row>
+    <row r="14" spans="1:25" ht="141.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="35"/>
@@ -3545,33 +4477,38 @@
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="50" t="s">
-        <v>124</v>
-      </c>
       <c r="J14" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K14" s="36"/>
       <c r="L14" s="34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M14" s="34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N14" s="34"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="50" t="s">
-        <v>227</v>
+      <c r="O14" s="62"/>
+      <c r="P14" s="34" t="s">
+        <v>288</v>
       </c>
       <c r="Q14" s="34"/>
       <c r="R14" s="36"/>
-      <c r="S14" s="34"/>
+      <c r="S14" s="50" t="s">
+        <v>222</v>
+      </c>
       <c r="T14" s="34"/>
       <c r="U14" s="36"/>
-    </row>
-    <row r="15" spans="1:22" ht="177" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="36"/>
+    </row>
+    <row r="15" spans="1:25" ht="177" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="34"/>
       <c r="C15" s="35"/>
@@ -3580,33 +4517,38 @@
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
       <c r="H15" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="50" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>124</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K15" s="36"/>
       <c r="L15" s="34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M15" s="34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N15" s="34"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="50" t="s">
-        <v>227</v>
+      <c r="O15" s="62"/>
+      <c r="P15" s="34" t="s">
+        <v>288</v>
       </c>
       <c r="Q15" s="34"/>
       <c r="R15" s="36"/>
-      <c r="S15" s="34"/>
+      <c r="S15" s="50" t="s">
+        <v>222</v>
+      </c>
       <c r="T15" s="34"/>
       <c r="U15" s="36"/>
-    </row>
-    <row r="16" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="36"/>
+    </row>
+    <row r="16" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="35"/>
@@ -3615,31 +4557,38 @@
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
       <c r="H16" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K16" s="36"/>
       <c r="L16" s="34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="N16" s="34"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="34"/>
+        <v>143</v>
+      </c>
+      <c r="N16" s="57" t="s">
+        <v>394</v>
+      </c>
+      <c r="O16" s="62"/>
+      <c r="P16" s="34" t="s">
+        <v>320</v>
+      </c>
       <c r="Q16" s="34"/>
       <c r="R16" s="36"/>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
       <c r="U16" s="36"/>
-    </row>
-    <row r="17" spans="1:21" ht="91.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="36"/>
+    </row>
+    <row r="17" spans="1:24" ht="138" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
       <c r="B17" s="34"/>
       <c r="C17" s="38"/>
@@ -3651,28 +4600,35 @@
         <v>69</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K17" s="36"/>
       <c r="L17" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="N17" s="34"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="34"/>
+        <v>144</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="O17" s="62"/>
+      <c r="P17" s="34" t="s">
+        <v>288</v>
+      </c>
       <c r="Q17" s="34"/>
       <c r="R17" s="36"/>
       <c r="S17" s="34"/>
       <c r="T17" s="34"/>
       <c r="U17" s="36"/>
-    </row>
-    <row r="18" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="36"/>
+    </row>
+    <row r="18" spans="1:24" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -3683,29 +4639,36 @@
       <c r="H18" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="50" t="s">
-        <v>128</v>
+      <c r="I18" s="48" t="s">
+        <v>127</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K18" s="45"/>
       <c r="L18" s="50" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M18" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="N18" s="45"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
+        <v>145</v>
+      </c>
+      <c r="N18" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="O18" s="63"/>
+      <c r="P18" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q18" s="45"/>
       <c r="R18" s="44"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
       <c r="U18" s="44"/>
-    </row>
-    <row r="19" spans="1:21" ht="185.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+    </row>
+    <row r="19" spans="1:24" ht="185.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -3716,31 +4679,40 @@
       <c r="H19" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="55" t="s">
-        <v>129</v>
+      <c r="I19" s="67" t="s">
+        <v>128</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K19" s="45"/>
       <c r="L19" s="34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M19" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="N19" s="45"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q19" s="44"/>
+        <v>142</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="O19" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q19" s="45"/>
       <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
+      <c r="S19" s="50" t="s">
+        <v>222</v>
+      </c>
       <c r="T19" s="44"/>
       <c r="U19" s="44"/>
-    </row>
-    <row r="20" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+    </row>
+    <row r="20" spans="1:24" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -3751,31 +4723,38 @@
       <c r="H20" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="52" t="s">
-        <v>130</v>
+      <c r="I20" s="51" t="s">
+        <v>129</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K20" s="45"/>
       <c r="L20" s="34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="N20" s="45"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q20" s="44"/>
+        <v>146</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="O20" s="62"/>
+      <c r="P20" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="45"/>
       <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
+      <c r="S20" s="53" t="s">
+        <v>223</v>
+      </c>
       <c r="T20" s="44"/>
       <c r="U20" s="44"/>
-    </row>
-    <row r="21" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+    </row>
+    <row r="21" spans="1:24" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -3786,29 +4765,36 @@
       <c r="H21" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="56" t="s">
-        <v>131</v>
+      <c r="I21" s="52" t="s">
+        <v>130</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K21" s="45"/>
       <c r="L21" s="50" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M21" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="N21" s="45"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
+        <v>147</v>
+      </c>
+      <c r="N21" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="O21" s="62"/>
+      <c r="P21" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q21" s="45"/>
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
       <c r="T21" s="44"/>
       <c r="U21" s="44"/>
-    </row>
-    <row r="22" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+    </row>
+    <row r="22" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -3819,29 +4805,34 @@
       <c r="H22" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="45" t="s">
-        <v>133</v>
+      <c r="I22" s="51" t="s">
+        <v>132</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K22" s="45"/>
       <c r="L22" s="34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
+        <v>148</v>
+      </c>
+      <c r="N22" s="34"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="45"/>
       <c r="R22" s="44"/>
       <c r="S22" s="44"/>
       <c r="T22" s="44"/>
       <c r="U22" s="44"/>
-    </row>
-    <row r="23" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+    </row>
+    <row r="23" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -3853,28 +4844,35 @@
         <v>69</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K23" s="45"/>
       <c r="L23" s="34" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M23" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="N23" s="45"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
+        <v>149</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="O23" s="62"/>
+      <c r="P23" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q23" s="45"/>
       <c r="R23" s="44"/>
       <c r="S23" s="44"/>
       <c r="T23" s="44"/>
       <c r="U23" s="44"/>
-    </row>
-    <row r="24" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+    </row>
+    <row r="24" spans="1:24" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -3885,31 +4883,34 @@
       <c r="H24" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="49" t="s">
-        <v>153</v>
+      <c r="I24" s="48" t="s">
+        <v>150</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K24" s="45"/>
       <c r="L24" s="34" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="M24" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="N24" s="45"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q24" s="44"/>
+        <v>151</v>
+      </c>
+      <c r="N24" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="O24" s="62"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="45"/>
       <c r="R24" s="44"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
       <c r="U24" s="44"/>
-    </row>
-    <row r="25" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+    </row>
+    <row r="25" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -3920,31 +4921,38 @@
       <c r="H25" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="58" t="s">
-        <v>155</v>
+      <c r="I25" s="67" t="s">
+        <v>152</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K25" s="45"/>
       <c r="L25" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M25" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="N25" s="45"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q25" s="44"/>
+        <v>153</v>
+      </c>
+      <c r="N25" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="O25" s="78"/>
+      <c r="P25" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q25" s="45"/>
       <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
+      <c r="S25" s="53" t="s">
+        <v>223</v>
+      </c>
       <c r="T25" s="44"/>
       <c r="U25" s="44"/>
-    </row>
-    <row r="26" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+    </row>
+    <row r="26" spans="1:24" ht="176.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -3955,31 +4963,36 @@
       <c r="H26" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="52" t="s">
-        <v>157</v>
+      <c r="I26" s="55" t="s">
+        <v>154</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K26" s="45"/>
       <c r="L26" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M26" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N26" s="45"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q26" s="44"/>
+        <v>159</v>
+      </c>
+      <c r="N26" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="O26" s="62"/>
+      <c r="P26" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q26" s="45"/>
       <c r="R26" s="44"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
       <c r="U26" s="44"/>
-    </row>
-    <row r="27" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+    </row>
+    <row r="27" spans="1:24" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -3990,31 +5003,36 @@
       <c r="H27" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="52" t="s">
-        <v>158</v>
+      <c r="I27" s="51" t="s">
+        <v>155</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K27" s="45"/>
       <c r="L27" s="34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M27" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="N27" s="45"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q27" s="44"/>
+        <v>160</v>
+      </c>
+      <c r="N27" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" s="62"/>
+      <c r="P27" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q27" s="45"/>
       <c r="R27" s="44"/>
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
       <c r="U27" s="44"/>
-    </row>
-    <row r="28" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+    </row>
+    <row r="28" spans="1:24" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -4025,31 +5043,38 @@
       <c r="H28" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I28" s="52" t="s">
-        <v>159</v>
+      <c r="I28" s="51" t="s">
+        <v>156</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K28" s="45"/>
       <c r="L28" s="34" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M28" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="N28" s="45"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q28" s="44"/>
+        <v>161</v>
+      </c>
+      <c r="N28" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="O28" s="62"/>
+      <c r="P28" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q28" s="45"/>
       <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
+      <c r="S28" s="53" t="s">
+        <v>223</v>
+      </c>
       <c r="T28" s="44"/>
       <c r="U28" s="44"/>
-    </row>
-    <row r="29" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+    </row>
+    <row r="29" spans="1:24" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -4061,28 +5086,35 @@
         <v>73</v>
       </c>
       <c r="I29" s="52" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K29" s="45"/>
       <c r="L29" s="34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M29" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="N29" s="45"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
+        <v>162</v>
+      </c>
+      <c r="N29" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="O29" s="79"/>
+      <c r="P29" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q29" s="45"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
       <c r="U29" s="44"/>
-    </row>
-    <row r="30" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+    </row>
+    <row r="30" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -4093,29 +5125,36 @@
       <c r="H30" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="56" t="s">
-        <v>161</v>
+      <c r="I30" s="51" t="s">
+        <v>158</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K30" s="45"/>
-      <c r="L30" s="50" t="s">
-        <v>137</v>
+      <c r="L30" s="34" t="s">
+        <v>134</v>
       </c>
       <c r="M30" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="N30" s="45"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
+        <v>232</v>
+      </c>
+      <c r="N30" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="O30" s="62"/>
+      <c r="P30" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q30" s="45"/>
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
       <c r="U30" s="44"/>
-    </row>
-    <row r="31" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+    </row>
+    <row r="31" spans="1:24" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A31" s="44"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
@@ -4126,29 +5165,36 @@
       <c r="H31" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="51" t="s">
-        <v>166</v>
+      <c r="I31" s="52" t="s">
+        <v>163</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K31" s="45"/>
       <c r="L31" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="N31" s="45"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
+        <v>165</v>
+      </c>
+      <c r="N31" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="O31" s="79"/>
+      <c r="P31" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q31" s="45"/>
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
       <c r="U31" s="44"/>
-    </row>
-    <row r="32" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+    </row>
+    <row r="32" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44"/>
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
@@ -4160,28 +5206,35 @@
         <v>75</v>
       </c>
       <c r="I32" s="51" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K32" s="45"/>
       <c r="L32" s="34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="N32" s="45"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
+        <v>162</v>
+      </c>
+      <c r="N32" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="O32" s="62"/>
+      <c r="P32" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q32" s="45"/>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
       <c r="U32" s="44"/>
-    </row>
-    <row r="33" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+    </row>
+    <row r="33" spans="1:24" ht="86.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
@@ -4192,31 +5245,36 @@
       <c r="H33" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="56" t="s">
-        <v>169</v>
+      <c r="I33" s="51" t="s">
+        <v>166</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K33" s="45"/>
       <c r="L33" s="34" t="s">
-        <v>165</v>
+        <v>263</v>
       </c>
       <c r="M33" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="N33" s="45"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q33" s="44"/>
+        <v>162</v>
+      </c>
+      <c r="N33" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="O33" s="81"/>
+      <c r="P33" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q33" s="45"/>
       <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
+      <c r="S33" s="54"/>
       <c r="T33" s="44"/>
       <c r="U33" s="44"/>
-    </row>
-    <row r="34" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+    </row>
+    <row r="34" spans="1:24" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
@@ -4228,28 +5286,35 @@
         <v>75</v>
       </c>
       <c r="I34" s="51" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K34" s="45"/>
       <c r="L34" s="34" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="N34" s="45"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
+        <v>162</v>
+      </c>
+      <c r="N34" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="O34" s="62"/>
+      <c r="P34" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q34" s="45"/>
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
       <c r="U34" s="44"/>
-    </row>
-    <row r="35" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+    </row>
+    <row r="35" spans="1:24" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -4260,31 +5325,36 @@
       <c r="H35" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I35" s="52" t="s">
-        <v>171</v>
+      <c r="I35" s="51" t="s">
+        <v>168</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K35" s="45"/>
       <c r="L35" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M35" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="N35" s="45"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q35" s="44"/>
+        <v>165</v>
+      </c>
+      <c r="N35" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="O35" s="62"/>
+      <c r="P35" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q35" s="45"/>
       <c r="R35" s="44"/>
       <c r="S35" s="44"/>
       <c r="T35" s="44"/>
       <c r="U35" s="44"/>
-    </row>
-    <row r="36" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+    </row>
+    <row r="36" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
@@ -4295,31 +5365,36 @@
       <c r="H36" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="52" t="s">
-        <v>172</v>
+      <c r="I36" s="51" t="s">
+        <v>169</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K36" s="45"/>
       <c r="L36" s="34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M36" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="N36" s="45"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q36" s="44"/>
+        <v>170</v>
+      </c>
+      <c r="N36" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="O36" s="81"/>
+      <c r="P36" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q36" s="45"/>
       <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
+      <c r="S36" s="53"/>
       <c r="T36" s="44"/>
       <c r="U36" s="44"/>
-    </row>
-    <row r="37" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+    </row>
+    <row r="37" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
@@ -4330,31 +5405,36 @@
       <c r="H37" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I37" s="56" t="s">
-        <v>174</v>
+      <c r="I37" s="51" t="s">
+        <v>171</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K37" s="45"/>
       <c r="L37" s="34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M37" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="N37" s="45"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q37" s="44"/>
+        <v>170</v>
+      </c>
+      <c r="N37" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="O37" s="62"/>
+      <c r="P37" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q37" s="45"/>
       <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
+      <c r="S37" s="54"/>
       <c r="T37" s="44"/>
       <c r="U37" s="44"/>
-    </row>
-    <row r="38" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+    </row>
+    <row r="38" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
@@ -4366,28 +5446,35 @@
         <v>77</v>
       </c>
       <c r="I38" s="51" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K38" s="45"/>
       <c r="L38" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M38" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N38" s="45"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N38" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="O38" s="62"/>
+      <c r="P38" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q38" s="45"/>
       <c r="R38" s="44"/>
       <c r="S38" s="44"/>
       <c r="T38" s="44"/>
       <c r="U38" s="44"/>
-    </row>
-    <row r="39" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+    </row>
+    <row r="39" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -4398,29 +5485,34 @@
       <c r="H39" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="56" t="s">
-        <v>176</v>
+      <c r="I39" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K39" s="45"/>
       <c r="L39" s="50" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M39" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
+        <v>212</v>
+      </c>
+      <c r="N39" s="34"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q39" s="45"/>
       <c r="R39" s="44"/>
       <c r="S39" s="44"/>
       <c r="T39" s="44"/>
       <c r="U39" s="44"/>
-    </row>
-    <row r="40" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+    </row>
+    <row r="40" spans="1:24" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
@@ -4431,31 +5523,38 @@
       <c r="H40" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I40" s="52" t="s">
-        <v>177</v>
+      <c r="I40" s="51" t="s">
+        <v>174</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K40" s="45"/>
       <c r="L40" s="50" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M40" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N40" s="45"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q40" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N40" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="O40" s="62"/>
+      <c r="P40" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q40" s="45"/>
       <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
+      <c r="S40" s="53" t="s">
+        <v>223</v>
+      </c>
       <c r="T40" s="44"/>
       <c r="U40" s="44"/>
-    </row>
-    <row r="41" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+    </row>
+    <row r="41" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
@@ -4467,30 +5566,35 @@
         <v>77</v>
       </c>
       <c r="I41" s="51" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K41" s="45"/>
       <c r="L41" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M41" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N41" s="45"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q41" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N41" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="O41" s="62"/>
+      <c r="P41" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q41" s="45"/>
       <c r="R41" s="44"/>
       <c r="S41" s="44"/>
       <c r="T41" s="44"/>
       <c r="U41" s="44"/>
-    </row>
-    <row r="42" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+    </row>
+    <row r="42" spans="1:24" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
@@ -4501,31 +5605,36 @@
       <c r="H42" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I42" s="56" t="s">
-        <v>179</v>
+      <c r="I42" s="52" t="s">
+        <v>176</v>
       </c>
       <c r="J42" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K42" s="45"/>
-      <c r="L42" s="50" t="s">
-        <v>216</v>
+      <c r="L42" s="34" t="s">
+        <v>211</v>
       </c>
       <c r="M42" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N42" s="45"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q42" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N42" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="O42" s="62"/>
+      <c r="P42" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q42" s="45"/>
       <c r="R42" s="44"/>
       <c r="S42" s="44"/>
       <c r="T42" s="44"/>
       <c r="U42" s="44"/>
-    </row>
-    <row r="43" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
+    </row>
+    <row r="43" spans="1:24" ht="96.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
@@ -4536,31 +5645,38 @@
       <c r="H43" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I43" s="56" t="s">
-        <v>180</v>
+      <c r="I43" s="51" t="s">
+        <v>177</v>
       </c>
       <c r="J43" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K43" s="45"/>
-      <c r="L43" s="50" t="s">
-        <v>216</v>
+      <c r="L43" s="74" t="s">
+        <v>211</v>
       </c>
       <c r="M43" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N43" s="45"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q43" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N43" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="O43" s="81"/>
+      <c r="P43" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q43" s="45"/>
       <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
+      <c r="S43" s="53" t="s">
+        <v>223</v>
+      </c>
       <c r="T43" s="44"/>
       <c r="U43" s="44"/>
-    </row>
-    <row r="44" spans="1:21" ht="62.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+    </row>
+    <row r="44" spans="1:24" ht="93.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" s="44"/>
       <c r="C44" s="44"/>
@@ -4571,31 +5687,36 @@
       <c r="H44" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I44" s="50" t="s">
-        <v>181</v>
+      <c r="I44" s="48" t="s">
+        <v>178</v>
       </c>
       <c r="J44" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K44" s="45"/>
       <c r="L44" s="50" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M44" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="N44" s="45"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q44" s="44"/>
+        <v>213</v>
+      </c>
+      <c r="N44" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="O44" s="62"/>
+      <c r="P44" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q44" s="45"/>
       <c r="R44" s="44"/>
       <c r="S44" s="44"/>
       <c r="T44" s="44"/>
       <c r="U44" s="44"/>
-    </row>
-    <row r="45" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+    </row>
+    <row r="45" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44"/>
       <c r="B45" s="44"/>
       <c r="C45" s="44"/>
@@ -4603,32 +5724,35 @@
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
       <c r="G45" s="44"/>
-      <c r="H45" s="59" t="s">
+      <c r="H45" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I45" s="51" t="s">
-        <v>182</v>
+      <c r="I45" s="45" t="s">
+        <v>179</v>
       </c>
       <c r="J45" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K45" s="45"/>
       <c r="L45" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M45" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="N45" s="45"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
+        <v>165</v>
+      </c>
+      <c r="N45" s="34"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="45"/>
       <c r="R45" s="44"/>
       <c r="S45" s="44"/>
       <c r="T45" s="44"/>
       <c r="U45" s="44"/>
-    </row>
-    <row r="46" spans="1:21" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+    </row>
+    <row r="46" spans="1:24" ht="104.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44"/>
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
@@ -4636,34 +5760,37 @@
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
-      <c r="H46" s="59" t="s">
+      <c r="H46" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I46" s="56" t="s">
-        <v>219</v>
+      <c r="I46" s="45" t="s">
+        <v>214</v>
       </c>
       <c r="J46" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K46" s="45"/>
       <c r="L46" s="34" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M46" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="N46" s="45"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q46" s="44"/>
+        <v>215</v>
+      </c>
+      <c r="N46" s="34"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="45"/>
       <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
+      <c r="S46" s="54" t="s">
+        <v>228</v>
+      </c>
       <c r="T46" s="44"/>
       <c r="U46" s="44"/>
-    </row>
-    <row r="47" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
+    </row>
+    <row r="47" spans="1:24" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44"/>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -4671,34 +5798,37 @@
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
-      <c r="H47" s="59" t="s">
+      <c r="H47" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I47" s="56" t="s">
-        <v>183</v>
+      <c r="I47" s="45" t="s">
+        <v>278</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K47" s="45"/>
       <c r="L47" s="34" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M47" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="N47" s="45"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q47" s="44"/>
+        <v>215</v>
+      </c>
+      <c r="N47" s="34"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="45"/>
       <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
+      <c r="S47" s="54" t="s">
+        <v>228</v>
+      </c>
       <c r="T47" s="44"/>
       <c r="U47" s="44"/>
-    </row>
-    <row r="48" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+    </row>
+    <row r="48" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44"/>
       <c r="B48" s="44"/>
       <c r="C48" s="44"/>
@@ -4706,32 +5836,35 @@
       <c r="E48" s="44"/>
       <c r="F48" s="44"/>
       <c r="G48" s="44"/>
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I48" s="56" t="s">
-        <v>184</v>
+      <c r="I48" s="45" t="s">
+        <v>180</v>
       </c>
       <c r="J48" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K48" s="45"/>
       <c r="L48" s="50" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M48" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
+        <v>216</v>
+      </c>
+      <c r="N48" s="34"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="45"/>
       <c r="R48" s="44"/>
       <c r="S48" s="44"/>
       <c r="T48" s="44"/>
       <c r="U48" s="44"/>
-    </row>
-    <row r="49" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="V48" s="44"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
+    </row>
+    <row r="49" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44"/>
       <c r="B49" s="44"/>
       <c r="C49" s="44"/>
@@ -4739,34 +5872,37 @@
       <c r="E49" s="44"/>
       <c r="F49" s="44"/>
       <c r="G49" s="44"/>
-      <c r="H49" s="59" t="s">
+      <c r="H49" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I49" s="56" t="s">
-        <v>185</v>
+      <c r="I49" s="45" t="s">
+        <v>181</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K49" s="45"/>
       <c r="L49" s="34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M49" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="N49" s="45"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q49" s="44"/>
+        <v>170</v>
+      </c>
+      <c r="N49" s="34"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="45"/>
       <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
+      <c r="S49" s="54" t="s">
+        <v>228</v>
+      </c>
       <c r="T49" s="44"/>
       <c r="U49" s="44"/>
-    </row>
-    <row r="50" spans="1:21" ht="135.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+    </row>
+    <row r="50" spans="1:24" ht="135.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44"/>
       <c r="B50" s="44"/>
       <c r="C50" s="44"/>
@@ -4774,34 +5910,37 @@
       <c r="E50" s="44"/>
       <c r="F50" s="44"/>
       <c r="G50" s="44"/>
-      <c r="H50" s="59" t="s">
+      <c r="H50" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I50" s="51" t="s">
-        <v>186</v>
+      <c r="I50" s="45" t="s">
+        <v>182</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K50" s="45"/>
       <c r="L50" s="34" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M50" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="N50" s="45"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q50" s="44"/>
+        <v>217</v>
+      </c>
+      <c r="N50" s="34"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="45"/>
       <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
+      <c r="S50" s="54" t="s">
+        <v>224</v>
+      </c>
       <c r="T50" s="44"/>
       <c r="U50" s="44"/>
-    </row>
-    <row r="51" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+    </row>
+    <row r="51" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="44"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -4809,32 +5948,35 @@
       <c r="E51" s="44"/>
       <c r="F51" s="44"/>
       <c r="G51" s="44"/>
-      <c r="H51" s="59" t="s">
+      <c r="H51" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I51" s="56" t="s">
-        <v>187</v>
+      <c r="I51" s="45" t="s">
+        <v>183</v>
       </c>
       <c r="J51" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K51" s="45"/>
       <c r="L51" s="50" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M51" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="N51" s="45"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
+        <v>218</v>
+      </c>
+      <c r="N51" s="34"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="45"/>
       <c r="R51" s="44"/>
       <c r="S51" s="44"/>
       <c r="T51" s="44"/>
       <c r="U51" s="44"/>
-    </row>
-    <row r="52" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
+    </row>
+    <row r="52" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -4842,34 +5984,37 @@
       <c r="E52" s="44"/>
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
-      <c r="H52" s="59" t="s">
+      <c r="H52" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I52" s="56" t="s">
-        <v>188</v>
+      <c r="I52" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="J52" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K52" s="45"/>
       <c r="L52" s="34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M52" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="N52" s="45"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q52" s="44"/>
+        <v>170</v>
+      </c>
+      <c r="N52" s="34"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="45"/>
       <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
+      <c r="S52" s="44" t="s">
+        <v>229</v>
+      </c>
       <c r="T52" s="44"/>
       <c r="U52" s="44"/>
-    </row>
-    <row r="53" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="44"/>
+    </row>
+    <row r="53" spans="1:24" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -4877,32 +6022,35 @@
       <c r="E53" s="44"/>
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
-      <c r="H53" s="59" t="s">
+      <c r="H53" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I53" s="56" t="s">
-        <v>189</v>
+      <c r="I53" s="45" t="s">
+        <v>185</v>
       </c>
       <c r="J53" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K53" s="45"/>
       <c r="L53" s="34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M53" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="N53" s="45"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
+        <v>170</v>
+      </c>
+      <c r="N53" s="34"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="45"/>
       <c r="R53" s="44"/>
       <c r="S53" s="44"/>
       <c r="T53" s="44"/>
       <c r="U53" s="44"/>
-    </row>
-    <row r="54" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="44"/>
+    </row>
+    <row r="54" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -4910,34 +6058,37 @@
       <c r="E54" s="44"/>
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
-      <c r="H54" s="59" t="s">
+      <c r="H54" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I54" s="52" t="s">
-        <v>190</v>
+      <c r="I54" s="45" t="s">
+        <v>186</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K54" s="45"/>
       <c r="L54" s="34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M54" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="N54" s="45"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q54" s="44"/>
+        <v>170</v>
+      </c>
+      <c r="N54" s="34"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="45"/>
       <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
+      <c r="S54" s="44" t="s">
+        <v>223</v>
+      </c>
       <c r="T54" s="44"/>
       <c r="U54" s="44"/>
-    </row>
-    <row r="55" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="44"/>
+    </row>
+    <row r="55" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -4945,34 +6096,37 @@
       <c r="E55" s="44"/>
       <c r="F55" s="44"/>
       <c r="G55" s="44"/>
-      <c r="H55" s="59" t="s">
+      <c r="H55" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I55" s="51" t="s">
-        <v>191</v>
+      <c r="I55" s="45" t="s">
+        <v>187</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K55" s="45"/>
       <c r="L55" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M55" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="N55" s="45"/>
-      <c r="O55" s="44"/>
-      <c r="P55" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q55" s="44"/>
+        <v>165</v>
+      </c>
+      <c r="N55" s="34"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="45"/>
       <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
+      <c r="S55" s="54" t="s">
+        <v>225</v>
+      </c>
       <c r="T55" s="44"/>
       <c r="U55" s="44"/>
-    </row>
-    <row r="56" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="44"/>
+    </row>
+    <row r="56" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -4980,34 +6134,37 @@
       <c r="E56" s="44"/>
       <c r="F56" s="44"/>
       <c r="G56" s="44"/>
-      <c r="H56" s="59" t="s">
+      <c r="H56" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I56" s="51" t="s">
-        <v>192</v>
+      <c r="I56" s="45" t="s">
+        <v>188</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K56" s="45"/>
       <c r="L56" s="34" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M56" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="N56" s="45"/>
-      <c r="O56" s="44"/>
-      <c r="P56" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q56" s="44"/>
+        <v>219</v>
+      </c>
+      <c r="N56" s="34"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="45"/>
       <c r="R56" s="44"/>
-      <c r="S56" s="44"/>
+      <c r="S56" s="54" t="s">
+        <v>226</v>
+      </c>
       <c r="T56" s="44"/>
       <c r="U56" s="44"/>
-    </row>
-    <row r="57" spans="1:21" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V56" s="44"/>
+      <c r="W56" s="44"/>
+      <c r="X56" s="44"/>
+    </row>
+    <row r="57" spans="1:24" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -5015,32 +6172,35 @@
       <c r="E57" s="44"/>
       <c r="F57" s="44"/>
       <c r="G57" s="44"/>
-      <c r="H57" s="59" t="s">
+      <c r="H57" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I57" s="51" t="s">
-        <v>193</v>
+      <c r="I57" s="45" t="s">
+        <v>189</v>
       </c>
       <c r="J57" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K57" s="45"/>
       <c r="L57" s="34" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M57" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="N57" s="45"/>
-      <c r="O57" s="44"/>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="44"/>
+        <v>220</v>
+      </c>
+      <c r="N57" s="34"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="45"/>
       <c r="R57" s="44"/>
       <c r="S57" s="44"/>
       <c r="T57" s="44"/>
       <c r="U57" s="44"/>
-    </row>
-    <row r="58" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="V57" s="44"/>
+      <c r="W57" s="44"/>
+      <c r="X57" s="44"/>
+    </row>
+    <row r="58" spans="1:24" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -5048,32 +6208,35 @@
       <c r="E58" s="44"/>
       <c r="F58" s="44"/>
       <c r="G58" s="44"/>
-      <c r="H58" s="59" t="s">
+      <c r="H58" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I58" s="56" t="s">
-        <v>194</v>
+      <c r="I58" s="45" t="s">
+        <v>190</v>
       </c>
       <c r="J58" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K58" s="45"/>
       <c r="L58" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M58" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="N58" s="45"/>
-      <c r="O58" s="44"/>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="44"/>
+        <v>165</v>
+      </c>
+      <c r="N58" s="34"/>
+      <c r="O58" s="62"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="45"/>
       <c r="R58" s="44"/>
       <c r="S58" s="44"/>
       <c r="T58" s="44"/>
       <c r="U58" s="44"/>
-    </row>
-    <row r="59" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V58" s="44"/>
+      <c r="W58" s="44"/>
+      <c r="X58" s="44"/>
+    </row>
+    <row r="59" spans="1:24" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -5082,33 +6245,38 @@
       <c r="F59" s="44"/>
       <c r="G59" s="44"/>
       <c r="H59" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="I59" s="56" t="s">
-        <v>196</v>
+        <v>191</v>
+      </c>
+      <c r="I59" s="51" t="s">
+        <v>192</v>
       </c>
       <c r="J59" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K59" s="45"/>
       <c r="L59" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M59" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N59" s="45"/>
-      <c r="O59" s="44"/>
-      <c r="P59" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q59" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N59" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="O59" s="62"/>
+      <c r="P59" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q59" s="45"/>
       <c r="R59" s="44"/>
       <c r="S59" s="44"/>
       <c r="T59" s="44"/>
       <c r="U59" s="44"/>
-    </row>
-    <row r="60" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="V59" s="44"/>
+      <c r="W59" s="44"/>
+      <c r="X59" s="44"/>
+    </row>
+    <row r="60" spans="1:24" ht="92.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -5117,33 +6285,38 @@
       <c r="F60" s="44"/>
       <c r="G60" s="44"/>
       <c r="H60" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="I60" s="57" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+      <c r="I60" s="82" t="s">
+        <v>193</v>
       </c>
       <c r="J60" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K60" s="45"/>
       <c r="L60" s="34" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M60" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="N60" s="45"/>
-      <c r="O60" s="44"/>
-      <c r="P60" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q60" s="44"/>
+        <v>221</v>
+      </c>
+      <c r="N60" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="O60" s="81"/>
+      <c r="P60" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q60" s="45"/>
       <c r="R60" s="44"/>
-      <c r="S60" s="44"/>
+      <c r="S60" s="54"/>
       <c r="T60" s="44"/>
       <c r="U60" s="44"/>
-    </row>
-    <row r="61" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="V60" s="44"/>
+      <c r="W60" s="44"/>
+      <c r="X60" s="44"/>
+    </row>
+    <row r="61" spans="1:24" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -5152,33 +6325,38 @@
       <c r="F61" s="44"/>
       <c r="G61" s="44"/>
       <c r="H61" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="I61" s="56" t="s">
-        <v>198</v>
+        <v>191</v>
+      </c>
+      <c r="I61" s="51" t="s">
+        <v>194</v>
       </c>
       <c r="J61" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K61" s="45"/>
       <c r="L61" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M61" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N61" s="45"/>
-      <c r="O61" s="44"/>
-      <c r="P61" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q61" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N61" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="O61" s="62"/>
+      <c r="P61" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q61" s="45"/>
       <c r="R61" s="44"/>
-      <c r="S61" s="44"/>
+      <c r="S61" s="54"/>
       <c r="T61" s="44"/>
       <c r="U61" s="44"/>
-    </row>
-    <row r="62" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="V61" s="44"/>
+      <c r="W61" s="44"/>
+      <c r="X61" s="44"/>
+    </row>
+    <row r="62" spans="1:24" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -5187,33 +6365,38 @@
       <c r="F62" s="44"/>
       <c r="G62" s="44"/>
       <c r="H62" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="I62" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="I62" s="56" t="s">
-        <v>199</v>
-      </c>
       <c r="J62" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K62" s="45"/>
       <c r="L62" s="34" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="M62" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N62" s="45"/>
-      <c r="O62" s="44"/>
-      <c r="P62" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q62" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N62" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="O62" s="62"/>
+      <c r="P62" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q62" s="45"/>
       <c r="R62" s="44"/>
       <c r="S62" s="44"/>
       <c r="T62" s="44"/>
       <c r="U62" s="44"/>
-    </row>
-    <row r="63" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="V62" s="44"/>
+      <c r="W62" s="44"/>
+      <c r="X62" s="44"/>
+    </row>
+    <row r="63" spans="1:24" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -5222,33 +6405,38 @@
       <c r="F63" s="44"/>
       <c r="G63" s="44"/>
       <c r="H63" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="I63" s="56" t="s">
-        <v>201</v>
+        <v>196</v>
+      </c>
+      <c r="I63" s="55" t="s">
+        <v>197</v>
       </c>
       <c r="J63" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K63" s="45"/>
       <c r="L63" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M63" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N63" s="45"/>
-      <c r="O63" s="44"/>
-      <c r="P63" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q63" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N63" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="O63" s="80"/>
+      <c r="P63" s="50"/>
+      <c r="Q63" s="45"/>
       <c r="R63" s="44"/>
-      <c r="S63" s="44"/>
+      <c r="S63" s="54" t="s">
+        <v>226</v>
+      </c>
       <c r="T63" s="44"/>
       <c r="U63" s="44"/>
-    </row>
-    <row r="64" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="V63" s="44"/>
+      <c r="W63" s="44"/>
+      <c r="X63" s="44"/>
+    </row>
+    <row r="64" spans="1:24" ht="132.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -5257,33 +6445,40 @@
       <c r="F64" s="44"/>
       <c r="G64" s="44"/>
       <c r="H64" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="I64" s="56" t="s">
-        <v>202</v>
+        <v>196</v>
+      </c>
+      <c r="I64" s="51" t="s">
+        <v>198</v>
       </c>
       <c r="J64" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K64" s="45"/>
       <c r="L64" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M64" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N64" s="45"/>
-      <c r="O64" s="44"/>
-      <c r="P64" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q64" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N64" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="O64" s="62"/>
+      <c r="P64" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q64" s="45"/>
       <c r="R64" s="44"/>
-      <c r="S64" s="44"/>
+      <c r="S64" s="54" t="s">
+        <v>227</v>
+      </c>
       <c r="T64" s="44"/>
       <c r="U64" s="44"/>
-    </row>
-    <row r="65" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="V64" s="44"/>
+      <c r="W64" s="44"/>
+      <c r="X64" s="44"/>
+    </row>
+    <row r="65" spans="1:24" ht="93.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -5292,33 +6487,40 @@
       <c r="F65" s="44"/>
       <c r="G65" s="44"/>
       <c r="H65" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="I65" s="56" t="s">
-        <v>203</v>
+        <v>196</v>
+      </c>
+      <c r="I65" s="51" t="s">
+        <v>199</v>
       </c>
       <c r="J65" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K65" s="45"/>
       <c r="L65" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M65" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N65" s="45"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q65" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N65" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="O65" s="62"/>
+      <c r="P65" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q65" s="45"/>
       <c r="R65" s="44"/>
-      <c r="S65" s="44"/>
+      <c r="S65" s="54" t="s">
+        <v>226</v>
+      </c>
       <c r="T65" s="44"/>
       <c r="U65" s="44"/>
-    </row>
-    <row r="66" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="V65" s="44"/>
+      <c r="W65" s="44"/>
+      <c r="X65" s="44"/>
+    </row>
+    <row r="66" spans="1:24" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -5327,33 +6529,40 @@
       <c r="F66" s="44"/>
       <c r="G66" s="44"/>
       <c r="H66" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="I66" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="I66" s="56" t="s">
-        <v>204</v>
-      </c>
       <c r="J66" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K66" s="45"/>
       <c r="L66" s="34" t="s">
-        <v>216</v>
+        <v>328</v>
       </c>
       <c r="M66" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N66" s="45"/>
-      <c r="O66" s="44"/>
-      <c r="P66" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q66" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N66" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="O66" s="62"/>
+      <c r="P66" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q66" s="45"/>
       <c r="R66" s="44"/>
-      <c r="S66" s="44"/>
+      <c r="S66" s="54" t="s">
+        <v>226</v>
+      </c>
       <c r="T66" s="44"/>
       <c r="U66" s="44"/>
-    </row>
-    <row r="67" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V66" s="44"/>
+      <c r="W66" s="44"/>
+      <c r="X66" s="44"/>
+    </row>
+    <row r="67" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -5362,31 +6571,38 @@
       <c r="F67" s="44"/>
       <c r="G67" s="44"/>
       <c r="H67" s="35" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I67" s="51" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J67" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K67" s="45"/>
       <c r="L67" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M67" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N67" s="45"/>
-      <c r="O67" s="44"/>
-      <c r="P67" s="44"/>
-      <c r="Q67" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N67" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="O67" s="58"/>
+      <c r="P67" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q67" s="45"/>
       <c r="R67" s="44"/>
       <c r="S67" s="44"/>
       <c r="T67" s="44"/>
       <c r="U67" s="44"/>
-    </row>
-    <row r="68" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="V67" s="44"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+    </row>
+    <row r="68" spans="1:24" ht="128.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -5395,33 +6611,38 @@
       <c r="F68" s="44"/>
       <c r="G68" s="44"/>
       <c r="H68" s="35" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I68" s="51" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J68" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K68" s="45"/>
       <c r="L68" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M68" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N68" s="45"/>
-      <c r="O68" s="44"/>
-      <c r="P68" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q68" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N68" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="O68" s="62"/>
+      <c r="P68" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q68" s="45"/>
       <c r="R68" s="44"/>
-      <c r="S68" s="44"/>
+      <c r="S68" s="52"/>
       <c r="T68" s="44"/>
       <c r="U68" s="44"/>
-    </row>
-    <row r="69" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V68" s="44"/>
+      <c r="W68" s="44"/>
+      <c r="X68" s="44"/>
+    </row>
+    <row r="69" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -5430,33 +6651,38 @@
       <c r="F69" s="44"/>
       <c r="G69" s="44"/>
       <c r="H69" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="I69" s="52" t="s">
-        <v>207</v>
+        <v>196</v>
+      </c>
+      <c r="I69" s="67" t="s">
+        <v>203</v>
       </c>
       <c r="J69" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K69" s="45"/>
       <c r="L69" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M69" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N69" s="45"/>
-      <c r="O69" s="44"/>
-      <c r="P69" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q69" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N69" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="O69" s="62"/>
+      <c r="P69" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q69" s="45"/>
       <c r="R69" s="44"/>
-      <c r="S69" s="44"/>
+      <c r="S69" s="53"/>
       <c r="T69" s="44"/>
       <c r="U69" s="44"/>
-    </row>
-    <row r="70" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="V69" s="44"/>
+      <c r="W69" s="44"/>
+      <c r="X69" s="44"/>
+    </row>
+    <row r="70" spans="1:24" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -5465,31 +6691,38 @@
       <c r="F70" s="44"/>
       <c r="G70" s="44"/>
       <c r="H70" s="35" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="I70" s="51" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J70" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K70" s="45"/>
       <c r="L70" s="34" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="M70" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N70" s="45"/>
-      <c r="O70" s="44"/>
-      <c r="P70" s="44"/>
-      <c r="Q70" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N70" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="O70" s="62"/>
+      <c r="P70" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q70" s="45"/>
       <c r="R70" s="44"/>
       <c r="S70" s="44"/>
       <c r="T70" s="44"/>
       <c r="U70" s="44"/>
-    </row>
-    <row r="71" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="V70" s="44"/>
+      <c r="W70" s="44"/>
+      <c r="X70" s="44"/>
+    </row>
+    <row r="71" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -5498,33 +6731,38 @@
       <c r="F71" s="44"/>
       <c r="G71" s="44"/>
       <c r="H71" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="I71" s="56" t="s">
-        <v>209</v>
+        <v>248</v>
+      </c>
+      <c r="I71" s="51" t="s">
+        <v>205</v>
       </c>
       <c r="J71" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K71" s="45"/>
       <c r="L71" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M71" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N71" s="45"/>
-      <c r="O71" s="44"/>
-      <c r="P71" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q71" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N71" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="O71" s="62"/>
+      <c r="P71" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q71" s="45"/>
       <c r="R71" s="44"/>
-      <c r="S71" s="44"/>
+      <c r="S71" s="54"/>
       <c r="T71" s="44"/>
       <c r="U71" s="44"/>
-    </row>
-    <row r="72" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="V71" s="44"/>
+      <c r="W71" s="44"/>
+      <c r="X71" s="44"/>
+    </row>
+    <row r="72" spans="1:24" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -5533,31 +6771,38 @@
       <c r="F72" s="44"/>
       <c r="G72" s="44"/>
       <c r="H72" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="51" t="s">
-        <v>210</v>
+        <v>248</v>
+      </c>
+      <c r="I72" s="52" t="s">
+        <v>206</v>
       </c>
       <c r="J72" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K72" s="45"/>
       <c r="L72" s="34" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="M72" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N72" s="45"/>
-      <c r="O72" s="44"/>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N72" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="O72" s="62"/>
+      <c r="P72" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q72" s="45"/>
       <c r="R72" s="44"/>
       <c r="S72" s="44"/>
       <c r="T72" s="44"/>
       <c r="U72" s="44"/>
-    </row>
-    <row r="73" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="V72" s="44"/>
+      <c r="W72" s="44"/>
+      <c r="X72" s="44"/>
+    </row>
+    <row r="73" spans="1:24" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -5566,31 +6811,40 @@
       <c r="F73" s="44"/>
       <c r="G73" s="44"/>
       <c r="H73" s="35" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="I73" s="51" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="J73" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="K73" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="K73" s="45" t="s">
+        <v>259</v>
+      </c>
       <c r="L73" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M73" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N73" s="45"/>
-      <c r="O73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N73" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="O73" s="62"/>
+      <c r="P73" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q73" s="45"/>
       <c r="R73" s="44"/>
       <c r="S73" s="44"/>
       <c r="T73" s="44"/>
       <c r="U73" s="44"/>
-    </row>
-    <row r="74" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="V73" s="44"/>
+      <c r="W73" s="44"/>
+      <c r="X73" s="44"/>
+    </row>
+    <row r="74" spans="1:24" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -5599,33 +6853,36 @@
       <c r="F74" s="44"/>
       <c r="G74" s="44"/>
       <c r="H74" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="I74" s="52" t="s">
-        <v>211</v>
+        <v>248</v>
+      </c>
+      <c r="I74" s="55" t="s">
+        <v>207</v>
       </c>
       <c r="J74" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K74" s="45"/>
       <c r="L74" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M74" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N74" s="45"/>
-      <c r="O74" s="44"/>
-      <c r="P74" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q74" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N74" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="O74" s="80"/>
+      <c r="P74" s="50"/>
+      <c r="Q74" s="45"/>
       <c r="R74" s="44"/>
-      <c r="S74" s="44"/>
+      <c r="S74" s="53"/>
       <c r="T74" s="44"/>
       <c r="U74" s="44"/>
-    </row>
-    <row r="75" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="V74" s="44"/>
+      <c r="W74" s="44"/>
+      <c r="X74" s="44"/>
+    </row>
+    <row r="75" spans="1:24" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -5634,33 +6891,36 @@
       <c r="F75" s="44"/>
       <c r="G75" s="44"/>
       <c r="H75" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="I75" s="52" t="s">
-        <v>212</v>
+        <v>248</v>
+      </c>
+      <c r="I75" s="55" t="s">
+        <v>208</v>
       </c>
       <c r="J75" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K75" s="45"/>
       <c r="L75" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M75" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N75" s="45"/>
-      <c r="O75" s="44"/>
-      <c r="P75" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q75" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N75" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="O75" s="80"/>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="45"/>
       <c r="R75" s="44"/>
-      <c r="S75" s="44"/>
+      <c r="S75" s="53"/>
       <c r="T75" s="44"/>
       <c r="U75" s="44"/>
-    </row>
-    <row r="76" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="V75" s="44"/>
+      <c r="W75" s="44"/>
+      <c r="X75" s="44"/>
+    </row>
+    <row r="76" spans="1:24" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -5669,33 +6929,38 @@
       <c r="F76" s="44"/>
       <c r="G76" s="44"/>
       <c r="H76" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="I76" s="52" t="s">
-        <v>213</v>
+        <v>248</v>
+      </c>
+      <c r="I76" s="51" t="s">
+        <v>209</v>
       </c>
       <c r="J76" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K76" s="45"/>
       <c r="L76" s="34" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="M76" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N76" s="45"/>
-      <c r="O76" s="44"/>
-      <c r="P76" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q76" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N76" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="O76" s="62"/>
+      <c r="P76" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q76" s="45"/>
       <c r="R76" s="44"/>
       <c r="S76" s="44"/>
       <c r="T76" s="44"/>
       <c r="U76" s="44"/>
-    </row>
-    <row r="77" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="V76" s="44"/>
+      <c r="W76" s="44"/>
+      <c r="X76" s="44"/>
+    </row>
+    <row r="77" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -5704,33 +6969,40 @@
       <c r="F77" s="44"/>
       <c r="G77" s="44"/>
       <c r="H77" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="I77" s="56" t="s">
-        <v>214</v>
+        <v>248</v>
+      </c>
+      <c r="I77" s="51" t="s">
+        <v>210</v>
       </c>
       <c r="J77" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K77" s="45"/>
       <c r="L77" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M77" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N77" s="45"/>
-      <c r="O77" s="44"/>
-      <c r="P77" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q77" s="44"/>
+        <v>211</v>
+      </c>
+      <c r="N77" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="O77" s="81">
+        <v>206</v>
+      </c>
+      <c r="P77" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q77" s="45"/>
       <c r="R77" s="44"/>
-      <c r="S77" s="44"/>
+      <c r="S77" s="54"/>
       <c r="T77" s="44"/>
       <c r="U77" s="44"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="44"/>
+      <c r="W77" s="44"/>
+      <c r="X77" s="44"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -5744,16 +7016,19 @@
       <c r="K78" s="45"/>
       <c r="L78" s="46"/>
       <c r="M78" s="46"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="44"/>
-      <c r="P78" s="44"/>
-      <c r="Q78" s="44"/>
+      <c r="N78" s="46"/>
+      <c r="O78" s="64"/>
+      <c r="P78" s="46"/>
+      <c r="Q78" s="45"/>
       <c r="R78" s="44"/>
       <c r="S78" s="44"/>
       <c r="T78" s="44"/>
       <c r="U78" s="44"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V78" s="44"/>
+      <c r="W78" s="44"/>
+      <c r="X78" s="44"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -5767,16 +7042,19 @@
       <c r="K79" s="45"/>
       <c r="L79" s="46"/>
       <c r="M79" s="46"/>
-      <c r="N79" s="45"/>
-      <c r="O79" s="44"/>
-      <c r="P79" s="44"/>
-      <c r="Q79" s="44"/>
+      <c r="N79" s="46"/>
+      <c r="O79" s="64"/>
+      <c r="P79" s="46"/>
+      <c r="Q79" s="45"/>
       <c r="R79" s="44"/>
       <c r="S79" s="44"/>
       <c r="T79" s="44"/>
       <c r="U79" s="44"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V79" s="44"/>
+      <c r="W79" s="44"/>
+      <c r="X79" s="44"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -5790,16 +7068,19 @@
       <c r="K80" s="45"/>
       <c r="L80" s="46"/>
       <c r="M80" s="46"/>
-      <c r="N80" s="45"/>
-      <c r="O80" s="44"/>
-      <c r="P80" s="44"/>
-      <c r="Q80" s="44"/>
+      <c r="N80" s="46"/>
+      <c r="O80" s="64"/>
+      <c r="P80" s="46"/>
+      <c r="Q80" s="45"/>
       <c r="R80" s="44"/>
       <c r="S80" s="44"/>
       <c r="T80" s="44"/>
       <c r="U80" s="44"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="44"/>
+      <c r="W80" s="44"/>
+      <c r="X80" s="44"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -5813,16 +7094,19 @@
       <c r="K81" s="45"/>
       <c r="L81" s="46"/>
       <c r="M81" s="46"/>
-      <c r="N81" s="45"/>
-      <c r="O81" s="44"/>
-      <c r="P81" s="44"/>
-      <c r="Q81" s="44"/>
+      <c r="N81" s="46"/>
+      <c r="O81" s="64"/>
+      <c r="P81" s="46"/>
+      <c r="Q81" s="45"/>
       <c r="R81" s="44"/>
       <c r="S81" s="44"/>
       <c r="T81" s="44"/>
       <c r="U81" s="44"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="44"/>
+      <c r="W81" s="44"/>
+      <c r="X81" s="44"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -5836,16 +7120,19 @@
       <c r="K82" s="45"/>
       <c r="L82" s="46"/>
       <c r="M82" s="46"/>
-      <c r="N82" s="45"/>
-      <c r="O82" s="44"/>
-      <c r="P82" s="44"/>
-      <c r="Q82" s="44"/>
+      <c r="N82" s="46"/>
+      <c r="O82" s="64"/>
+      <c r="P82" s="46"/>
+      <c r="Q82" s="45"/>
       <c r="R82" s="44"/>
       <c r="S82" s="44"/>
       <c r="T82" s="44"/>
       <c r="U82" s="44"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="44"/>
+      <c r="W82" s="44"/>
+      <c r="X82" s="44"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -5859,16 +7146,19 @@
       <c r="K83" s="45"/>
       <c r="L83" s="46"/>
       <c r="M83" s="46"/>
-      <c r="N83" s="45"/>
-      <c r="O83" s="44"/>
-      <c r="P83" s="44"/>
-      <c r="Q83" s="44"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="64"/>
+      <c r="P83" s="46"/>
+      <c r="Q83" s="45"/>
       <c r="R83" s="44"/>
       <c r="S83" s="44"/>
       <c r="T83" s="44"/>
       <c r="U83" s="44"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="44"/>
+      <c r="W83" s="44"/>
+      <c r="X83" s="44"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -5882,16 +7172,19 @@
       <c r="K84" s="45"/>
       <c r="L84" s="46"/>
       <c r="M84" s="46"/>
-      <c r="N84" s="45"/>
-      <c r="O84" s="44"/>
-      <c r="P84" s="44"/>
-      <c r="Q84" s="44"/>
+      <c r="N84" s="46"/>
+      <c r="O84" s="64"/>
+      <c r="P84" s="46"/>
+      <c r="Q84" s="45"/>
       <c r="R84" s="44"/>
       <c r="S84" s="44"/>
       <c r="T84" s="44"/>
       <c r="U84" s="44"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="44"/>
+      <c r="W84" s="44"/>
+      <c r="X84" s="44"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -5905,16 +7198,19 @@
       <c r="K85" s="45"/>
       <c r="L85" s="46"/>
       <c r="M85" s="46"/>
-      <c r="N85" s="45"/>
-      <c r="O85" s="44"/>
-      <c r="P85" s="44"/>
-      <c r="Q85" s="44"/>
+      <c r="N85" s="46"/>
+      <c r="O85" s="64"/>
+      <c r="P85" s="46"/>
+      <c r="Q85" s="45"/>
       <c r="R85" s="44"/>
       <c r="S85" s="44"/>
       <c r="T85" s="44"/>
       <c r="U85" s="44"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="44"/>
+      <c r="W85" s="44"/>
+      <c r="X85" s="44"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -5928,16 +7224,19 @@
       <c r="K86" s="45"/>
       <c r="L86" s="46"/>
       <c r="M86" s="46"/>
-      <c r="N86" s="45"/>
-      <c r="O86" s="44"/>
-      <c r="P86" s="44"/>
-      <c r="Q86" s="44"/>
+      <c r="N86" s="46"/>
+      <c r="O86" s="64"/>
+      <c r="P86" s="46"/>
+      <c r="Q86" s="45"/>
       <c r="R86" s="44"/>
       <c r="S86" s="44"/>
       <c r="T86" s="44"/>
       <c r="U86" s="44"/>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="44"/>
+      <c r="W86" s="44"/>
+      <c r="X86" s="44"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -5951,16 +7250,19 @@
       <c r="K87" s="45"/>
       <c r="L87" s="46"/>
       <c r="M87" s="46"/>
-      <c r="N87" s="45"/>
-      <c r="O87" s="44"/>
-      <c r="P87" s="44"/>
-      <c r="Q87" s="44"/>
+      <c r="N87" s="46"/>
+      <c r="O87" s="64"/>
+      <c r="P87" s="46"/>
+      <c r="Q87" s="45"/>
       <c r="R87" s="44"/>
       <c r="S87" s="44"/>
       <c r="T87" s="44"/>
       <c r="U87" s="44"/>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="44"/>
+      <c r="W87" s="44"/>
+      <c r="X87" s="44"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -5974,16 +7276,19 @@
       <c r="K88" s="45"/>
       <c r="L88" s="46"/>
       <c r="M88" s="46"/>
-      <c r="N88" s="45"/>
-      <c r="O88" s="44"/>
-      <c r="P88" s="44"/>
-      <c r="Q88" s="44"/>
+      <c r="N88" s="46"/>
+      <c r="O88" s="64"/>
+      <c r="P88" s="46"/>
+      <c r="Q88" s="45"/>
       <c r="R88" s="44"/>
       <c r="S88" s="44"/>
       <c r="T88" s="44"/>
       <c r="U88" s="44"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="44"/>
+      <c r="W88" s="44"/>
+      <c r="X88" s="44"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -5997,16 +7302,19 @@
       <c r="K89" s="45"/>
       <c r="L89" s="46"/>
       <c r="M89" s="46"/>
-      <c r="N89" s="45"/>
-      <c r="O89" s="44"/>
-      <c r="P89" s="44"/>
-      <c r="Q89" s="44"/>
+      <c r="N89" s="46"/>
+      <c r="O89" s="64"/>
+      <c r="P89" s="46"/>
+      <c r="Q89" s="45"/>
       <c r="R89" s="44"/>
       <c r="S89" s="44"/>
       <c r="T89" s="44"/>
       <c r="U89" s="44"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="44"/>
+      <c r="W89" s="44"/>
+      <c r="X89" s="44"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -6020,16 +7328,19 @@
       <c r="K90" s="45"/>
       <c r="L90" s="46"/>
       <c r="M90" s="46"/>
-      <c r="N90" s="45"/>
-      <c r="O90" s="44"/>
-      <c r="P90" s="44"/>
-      <c r="Q90" s="44"/>
+      <c r="N90" s="46"/>
+      <c r="O90" s="64"/>
+      <c r="P90" s="46"/>
+      <c r="Q90" s="45"/>
       <c r="R90" s="44"/>
       <c r="S90" s="44"/>
       <c r="T90" s="44"/>
       <c r="U90" s="44"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="44"/>
+      <c r="W90" s="44"/>
+      <c r="X90" s="44"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -6043,16 +7354,19 @@
       <c r="K91" s="45"/>
       <c r="L91" s="46"/>
       <c r="M91" s="46"/>
-      <c r="N91" s="45"/>
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
+      <c r="N91" s="46"/>
+      <c r="O91" s="64"/>
+      <c r="P91" s="46"/>
+      <c r="Q91" s="45"/>
       <c r="R91" s="44"/>
       <c r="S91" s="44"/>
       <c r="T91" s="44"/>
       <c r="U91" s="44"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="44"/>
+      <c r="W91" s="44"/>
+      <c r="X91" s="44"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -6066,16 +7380,19 @@
       <c r="K92" s="45"/>
       <c r="L92" s="46"/>
       <c r="M92" s="46"/>
-      <c r="N92" s="45"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="64"/>
+      <c r="P92" s="46"/>
+      <c r="Q92" s="45"/>
       <c r="R92" s="44"/>
       <c r="S92" s="44"/>
       <c r="T92" s="44"/>
       <c r="U92" s="44"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="44"/>
+      <c r="W92" s="44"/>
+      <c r="X92" s="44"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -6089,16 +7406,19 @@
       <c r="K93" s="45"/>
       <c r="L93" s="46"/>
       <c r="M93" s="46"/>
-      <c r="N93" s="45"/>
-      <c r="O93" s="44"/>
-      <c r="P93" s="44"/>
-      <c r="Q93" s="44"/>
+      <c r="N93" s="46"/>
+      <c r="O93" s="64"/>
+      <c r="P93" s="46"/>
+      <c r="Q93" s="45"/>
       <c r="R93" s="44"/>
       <c r="S93" s="44"/>
       <c r="T93" s="44"/>
       <c r="U93" s="44"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="44"/>
+      <c r="W93" s="44"/>
+      <c r="X93" s="44"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -6112,16 +7432,19 @@
       <c r="K94" s="45"/>
       <c r="L94" s="46"/>
       <c r="M94" s="46"/>
-      <c r="N94" s="45"/>
-      <c r="O94" s="44"/>
-      <c r="P94" s="44"/>
-      <c r="Q94" s="44"/>
+      <c r="N94" s="46"/>
+      <c r="O94" s="64"/>
+      <c r="P94" s="46"/>
+      <c r="Q94" s="45"/>
       <c r="R94" s="44"/>
       <c r="S94" s="44"/>
       <c r="T94" s="44"/>
       <c r="U94" s="44"/>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="44"/>
+      <c r="W94" s="44"/>
+      <c r="X94" s="44"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -6135,16 +7458,19 @@
       <c r="K95" s="45"/>
       <c r="L95" s="46"/>
       <c r="M95" s="46"/>
-      <c r="N95" s="45"/>
-      <c r="O95" s="44"/>
-      <c r="P95" s="44"/>
-      <c r="Q95" s="44"/>
+      <c r="N95" s="46"/>
+      <c r="O95" s="64"/>
+      <c r="P95" s="46"/>
+      <c r="Q95" s="45"/>
       <c r="R95" s="44"/>
       <c r="S95" s="44"/>
       <c r="T95" s="44"/>
       <c r="U95" s="44"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="44"/>
+      <c r="W95" s="44"/>
+      <c r="X95" s="44"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -6158,16 +7484,19 @@
       <c r="K96" s="45"/>
       <c r="L96" s="46"/>
       <c r="M96" s="46"/>
-      <c r="N96" s="45"/>
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
+      <c r="N96" s="46"/>
+      <c r="O96" s="64"/>
+      <c r="P96" s="46"/>
+      <c r="Q96" s="45"/>
       <c r="R96" s="44"/>
       <c r="S96" s="44"/>
       <c r="T96" s="44"/>
       <c r="U96" s="44"/>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="44"/>
+      <c r="W96" s="44"/>
+      <c r="X96" s="44"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -6181,16 +7510,19 @@
       <c r="K97" s="45"/>
       <c r="L97" s="46"/>
       <c r="M97" s="46"/>
-      <c r="N97" s="45"/>
-      <c r="O97" s="44"/>
-      <c r="P97" s="44"/>
-      <c r="Q97" s="44"/>
+      <c r="N97" s="46"/>
+      <c r="O97" s="64"/>
+      <c r="P97" s="46"/>
+      <c r="Q97" s="45"/>
       <c r="R97" s="44"/>
       <c r="S97" s="44"/>
       <c r="T97" s="44"/>
       <c r="U97" s="44"/>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="44"/>
+      <c r="W97" s="44"/>
+      <c r="X97" s="44"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -6204,16 +7536,19 @@
       <c r="K98" s="45"/>
       <c r="L98" s="46"/>
       <c r="M98" s="46"/>
-      <c r="N98" s="45"/>
-      <c r="O98" s="44"/>
-      <c r="P98" s="44"/>
-      <c r="Q98" s="44"/>
+      <c r="N98" s="46"/>
+      <c r="O98" s="64"/>
+      <c r="P98" s="46"/>
+      <c r="Q98" s="45"/>
       <c r="R98" s="44"/>
       <c r="S98" s="44"/>
       <c r="T98" s="44"/>
       <c r="U98" s="44"/>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="44"/>
+      <c r="W98" s="44"/>
+      <c r="X98" s="44"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -6227,16 +7562,19 @@
       <c r="K99" s="45"/>
       <c r="L99" s="46"/>
       <c r="M99" s="46"/>
-      <c r="N99" s="45"/>
-      <c r="O99" s="44"/>
-      <c r="P99" s="44"/>
-      <c r="Q99" s="44"/>
+      <c r="N99" s="46"/>
+      <c r="O99" s="64"/>
+      <c r="P99" s="46"/>
+      <c r="Q99" s="45"/>
       <c r="R99" s="44"/>
       <c r="S99" s="44"/>
       <c r="T99" s="44"/>
       <c r="U99" s="44"/>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="44"/>
+      <c r="W99" s="44"/>
+      <c r="X99" s="44"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -6250,16 +7588,19 @@
       <c r="K100" s="45"/>
       <c r="L100" s="46"/>
       <c r="M100" s="46"/>
-      <c r="N100" s="45"/>
-      <c r="O100" s="44"/>
-      <c r="P100" s="44"/>
-      <c r="Q100" s="44"/>
+      <c r="N100" s="46"/>
+      <c r="O100" s="64"/>
+      <c r="P100" s="46"/>
+      <c r="Q100" s="45"/>
       <c r="R100" s="44"/>
       <c r="S100" s="44"/>
       <c r="T100" s="44"/>
       <c r="U100" s="44"/>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="44"/>
+      <c r="W100" s="44"/>
+      <c r="X100" s="44"/>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -6273,16 +7614,19 @@
       <c r="K101" s="45"/>
       <c r="L101" s="46"/>
       <c r="M101" s="46"/>
-      <c r="N101" s="45"/>
-      <c r="O101" s="44"/>
-      <c r="P101" s="44"/>
-      <c r="Q101" s="44"/>
+      <c r="N101" s="46"/>
+      <c r="O101" s="64"/>
+      <c r="P101" s="46"/>
+      <c r="Q101" s="45"/>
       <c r="R101" s="44"/>
       <c r="S101" s="44"/>
       <c r="T101" s="44"/>
       <c r="U101" s="44"/>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="44"/>
+      <c r="W101" s="44"/>
+      <c r="X101" s="44"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -6296,16 +7640,19 @@
       <c r="K102" s="45"/>
       <c r="L102" s="46"/>
       <c r="M102" s="46"/>
-      <c r="N102" s="45"/>
-      <c r="O102" s="44"/>
-      <c r="P102" s="44"/>
-      <c r="Q102" s="44"/>
+      <c r="N102" s="46"/>
+      <c r="O102" s="64"/>
+      <c r="P102" s="46"/>
+      <c r="Q102" s="45"/>
       <c r="R102" s="44"/>
       <c r="S102" s="44"/>
       <c r="T102" s="44"/>
       <c r="U102" s="44"/>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V102" s="44"/>
+      <c r="W102" s="44"/>
+      <c r="X102" s="44"/>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -6319,16 +7666,19 @@
       <c r="K103" s="45"/>
       <c r="L103" s="46"/>
       <c r="M103" s="46"/>
-      <c r="N103" s="45"/>
-      <c r="O103" s="44"/>
-      <c r="P103" s="44"/>
-      <c r="Q103" s="44"/>
+      <c r="N103" s="46"/>
+      <c r="O103" s="64"/>
+      <c r="P103" s="46"/>
+      <c r="Q103" s="45"/>
       <c r="R103" s="44"/>
       <c r="S103" s="44"/>
       <c r="T103" s="44"/>
       <c r="U103" s="44"/>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V103" s="44"/>
+      <c r="W103" s="44"/>
+      <c r="X103" s="44"/>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -6342,16 +7692,19 @@
       <c r="K104" s="45"/>
       <c r="L104" s="46"/>
       <c r="M104" s="46"/>
-      <c r="N104" s="45"/>
-      <c r="O104" s="44"/>
-      <c r="P104" s="44"/>
-      <c r="Q104" s="44"/>
+      <c r="N104" s="46"/>
+      <c r="O104" s="64"/>
+      <c r="P104" s="46"/>
+      <c r="Q104" s="45"/>
       <c r="R104" s="44"/>
       <c r="S104" s="44"/>
       <c r="T104" s="44"/>
       <c r="U104" s="44"/>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V104" s="44"/>
+      <c r="W104" s="44"/>
+      <c r="X104" s="44"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -6365,16 +7718,19 @@
       <c r="K105" s="45"/>
       <c r="L105" s="46"/>
       <c r="M105" s="46"/>
-      <c r="N105" s="45"/>
-      <c r="O105" s="44"/>
-      <c r="P105" s="44"/>
-      <c r="Q105" s="44"/>
+      <c r="N105" s="46"/>
+      <c r="O105" s="64"/>
+      <c r="P105" s="46"/>
+      <c r="Q105" s="45"/>
       <c r="R105" s="44"/>
       <c r="S105" s="44"/>
       <c r="T105" s="44"/>
       <c r="U105" s="44"/>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V105" s="44"/>
+      <c r="W105" s="44"/>
+      <c r="X105" s="44"/>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -6388,16 +7744,19 @@
       <c r="K106" s="45"/>
       <c r="L106" s="46"/>
       <c r="M106" s="46"/>
-      <c r="N106" s="45"/>
-      <c r="O106" s="44"/>
-      <c r="P106" s="44"/>
-      <c r="Q106" s="44"/>
+      <c r="N106" s="46"/>
+      <c r="O106" s="64"/>
+      <c r="P106" s="46"/>
+      <c r="Q106" s="45"/>
       <c r="R106" s="44"/>
       <c r="S106" s="44"/>
       <c r="T106" s="44"/>
       <c r="U106" s="44"/>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V106" s="44"/>
+      <c r="W106" s="44"/>
+      <c r="X106" s="44"/>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -6411,16 +7770,19 @@
       <c r="K107" s="45"/>
       <c r="L107" s="46"/>
       <c r="M107" s="46"/>
-      <c r="N107" s="45"/>
-      <c r="O107" s="44"/>
-      <c r="P107" s="44"/>
-      <c r="Q107" s="44"/>
+      <c r="N107" s="46"/>
+      <c r="O107" s="64"/>
+      <c r="P107" s="46"/>
+      <c r="Q107" s="45"/>
       <c r="R107" s="44"/>
       <c r="S107" s="44"/>
       <c r="T107" s="44"/>
       <c r="U107" s="44"/>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V107" s="44"/>
+      <c r="W107" s="44"/>
+      <c r="X107" s="44"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -6434,16 +7796,19 @@
       <c r="K108" s="45"/>
       <c r="L108" s="46"/>
       <c r="M108" s="46"/>
-      <c r="N108" s="45"/>
-      <c r="O108" s="44"/>
-      <c r="P108" s="44"/>
-      <c r="Q108" s="44"/>
+      <c r="N108" s="46"/>
+      <c r="O108" s="64"/>
+      <c r="P108" s="46"/>
+      <c r="Q108" s="45"/>
       <c r="R108" s="44"/>
       <c r="S108" s="44"/>
       <c r="T108" s="44"/>
       <c r="U108" s="44"/>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V108" s="44"/>
+      <c r="W108" s="44"/>
+      <c r="X108" s="44"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -6457,16 +7822,19 @@
       <c r="K109" s="45"/>
       <c r="L109" s="46"/>
       <c r="M109" s="46"/>
-      <c r="N109" s="45"/>
-      <c r="O109" s="44"/>
-      <c r="P109" s="44"/>
-      <c r="Q109" s="44"/>
+      <c r="N109" s="46"/>
+      <c r="O109" s="64"/>
+      <c r="P109" s="46"/>
+      <c r="Q109" s="45"/>
       <c r="R109" s="44"/>
       <c r="S109" s="44"/>
       <c r="T109" s="44"/>
       <c r="U109" s="44"/>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V109" s="44"/>
+      <c r="W109" s="44"/>
+      <c r="X109" s="44"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -6480,16 +7848,19 @@
       <c r="K110" s="45"/>
       <c r="L110" s="46"/>
       <c r="M110" s="46"/>
-      <c r="N110" s="45"/>
-      <c r="O110" s="44"/>
-      <c r="P110" s="44"/>
-      <c r="Q110" s="44"/>
+      <c r="N110" s="46"/>
+      <c r="O110" s="64"/>
+      <c r="P110" s="46"/>
+      <c r="Q110" s="45"/>
       <c r="R110" s="44"/>
       <c r="S110" s="44"/>
       <c r="T110" s="44"/>
       <c r="U110" s="44"/>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V110" s="44"/>
+      <c r="W110" s="44"/>
+      <c r="X110" s="44"/>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -6503,16 +7874,19 @@
       <c r="K111" s="45"/>
       <c r="L111" s="46"/>
       <c r="M111" s="46"/>
-      <c r="N111" s="45"/>
-      <c r="O111" s="44"/>
-      <c r="P111" s="44"/>
-      <c r="Q111" s="44"/>
+      <c r="N111" s="46"/>
+      <c r="O111" s="64"/>
+      <c r="P111" s="46"/>
+      <c r="Q111" s="45"/>
       <c r="R111" s="44"/>
       <c r="S111" s="44"/>
       <c r="T111" s="44"/>
       <c r="U111" s="44"/>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V111" s="44"/>
+      <c r="W111" s="44"/>
+      <c r="X111" s="44"/>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -6526,16 +7900,19 @@
       <c r="K112" s="45"/>
       <c r="L112" s="46"/>
       <c r="M112" s="46"/>
-      <c r="N112" s="45"/>
-      <c r="O112" s="44"/>
-      <c r="P112" s="44"/>
-      <c r="Q112" s="44"/>
+      <c r="N112" s="46"/>
+      <c r="O112" s="64"/>
+      <c r="P112" s="46"/>
+      <c r="Q112" s="45"/>
       <c r="R112" s="44"/>
       <c r="S112" s="44"/>
       <c r="T112" s="44"/>
       <c r="U112" s="44"/>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V112" s="44"/>
+      <c r="W112" s="44"/>
+      <c r="X112" s="44"/>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -6549,16 +7926,19 @@
       <c r="K113" s="45"/>
       <c r="L113" s="46"/>
       <c r="M113" s="46"/>
-      <c r="N113" s="45"/>
-      <c r="O113" s="44"/>
-      <c r="P113" s="44"/>
-      <c r="Q113" s="44"/>
+      <c r="N113" s="46"/>
+      <c r="O113" s="64"/>
+      <c r="P113" s="46"/>
+      <c r="Q113" s="45"/>
       <c r="R113" s="44"/>
       <c r="S113" s="44"/>
       <c r="T113" s="44"/>
       <c r="U113" s="44"/>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V113" s="44"/>
+      <c r="W113" s="44"/>
+      <c r="X113" s="44"/>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -6572,16 +7952,19 @@
       <c r="K114" s="45"/>
       <c r="L114" s="46"/>
       <c r="M114" s="46"/>
-      <c r="N114" s="45"/>
-      <c r="O114" s="44"/>
-      <c r="P114" s="44"/>
-      <c r="Q114" s="44"/>
+      <c r="N114" s="46"/>
+      <c r="O114" s="64"/>
+      <c r="P114" s="46"/>
+      <c r="Q114" s="45"/>
       <c r="R114" s="44"/>
       <c r="S114" s="44"/>
       <c r="T114" s="44"/>
       <c r="U114" s="44"/>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V114" s="44"/>
+      <c r="W114" s="44"/>
+      <c r="X114" s="44"/>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -6595,16 +7978,19 @@
       <c r="K115" s="45"/>
       <c r="L115" s="46"/>
       <c r="M115" s="46"/>
-      <c r="N115" s="45"/>
-      <c r="O115" s="44"/>
-      <c r="P115" s="44"/>
-      <c r="Q115" s="44"/>
+      <c r="N115" s="46"/>
+      <c r="O115" s="64"/>
+      <c r="P115" s="46"/>
+      <c r="Q115" s="45"/>
       <c r="R115" s="44"/>
       <c r="S115" s="44"/>
       <c r="T115" s="44"/>
       <c r="U115" s="44"/>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V115" s="44"/>
+      <c r="W115" s="44"/>
+      <c r="X115" s="44"/>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -6618,16 +8004,19 @@
       <c r="K116" s="45"/>
       <c r="L116" s="46"/>
       <c r="M116" s="46"/>
-      <c r="N116" s="45"/>
-      <c r="O116" s="44"/>
-      <c r="P116" s="44"/>
-      <c r="Q116" s="44"/>
+      <c r="N116" s="46"/>
+      <c r="O116" s="64"/>
+      <c r="P116" s="46"/>
+      <c r="Q116" s="45"/>
       <c r="R116" s="44"/>
       <c r="S116" s="44"/>
       <c r="T116" s="44"/>
       <c r="U116" s="44"/>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V116" s="44"/>
+      <c r="W116" s="44"/>
+      <c r="X116" s="44"/>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -6641,16 +8030,19 @@
       <c r="K117" s="45"/>
       <c r="L117" s="46"/>
       <c r="M117" s="46"/>
-      <c r="N117" s="45"/>
-      <c r="O117" s="44"/>
-      <c r="P117" s="44"/>
-      <c r="Q117" s="44"/>
+      <c r="N117" s="46"/>
+      <c r="O117" s="64"/>
+      <c r="P117" s="46"/>
+      <c r="Q117" s="45"/>
       <c r="R117" s="44"/>
       <c r="S117" s="44"/>
       <c r="T117" s="44"/>
       <c r="U117" s="44"/>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V117" s="44"/>
+      <c r="W117" s="44"/>
+      <c r="X117" s="44"/>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -6664,16 +8056,19 @@
       <c r="K118" s="45"/>
       <c r="L118" s="46"/>
       <c r="M118" s="46"/>
-      <c r="N118" s="45"/>
-      <c r="O118" s="44"/>
-      <c r="P118" s="44"/>
-      <c r="Q118" s="44"/>
+      <c r="N118" s="46"/>
+      <c r="O118" s="64"/>
+      <c r="P118" s="46"/>
+      <c r="Q118" s="45"/>
       <c r="R118" s="44"/>
       <c r="S118" s="44"/>
       <c r="T118" s="44"/>
       <c r="U118" s="44"/>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V118" s="44"/>
+      <c r="W118" s="44"/>
+      <c r="X118" s="44"/>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -6687,16 +8082,19 @@
       <c r="K119" s="45"/>
       <c r="L119" s="46"/>
       <c r="M119" s="46"/>
-      <c r="N119" s="45"/>
-      <c r="O119" s="44"/>
-      <c r="P119" s="44"/>
-      <c r="Q119" s="44"/>
+      <c r="N119" s="46"/>
+      <c r="O119" s="64"/>
+      <c r="P119" s="46"/>
+      <c r="Q119" s="45"/>
       <c r="R119" s="44"/>
       <c r="S119" s="44"/>
       <c r="T119" s="44"/>
       <c r="U119" s="44"/>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V119" s="44"/>
+      <c r="W119" s="44"/>
+      <c r="X119" s="44"/>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -6710,16 +8108,19 @@
       <c r="K120" s="45"/>
       <c r="L120" s="46"/>
       <c r="M120" s="46"/>
-      <c r="N120" s="45"/>
-      <c r="O120" s="44"/>
-      <c r="P120" s="44"/>
-      <c r="Q120" s="44"/>
+      <c r="N120" s="46"/>
+      <c r="O120" s="64"/>
+      <c r="P120" s="46"/>
+      <c r="Q120" s="45"/>
       <c r="R120" s="44"/>
       <c r="S120" s="44"/>
       <c r="T120" s="44"/>
       <c r="U120" s="44"/>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V120" s="44"/>
+      <c r="W120" s="44"/>
+      <c r="X120" s="44"/>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -6733,16 +8134,19 @@
       <c r="K121" s="45"/>
       <c r="L121" s="46"/>
       <c r="M121" s="46"/>
-      <c r="N121" s="45"/>
-      <c r="O121" s="44"/>
-      <c r="P121" s="44"/>
-      <c r="Q121" s="44"/>
+      <c r="N121" s="46"/>
+      <c r="O121" s="64"/>
+      <c r="P121" s="46"/>
+      <c r="Q121" s="45"/>
       <c r="R121" s="44"/>
       <c r="S121" s="44"/>
       <c r="T121" s="44"/>
       <c r="U121" s="44"/>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V121" s="44"/>
+      <c r="W121" s="44"/>
+      <c r="X121" s="44"/>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -6756,16 +8160,19 @@
       <c r="K122" s="45"/>
       <c r="L122" s="46"/>
       <c r="M122" s="46"/>
-      <c r="N122" s="45"/>
-      <c r="O122" s="44"/>
-      <c r="P122" s="44"/>
-      <c r="Q122" s="44"/>
+      <c r="N122" s="46"/>
+      <c r="O122" s="64"/>
+      <c r="P122" s="46"/>
+      <c r="Q122" s="45"/>
       <c r="R122" s="44"/>
       <c r="S122" s="44"/>
       <c r="T122" s="44"/>
       <c r="U122" s="44"/>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V122" s="44"/>
+      <c r="W122" s="44"/>
+      <c r="X122" s="44"/>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -6779,16 +8186,19 @@
       <c r="K123" s="45"/>
       <c r="L123" s="46"/>
       <c r="M123" s="46"/>
-      <c r="N123" s="45"/>
-      <c r="O123" s="44"/>
-      <c r="P123" s="44"/>
-      <c r="Q123" s="44"/>
+      <c r="N123" s="46"/>
+      <c r="O123" s="64"/>
+      <c r="P123" s="46"/>
+      <c r="Q123" s="45"/>
       <c r="R123" s="44"/>
       <c r="S123" s="44"/>
       <c r="T123" s="44"/>
       <c r="U123" s="44"/>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V123" s="44"/>
+      <c r="W123" s="44"/>
+      <c r="X123" s="44"/>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -6802,16 +8212,19 @@
       <c r="K124" s="45"/>
       <c r="L124" s="46"/>
       <c r="M124" s="46"/>
-      <c r="N124" s="45"/>
-      <c r="O124" s="44"/>
-      <c r="P124" s="44"/>
-      <c r="Q124" s="44"/>
+      <c r="N124" s="46"/>
+      <c r="O124" s="64"/>
+      <c r="P124" s="46"/>
+      <c r="Q124" s="45"/>
       <c r="R124" s="44"/>
       <c r="S124" s="44"/>
       <c r="T124" s="44"/>
       <c r="U124" s="44"/>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V124" s="44"/>
+      <c r="W124" s="44"/>
+      <c r="X124" s="44"/>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -6825,16 +8238,19 @@
       <c r="K125" s="45"/>
       <c r="L125" s="46"/>
       <c r="M125" s="46"/>
-      <c r="N125" s="45"/>
-      <c r="O125" s="44"/>
-      <c r="P125" s="44"/>
-      <c r="Q125" s="44"/>
+      <c r="N125" s="46"/>
+      <c r="O125" s="64"/>
+      <c r="P125" s="46"/>
+      <c r="Q125" s="45"/>
       <c r="R125" s="44"/>
       <c r="S125" s="44"/>
       <c r="T125" s="44"/>
       <c r="U125" s="44"/>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V125" s="44"/>
+      <c r="W125" s="44"/>
+      <c r="X125" s="44"/>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -6848,16 +8264,19 @@
       <c r="K126" s="45"/>
       <c r="L126" s="46"/>
       <c r="M126" s="46"/>
-      <c r="N126" s="45"/>
-      <c r="O126" s="44"/>
-      <c r="P126" s="44"/>
-      <c r="Q126" s="44"/>
+      <c r="N126" s="46"/>
+      <c r="O126" s="64"/>
+      <c r="P126" s="46"/>
+      <c r="Q126" s="45"/>
       <c r="R126" s="44"/>
       <c r="S126" s="44"/>
       <c r="T126" s="44"/>
       <c r="U126" s="44"/>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V126" s="44"/>
+      <c r="W126" s="44"/>
+      <c r="X126" s="44"/>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -6871,16 +8290,19 @@
       <c r="K127" s="45"/>
       <c r="L127" s="46"/>
       <c r="M127" s="46"/>
-      <c r="N127" s="45"/>
-      <c r="O127" s="44"/>
-      <c r="P127" s="44"/>
-      <c r="Q127" s="44"/>
+      <c r="N127" s="46"/>
+      <c r="O127" s="64"/>
+      <c r="P127" s="46"/>
+      <c r="Q127" s="45"/>
       <c r="R127" s="44"/>
       <c r="S127" s="44"/>
       <c r="T127" s="44"/>
       <c r="U127" s="44"/>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V127" s="44"/>
+      <c r="W127" s="44"/>
+      <c r="X127" s="44"/>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -6894,16 +8316,19 @@
       <c r="K128" s="45"/>
       <c r="L128" s="46"/>
       <c r="M128" s="46"/>
-      <c r="N128" s="45"/>
-      <c r="O128" s="44"/>
-      <c r="P128" s="44"/>
-      <c r="Q128" s="44"/>
+      <c r="N128" s="46"/>
+      <c r="O128" s="64"/>
+      <c r="P128" s="46"/>
+      <c r="Q128" s="45"/>
       <c r="R128" s="44"/>
       <c r="S128" s="44"/>
       <c r="T128" s="44"/>
       <c r="U128" s="44"/>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V128" s="44"/>
+      <c r="W128" s="44"/>
+      <c r="X128" s="44"/>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -6917,16 +8342,19 @@
       <c r="K129" s="45"/>
       <c r="L129" s="46"/>
       <c r="M129" s="46"/>
-      <c r="N129" s="45"/>
-      <c r="O129" s="44"/>
-      <c r="P129" s="44"/>
-      <c r="Q129" s="44"/>
+      <c r="N129" s="46"/>
+      <c r="O129" s="64"/>
+      <c r="P129" s="46"/>
+      <c r="Q129" s="45"/>
       <c r="R129" s="44"/>
       <c r="S129" s="44"/>
       <c r="T129" s="44"/>
       <c r="U129" s="44"/>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V129" s="44"/>
+      <c r="W129" s="44"/>
+      <c r="X129" s="44"/>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -6940,16 +8368,19 @@
       <c r="K130" s="45"/>
       <c r="L130" s="46"/>
       <c r="M130" s="46"/>
-      <c r="N130" s="45"/>
-      <c r="O130" s="44"/>
-      <c r="P130" s="44"/>
-      <c r="Q130" s="44"/>
+      <c r="N130" s="46"/>
+      <c r="O130" s="64"/>
+      <c r="P130" s="46"/>
+      <c r="Q130" s="45"/>
       <c r="R130" s="44"/>
       <c r="S130" s="44"/>
       <c r="T130" s="44"/>
       <c r="U130" s="44"/>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V130" s="44"/>
+      <c r="W130" s="44"/>
+      <c r="X130" s="44"/>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -6963,16 +8394,19 @@
       <c r="K131" s="45"/>
       <c r="L131" s="46"/>
       <c r="M131" s="46"/>
-      <c r="N131" s="45"/>
-      <c r="O131" s="44"/>
-      <c r="P131" s="44"/>
-      <c r="Q131" s="44"/>
+      <c r="N131" s="46"/>
+      <c r="O131" s="64"/>
+      <c r="P131" s="46"/>
+      <c r="Q131" s="45"/>
       <c r="R131" s="44"/>
       <c r="S131" s="44"/>
       <c r="T131" s="44"/>
       <c r="U131" s="44"/>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V131" s="44"/>
+      <c r="W131" s="44"/>
+      <c r="X131" s="44"/>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -6986,16 +8420,19 @@
       <c r="K132" s="45"/>
       <c r="L132" s="46"/>
       <c r="M132" s="46"/>
-      <c r="N132" s="45"/>
-      <c r="O132" s="44"/>
-      <c r="P132" s="44"/>
-      <c r="Q132" s="44"/>
+      <c r="N132" s="46"/>
+      <c r="O132" s="64"/>
+      <c r="P132" s="46"/>
+      <c r="Q132" s="45"/>
       <c r="R132" s="44"/>
       <c r="S132" s="44"/>
       <c r="T132" s="44"/>
       <c r="U132" s="44"/>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V132" s="44"/>
+      <c r="W132" s="44"/>
+      <c r="X132" s="44"/>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -7009,16 +8446,19 @@
       <c r="K133" s="45"/>
       <c r="L133" s="46"/>
       <c r="M133" s="46"/>
-      <c r="N133" s="45"/>
-      <c r="O133" s="44"/>
-      <c r="P133" s="44"/>
-      <c r="Q133" s="44"/>
+      <c r="N133" s="46"/>
+      <c r="O133" s="64"/>
+      <c r="P133" s="46"/>
+      <c r="Q133" s="45"/>
       <c r="R133" s="44"/>
       <c r="S133" s="44"/>
       <c r="T133" s="44"/>
       <c r="U133" s="44"/>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V133" s="44"/>
+      <c r="W133" s="44"/>
+      <c r="X133" s="44"/>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -7032,16 +8472,19 @@
       <c r="K134" s="45"/>
       <c r="L134" s="46"/>
       <c r="M134" s="46"/>
-      <c r="N134" s="45"/>
-      <c r="O134" s="44"/>
-      <c r="P134" s="44"/>
-      <c r="Q134" s="44"/>
+      <c r="N134" s="46"/>
+      <c r="O134" s="64"/>
+      <c r="P134" s="46"/>
+      <c r="Q134" s="45"/>
       <c r="R134" s="44"/>
       <c r="S134" s="44"/>
       <c r="T134" s="44"/>
       <c r="U134" s="44"/>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V134" s="44"/>
+      <c r="W134" s="44"/>
+      <c r="X134" s="44"/>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -7055,16 +8498,19 @@
       <c r="K135" s="45"/>
       <c r="L135" s="46"/>
       <c r="M135" s="46"/>
-      <c r="N135" s="45"/>
-      <c r="O135" s="44"/>
-      <c r="P135" s="44"/>
-      <c r="Q135" s="44"/>
+      <c r="N135" s="46"/>
+      <c r="O135" s="64"/>
+      <c r="P135" s="46"/>
+      <c r="Q135" s="45"/>
       <c r="R135" s="44"/>
       <c r="S135" s="44"/>
       <c r="T135" s="44"/>
       <c r="U135" s="44"/>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V135" s="44"/>
+      <c r="W135" s="44"/>
+      <c r="X135" s="44"/>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -7078,16 +8524,19 @@
       <c r="K136" s="45"/>
       <c r="L136" s="46"/>
       <c r="M136" s="46"/>
-      <c r="N136" s="45"/>
-      <c r="O136" s="44"/>
-      <c r="P136" s="44"/>
-      <c r="Q136" s="44"/>
+      <c r="N136" s="46"/>
+      <c r="O136" s="64"/>
+      <c r="P136" s="46"/>
+      <c r="Q136" s="45"/>
       <c r="R136" s="44"/>
       <c r="S136" s="44"/>
       <c r="T136" s="44"/>
       <c r="U136" s="44"/>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V136" s="44"/>
+      <c r="W136" s="44"/>
+      <c r="X136" s="44"/>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -7101,16 +8550,19 @@
       <c r="K137" s="45"/>
       <c r="L137" s="46"/>
       <c r="M137" s="46"/>
-      <c r="N137" s="45"/>
-      <c r="O137" s="44"/>
-      <c r="P137" s="44"/>
-      <c r="Q137" s="44"/>
+      <c r="N137" s="46"/>
+      <c r="O137" s="64"/>
+      <c r="P137" s="46"/>
+      <c r="Q137" s="45"/>
       <c r="R137" s="44"/>
       <c r="S137" s="44"/>
       <c r="T137" s="44"/>
       <c r="U137" s="44"/>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V137" s="44"/>
+      <c r="W137" s="44"/>
+      <c r="X137" s="44"/>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -7124,16 +8576,19 @@
       <c r="K138" s="45"/>
       <c r="L138" s="46"/>
       <c r="M138" s="46"/>
-      <c r="N138" s="45"/>
-      <c r="O138" s="44"/>
-      <c r="P138" s="44"/>
-      <c r="Q138" s="44"/>
+      <c r="N138" s="46"/>
+      <c r="O138" s="64"/>
+      <c r="P138" s="46"/>
+      <c r="Q138" s="45"/>
       <c r="R138" s="44"/>
       <c r="S138" s="44"/>
       <c r="T138" s="44"/>
       <c r="U138" s="44"/>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V138" s="44"/>
+      <c r="W138" s="44"/>
+      <c r="X138" s="44"/>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -7147,16 +8602,19 @@
       <c r="K139" s="45"/>
       <c r="L139" s="46"/>
       <c r="M139" s="46"/>
-      <c r="N139" s="45"/>
-      <c r="O139" s="44"/>
-      <c r="P139" s="44"/>
-      <c r="Q139" s="44"/>
+      <c r="N139" s="46"/>
+      <c r="O139" s="64"/>
+      <c r="P139" s="46"/>
+      <c r="Q139" s="45"/>
       <c r="R139" s="44"/>
       <c r="S139" s="44"/>
       <c r="T139" s="44"/>
       <c r="U139" s="44"/>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V139" s="44"/>
+      <c r="W139" s="44"/>
+      <c r="X139" s="44"/>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -7170,16 +8628,19 @@
       <c r="K140" s="45"/>
       <c r="L140" s="46"/>
       <c r="M140" s="46"/>
-      <c r="N140" s="45"/>
-      <c r="O140" s="44"/>
-      <c r="P140" s="44"/>
-      <c r="Q140" s="44"/>
+      <c r="N140" s="46"/>
+      <c r="O140" s="64"/>
+      <c r="P140" s="46"/>
+      <c r="Q140" s="45"/>
       <c r="R140" s="44"/>
       <c r="S140" s="44"/>
       <c r="T140" s="44"/>
       <c r="U140" s="44"/>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V140" s="44"/>
+      <c r="W140" s="44"/>
+      <c r="X140" s="44"/>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -7193,16 +8654,19 @@
       <c r="K141" s="45"/>
       <c r="L141" s="46"/>
       <c r="M141" s="46"/>
-      <c r="N141" s="45"/>
-      <c r="O141" s="44"/>
-      <c r="P141" s="44"/>
-      <c r="Q141" s="44"/>
+      <c r="N141" s="46"/>
+      <c r="O141" s="64"/>
+      <c r="P141" s="46"/>
+      <c r="Q141" s="45"/>
       <c r="R141" s="44"/>
       <c r="S141" s="44"/>
       <c r="T141" s="44"/>
       <c r="U141" s="44"/>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V141" s="44"/>
+      <c r="W141" s="44"/>
+      <c r="X141" s="44"/>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -7216,16 +8680,19 @@
       <c r="K142" s="45"/>
       <c r="L142" s="46"/>
       <c r="M142" s="46"/>
-      <c r="N142" s="45"/>
-      <c r="O142" s="44"/>
-      <c r="P142" s="44"/>
-      <c r="Q142" s="44"/>
+      <c r="N142" s="46"/>
+      <c r="O142" s="64"/>
+      <c r="P142" s="46"/>
+      <c r="Q142" s="45"/>
       <c r="R142" s="44"/>
       <c r="S142" s="44"/>
       <c r="T142" s="44"/>
       <c r="U142" s="44"/>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V142" s="44"/>
+      <c r="W142" s="44"/>
+      <c r="X142" s="44"/>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -7239,16 +8706,19 @@
       <c r="K143" s="45"/>
       <c r="L143" s="46"/>
       <c r="M143" s="46"/>
-      <c r="N143" s="45"/>
-      <c r="O143" s="44"/>
-      <c r="P143" s="44"/>
-      <c r="Q143" s="44"/>
+      <c r="N143" s="46"/>
+      <c r="O143" s="64"/>
+      <c r="P143" s="46"/>
+      <c r="Q143" s="45"/>
       <c r="R143" s="44"/>
       <c r="S143" s="44"/>
       <c r="T143" s="44"/>
       <c r="U143" s="44"/>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V143" s="44"/>
+      <c r="W143" s="44"/>
+      <c r="X143" s="44"/>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -7262,16 +8732,19 @@
       <c r="K144" s="45"/>
       <c r="L144" s="46"/>
       <c r="M144" s="46"/>
-      <c r="N144" s="45"/>
-      <c r="O144" s="44"/>
-      <c r="P144" s="44"/>
-      <c r="Q144" s="44"/>
+      <c r="N144" s="46"/>
+      <c r="O144" s="64"/>
+      <c r="P144" s="46"/>
+      <c r="Q144" s="45"/>
       <c r="R144" s="44"/>
       <c r="S144" s="44"/>
       <c r="T144" s="44"/>
       <c r="U144" s="44"/>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V144" s="44"/>
+      <c r="W144" s="44"/>
+      <c r="X144" s="44"/>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -7285,16 +8758,19 @@
       <c r="K145" s="45"/>
       <c r="L145" s="46"/>
       <c r="M145" s="46"/>
-      <c r="N145" s="45"/>
-      <c r="O145" s="44"/>
-      <c r="P145" s="44"/>
-      <c r="Q145" s="44"/>
+      <c r="N145" s="46"/>
+      <c r="O145" s="64"/>
+      <c r="P145" s="46"/>
+      <c r="Q145" s="45"/>
       <c r="R145" s="44"/>
       <c r="S145" s="44"/>
       <c r="T145" s="44"/>
       <c r="U145" s="44"/>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V145" s="44"/>
+      <c r="W145" s="44"/>
+      <c r="X145" s="44"/>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -7308,16 +8784,19 @@
       <c r="K146" s="45"/>
       <c r="L146" s="46"/>
       <c r="M146" s="46"/>
-      <c r="N146" s="45"/>
-      <c r="O146" s="44"/>
-      <c r="P146" s="44"/>
-      <c r="Q146" s="44"/>
+      <c r="N146" s="46"/>
+      <c r="O146" s="64"/>
+      <c r="P146" s="46"/>
+      <c r="Q146" s="45"/>
       <c r="R146" s="44"/>
       <c r="S146" s="44"/>
       <c r="T146" s="44"/>
       <c r="U146" s="44"/>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V146" s="44"/>
+      <c r="W146" s="44"/>
+      <c r="X146" s="44"/>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -7331,16 +8810,19 @@
       <c r="K147" s="45"/>
       <c r="L147" s="46"/>
       <c r="M147" s="46"/>
-      <c r="N147" s="45"/>
-      <c r="O147" s="44"/>
-      <c r="P147" s="44"/>
-      <c r="Q147" s="44"/>
+      <c r="N147" s="46"/>
+      <c r="O147" s="64"/>
+      <c r="P147" s="46"/>
+      <c r="Q147" s="45"/>
       <c r="R147" s="44"/>
       <c r="S147" s="44"/>
       <c r="T147" s="44"/>
       <c r="U147" s="44"/>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V147" s="44"/>
+      <c r="W147" s="44"/>
+      <c r="X147" s="44"/>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -7354,16 +8836,19 @@
       <c r="K148" s="45"/>
       <c r="L148" s="46"/>
       <c r="M148" s="46"/>
-      <c r="N148" s="45"/>
-      <c r="O148" s="44"/>
-      <c r="P148" s="44"/>
-      <c r="Q148" s="44"/>
+      <c r="N148" s="46"/>
+      <c r="O148" s="64"/>
+      <c r="P148" s="46"/>
+      <c r="Q148" s="45"/>
       <c r="R148" s="44"/>
       <c r="S148" s="44"/>
       <c r="T148" s="44"/>
       <c r="U148" s="44"/>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V148" s="44"/>
+      <c r="W148" s="44"/>
+      <c r="X148" s="44"/>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -7377,16 +8862,19 @@
       <c r="K149" s="45"/>
       <c r="L149" s="46"/>
       <c r="M149" s="46"/>
-      <c r="N149" s="45"/>
-      <c r="O149" s="44"/>
-      <c r="P149" s="44"/>
-      <c r="Q149" s="44"/>
+      <c r="N149" s="46"/>
+      <c r="O149" s="64"/>
+      <c r="P149" s="46"/>
+      <c r="Q149" s="45"/>
       <c r="R149" s="44"/>
       <c r="S149" s="44"/>
       <c r="T149" s="44"/>
       <c r="U149" s="44"/>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V149" s="44"/>
+      <c r="W149" s="44"/>
+      <c r="X149" s="44"/>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -7400,16 +8888,19 @@
       <c r="K150" s="45"/>
       <c r="L150" s="46"/>
       <c r="M150" s="46"/>
-      <c r="N150" s="45"/>
-      <c r="O150" s="44"/>
-      <c r="P150" s="44"/>
-      <c r="Q150" s="44"/>
+      <c r="N150" s="46"/>
+      <c r="O150" s="64"/>
+      <c r="P150" s="46"/>
+      <c r="Q150" s="45"/>
       <c r="R150" s="44"/>
       <c r="S150" s="44"/>
       <c r="T150" s="44"/>
       <c r="U150" s="44"/>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V150" s="44"/>
+      <c r="W150" s="44"/>
+      <c r="X150" s="44"/>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -7423,16 +8914,19 @@
       <c r="K151" s="45"/>
       <c r="L151" s="46"/>
       <c r="M151" s="46"/>
-      <c r="N151" s="45"/>
-      <c r="O151" s="44"/>
-      <c r="P151" s="44"/>
-      <c r="Q151" s="44"/>
+      <c r="N151" s="46"/>
+      <c r="O151" s="64"/>
+      <c r="P151" s="46"/>
+      <c r="Q151" s="45"/>
       <c r="R151" s="44"/>
       <c r="S151" s="44"/>
       <c r="T151" s="44"/>
       <c r="U151" s="44"/>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V151" s="44"/>
+      <c r="W151" s="44"/>
+      <c r="X151" s="44"/>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -7446,16 +8940,19 @@
       <c r="K152" s="45"/>
       <c r="L152" s="46"/>
       <c r="M152" s="46"/>
-      <c r="N152" s="45"/>
-      <c r="O152" s="44"/>
-      <c r="P152" s="44"/>
-      <c r="Q152" s="44"/>
+      <c r="N152" s="46"/>
+      <c r="O152" s="64"/>
+      <c r="P152" s="46"/>
+      <c r="Q152" s="45"/>
       <c r="R152" s="44"/>
       <c r="S152" s="44"/>
       <c r="T152" s="44"/>
       <c r="U152" s="44"/>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V152" s="44"/>
+      <c r="W152" s="44"/>
+      <c r="X152" s="44"/>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -7469,16 +8966,19 @@
       <c r="K153" s="45"/>
       <c r="L153" s="46"/>
       <c r="M153" s="46"/>
-      <c r="N153" s="45"/>
-      <c r="O153" s="44"/>
-      <c r="P153" s="44"/>
-      <c r="Q153" s="44"/>
+      <c r="N153" s="46"/>
+      <c r="O153" s="64"/>
+      <c r="P153" s="46"/>
+      <c r="Q153" s="45"/>
       <c r="R153" s="44"/>
       <c r="S153" s="44"/>
       <c r="T153" s="44"/>
       <c r="U153" s="44"/>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V153" s="44"/>
+      <c r="W153" s="44"/>
+      <c r="X153" s="44"/>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -7492,16 +8992,19 @@
       <c r="K154" s="45"/>
       <c r="L154" s="46"/>
       <c r="M154" s="46"/>
-      <c r="N154" s="45"/>
-      <c r="O154" s="44"/>
-      <c r="P154" s="44"/>
-      <c r="Q154" s="44"/>
+      <c r="N154" s="46"/>
+      <c r="O154" s="64"/>
+      <c r="P154" s="46"/>
+      <c r="Q154" s="45"/>
       <c r="R154" s="44"/>
       <c r="S154" s="44"/>
       <c r="T154" s="44"/>
       <c r="U154" s="44"/>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V154" s="44"/>
+      <c r="W154" s="44"/>
+      <c r="X154" s="44"/>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -7515,16 +9018,19 @@
       <c r="K155" s="45"/>
       <c r="L155" s="46"/>
       <c r="M155" s="46"/>
-      <c r="N155" s="45"/>
-      <c r="O155" s="44"/>
-      <c r="P155" s="44"/>
-      <c r="Q155" s="44"/>
+      <c r="N155" s="46"/>
+      <c r="O155" s="64"/>
+      <c r="P155" s="46"/>
+      <c r="Q155" s="45"/>
       <c r="R155" s="44"/>
       <c r="S155" s="44"/>
       <c r="T155" s="44"/>
       <c r="U155" s="44"/>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V155" s="44"/>
+      <c r="W155" s="44"/>
+      <c r="X155" s="44"/>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -7538,16 +9044,19 @@
       <c r="K156" s="45"/>
       <c r="L156" s="46"/>
       <c r="M156" s="46"/>
-      <c r="N156" s="45"/>
-      <c r="O156" s="44"/>
-      <c r="P156" s="44"/>
-      <c r="Q156" s="44"/>
+      <c r="N156" s="46"/>
+      <c r="O156" s="64"/>
+      <c r="P156" s="46"/>
+      <c r="Q156" s="45"/>
       <c r="R156" s="44"/>
       <c r="S156" s="44"/>
       <c r="T156" s="44"/>
       <c r="U156" s="44"/>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V156" s="44"/>
+      <c r="W156" s="44"/>
+      <c r="X156" s="44"/>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -7561,16 +9070,19 @@
       <c r="K157" s="45"/>
       <c r="L157" s="46"/>
       <c r="M157" s="46"/>
-      <c r="N157" s="45"/>
-      <c r="O157" s="44"/>
-      <c r="P157" s="44"/>
-      <c r="Q157" s="44"/>
+      <c r="N157" s="46"/>
+      <c r="O157" s="64"/>
+      <c r="P157" s="46"/>
+      <c r="Q157" s="45"/>
       <c r="R157" s="44"/>
       <c r="S157" s="44"/>
       <c r="T157" s="44"/>
       <c r="U157" s="44"/>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V157" s="44"/>
+      <c r="W157" s="44"/>
+      <c r="X157" s="44"/>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -7584,16 +9096,19 @@
       <c r="K158" s="45"/>
       <c r="L158" s="46"/>
       <c r="M158" s="46"/>
-      <c r="N158" s="45"/>
-      <c r="O158" s="44"/>
-      <c r="P158" s="44"/>
-      <c r="Q158" s="44"/>
+      <c r="N158" s="46"/>
+      <c r="O158" s="64"/>
+      <c r="P158" s="46"/>
+      <c r="Q158" s="45"/>
       <c r="R158" s="44"/>
       <c r="S158" s="44"/>
       <c r="T158" s="44"/>
       <c r="U158" s="44"/>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V158" s="44"/>
+      <c r="W158" s="44"/>
+      <c r="X158" s="44"/>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -7607,16 +9122,19 @@
       <c r="K159" s="45"/>
       <c r="L159" s="46"/>
       <c r="M159" s="46"/>
-      <c r="N159" s="45"/>
-      <c r="O159" s="44"/>
-      <c r="P159" s="44"/>
-      <c r="Q159" s="44"/>
+      <c r="N159" s="46"/>
+      <c r="O159" s="64"/>
+      <c r="P159" s="46"/>
+      <c r="Q159" s="45"/>
       <c r="R159" s="44"/>
       <c r="S159" s="44"/>
       <c r="T159" s="44"/>
       <c r="U159" s="44"/>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V159" s="44"/>
+      <c r="W159" s="44"/>
+      <c r="X159" s="44"/>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -7630,16 +9148,19 @@
       <c r="K160" s="45"/>
       <c r="L160" s="46"/>
       <c r="M160" s="46"/>
-      <c r="N160" s="45"/>
-      <c r="O160" s="44"/>
-      <c r="P160" s="44"/>
-      <c r="Q160" s="44"/>
+      <c r="N160" s="46"/>
+      <c r="O160" s="64"/>
+      <c r="P160" s="46"/>
+      <c r="Q160" s="45"/>
       <c r="R160" s="44"/>
       <c r="S160" s="44"/>
       <c r="T160" s="44"/>
       <c r="U160" s="44"/>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V160" s="44"/>
+      <c r="W160" s="44"/>
+      <c r="X160" s="44"/>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -7653,16 +9174,19 @@
       <c r="K161" s="45"/>
       <c r="L161" s="46"/>
       <c r="M161" s="46"/>
-      <c r="N161" s="45"/>
-      <c r="O161" s="44"/>
-      <c r="P161" s="44"/>
-      <c r="Q161" s="44"/>
+      <c r="N161" s="46"/>
+      <c r="O161" s="64"/>
+      <c r="P161" s="46"/>
+      <c r="Q161" s="45"/>
       <c r="R161" s="44"/>
       <c r="S161" s="44"/>
       <c r="T161" s="44"/>
       <c r="U161" s="44"/>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V161" s="44"/>
+      <c r="W161" s="44"/>
+      <c r="X161" s="44"/>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -7676,16 +9200,19 @@
       <c r="K162" s="45"/>
       <c r="L162" s="46"/>
       <c r="M162" s="46"/>
-      <c r="N162" s="45"/>
-      <c r="O162" s="44"/>
-      <c r="P162" s="44"/>
-      <c r="Q162" s="44"/>
+      <c r="N162" s="46"/>
+      <c r="O162" s="64"/>
+      <c r="P162" s="46"/>
+      <c r="Q162" s="45"/>
       <c r="R162" s="44"/>
       <c r="S162" s="44"/>
       <c r="T162" s="44"/>
       <c r="U162" s="44"/>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V162" s="44"/>
+      <c r="W162" s="44"/>
+      <c r="X162" s="44"/>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -7699,16 +9226,19 @@
       <c r="K163" s="45"/>
       <c r="L163" s="46"/>
       <c r="M163" s="46"/>
-      <c r="N163" s="45"/>
-      <c r="O163" s="44"/>
-      <c r="P163" s="44"/>
-      <c r="Q163" s="44"/>
+      <c r="N163" s="46"/>
+      <c r="O163" s="64"/>
+      <c r="P163" s="46"/>
+      <c r="Q163" s="45"/>
       <c r="R163" s="44"/>
       <c r="S163" s="44"/>
       <c r="T163" s="44"/>
       <c r="U163" s="44"/>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V163" s="44"/>
+      <c r="W163" s="44"/>
+      <c r="X163" s="44"/>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -7722,16 +9252,19 @@
       <c r="K164" s="45"/>
       <c r="L164" s="46"/>
       <c r="M164" s="46"/>
-      <c r="N164" s="45"/>
-      <c r="O164" s="44"/>
-      <c r="P164" s="44"/>
-      <c r="Q164" s="44"/>
+      <c r="N164" s="46"/>
+      <c r="O164" s="64"/>
+      <c r="P164" s="46"/>
+      <c r="Q164" s="45"/>
       <c r="R164" s="44"/>
       <c r="S164" s="44"/>
       <c r="T164" s="44"/>
       <c r="U164" s="44"/>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V164" s="44"/>
+      <c r="W164" s="44"/>
+      <c r="X164" s="44"/>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -7745,16 +9278,19 @@
       <c r="K165" s="45"/>
       <c r="L165" s="46"/>
       <c r="M165" s="46"/>
-      <c r="N165" s="45"/>
-      <c r="O165" s="44"/>
-      <c r="P165" s="44"/>
-      <c r="Q165" s="44"/>
+      <c r="N165" s="46"/>
+      <c r="O165" s="64"/>
+      <c r="P165" s="46"/>
+      <c r="Q165" s="45"/>
       <c r="R165" s="44"/>
       <c r="S165" s="44"/>
       <c r="T165" s="44"/>
       <c r="U165" s="44"/>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V165" s="44"/>
+      <c r="W165" s="44"/>
+      <c r="X165" s="44"/>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -7768,16 +9304,19 @@
       <c r="K166" s="45"/>
       <c r="L166" s="46"/>
       <c r="M166" s="46"/>
-      <c r="N166" s="45"/>
-      <c r="O166" s="44"/>
-      <c r="P166" s="44"/>
-      <c r="Q166" s="44"/>
+      <c r="N166" s="46"/>
+      <c r="O166" s="64"/>
+      <c r="P166" s="46"/>
+      <c r="Q166" s="45"/>
       <c r="R166" s="44"/>
       <c r="S166" s="44"/>
       <c r="T166" s="44"/>
       <c r="U166" s="44"/>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V166" s="44"/>
+      <c r="W166" s="44"/>
+      <c r="X166" s="44"/>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -7791,16 +9330,19 @@
       <c r="K167" s="45"/>
       <c r="L167" s="46"/>
       <c r="M167" s="46"/>
-      <c r="N167" s="45"/>
-      <c r="O167" s="44"/>
-      <c r="P167" s="44"/>
-      <c r="Q167" s="44"/>
+      <c r="N167" s="46"/>
+      <c r="O167" s="64"/>
+      <c r="P167" s="46"/>
+      <c r="Q167" s="45"/>
       <c r="R167" s="44"/>
       <c r="S167" s="44"/>
       <c r="T167" s="44"/>
       <c r="U167" s="44"/>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V167" s="44"/>
+      <c r="W167" s="44"/>
+      <c r="X167" s="44"/>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -7814,16 +9356,19 @@
       <c r="K168" s="45"/>
       <c r="L168" s="46"/>
       <c r="M168" s="46"/>
-      <c r="N168" s="45"/>
-      <c r="O168" s="44"/>
-      <c r="P168" s="44"/>
-      <c r="Q168" s="44"/>
+      <c r="N168" s="46"/>
+      <c r="O168" s="64"/>
+      <c r="P168" s="46"/>
+      <c r="Q168" s="45"/>
       <c r="R168" s="44"/>
       <c r="S168" s="44"/>
       <c r="T168" s="44"/>
       <c r="U168" s="44"/>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V168" s="44"/>
+      <c r="W168" s="44"/>
+      <c r="X168" s="44"/>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -7837,16 +9382,19 @@
       <c r="K169" s="45"/>
       <c r="L169" s="46"/>
       <c r="M169" s="46"/>
-      <c r="N169" s="45"/>
-      <c r="O169" s="44"/>
-      <c r="P169" s="44"/>
-      <c r="Q169" s="44"/>
+      <c r="N169" s="46"/>
+      <c r="O169" s="64"/>
+      <c r="P169" s="46"/>
+      <c r="Q169" s="45"/>
       <c r="R169" s="44"/>
       <c r="S169" s="44"/>
       <c r="T169" s="44"/>
       <c r="U169" s="44"/>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V169" s="44"/>
+      <c r="W169" s="44"/>
+      <c r="X169" s="44"/>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="44"/>
       <c r="B170" s="44"/>
       <c r="C170" s="44"/>
@@ -7860,16 +9408,19 @@
       <c r="K170" s="45"/>
       <c r="L170" s="46"/>
       <c r="M170" s="46"/>
-      <c r="N170" s="45"/>
-      <c r="O170" s="44"/>
-      <c r="P170" s="44"/>
-      <c r="Q170" s="44"/>
+      <c r="N170" s="46"/>
+      <c r="O170" s="64"/>
+      <c r="P170" s="46"/>
+      <c r="Q170" s="45"/>
       <c r="R170" s="44"/>
       <c r="S170" s="44"/>
       <c r="T170" s="44"/>
       <c r="U170" s="44"/>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V170" s="44"/>
+      <c r="W170" s="44"/>
+      <c r="X170" s="44"/>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="44"/>
       <c r="B171" s="44"/>
       <c r="C171" s="44"/>
@@ -7883,16 +9434,19 @@
       <c r="K171" s="45"/>
       <c r="L171" s="46"/>
       <c r="M171" s="46"/>
-      <c r="N171" s="45"/>
-      <c r="O171" s="44"/>
-      <c r="P171" s="44"/>
-      <c r="Q171" s="44"/>
+      <c r="N171" s="46"/>
+      <c r="O171" s="64"/>
+      <c r="P171" s="46"/>
+      <c r="Q171" s="45"/>
       <c r="R171" s="44"/>
       <c r="S171" s="44"/>
       <c r="T171" s="44"/>
       <c r="U171" s="44"/>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V171" s="44"/>
+      <c r="W171" s="44"/>
+      <c r="X171" s="44"/>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="44"/>
       <c r="B172" s="44"/>
       <c r="C172" s="44"/>
@@ -7906,16 +9460,19 @@
       <c r="K172" s="45"/>
       <c r="L172" s="46"/>
       <c r="M172" s="46"/>
-      <c r="N172" s="45"/>
-      <c r="O172" s="44"/>
-      <c r="P172" s="44"/>
-      <c r="Q172" s="44"/>
+      <c r="N172" s="46"/>
+      <c r="O172" s="64"/>
+      <c r="P172" s="46"/>
+      <c r="Q172" s="45"/>
       <c r="R172" s="44"/>
       <c r="S172" s="44"/>
       <c r="T172" s="44"/>
       <c r="U172" s="44"/>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V172" s="44"/>
+      <c r="W172" s="44"/>
+      <c r="X172" s="44"/>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="44"/>
       <c r="B173" s="44"/>
       <c r="C173" s="44"/>
@@ -7929,16 +9486,19 @@
       <c r="K173" s="45"/>
       <c r="L173" s="46"/>
       <c r="M173" s="46"/>
-      <c r="N173" s="45"/>
-      <c r="O173" s="44"/>
-      <c r="P173" s="44"/>
-      <c r="Q173" s="44"/>
+      <c r="N173" s="46"/>
+      <c r="O173" s="64"/>
+      <c r="P173" s="46"/>
+      <c r="Q173" s="45"/>
       <c r="R173" s="44"/>
       <c r="S173" s="44"/>
       <c r="T173" s="44"/>
       <c r="U173" s="44"/>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V173" s="44"/>
+      <c r="W173" s="44"/>
+      <c r="X173" s="44"/>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" s="44"/>
       <c r="B174" s="44"/>
       <c r="C174" s="44"/>
@@ -7952,16 +9512,19 @@
       <c r="K174" s="45"/>
       <c r="L174" s="46"/>
       <c r="M174" s="46"/>
-      <c r="N174" s="45"/>
-      <c r="O174" s="44"/>
-      <c r="P174" s="44"/>
-      <c r="Q174" s="44"/>
+      <c r="N174" s="46"/>
+      <c r="O174" s="64"/>
+      <c r="P174" s="46"/>
+      <c r="Q174" s="45"/>
       <c r="R174" s="44"/>
       <c r="S174" s="44"/>
       <c r="T174" s="44"/>
       <c r="U174" s="44"/>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V174" s="44"/>
+      <c r="W174" s="44"/>
+      <c r="X174" s="44"/>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="44"/>
       <c r="B175" s="44"/>
       <c r="C175" s="44"/>
@@ -7975,16 +9538,19 @@
       <c r="K175" s="45"/>
       <c r="L175" s="46"/>
       <c r="M175" s="46"/>
-      <c r="N175" s="45"/>
-      <c r="O175" s="44"/>
-      <c r="P175" s="44"/>
-      <c r="Q175" s="44"/>
+      <c r="N175" s="46"/>
+      <c r="O175" s="64"/>
+      <c r="P175" s="46"/>
+      <c r="Q175" s="45"/>
       <c r="R175" s="44"/>
       <c r="S175" s="44"/>
       <c r="T175" s="44"/>
       <c r="U175" s="44"/>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V175" s="44"/>
+      <c r="W175" s="44"/>
+      <c r="X175" s="44"/>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="44"/>
       <c r="B176" s="44"/>
       <c r="C176" s="44"/>
@@ -7998,16 +9564,19 @@
       <c r="K176" s="45"/>
       <c r="L176" s="46"/>
       <c r="M176" s="46"/>
-      <c r="N176" s="45"/>
-      <c r="O176" s="44"/>
-      <c r="P176" s="44"/>
-      <c r="Q176" s="44"/>
+      <c r="N176" s="46"/>
+      <c r="O176" s="64"/>
+      <c r="P176" s="46"/>
+      <c r="Q176" s="45"/>
       <c r="R176" s="44"/>
       <c r="S176" s="44"/>
       <c r="T176" s="44"/>
       <c r="U176" s="44"/>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V176" s="44"/>
+      <c r="W176" s="44"/>
+      <c r="X176" s="44"/>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="44"/>
       <c r="B177" s="44"/>
       <c r="C177" s="44"/>
@@ -8021,16 +9590,19 @@
       <c r="K177" s="45"/>
       <c r="L177" s="46"/>
       <c r="M177" s="46"/>
-      <c r="N177" s="45"/>
-      <c r="O177" s="44"/>
-      <c r="P177" s="44"/>
-      <c r="Q177" s="44"/>
+      <c r="N177" s="46"/>
+      <c r="O177" s="64"/>
+      <c r="P177" s="46"/>
+      <c r="Q177" s="45"/>
       <c r="R177" s="44"/>
       <c r="S177" s="44"/>
       <c r="T177" s="44"/>
       <c r="U177" s="44"/>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V177" s="44"/>
+      <c r="W177" s="44"/>
+      <c r="X177" s="44"/>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" s="44"/>
       <c r="B178" s="44"/>
       <c r="C178" s="44"/>
@@ -8044,21 +9616,22 @@
       <c r="K178" s="45"/>
       <c r="L178" s="46"/>
       <c r="M178" s="46"/>
-      <c r="N178" s="45"/>
-      <c r="O178" s="44"/>
-      <c r="P178" s="44"/>
-      <c r="Q178" s="44"/>
+      <c r="N178" s="46"/>
+      <c r="O178" s="64"/>
+      <c r="P178" s="46"/>
+      <c r="Q178" s="45"/>
       <c r="R178" s="44"/>
       <c r="S178" s="44"/>
       <c r="T178" s="44"/>
       <c r="U178" s="44"/>
+      <c r="V178" s="44"/>
+      <c r="W178" s="44"/>
+      <c r="X178" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V17" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Need to check with Gareth if it was removed as part of cost  exercise."/>
-      </filters>
+  <autoFilter ref="A1:X77" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="8">
+      <colorFilter dxfId="0"/>
     </filterColumn>
   </autoFilter>
   <dataConsolidate/>
@@ -8070,7 +9643,8 @@
 &amp;A&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;LNEL1902 Replacement of MMS for NEL&amp;CDAR/NEL1902/STR/RS/4138/-&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <legacyDrawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -8087,6 +9661,671 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="59"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="59.44140625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F10" s="2">
+        <v>32000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F13" s="2">
+        <v>32000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" s="2">
+        <v>32000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D18" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="F18" s="58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F23" s="2">
+        <v>32000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F24" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="B26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F26" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" t="s">
+        <v>334</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="F28" s="58">
+        <v>16</v>
+      </c>
+      <c r="G28" s="73"/>
+      <c r="H28" s="58"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D29" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="F29" s="58">
+        <v>10</v>
+      </c>
+      <c r="G29" s="73"/>
+      <c r="H29" s="58"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D30" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="G30" s="73"/>
+      <c r="H30" s="58"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D31" s="73" t="s">
+        <v>357</v>
+      </c>
+      <c r="E31" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="G31" s="73"/>
+      <c r="H31" s="58"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="B33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="E33" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="F33" s="32">
+        <v>16</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="75"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="F34" s="76">
+        <v>20</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="75"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="E35" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="F35" s="32">
+        <v>10</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="75"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>343</v>
+      </c>
+      <c r="E36" t="s">
+        <v>330</v>
+      </c>
+      <c r="F36" s="77">
+        <v>15</v>
+      </c>
+      <c r="I36" s="77"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="E37" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="F37" s="32">
+        <v>10</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="75"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="E38" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="F38" s="32">
+        <v>10</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="75"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D39" s="73" t="s">
+        <v>346</v>
+      </c>
+      <c r="E39" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="F39" s="73">
+        <v>10</v>
+      </c>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D40" s="73" t="s">
+        <v>347</v>
+      </c>
+      <c r="E40" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="F40" s="73">
+        <v>20</v>
+      </c>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D41" s="73" t="s">
+        <v>348</v>
+      </c>
+      <c r="E41" s="73" t="s">
+        <v>336</v>
+      </c>
+      <c r="F41" s="73">
+        <v>10</v>
+      </c>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D42" s="73" t="s">
+        <v>349</v>
+      </c>
+      <c r="E42" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="F42" s="73">
+        <v>10</v>
+      </c>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D43" s="73" t="s">
+        <v>350</v>
+      </c>
+      <c r="E43" s="73" t="s">
+        <v>337</v>
+      </c>
+      <c r="F43" s="73">
+        <v>3</v>
+      </c>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="E44" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="F44" s="32">
+        <v>3</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="75"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>352</v>
+      </c>
+      <c r="E45" t="s">
+        <v>336</v>
+      </c>
+      <c r="F45" s="77">
+        <v>10</v>
+      </c>
+      <c r="I45" s="77"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>353</v>
+      </c>
+      <c r="E46" t="s">
+        <v>330</v>
+      </c>
+      <c r="F46" s="77">
+        <v>15</v>
+      </c>
+      <c r="I46" s="77"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="E47" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="F47" s="32">
+        <v>3</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="75"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>374</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F49" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>378</v>
+      </c>
+      <c r="D51" s="73" t="s">
+        <v>380</v>
+      </c>
+      <c r="E51" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="F51" s="58" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D52" s="73" t="s">
+        <v>381</v>
+      </c>
+      <c r="E52" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="F52" s="58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D53" s="73" t="s">
+        <v>382</v>
+      </c>
+      <c r="E53" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="F53" s="58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D54" s="83" t="s">
+        <v>383</v>
+      </c>
+      <c r="E54" s="83" t="s">
+        <v>330</v>
+      </c>
+      <c r="F54" s="84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D55" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="E55" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="F55" s="58" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>393</v>
+      </c>
+      <c r="D57" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F57" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>395</v>
+      </c>
+      <c r="D59" t="s">
+        <v>396</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F59" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>397</v>
+      </c>
+      <c r="D61" t="s">
+        <v>398</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F61" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -8094,16 +10333,16 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>23</v>
       </c>
@@ -8120,7 +10359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -8137,7 +10376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -8154,7 +10393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -8171,7 +10410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82786B00-8881-4395-957A-B53ADBD0CC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1925B180-C1F3-459D-A045-017E625CFC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="398">
   <si>
     <t>Test Status</t>
   </si>
@@ -1241,9 +1241,6 @@
 Pkg still has error!</t>
   </si>
   <si>
-    <t>No Started</t>
-  </si>
-  <si>
     <t>Not Started</t>
   </si>
   <si>
@@ -1517,11 +1514,6 @@
 PO_ITEMS.PO_ITEM_DEL_DT -&gt; PO.REQUIREDDATE</t>
   </si>
   <si>
-    <t xml:space="preserve">Map to default value:
-"GST" &gt;&gt; INVVENDOR.STE_TAX1CODE
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Get actual store loc:
 SELECT ii.PK_ISS_ITEMS, ii.ISS_REF, dli.PK_DEM_LOC_INT, l.PK_LOCATION_, si.IS_STOR_CD 
 FROM coswin.ISS_ITEMS ii 
@@ -1536,6 +1528,14 @@
 H_TRANSFER &gt;&gt; cswn_h_transfer
 H_TR_ITEMS &gt;&gt; NO DATA
 Create record: MATRECTRANS (IssueType= 'SHIPTRANSFER')
+</t>
+  </si>
+  <si>
+    <t>New custom column: SERVRECTRANS.STE_CSWNRECEIPTREMARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map to default value:
+"GST" &gt;&gt; INVVENDOR.TAX1CODE
 </t>
   </si>
 </sst>
@@ -1833,7 +1833,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2014,26 +2014,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2053,17 +2035,29 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2071,19 +2065,11 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -3031,18 +3017,18 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70" t="s">
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="3" t="s">
         <v>61</v>
       </c>
@@ -3864,8 +3850,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F63" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView tabSelected="1" topLeftCell="L63" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4029,13 +4015,13 @@
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M3" s="34" t="s">
         <v>231</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O3" s="62"/>
       <c r="P3" s="34" t="s">
@@ -4050,7 +4036,7 @@
       <c r="W3" s="34"/>
       <c r="X3" s="36"/>
     </row>
-    <row r="4" spans="1:25" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="35"/>
@@ -4090,7 +4076,7 @@
       <c r="W4" s="34"/>
       <c r="X4" s="36"/>
     </row>
-    <row r="5" spans="1:25" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
@@ -4218,7 +4204,7 @@
       <c r="W7" s="34"/>
       <c r="X7" s="36"/>
     </row>
-    <row r="8" spans="1:25" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="C8" s="35"/>
@@ -4329,9 +4315,9 @@
       <c r="N10" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="O10" s="79"/>
+      <c r="O10" s="73"/>
       <c r="P10" s="57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="45"/>
       <c r="R10" s="44"/>
@@ -4548,7 +4534,7 @@
       <c r="W15" s="34"/>
       <c r="X15" s="36"/>
     </row>
-    <row r="16" spans="1:25" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="35"/>
@@ -4628,7 +4614,7 @@
       <c r="W17" s="34"/>
       <c r="X17" s="36"/>
     </row>
-    <row r="18" spans="1:24" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -4693,7 +4679,7 @@
         <v>142</v>
       </c>
       <c r="N19" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O19" s="62" t="s">
         <v>256</v>
@@ -4754,7 +4740,7 @@
       <c r="W20" s="44"/>
       <c r="X20" s="44"/>
     </row>
-    <row r="21" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
       <c r="C21" s="35"/>
@@ -4779,7 +4765,7 @@
         <v>143</v>
       </c>
       <c r="N21" s="49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O21" s="62"/>
       <c r="P21" s="34" t="s">
@@ -4872,7 +4858,7 @@
       <c r="W23" s="44"/>
       <c r="X23" s="44"/>
     </row>
-    <row r="24" spans="1:24" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -4937,7 +4923,7 @@
       <c r="N25" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="O25" s="78"/>
+      <c r="O25" s="72"/>
       <c r="P25" s="49" t="s">
         <v>297</v>
       </c>
@@ -4963,7 +4949,7 @@
       <c r="H26" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="55" t="s">
+      <c r="I26" s="51" t="s">
         <v>154</v>
       </c>
       <c r="J26" s="33" t="s">
@@ -4976,12 +4962,12 @@
       <c r="M26" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="N26" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="O26" s="62"/>
-      <c r="P26" s="34" t="s">
-        <v>314</v>
+      <c r="N26" s="81" t="s">
+        <v>393</v>
+      </c>
+      <c r="O26" s="82"/>
+      <c r="P26" s="81" t="s">
+        <v>285</v>
       </c>
       <c r="Q26" s="45"/>
       <c r="R26" s="44"/>
@@ -4992,7 +4978,7 @@
       <c r="W26" s="44"/>
       <c r="X26" s="44"/>
     </row>
-    <row r="27" spans="1:24" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -5032,7 +5018,7 @@
       <c r="W27" s="44"/>
       <c r="X27" s="44"/>
     </row>
-    <row r="28" spans="1:24" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -5074,7 +5060,7 @@
       <c r="W28" s="44"/>
       <c r="X28" s="44"/>
     </row>
-    <row r="29" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -5181,8 +5167,8 @@
       <c r="N31" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="O31" s="81"/>
-      <c r="P31" s="74" t="s">
+      <c r="O31" s="62"/>
+      <c r="P31" s="34" t="s">
         <v>285</v>
       </c>
       <c r="Q31" s="45"/>
@@ -5258,11 +5244,11 @@
       <c r="M33" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="N33" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="O33" s="81"/>
-      <c r="P33" s="74" t="s">
+      <c r="N33" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="O33" s="62"/>
+      <c r="P33" s="34" t="s">
         <v>285</v>
       </c>
       <c r="Q33" s="45"/>
@@ -5378,10 +5364,10 @@
       <c r="M36" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="N36" s="74" t="s">
+      <c r="N36" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="O36" s="81"/>
+      <c r="O36" s="62"/>
       <c r="P36" s="34" t="s">
         <v>293</v>
       </c>
@@ -5419,7 +5405,7 @@
         <v>170</v>
       </c>
       <c r="N37" s="34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O37" s="62"/>
       <c r="P37" s="34" t="s">
@@ -5512,7 +5498,7 @@
       <c r="W39" s="44"/>
       <c r="X39" s="44"/>
     </row>
-    <row r="40" spans="1:24" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
@@ -5594,7 +5580,7 @@
       <c r="W41" s="44"/>
       <c r="X41" s="44"/>
     </row>
-    <row r="42" spans="1:24" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
@@ -5619,7 +5605,7 @@
         <v>211</v>
       </c>
       <c r="N42" s="49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O42" s="62"/>
       <c r="P42" s="34" t="s">
@@ -5652,17 +5638,17 @@
         <v>121</v>
       </c>
       <c r="K43" s="45"/>
-      <c r="L43" s="74" t="s">
+      <c r="L43" s="34" t="s">
         <v>211</v>
       </c>
       <c r="M43" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="N43" s="74" t="s">
+      <c r="N43" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="O43" s="81"/>
-      <c r="P43" s="74" t="s">
+      <c r="O43" s="62"/>
+      <c r="P43" s="34" t="s">
         <v>285</v>
       </c>
       <c r="Q43" s="45"/>
@@ -6287,7 +6273,7 @@
       <c r="H60" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="I60" s="82" t="s">
+      <c r="I60" s="75" t="s">
         <v>193</v>
       </c>
       <c r="J60" s="33" t="s">
@@ -6300,11 +6286,11 @@
       <c r="M60" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="N60" s="74" t="s">
-        <v>383</v>
-      </c>
-      <c r="O60" s="81"/>
-      <c r="P60" s="74" t="s">
+      <c r="N60" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="O60" s="62"/>
+      <c r="P60" s="34" t="s">
         <v>285</v>
       </c>
       <c r="Q60" s="45"/>
@@ -6341,7 +6327,7 @@
         <v>211</v>
       </c>
       <c r="N61" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O61" s="62"/>
       <c r="P61" s="34" t="s">
@@ -6356,7 +6342,7 @@
       <c r="W61" s="44"/>
       <c r="X61" s="44"/>
     </row>
-    <row r="62" spans="1:24" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -6381,7 +6367,7 @@
         <v>211</v>
       </c>
       <c r="N62" s="34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O62" s="62"/>
       <c r="P62" s="34" t="s">
@@ -6407,7 +6393,7 @@
       <c r="H63" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I63" s="55" t="s">
+      <c r="I63" s="51" t="s">
         <v>197</v>
       </c>
       <c r="J63" s="33" t="s">
@@ -6420,11 +6406,13 @@
       <c r="M63" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="N63" s="50" t="s">
-        <v>395</v>
-      </c>
-      <c r="O63" s="80"/>
-      <c r="P63" s="50"/>
+      <c r="N63" s="81" t="s">
+        <v>397</v>
+      </c>
+      <c r="O63" s="82"/>
+      <c r="P63" s="81" t="s">
+        <v>285</v>
+      </c>
       <c r="Q63" s="45"/>
       <c r="R63" s="44"/>
       <c r="S63" s="54" t="s">
@@ -6461,7 +6449,7 @@
         <v>211</v>
       </c>
       <c r="N64" s="34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O64" s="62"/>
       <c r="P64" s="34" t="s">
@@ -6520,7 +6508,7 @@
       <c r="W65" s="44"/>
       <c r="X65" s="44"/>
     </row>
-    <row r="66" spans="1:24" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -6539,13 +6527,13 @@
       </c>
       <c r="K66" s="45"/>
       <c r="L66" s="34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M66" s="34" t="s">
         <v>211</v>
       </c>
       <c r="N66" s="49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O66" s="62"/>
       <c r="P66" s="34" t="s">
@@ -6591,7 +6579,7 @@
       </c>
       <c r="O67" s="58"/>
       <c r="P67" s="34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q67" s="45"/>
       <c r="R67" s="44"/>
@@ -6667,7 +6655,7 @@
         <v>211</v>
       </c>
       <c r="N69" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O69" s="62"/>
       <c r="P69" s="34" t="s">
@@ -6787,7 +6775,7 @@
         <v>211</v>
       </c>
       <c r="N72" s="49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O72" s="62"/>
       <c r="P72" s="34" t="s">
@@ -6855,7 +6843,7 @@
       <c r="H74" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="I74" s="55" t="s">
+      <c r="I74" s="51" t="s">
         <v>207</v>
       </c>
       <c r="J74" s="33" t="s">
@@ -6868,11 +6856,13 @@
       <c r="M74" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="N74" s="50" t="s">
-        <v>396</v>
-      </c>
-      <c r="O74" s="80"/>
-      <c r="P74" s="50"/>
+      <c r="N74" s="81" t="s">
+        <v>394</v>
+      </c>
+      <c r="O74" s="82"/>
+      <c r="P74" s="81" t="s">
+        <v>285</v>
+      </c>
       <c r="Q74" s="45"/>
       <c r="R74" s="44"/>
       <c r="S74" s="53"/>
@@ -6907,9 +6897,9 @@
         <v>211</v>
       </c>
       <c r="N75" s="50" t="s">
-        <v>397</v>
-      </c>
-      <c r="O75" s="80"/>
+        <v>395</v>
+      </c>
+      <c r="O75" s="74"/>
       <c r="P75" s="50"/>
       <c r="Q75" s="45"/>
       <c r="R75" s="44"/>
@@ -6945,7 +6935,7 @@
         <v>211</v>
       </c>
       <c r="N76" s="34" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O76" s="62"/>
       <c r="P76" s="34" t="s">
@@ -6984,13 +6974,13 @@
       <c r="M77" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="N77" s="74" t="s">
+      <c r="N77" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="O77" s="81">
+      <c r="O77" s="62">
         <v>206</v>
       </c>
-      <c r="P77" s="74" t="s">
+      <c r="P77" s="34" t="s">
         <v>285</v>
       </c>
       <c r="Q77" s="45"/>
@@ -9634,7 +9624,7 @@
       <colorFilter dxfId="0"/>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:X72">
-      <sortCondition sortBy="cellColor" ref="I1:I77" dxfId="2"/>
+      <sortCondition sortBy="cellColor" ref="I1:I77" dxfId="1"/>
     </sortState>
   </autoFilter>
   <dataConsolidate/>
@@ -9665,17 +9655,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="59"/>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="59.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="66.44140625" style="2" customWidth="1"/>
     <col min="5" max="6" width="17.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="56.44140625" customWidth="1"/>
   </cols>
@@ -9696,10 +9686,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F2" s="2">
         <v>20</v>
@@ -9729,10 +9719,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F6" s="2">
         <v>20</v>
@@ -9740,10 +9730,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F7" s="2">
         <v>20</v>
@@ -9751,10 +9741,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F8" s="2">
         <v>16</v>
@@ -9762,10 +9752,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F9" s="2">
         <v>12</v>
@@ -9773,16 +9763,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F10" s="2">
         <v>32000</v>
       </c>
       <c r="G10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -9798,16 +9788,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F13" s="2">
         <v>32000</v>
       </c>
       <c r="G13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -9823,32 +9813,32 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F17" s="2">
         <v>32000</v>
       </c>
       <c r="G17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D18" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="E18" s="73" t="s">
-        <v>323</v>
+        <v>381</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>322</v>
       </c>
       <c r="F18" s="58">
         <v>16</v>
@@ -9862,18 +9852,18 @@
         <v>282</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
@@ -9886,24 +9876,24 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F23" s="2">
         <v>32000</v>
       </c>
       <c r="G23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F24" s="2">
         <v>110</v>
@@ -9917,10 +9907,10 @@
         <v>302</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F26" s="2">
         <v>12</v>
@@ -9928,400 +9918,411 @@
     </row>
     <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" t="s">
         <v>326</v>
       </c>
-      <c r="B28" t="s">
-        <v>327</v>
-      </c>
       <c r="D28" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="E28" s="73" t="s">
-        <v>323</v>
+        <v>331</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>322</v>
       </c>
       <c r="F28" s="58">
         <v>16</v>
       </c>
-      <c r="G28" s="73"/>
+      <c r="G28" s="68"/>
       <c r="H28" s="58"/>
     </row>
     <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D29" s="73" t="s">
-        <v>348</v>
-      </c>
-      <c r="E29" s="73" t="s">
-        <v>323</v>
+      <c r="D29" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>322</v>
       </c>
       <c r="F29" s="58">
         <v>10</v>
       </c>
-      <c r="G29" s="73"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="58"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="68" t="s">
+        <v>348</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="G30" s="68"/>
+      <c r="H30" s="58"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D31" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="E31" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="F31" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="F30" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="G30" s="73"/>
-      <c r="H30" s="58"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D31" s="73" t="s">
-        <v>350</v>
-      </c>
-      <c r="E31" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="G31" s="73"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="58"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="E33" s="75" t="s">
-        <v>323</v>
+        <v>332</v>
+      </c>
+      <c r="E33" s="69" t="s">
+        <v>322</v>
       </c>
       <c r="F33" s="32">
         <v>16</v>
       </c>
       <c r="G33" s="19"/>
-      <c r="H33" s="75"/>
+      <c r="H33" s="69"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="75"/>
+      <c r="J33" s="69"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D34" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="F34" s="76">
+        <v>322</v>
+      </c>
+      <c r="F34" s="70">
         <v>20</v>
       </c>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="75"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="69"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D35" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="E35" s="75" t="s">
-        <v>329</v>
+        <v>334</v>
+      </c>
+      <c r="E35" s="69" t="s">
+        <v>328</v>
       </c>
       <c r="F35" s="32">
         <v>10</v>
       </c>
       <c r="G35" s="19"/>
-      <c r="H35" s="75"/>
+      <c r="H35" s="69"/>
       <c r="I35" s="32"/>
-      <c r="J35" s="75"/>
+      <c r="J35" s="69"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E36" t="s">
-        <v>323</v>
-      </c>
-      <c r="F36" s="77">
+        <v>322</v>
+      </c>
+      <c r="F36" s="71">
         <v>15</v>
       </c>
-      <c r="I36" s="77"/>
+      <c r="I36" s="71"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D37" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="E37" s="75" t="s">
-        <v>329</v>
+        <v>336</v>
+      </c>
+      <c r="E37" s="69" t="s">
+        <v>328</v>
       </c>
       <c r="F37" s="32">
         <v>10</v>
       </c>
       <c r="G37" s="19"/>
-      <c r="H37" s="75"/>
+      <c r="H37" s="69"/>
       <c r="I37" s="32"/>
-      <c r="J37" s="75"/>
+      <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D38" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="E38" s="75" t="s">
-        <v>323</v>
+        <v>337</v>
+      </c>
+      <c r="E38" s="69" t="s">
+        <v>322</v>
       </c>
       <c r="F38" s="32">
         <v>10</v>
       </c>
       <c r="G38" s="19"/>
-      <c r="H38" s="75"/>
+      <c r="H38" s="69"/>
       <c r="I38" s="32"/>
-      <c r="J38" s="75"/>
+      <c r="J38" s="69"/>
     </row>
     <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="F39" s="68">
+        <v>10</v>
+      </c>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D40" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="E39" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="F39" s="73">
+      <c r="E40" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="F40" s="68">
+        <v>20</v>
+      </c>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D41" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="E41" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="F41" s="68">
         <v>10</v>
       </c>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D40" s="73" t="s">
-        <v>340</v>
-      </c>
-      <c r="E40" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="F40" s="73">
-        <v>20</v>
-      </c>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D41" s="73" t="s">
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D42" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="E41" s="73" t="s">
+      <c r="E42" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="F42" s="68">
+        <v>10</v>
+      </c>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D43" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="E43" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="F41" s="73">
-        <v>10</v>
-      </c>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D42" s="73" t="s">
-        <v>342</v>
-      </c>
-      <c r="E42" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="F42" s="73">
-        <v>10</v>
-      </c>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-    </row>
-    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D43" s="73" t="s">
-        <v>343</v>
-      </c>
-      <c r="E43" s="73" t="s">
-        <v>330</v>
-      </c>
-      <c r="F43" s="73">
+      <c r="F43" s="68">
         <v>3</v>
       </c>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D44" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="E44" s="75" t="s">
-        <v>331</v>
+        <v>343</v>
+      </c>
+      <c r="E44" s="69" t="s">
+        <v>330</v>
       </c>
       <c r="F44" s="32">
         <v>3</v>
       </c>
       <c r="G44" s="19"/>
-      <c r="H44" s="75"/>
+      <c r="H44" s="69"/>
       <c r="I44" s="32"/>
-      <c r="J44" s="75"/>
+      <c r="J44" s="69"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E45" t="s">
-        <v>329</v>
-      </c>
-      <c r="F45" s="77">
+        <v>328</v>
+      </c>
+      <c r="F45" s="71">
         <v>10</v>
       </c>
-      <c r="I45" s="77"/>
+      <c r="I45" s="71"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E46" t="s">
-        <v>323</v>
-      </c>
-      <c r="F46" s="77">
+        <v>322</v>
+      </c>
+      <c r="F46" s="71">
         <v>15</v>
       </c>
-      <c r="I46" s="77"/>
+      <c r="I46" s="71"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D47" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="E47" s="75" t="s">
-        <v>331</v>
+        <v>346</v>
+      </c>
+      <c r="E47" s="69" t="s">
+        <v>330</v>
       </c>
       <c r="F47" s="32">
         <v>3</v>
       </c>
       <c r="G47" s="19"/>
-      <c r="H47" s="75"/>
+      <c r="H47" s="69"/>
       <c r="I47" s="32"/>
-      <c r="J47" s="75"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="J47" s="69"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>396</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F48" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>366</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="E50" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F50" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>370</v>
+      </c>
+      <c r="D52" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="E52" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F52" s="58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D53" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="E53" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="F53" s="58" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D54" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="E54" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="F54" s="58" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D55" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="E55" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="F55" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>371</v>
-      </c>
-      <c r="D51" s="73" t="s">
-        <v>373</v>
-      </c>
-      <c r="E51" s="73" t="s">
+    <row r="56" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D56" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="E56" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="F56" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="F51" s="58" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D52" s="73" t="s">
-        <v>374</v>
-      </c>
-      <c r="E52" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="F52" s="58" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D53" s="73" t="s">
-        <v>375</v>
-      </c>
-      <c r="E53" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="F53" s="58" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D54" s="83" t="s">
-        <v>376</v>
-      </c>
-      <c r="E54" s="83" t="s">
-        <v>323</v>
-      </c>
-      <c r="F54" s="84">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D55" s="73" t="s">
-        <v>384</v>
-      </c>
-      <c r="E55" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="F55" s="58" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>386</v>
-      </c>
-      <c r="D57" t="s">
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>385</v>
+      </c>
+      <c r="D58" t="s">
         <v>251</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F57" s="2">
+      <c r="E58" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F58" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>387</v>
+      </c>
+      <c r="D60" t="s">
         <v>388</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E60" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F60" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>389</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F59" s="2">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="D62" t="s">
         <v>390</v>
       </c>
-      <c r="D61" t="s">
-        <v>391</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F61" s="2">
+      <c r="E62" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F62" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D62"/>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1925B180-C1F3-459D-A045-017E625CFC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DDDDB2-8101-4771-A546-138A4FD5A604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Summary" sheetId="6" r:id="rId1"/>
@@ -3850,7 +3850,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L63" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="L63" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
@@ -9657,7 +9657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D48" sqref="D48:F48"/>
     </sheetView>
   </sheetViews>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DDDDB2-8101-4771-A546-138A4FD5A604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440BEF91-BD08-42F9-B3AE-8985F8807491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Summary" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PR Summary'!$A$1:$X$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PR Summary'!$A$1:$Y$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Summary'!$A$4:$K$21</definedName>
     <definedName name="_Toc144131386" localSheetId="0">'Test Summary'!$B$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Test Summary'!$1:$4</definedName>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="409">
   <si>
     <t>Test Status</t>
   </si>
@@ -879,11 +879,6 @@
 INVOICE_.INV_RCT_DT &gt;&gt; INVOICE.INVOICEDATE
 Mapping for CHANGEDATE is already correct:
 INVOICE_.INV_DT &gt;&gt; INVOICE.CHANGEDATE</t>
-  </si>
-  <si>
-    <t>Change transformation for INVOICE.STATUS.
-To confirm:
-This is also for NEG_INV?</t>
   </si>
   <si>
     <t>Add new mapping:
@@ -1241,9 +1236,6 @@
 Pkg still has error!</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>Create a new custom field in maximo. CONTRACT.STE_CSWNSAPGL</t>
   </si>
   <si>
@@ -1537,6 +1529,64 @@
     <t xml:space="preserve">Map to default value:
 "GST" &gt;&gt; INVVENDOR.TAX1CODE
 </t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Fix Status</t>
+  </si>
+  <si>
+    <t>Data Loading</t>
+  </si>
+  <si>
+    <t>Not Checked Yet</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t>Change transformation for INVOICE.STATUS.
+To confirm:
+This is also for NEG_INV? YES.</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>NA (Gareth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Material Requisions status mapping:
+   48 - 0 - No Issued - APPR
+   49 - 1 - Part Issued  - APPR
+   50 - 2 - Issue Completed - CLOSE
+   51 - 3 - Cancelled -  CAN
+   52 - 4 - Not Validated - WAPPR
+   57 - 9- Directly Issued - CLOSE </t>
+  </si>
+  <si>
+    <t>Map ITEM_INFO via ITEM_ instead of directly from STOREITEM.
+Please verify the following fields as well (similar to MinQty, originally from ITEM_ but now from STOREITEM):
+MAXLEVEL
+MINLEVEL
+SSTOCK
+DELIVERYTIME
+ISSUE1YRAGO
+ISSUE2YRAGO
+CURBALTOTAL
+AVBLBALANCE
+RESERVEDQTY
+ORDERQTY</t>
+  </si>
+  <si>
+    <t>New mapping</t>
+  </si>
+  <si>
+    <t>New calculated field</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1883,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1971,22 +2021,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2011,9 +2052,6 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2031,12 +2069,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2059,21 +2091,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3017,18 +3047,18 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
       <c r="K3" s="3" t="s">
         <v>61</v>
       </c>
@@ -3847,11 +3877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Y178"/>
+  <dimension ref="A1:Z178"/>
   <sheetViews>
-    <sheetView topLeftCell="L63" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P75" sqref="P75"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3863,25 +3892,25 @@
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
     <col min="8" max="8" width="37.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" customWidth="1"/>
-    <col min="11" max="11" width="37.5546875" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="36.33203125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="30.109375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="50.109375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="37.33203125" style="65" customWidth="1"/>
-    <col min="16" max="16" width="37.33203125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.5546875" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.5546875" style="66" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" style="66" customWidth="1"/>
+    <col min="11" max="11" width="37.5546875" style="32" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="36.33203125" style="32" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="30.109375" style="32" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="50.109375" style="32" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" style="62" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="16" style="8" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.109375" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5546875" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>45</v>
       </c>
@@ -3922,39 +3951,42 @@
         <v>234</v>
       </c>
       <c r="N1" s="30"/>
-      <c r="O1" s="61" t="s">
-        <v>279</v>
+      <c r="O1" s="58" t="s">
+        <v>278</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="Q1" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="R1" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="S1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="T1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="U1" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="V1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="W1" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="Y1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="31"/>
-    </row>
-    <row r="2" spans="1:25" ht="147.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z1" s="31"/>
+    </row>
+    <row r="2" spans="1:26" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
       <c r="C2" s="38"/>
@@ -3973,30 +4005,33 @@
       </c>
       <c r="K2" s="36"/>
       <c r="L2" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>230</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="O2" s="62" t="s">
-        <v>281</v>
+        <v>288</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>280</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="34"/>
+        <v>284</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R2" s="34"/>
+      <c r="S2" s="36"/>
       <c r="T2" s="34"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="36"/>
       <c r="W2" s="34"/>
-      <c r="X2" s="36"/>
-    </row>
-    <row r="3" spans="1:25" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="36"/>
+    </row>
+    <row r="3" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="34"/>
       <c r="C3" s="35"/>
@@ -4015,28 +4050,31 @@
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M3" s="34" t="s">
         <v>231</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="O3" s="62"/>
+        <v>314</v>
+      </c>
+      <c r="O3" s="59"/>
       <c r="P3" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="34"/>
+        <v>284</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R3" s="34"/>
+      <c r="S3" s="36"/>
       <c r="T3" s="34"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="36"/>
       <c r="W3" s="34"/>
-      <c r="X3" s="36"/>
-    </row>
-    <row r="4" spans="1:25" ht="66" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="34"/>
+      <c r="Y3" s="36"/>
+    </row>
+    <row r="4" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="35"/>
@@ -4061,22 +4099,25 @@
         <v>133</v>
       </c>
       <c r="N4" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="O4" s="59"/>
+      <c r="P4" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="34"/>
+      <c r="Q4" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R4" s="34"/>
+      <c r="S4" s="36"/>
       <c r="T4" s="34"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="36"/>
       <c r="W4" s="34"/>
-      <c r="X4" s="36"/>
-    </row>
-    <row r="5" spans="1:25" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="34"/>
+      <c r="Y4" s="36"/>
+    </row>
+    <row r="5" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
@@ -4101,26 +4142,29 @@
         <v>232</v>
       </c>
       <c r="N5" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="O5" s="62">
+        <v>305</v>
+      </c>
+      <c r="O5" s="59">
         <v>309</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R5" s="34"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="T5" s="34"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="36"/>
       <c r="W5" s="34"/>
-      <c r="X5" s="36"/>
-    </row>
-    <row r="6" spans="1:25" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="34"/>
+      <c r="Y5" s="36"/>
+    </row>
+    <row r="6" spans="1:26" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
       <c r="C6" s="35"/>
@@ -4145,24 +4189,27 @@
         <v>232</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="O6" s="62"/>
+        <v>304</v>
+      </c>
+      <c r="O6" s="59"/>
       <c r="P6" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R6" s="34"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="T6" s="34"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="36"/>
       <c r="W6" s="34"/>
-      <c r="X6" s="36"/>
-    </row>
-    <row r="7" spans="1:25" ht="66" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X6" s="34"/>
+      <c r="Y6" s="36"/>
+    </row>
+    <row r="7" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
@@ -4187,24 +4234,27 @@
         <v>135</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="O7" s="62" t="s">
-        <v>281</v>
+        <v>287</v>
+      </c>
+      <c r="O7" s="59" t="s">
+        <v>280</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="34"/>
+        <v>284</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="36"/>
       <c r="W7" s="34"/>
-      <c r="X7" s="36"/>
-    </row>
-    <row r="8" spans="1:25" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="34"/>
+      <c r="Y7" s="36"/>
+    </row>
+    <row r="8" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="C8" s="35"/>
@@ -4229,24 +4279,27 @@
         <v>136</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="O8" s="62" t="s">
-        <v>281</v>
+        <v>286</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>280</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="34"/>
+        <v>284</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R8" s="34"/>
+      <c r="S8" s="36"/>
       <c r="T8" s="34"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="36"/>
       <c r="W8" s="34"/>
-      <c r="X8" s="36"/>
-    </row>
-    <row r="9" spans="1:25" ht="66" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="34"/>
+      <c r="Y8" s="36"/>
+    </row>
+    <row r="9" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
       <c r="C9" s="35"/>
@@ -4273,22 +4326,25 @@
       <c r="N9" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="O9" s="62" t="s">
-        <v>281</v>
+      <c r="O9" s="59" t="s">
+        <v>280</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="34"/>
+        <v>284</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R9" s="34"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="36"/>
       <c r="W9" s="34"/>
-      <c r="X9" s="36"/>
-    </row>
-    <row r="10" spans="1:25" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="34"/>
+      <c r="Y9" s="36"/>
+    </row>
+    <row r="10" spans="1:26" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -4299,13 +4355,13 @@
       <c r="H10" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="49" t="s">
         <v>163</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K10" s="45"/>
+      <c r="K10" s="34"/>
       <c r="L10" s="34" t="s">
         <v>165</v>
       </c>
@@ -4313,22 +4369,25 @@
         <v>165</v>
       </c>
       <c r="N10" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="O10" s="73"/>
-      <c r="P10" s="57" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="44"/>
+        <v>312</v>
+      </c>
+      <c r="O10" s="69"/>
+      <c r="P10" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q10" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="R10" s="45"/>
       <c r="S10" s="44"/>
       <c r="T10" s="44"/>
       <c r="U10" s="44"/>
       <c r="V10" s="44"/>
       <c r="W10" s="44"/>
       <c r="X10" s="44"/>
-    </row>
-    <row r="11" spans="1:25" ht="66" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y10" s="44"/>
+    </row>
+    <row r="11" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
       <c r="C11" s="35"/>
@@ -4353,24 +4412,27 @@
         <v>139</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="O11" s="62" t="s">
-        <v>281</v>
+        <v>277</v>
+      </c>
+      <c r="O11" s="59" t="s">
+        <v>280</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="34"/>
+        <v>284</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R11" s="34"/>
+      <c r="S11" s="36"/>
       <c r="T11" s="34"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="36"/>
       <c r="W11" s="34"/>
-      <c r="X11" s="36"/>
-    </row>
-    <row r="12" spans="1:25" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="34"/>
+      <c r="Y11" s="36"/>
+    </row>
+    <row r="12" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="35"/>
@@ -4395,24 +4457,27 @@
         <v>140</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="O12" s="62" t="s">
-        <v>281</v>
+        <v>277</v>
+      </c>
+      <c r="O12" s="59" t="s">
+        <v>280</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="34"/>
+        <v>284</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R12" s="34"/>
+      <c r="S12" s="36"/>
       <c r="T12" s="34"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="36"/>
       <c r="W12" s="34"/>
-      <c r="X12" s="36"/>
-    </row>
-    <row r="13" spans="1:25" ht="289.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="34"/>
+      <c r="Y12" s="36"/>
+    </row>
+    <row r="13" spans="1:26" ht="289.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
       <c r="C13" s="35"/>
@@ -4424,7 +4489,7 @@
         <v>65</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J13" s="33" t="s">
         <v>121</v>
@@ -4436,25 +4501,28 @@
       <c r="M13" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="N13" s="48" t="s">
+      <c r="N13" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="O13" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="O13" s="62" t="s">
-        <v>291</v>
-      </c>
       <c r="P13" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="34"/>
+        <v>284</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R13" s="34"/>
+      <c r="S13" s="36"/>
       <c r="T13" s="34"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="36"/>
       <c r="W13" s="34"/>
-      <c r="X13" s="36"/>
-    </row>
-    <row r="14" spans="1:25" ht="141.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="34"/>
+      <c r="Y13" s="36"/>
+    </row>
+    <row r="14" spans="1:26" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="35"/>
@@ -4478,23 +4546,28 @@
       <c r="M14" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="N14" s="34"/>
-      <c r="O14" s="62"/>
+      <c r="N14" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="O14" s="59"/>
       <c r="P14" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R14" s="34"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="T14" s="34"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="36"/>
       <c r="W14" s="34"/>
-      <c r="X14" s="36"/>
-    </row>
-    <row r="15" spans="1:25" ht="177" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="34"/>
+      <c r="Y14" s="36"/>
+    </row>
+    <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="34"/>
       <c r="C15" s="35"/>
@@ -4518,23 +4591,28 @@
       <c r="M15" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="N15" s="34"/>
-      <c r="O15" s="62"/>
+      <c r="N15" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="O15" s="59"/>
       <c r="P15" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R15" s="34"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="T15" s="34"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="36"/>
       <c r="W15" s="34"/>
-      <c r="X15" s="36"/>
-    </row>
-    <row r="16" spans="1:25" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="34"/>
+      <c r="Y15" s="36"/>
+    </row>
+    <row r="16" spans="1:26" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="35"/>
@@ -4553,28 +4631,31 @@
       </c>
       <c r="K16" s="36"/>
       <c r="L16" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M16" s="34" t="s">
         <v>138</v>
       </c>
       <c r="N16" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="O16" s="62"/>
+        <v>285</v>
+      </c>
+      <c r="O16" s="59"/>
       <c r="P16" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="34"/>
+        <v>284</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R16" s="34"/>
+      <c r="S16" s="36"/>
       <c r="T16" s="34"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="36"/>
       <c r="W16" s="34"/>
-      <c r="X16" s="36"/>
-    </row>
-    <row r="17" spans="1:24" ht="138" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="34"/>
+      <c r="Y16" s="36"/>
+    </row>
+    <row r="17" spans="1:25" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
       <c r="B17" s="34"/>
       <c r="C17" s="38"/>
@@ -4599,22 +4680,25 @@
         <v>144</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="O17" s="62"/>
+        <v>293</v>
+      </c>
+      <c r="O17" s="59"/>
       <c r="P17" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="34"/>
+        <v>284</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R17" s="34"/>
+      <c r="S17" s="36"/>
       <c r="T17" s="34"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="36"/>
       <c r="W17" s="34"/>
-      <c r="X17" s="36"/>
-    </row>
-    <row r="18" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="34"/>
+      <c r="Y17" s="36"/>
+    </row>
+    <row r="18" spans="1:25" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -4631,7 +4715,7 @@
       <c r="J18" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="45"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="50" t="s">
         <v>145</v>
       </c>
@@ -4639,22 +4723,25 @@
         <v>145</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="O18" s="63"/>
+        <v>294</v>
+      </c>
+      <c r="O18" s="60"/>
       <c r="P18" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q18" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="R18" s="45"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
       <c r="W18" s="44"/>
       <c r="X18" s="44"/>
-    </row>
-    <row r="19" spans="1:24" ht="185.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y18" s="44"/>
+    </row>
+    <row r="19" spans="1:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -4665,13 +4752,13 @@
       <c r="H19" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="67" t="s">
+      <c r="I19" s="48" t="s">
         <v>128</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K19" s="45"/>
+      <c r="K19" s="34"/>
       <c r="L19" s="34" t="s">
         <v>142</v>
       </c>
@@ -4679,26 +4766,29 @@
         <v>142</v>
       </c>
       <c r="N19" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="O19" s="62" t="s">
-        <v>256</v>
+        <v>316</v>
+      </c>
+      <c r="O19" s="59" t="s">
+        <v>255</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R19" s="45"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="T19" s="44"/>
       <c r="U19" s="44"/>
       <c r="V19" s="44"/>
       <c r="W19" s="44"/>
       <c r="X19" s="44"/>
-    </row>
-    <row r="20" spans="1:24" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y19" s="44"/>
+    </row>
+    <row r="20" spans="1:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -4709,13 +4799,13 @@
       <c r="H20" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="48" t="s">
         <v>129</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K20" s="45"/>
+      <c r="K20" s="34"/>
       <c r="L20" s="34" t="s">
         <v>146</v>
       </c>
@@ -4723,24 +4813,27 @@
         <v>146</v>
       </c>
       <c r="N20" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="O20" s="59"/>
+      <c r="P20" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="O20" s="62"/>
-      <c r="P20" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="53" t="s">
+      <c r="Q20" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R20" s="45"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="T20" s="44"/>
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
       <c r="W20" s="44"/>
       <c r="X20" s="44"/>
-    </row>
-    <row r="21" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y20" s="44"/>
+    </row>
+    <row r="21" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
       <c r="C21" s="35"/>
@@ -4765,22 +4858,25 @@
         <v>143</v>
       </c>
       <c r="N21" s="49" t="s">
-        <v>386</v>
-      </c>
-      <c r="O21" s="62"/>
+        <v>384</v>
+      </c>
+      <c r="O21" s="59"/>
       <c r="P21" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="34"/>
+        <v>284</v>
+      </c>
+      <c r="Q21" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="R21" s="34"/>
+      <c r="S21" s="36"/>
       <c r="T21" s="34"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="36"/>
       <c r="W21" s="34"/>
-      <c r="X21" s="36"/>
-    </row>
-    <row r="22" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="34"/>
+      <c r="Y21" s="36"/>
+    </row>
+    <row r="22" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -4791,13 +4887,13 @@
       <c r="H22" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="51" t="s">
+      <c r="I22" s="48" t="s">
         <v>132</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K22" s="45"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="34" t="s">
         <v>148</v>
       </c>
@@ -4805,20 +4901,23 @@
         <v>148</v>
       </c>
       <c r="N22" s="34"/>
-      <c r="O22" s="62"/>
+      <c r="O22" s="59"/>
       <c r="P22" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="44"/>
+        <v>296</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R22" s="45"/>
       <c r="S22" s="44"/>
       <c r="T22" s="44"/>
       <c r="U22" s="44"/>
       <c r="V22" s="44"/>
       <c r="W22" s="44"/>
       <c r="X22" s="44"/>
-    </row>
-    <row r="23" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y22" s="44"/>
+    </row>
+    <row r="23" spans="1:25" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -4829,13 +4928,13 @@
       <c r="H23" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="51" t="s">
+      <c r="I23" s="48" t="s">
         <v>131</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K23" s="45"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="34" t="s">
         <v>149</v>
       </c>
@@ -4843,22 +4942,25 @@
         <v>149</v>
       </c>
       <c r="N23" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="O23" s="62"/>
+        <v>298</v>
+      </c>
+      <c r="O23" s="59"/>
       <c r="P23" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="44"/>
+        <v>296</v>
+      </c>
+      <c r="Q23" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R23" s="45"/>
       <c r="S23" s="44"/>
       <c r="T23" s="44"/>
       <c r="U23" s="44"/>
       <c r="V23" s="44"/>
       <c r="W23" s="44"/>
       <c r="X23" s="44"/>
-    </row>
-    <row r="24" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y23" s="44"/>
+    </row>
+    <row r="24" spans="1:25" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -4875,7 +4977,7 @@
       <c r="J24" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K24" s="45"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="34" t="s">
         <v>237</v>
       </c>
@@ -4883,20 +4985,25 @@
         <v>151</v>
       </c>
       <c r="N24" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="O24" s="62"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="44"/>
+        <v>299</v>
+      </c>
+      <c r="O24" s="59"/>
+      <c r="P24" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q24" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R24" s="45"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
       <c r="U24" s="44"/>
       <c r="V24" s="44"/>
       <c r="W24" s="44"/>
       <c r="X24" s="44"/>
-    </row>
-    <row r="25" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y24" s="44"/>
+    </row>
+    <row r="25" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -4907,13 +5014,13 @@
       <c r="H25" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="67" t="s">
+      <c r="I25" s="48" t="s">
         <v>152</v>
       </c>
       <c r="J25" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K25" s="45"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="34" t="s">
         <v>153</v>
       </c>
@@ -4921,24 +5028,27 @@
         <v>153</v>
       </c>
       <c r="N25" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="O25" s="72"/>
-      <c r="P25" s="49" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="O25" s="68"/>
+      <c r="P25" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q25" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="R25" s="45"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="T25" s="44"/>
       <c r="U25" s="44"/>
       <c r="V25" s="44"/>
       <c r="W25" s="44"/>
       <c r="X25" s="44"/>
-    </row>
-    <row r="26" spans="1:24" ht="287.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y25" s="44"/>
+    </row>
+    <row r="26" spans="1:25" ht="210.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -4949,36 +5059,39 @@
       <c r="H26" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="48" t="s">
         <v>154</v>
       </c>
       <c r="J26" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K26" s="45"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="34" t="s">
         <v>159</v>
       </c>
       <c r="M26" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="N26" s="81" t="s">
-        <v>393</v>
-      </c>
-      <c r="O26" s="82"/>
-      <c r="P26" s="81" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="44"/>
+      <c r="N26" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="O26" s="59"/>
+      <c r="P26" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q26" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R26" s="45"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
       <c r="U26" s="44"/>
       <c r="V26" s="44"/>
       <c r="W26" s="44"/>
       <c r="X26" s="44"/>
-    </row>
-    <row r="27" spans="1:24" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y26" s="44"/>
+    </row>
+    <row r="27" spans="1:25" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -4989,13 +5102,13 @@
       <c r="H27" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="48" t="s">
         <v>155</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K27" s="45"/>
+      <c r="K27" s="34"/>
       <c r="L27" s="34" t="s">
         <v>160</v>
       </c>
@@ -5005,20 +5118,23 @@
       <c r="N27" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="O27" s="62"/>
+      <c r="O27" s="59"/>
       <c r="P27" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q27" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R27" s="45"/>
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
       <c r="U27" s="44"/>
       <c r="V27" s="44"/>
       <c r="W27" s="44"/>
       <c r="X27" s="44"/>
-    </row>
-    <row r="28" spans="1:24" ht="66" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y27" s="44"/>
+    </row>
+    <row r="28" spans="1:25" ht="66" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -5029,13 +5145,13 @@
       <c r="H28" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I28" s="51" t="s">
+      <c r="I28" s="48" t="s">
         <v>156</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K28" s="45"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="34" t="s">
         <v>161</v>
       </c>
@@ -5043,24 +5159,27 @@
         <v>161</v>
       </c>
       <c r="N28" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="O28" s="62"/>
+        <v>302</v>
+      </c>
+      <c r="O28" s="59"/>
       <c r="P28" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q28" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R28" s="45"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="T28" s="44"/>
       <c r="U28" s="44"/>
       <c r="V28" s="44"/>
       <c r="W28" s="44"/>
       <c r="X28" s="44"/>
-    </row>
-    <row r="29" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y28" s="44"/>
+    </row>
+    <row r="29" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -5071,13 +5190,13 @@
       <c r="H29" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="51" t="s">
+      <c r="I29" s="48" t="s">
         <v>130</v>
       </c>
       <c r="J29" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K29" s="45"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="50" t="s">
         <v>147</v>
       </c>
@@ -5085,22 +5204,25 @@
         <v>147</v>
       </c>
       <c r="N29" s="49" t="s">
-        <v>298</v>
-      </c>
-      <c r="O29" s="62"/>
+        <v>297</v>
+      </c>
+      <c r="O29" s="59"/>
       <c r="P29" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q29" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="R29" s="45"/>
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
       <c r="U29" s="44"/>
       <c r="V29" s="44"/>
       <c r="W29" s="44"/>
       <c r="X29" s="44"/>
-    </row>
-    <row r="30" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y29" s="44"/>
+    </row>
+    <row r="30" spans="1:25" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -5111,13 +5233,13 @@
       <c r="H30" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="51" t="s">
+      <c r="I30" s="48" t="s">
         <v>158</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K30" s="45"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="34" t="s">
         <v>134</v>
       </c>
@@ -5125,22 +5247,25 @@
         <v>232</v>
       </c>
       <c r="N30" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="O30" s="62"/>
+        <v>306</v>
+      </c>
+      <c r="O30" s="59"/>
       <c r="P30" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="44"/>
+        <v>296</v>
+      </c>
+      <c r="Q30" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R30" s="45"/>
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
       <c r="U30" s="44"/>
       <c r="V30" s="44"/>
       <c r="W30" s="44"/>
       <c r="X30" s="44"/>
-    </row>
-    <row r="31" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y30" s="44"/>
+    </row>
+    <row r="31" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A31" s="44"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
@@ -5151,13 +5276,13 @@
       <c r="H31" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="51" t="s">
+      <c r="I31" s="48" t="s">
         <v>157</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K31" s="45"/>
+      <c r="K31" s="34"/>
       <c r="L31" s="34" t="s">
         <v>162</v>
       </c>
@@ -5165,22 +5290,25 @@
         <v>162</v>
       </c>
       <c r="N31" s="49" t="s">
-        <v>304</v>
-      </c>
-      <c r="O31" s="62"/>
+        <v>303</v>
+      </c>
+      <c r="O31" s="59"/>
       <c r="P31" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q31" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="R31" s="45"/>
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
       <c r="U31" s="44"/>
       <c r="V31" s="44"/>
       <c r="W31" s="44"/>
       <c r="X31" s="44"/>
-    </row>
-    <row r="32" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y31" s="44"/>
+    </row>
+    <row r="32" spans="1:25" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44"/>
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
@@ -5191,13 +5319,13 @@
       <c r="H32" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I32" s="51" t="s">
+      <c r="I32" s="48" t="s">
         <v>164</v>
       </c>
       <c r="J32" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K32" s="45"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="34" t="s">
         <v>162</v>
       </c>
@@ -5207,20 +5335,23 @@
       <c r="N32" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="O32" s="62"/>
+      <c r="O32" s="59"/>
       <c r="P32" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q32" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R32" s="45"/>
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
       <c r="U32" s="44"/>
       <c r="V32" s="44"/>
       <c r="W32" s="44"/>
       <c r="X32" s="44"/>
-    </row>
-    <row r="33" spans="1:24" ht="86.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y32" s="44"/>
+    </row>
+    <row r="33" spans="1:25" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
@@ -5231,36 +5362,39 @@
       <c r="H33" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="51" t="s">
+      <c r="I33" s="48" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K33" s="45"/>
+      <c r="K33" s="34"/>
       <c r="L33" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M33" s="34" t="s">
         <v>162</v>
       </c>
       <c r="N33" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="O33" s="62"/>
+        <v>317</v>
+      </c>
+      <c r="O33" s="59"/>
       <c r="P33" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q33" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R33" s="45"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="53"/>
       <c r="U33" s="44"/>
       <c r="V33" s="44"/>
       <c r="W33" s="44"/>
       <c r="X33" s="44"/>
-    </row>
-    <row r="34" spans="1:24" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y33" s="44"/>
+    </row>
+    <row r="34" spans="1:25" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
@@ -5271,36 +5405,39 @@
       <c r="H34" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I34" s="51" t="s">
+      <c r="I34" s="48" t="s">
         <v>167</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K34" s="45"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M34" s="34" t="s">
         <v>162</v>
       </c>
       <c r="N34" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="O34" s="62"/>
+        <v>402</v>
+      </c>
+      <c r="O34" s="59"/>
       <c r="P34" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q34" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R34" s="45"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
       <c r="U34" s="44"/>
       <c r="V34" s="44"/>
       <c r="W34" s="44"/>
       <c r="X34" s="44"/>
-    </row>
-    <row r="35" spans="1:24" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y34" s="44"/>
+    </row>
+    <row r="35" spans="1:25" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -5311,13 +5448,13 @@
       <c r="H35" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I35" s="51" t="s">
+      <c r="I35" s="48" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K35" s="45"/>
+      <c r="K35" s="34"/>
       <c r="L35" s="34" t="s">
         <v>165</v>
       </c>
@@ -5325,22 +5462,25 @@
         <v>165</v>
       </c>
       <c r="N35" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="O35" s="62"/>
+        <v>263</v>
+      </c>
+      <c r="O35" s="59"/>
       <c r="P35" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="44"/>
+        <v>292</v>
+      </c>
+      <c r="Q35" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R35" s="45"/>
       <c r="S35" s="44"/>
       <c r="T35" s="44"/>
       <c r="U35" s="44"/>
       <c r="V35" s="44"/>
       <c r="W35" s="44"/>
       <c r="X35" s="44"/>
-    </row>
-    <row r="36" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y35" s="44"/>
+    </row>
+    <row r="36" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
@@ -5351,13 +5491,13 @@
       <c r="H36" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="51" t="s">
+      <c r="I36" s="48" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K36" s="45"/>
+      <c r="K36" s="34"/>
       <c r="L36" s="34" t="s">
         <v>170</v>
       </c>
@@ -5365,22 +5505,25 @@
         <v>170</v>
       </c>
       <c r="N36" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="O36" s="62"/>
+        <v>263</v>
+      </c>
+      <c r="O36" s="59"/>
       <c r="P36" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="44"/>
+        <v>292</v>
+      </c>
+      <c r="Q36" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R36" s="45"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="52"/>
       <c r="U36" s="44"/>
       <c r="V36" s="44"/>
       <c r="W36" s="44"/>
       <c r="X36" s="44"/>
-    </row>
-    <row r="37" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y36" s="44"/>
+    </row>
+    <row r="37" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
@@ -5391,13 +5534,13 @@
       <c r="H37" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I37" s="51" t="s">
+      <c r="I37" s="48" t="s">
         <v>171</v>
       </c>
       <c r="J37" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K37" s="45"/>
+      <c r="K37" s="34"/>
       <c r="L37" s="34" t="s">
         <v>170</v>
       </c>
@@ -5405,22 +5548,25 @@
         <v>170</v>
       </c>
       <c r="N37" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="O37" s="62"/>
+        <v>366</v>
+      </c>
+      <c r="O37" s="59"/>
       <c r="P37" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q37" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R37" s="45"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="53"/>
       <c r="U37" s="44"/>
       <c r="V37" s="44"/>
       <c r="W37" s="44"/>
       <c r="X37" s="44"/>
-    </row>
-    <row r="38" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y37" s="44"/>
+    </row>
+    <row r="38" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
@@ -5431,13 +5577,13 @@
       <c r="H38" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I38" s="51" t="s">
+      <c r="I38" s="48" t="s">
         <v>172</v>
       </c>
       <c r="J38" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="45"/>
+      <c r="K38" s="34"/>
       <c r="L38" s="34" t="s">
         <v>211</v>
       </c>
@@ -5445,22 +5591,25 @@
         <v>211</v>
       </c>
       <c r="N38" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="O38" s="62"/>
+        <v>240</v>
+      </c>
+      <c r="O38" s="59"/>
       <c r="P38" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q38" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R38" s="45"/>
       <c r="S38" s="44"/>
       <c r="T38" s="44"/>
       <c r="U38" s="44"/>
       <c r="V38" s="44"/>
       <c r="W38" s="44"/>
       <c r="X38" s="44"/>
-    </row>
-    <row r="39" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y38" s="44"/>
+    </row>
+    <row r="39" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -5471,13 +5620,13 @@
       <c r="H39" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="45" t="s">
+      <c r="I39" s="34" t="s">
         <v>173</v>
       </c>
       <c r="J39" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K39" s="45"/>
+      <c r="K39" s="34"/>
       <c r="L39" s="50" t="s">
         <v>212</v>
       </c>
@@ -5485,20 +5634,23 @@
         <v>212</v>
       </c>
       <c r="N39" s="34"/>
-      <c r="O39" s="62"/>
+      <c r="O39" s="59"/>
       <c r="P39" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="44"/>
+        <v>292</v>
+      </c>
+      <c r="Q39" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R39" s="45"/>
       <c r="S39" s="44"/>
       <c r="T39" s="44"/>
       <c r="U39" s="44"/>
       <c r="V39" s="44"/>
       <c r="W39" s="44"/>
       <c r="X39" s="44"/>
-    </row>
-    <row r="40" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y39" s="44"/>
+    </row>
+    <row r="40" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
@@ -5509,13 +5661,13 @@
       <c r="H40" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I40" s="51" t="s">
+      <c r="I40" s="48" t="s">
         <v>174</v>
       </c>
       <c r="J40" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K40" s="45"/>
+      <c r="K40" s="34"/>
       <c r="L40" s="50" t="s">
         <v>211</v>
       </c>
@@ -5523,24 +5675,27 @@
         <v>211</v>
       </c>
       <c r="N40" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="O40" s="62"/>
+        <v>241</v>
+      </c>
+      <c r="O40" s="59"/>
       <c r="P40" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q40" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R40" s="45"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="T40" s="44"/>
       <c r="U40" s="44"/>
       <c r="V40" s="44"/>
       <c r="W40" s="44"/>
       <c r="X40" s="44"/>
-    </row>
-    <row r="41" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y40" s="44"/>
+    </row>
+    <row r="41" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
@@ -5551,13 +5706,13 @@
       <c r="H41" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="51" t="s">
+      <c r="I41" s="48" t="s">
         <v>175</v>
       </c>
       <c r="J41" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K41" s="45"/>
+      <c r="K41" s="34"/>
       <c r="L41" s="34" t="s">
         <v>211</v>
       </c>
@@ -5565,22 +5720,25 @@
         <v>211</v>
       </c>
       <c r="N41" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="O41" s="62"/>
+        <v>242</v>
+      </c>
+      <c r="O41" s="59"/>
       <c r="P41" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q41" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R41" s="45"/>
       <c r="S41" s="44"/>
       <c r="T41" s="44"/>
       <c r="U41" s="44"/>
       <c r="V41" s="44"/>
       <c r="W41" s="44"/>
       <c r="X41" s="44"/>
-    </row>
-    <row r="42" spans="1:24" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y41" s="44"/>
+    </row>
+    <row r="42" spans="1:25" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
@@ -5591,13 +5749,13 @@
       <c r="H42" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I42" s="51" t="s">
+      <c r="I42" s="48" t="s">
         <v>176</v>
       </c>
       <c r="J42" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K42" s="45"/>
+      <c r="K42" s="34"/>
       <c r="L42" s="34" t="s">
         <v>211</v>
       </c>
@@ -5605,22 +5763,25 @@
         <v>211</v>
       </c>
       <c r="N42" s="49" t="s">
-        <v>391</v>
-      </c>
-      <c r="O42" s="62"/>
+        <v>389</v>
+      </c>
+      <c r="O42" s="59"/>
       <c r="P42" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q42" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="R42" s="45"/>
       <c r="S42" s="44"/>
       <c r="T42" s="44"/>
       <c r="U42" s="44"/>
       <c r="V42" s="44"/>
       <c r="W42" s="44"/>
       <c r="X42" s="44"/>
-    </row>
-    <row r="43" spans="1:24" ht="96.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y42" s="44"/>
+    </row>
+    <row r="43" spans="1:25" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
@@ -5631,13 +5792,13 @@
       <c r="H43" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I43" s="51" t="s">
+      <c r="I43" s="48" t="s">
         <v>177</v>
       </c>
       <c r="J43" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K43" s="45"/>
+      <c r="K43" s="34"/>
       <c r="L43" s="34" t="s">
         <v>211</v>
       </c>
@@ -5645,24 +5806,27 @@
         <v>211</v>
       </c>
       <c r="N43" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="O43" s="62"/>
+        <v>264</v>
+      </c>
+      <c r="O43" s="59"/>
       <c r="P43" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q43" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="R43" s="45"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="T43" s="44"/>
       <c r="U43" s="44"/>
       <c r="V43" s="44"/>
       <c r="W43" s="44"/>
       <c r="X43" s="44"/>
-    </row>
-    <row r="44" spans="1:24" ht="93.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y43" s="44"/>
+    </row>
+    <row r="44" spans="1:25" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" s="44"/>
       <c r="C44" s="44"/>
@@ -5679,7 +5843,7 @@
       <c r="J44" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K44" s="45"/>
+      <c r="K44" s="34"/>
       <c r="L44" s="50" t="s">
         <v>213</v>
       </c>
@@ -5687,22 +5851,25 @@
         <v>213</v>
       </c>
       <c r="N44" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="O44" s="62"/>
+        <v>243</v>
+      </c>
+      <c r="O44" s="59"/>
       <c r="P44" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q44" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R44" s="45"/>
       <c r="S44" s="44"/>
       <c r="T44" s="44"/>
       <c r="U44" s="44"/>
       <c r="V44" s="44"/>
       <c r="W44" s="44"/>
       <c r="X44" s="44"/>
-    </row>
-    <row r="45" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y44" s="44"/>
+    </row>
+    <row r="45" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A45" s="44"/>
       <c r="B45" s="44"/>
       <c r="C45" s="44"/>
@@ -5710,16 +5877,16 @@
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
       <c r="G45" s="44"/>
-      <c r="H45" s="56" t="s">
+      <c r="H45" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I45" s="45" t="s">
+      <c r="I45" s="34" t="s">
         <v>179</v>
       </c>
       <c r="J45" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K45" s="45"/>
+      <c r="K45" s="34"/>
       <c r="L45" s="34" t="s">
         <v>165</v>
       </c>
@@ -5727,18 +5894,23 @@
         <v>165</v>
       </c>
       <c r="N45" s="34"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="44"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q45" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="R45" s="45"/>
       <c r="S45" s="44"/>
       <c r="T45" s="44"/>
       <c r="U45" s="44"/>
       <c r="V45" s="44"/>
       <c r="W45" s="44"/>
       <c r="X45" s="44"/>
-    </row>
-    <row r="46" spans="1:24" ht="104.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y45" s="44"/>
+    </row>
+    <row r="46" spans="1:25" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44"/>
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
@@ -5746,16 +5918,16 @@
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
-      <c r="H46" s="56" t="s">
+      <c r="H46" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I46" s="45" t="s">
+      <c r="I46" s="34" t="s">
         <v>214</v>
       </c>
       <c r="J46" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K46" s="45"/>
+      <c r="K46" s="34"/>
       <c r="L46" s="34" t="s">
         <v>215</v>
       </c>
@@ -5763,20 +5935,25 @@
         <v>215</v>
       </c>
       <c r="N46" s="34"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="54" t="s">
+      <c r="O46" s="59"/>
+      <c r="P46" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q46" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="R46" s="45"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="T46" s="44"/>
       <c r="U46" s="44"/>
       <c r="V46" s="44"/>
       <c r="W46" s="44"/>
       <c r="X46" s="44"/>
-    </row>
-    <row r="47" spans="1:24" ht="66" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y46" s="44"/>
+    </row>
+    <row r="47" spans="1:25" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A47" s="44"/>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -5784,16 +5961,16 @@
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
-      <c r="H47" s="56" t="s">
+      <c r="H47" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I47" s="45" t="s">
-        <v>277</v>
+      <c r="I47" s="34" t="s">
+        <v>276</v>
       </c>
       <c r="J47" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K47" s="45"/>
+      <c r="K47" s="34"/>
       <c r="L47" s="34" t="s">
         <v>215</v>
       </c>
@@ -5801,20 +5978,25 @@
         <v>215</v>
       </c>
       <c r="N47" s="34"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="54" t="s">
+      <c r="O47" s="59"/>
+      <c r="P47" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q47" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="R47" s="45"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="T47" s="44"/>
       <c r="U47" s="44"/>
       <c r="V47" s="44"/>
       <c r="W47" s="44"/>
       <c r="X47" s="44"/>
-    </row>
-    <row r="48" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y47" s="44"/>
+    </row>
+    <row r="48" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A48" s="44"/>
       <c r="B48" s="44"/>
       <c r="C48" s="44"/>
@@ -5822,16 +6004,16 @@
       <c r="E48" s="44"/>
       <c r="F48" s="44"/>
       <c r="G48" s="44"/>
-      <c r="H48" s="56" t="s">
+      <c r="H48" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I48" s="45" t="s">
+      <c r="I48" s="34" t="s">
         <v>180</v>
       </c>
       <c r="J48" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K48" s="45"/>
+      <c r="K48" s="34"/>
       <c r="L48" s="50" t="s">
         <v>216</v>
       </c>
@@ -5839,18 +6021,23 @@
         <v>216</v>
       </c>
       <c r="N48" s="34"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="44"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q48" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="R48" s="45"/>
       <c r="S48" s="44"/>
       <c r="T48" s="44"/>
       <c r="U48" s="44"/>
       <c r="V48" s="44"/>
       <c r="W48" s="44"/>
       <c r="X48" s="44"/>
-    </row>
-    <row r="49" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y48" s="44"/>
+    </row>
+    <row r="49" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A49" s="44"/>
       <c r="B49" s="44"/>
       <c r="C49" s="44"/>
@@ -5858,16 +6045,16 @@
       <c r="E49" s="44"/>
       <c r="F49" s="44"/>
       <c r="G49" s="44"/>
-      <c r="H49" s="56" t="s">
+      <c r="H49" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I49" s="45" t="s">
+      <c r="I49" s="34" t="s">
         <v>181</v>
       </c>
       <c r="J49" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K49" s="45"/>
+      <c r="K49" s="34"/>
       <c r="L49" s="34" t="s">
         <v>170</v>
       </c>
@@ -5875,20 +6062,25 @@
         <v>170</v>
       </c>
       <c r="N49" s="34"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="54" t="s">
+      <c r="O49" s="59"/>
+      <c r="P49" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q49" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="R49" s="45"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="T49" s="44"/>
       <c r="U49" s="44"/>
       <c r="V49" s="44"/>
       <c r="W49" s="44"/>
       <c r="X49" s="44"/>
-    </row>
-    <row r="50" spans="1:24" ht="135.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y49" s="44"/>
+    </row>
+    <row r="50" spans="1:25" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44"/>
       <c r="B50" s="44"/>
       <c r="C50" s="44"/>
@@ -5896,16 +6088,16 @@
       <c r="E50" s="44"/>
       <c r="F50" s="44"/>
       <c r="G50" s="44"/>
-      <c r="H50" s="56" t="s">
+      <c r="H50" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I50" s="45" t="s">
+      <c r="I50" s="34" t="s">
         <v>182</v>
       </c>
       <c r="J50" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K50" s="45"/>
+      <c r="K50" s="34"/>
       <c r="L50" s="34" t="s">
         <v>217</v>
       </c>
@@ -5913,20 +6105,25 @@
         <v>217</v>
       </c>
       <c r="N50" s="34"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="54" t="s">
+      <c r="O50" s="59"/>
+      <c r="P50" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q50" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="R50" s="45"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="T50" s="44"/>
       <c r="U50" s="44"/>
       <c r="V50" s="44"/>
       <c r="W50" s="44"/>
       <c r="X50" s="44"/>
-    </row>
-    <row r="51" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y50" s="44"/>
+    </row>
+    <row r="51" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="44"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -5934,16 +6131,16 @@
       <c r="E51" s="44"/>
       <c r="F51" s="44"/>
       <c r="G51" s="44"/>
-      <c r="H51" s="56" t="s">
+      <c r="H51" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I51" s="45" t="s">
+      <c r="I51" s="34" t="s">
         <v>183</v>
       </c>
       <c r="J51" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K51" s="45"/>
+      <c r="K51" s="34"/>
       <c r="L51" s="50" t="s">
         <v>218</v>
       </c>
@@ -5951,18 +6148,23 @@
         <v>218</v>
       </c>
       <c r="N51" s="34"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="44"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q51" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="R51" s="45"/>
       <c r="S51" s="44"/>
       <c r="T51" s="44"/>
       <c r="U51" s="44"/>
       <c r="V51" s="44"/>
       <c r="W51" s="44"/>
       <c r="X51" s="44"/>
-    </row>
-    <row r="52" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y51" s="44"/>
+    </row>
+    <row r="52" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -5970,16 +6172,16 @@
       <c r="E52" s="44"/>
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
-      <c r="H52" s="56" t="s">
+      <c r="H52" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I52" s="45" t="s">
+      <c r="I52" s="34" t="s">
         <v>184</v>
       </c>
       <c r="J52" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K52" s="45"/>
+      <c r="K52" s="34"/>
       <c r="L52" s="34" t="s">
         <v>170</v>
       </c>
@@ -5987,20 +6189,25 @@
         <v>170</v>
       </c>
       <c r="N52" s="34"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44" t="s">
+      <c r="O52" s="59"/>
+      <c r="P52" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q52" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="R52" s="45"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="T52" s="44"/>
       <c r="U52" s="44"/>
       <c r="V52" s="44"/>
       <c r="W52" s="44"/>
       <c r="X52" s="44"/>
-    </row>
-    <row r="53" spans="1:24" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y52" s="44"/>
+    </row>
+    <row r="53" spans="1:25" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -6008,16 +6215,16 @@
       <c r="E53" s="44"/>
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
-      <c r="H53" s="56" t="s">
+      <c r="H53" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I53" s="45" t="s">
+      <c r="I53" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J53" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K53" s="45"/>
+      <c r="K53" s="34"/>
       <c r="L53" s="34" t="s">
         <v>170</v>
       </c>
@@ -6025,18 +6232,23 @@
         <v>170</v>
       </c>
       <c r="N53" s="34"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="44"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q53" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="R53" s="45"/>
       <c r="S53" s="44"/>
       <c r="T53" s="44"/>
       <c r="U53" s="44"/>
       <c r="V53" s="44"/>
       <c r="W53" s="44"/>
       <c r="X53" s="44"/>
-    </row>
-    <row r="54" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y53" s="44"/>
+    </row>
+    <row r="54" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -6044,16 +6256,16 @@
       <c r="E54" s="44"/>
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
-      <c r="H54" s="56" t="s">
+      <c r="H54" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I54" s="45" t="s">
+      <c r="I54" s="34" t="s">
         <v>186</v>
       </c>
       <c r="J54" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K54" s="45"/>
+      <c r="K54" s="34"/>
       <c r="L54" s="34" t="s">
         <v>170</v>
       </c>
@@ -6061,20 +6273,25 @@
         <v>170</v>
       </c>
       <c r="N54" s="34"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44" t="s">
+      <c r="O54" s="59"/>
+      <c r="P54" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q54" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="R54" s="45"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="T54" s="44"/>
       <c r="U54" s="44"/>
       <c r="V54" s="44"/>
       <c r="W54" s="44"/>
       <c r="X54" s="44"/>
-    </row>
-    <row r="55" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y54" s="44"/>
+    </row>
+    <row r="55" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -6082,16 +6299,16 @@
       <c r="E55" s="44"/>
       <c r="F55" s="44"/>
       <c r="G55" s="44"/>
-      <c r="H55" s="56" t="s">
+      <c r="H55" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I55" s="45" t="s">
+      <c r="I55" s="34" t="s">
         <v>187</v>
       </c>
       <c r="J55" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K55" s="45"/>
+      <c r="K55" s="34"/>
       <c r="L55" s="34" t="s">
         <v>165</v>
       </c>
@@ -6099,20 +6316,25 @@
         <v>165</v>
       </c>
       <c r="N55" s="34"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="54" t="s">
+      <c r="O55" s="59"/>
+      <c r="P55" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q55" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="R55" s="45"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="T55" s="44"/>
       <c r="U55" s="44"/>
       <c r="V55" s="44"/>
       <c r="W55" s="44"/>
       <c r="X55" s="44"/>
-    </row>
-    <row r="56" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y55" s="44"/>
+    </row>
+    <row r="56" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -6120,16 +6342,16 @@
       <c r="E56" s="44"/>
       <c r="F56" s="44"/>
       <c r="G56" s="44"/>
-      <c r="H56" s="56" t="s">
+      <c r="H56" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I56" s="45" t="s">
+      <c r="I56" s="34" t="s">
         <v>188</v>
       </c>
       <c r="J56" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K56" s="45"/>
+      <c r="K56" s="34"/>
       <c r="L56" s="34" t="s">
         <v>219</v>
       </c>
@@ -6137,20 +6359,25 @@
         <v>219</v>
       </c>
       <c r="N56" s="34"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="54" t="s">
+      <c r="O56" s="59"/>
+      <c r="P56" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q56" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="R56" s="45"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="T56" s="44"/>
       <c r="U56" s="44"/>
       <c r="V56" s="44"/>
       <c r="W56" s="44"/>
       <c r="X56" s="44"/>
-    </row>
-    <row r="57" spans="1:24" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y56" s="44"/>
+    </row>
+    <row r="57" spans="1:25" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -6158,16 +6385,16 @@
       <c r="E57" s="44"/>
       <c r="F57" s="44"/>
       <c r="G57" s="44"/>
-      <c r="H57" s="56" t="s">
+      <c r="H57" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I57" s="45" t="s">
+      <c r="I57" s="34" t="s">
         <v>189</v>
       </c>
       <c r="J57" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K57" s="45"/>
+      <c r="K57" s="34"/>
       <c r="L57" s="34" t="s">
         <v>220</v>
       </c>
@@ -6175,18 +6402,23 @@
         <v>220</v>
       </c>
       <c r="N57" s="34"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="45"/>
-      <c r="R57" s="44"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q57" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="R57" s="45"/>
       <c r="S57" s="44"/>
       <c r="T57" s="44"/>
       <c r="U57" s="44"/>
       <c r="V57" s="44"/>
       <c r="W57" s="44"/>
       <c r="X57" s="44"/>
-    </row>
-    <row r="58" spans="1:24" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y57" s="44"/>
+    </row>
+    <row r="58" spans="1:25" ht="66" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -6194,16 +6426,16 @@
       <c r="E58" s="44"/>
       <c r="F58" s="44"/>
       <c r="G58" s="44"/>
-      <c r="H58" s="56" t="s">
+      <c r="H58" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I58" s="45" t="s">
+      <c r="I58" s="34" t="s">
         <v>190</v>
       </c>
       <c r="J58" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K58" s="45"/>
+      <c r="K58" s="34"/>
       <c r="L58" s="50" t="s">
         <v>165</v>
       </c>
@@ -6211,18 +6443,23 @@
         <v>165</v>
       </c>
       <c r="N58" s="34"/>
-      <c r="O58" s="62"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="44"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q58" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="R58" s="45"/>
       <c r="S58" s="44"/>
       <c r="T58" s="44"/>
       <c r="U58" s="44"/>
       <c r="V58" s="44"/>
       <c r="W58" s="44"/>
       <c r="X58" s="44"/>
-    </row>
-    <row r="59" spans="1:24" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y58" s="44"/>
+    </row>
+    <row r="59" spans="1:25" ht="198" x14ac:dyDescent="0.25">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -6233,13 +6470,13 @@
       <c r="H59" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="I59" s="51" t="s">
+      <c r="I59" s="48" t="s">
         <v>192</v>
       </c>
       <c r="J59" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K59" s="45"/>
+      <c r="K59" s="34"/>
       <c r="L59" s="34" t="s">
         <v>211</v>
       </c>
@@ -6247,22 +6484,25 @@
         <v>211</v>
       </c>
       <c r="N59" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="O59" s="62"/>
+        <v>406</v>
+      </c>
+      <c r="O59" s="59"/>
       <c r="P59" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q59" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R59" s="45"/>
       <c r="S59" s="44"/>
       <c r="T59" s="44"/>
       <c r="U59" s="44"/>
       <c r="V59" s="44"/>
       <c r="W59" s="44"/>
       <c r="X59" s="44"/>
-    </row>
-    <row r="60" spans="1:24" ht="92.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y59" s="44"/>
+    </row>
+    <row r="60" spans="1:25" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -6273,13 +6513,13 @@
       <c r="H60" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="I60" s="75" t="s">
+      <c r="I60" s="77" t="s">
         <v>193</v>
       </c>
       <c r="J60" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K60" s="45"/>
+      <c r="K60" s="34"/>
       <c r="L60" s="34" t="s">
         <v>221</v>
       </c>
@@ -6287,22 +6527,25 @@
         <v>221</v>
       </c>
       <c r="N60" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="O60" s="62"/>
+        <v>380</v>
+      </c>
+      <c r="O60" s="59"/>
       <c r="P60" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q60" s="45"/>
-      <c r="R60" s="44"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q60" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R60" s="45"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="53"/>
       <c r="U60" s="44"/>
       <c r="V60" s="44"/>
       <c r="W60" s="44"/>
       <c r="X60" s="44"/>
-    </row>
-    <row r="61" spans="1:24" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y60" s="44"/>
+    </row>
+    <row r="61" spans="1:25" ht="66" x14ac:dyDescent="0.25">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -6313,13 +6556,13 @@
       <c r="H61" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="I61" s="51" t="s">
+      <c r="I61" s="48" t="s">
         <v>194</v>
       </c>
       <c r="J61" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K61" s="45"/>
+      <c r="K61" s="34"/>
       <c r="L61" s="34" t="s">
         <v>211</v>
       </c>
@@ -6327,22 +6570,25 @@
         <v>211</v>
       </c>
       <c r="N61" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="O61" s="62"/>
+        <v>367</v>
+      </c>
+      <c r="O61" s="59"/>
       <c r="P61" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="44"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q61" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R61" s="45"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="53"/>
       <c r="U61" s="44"/>
       <c r="V61" s="44"/>
       <c r="W61" s="44"/>
       <c r="X61" s="44"/>
-    </row>
-    <row r="62" spans="1:24" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y61" s="44"/>
+    </row>
+    <row r="62" spans="1:25" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -6353,36 +6599,39 @@
       <c r="H62" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="I62" s="51" t="s">
+      <c r="I62" s="48" t="s">
         <v>195</v>
       </c>
       <c r="J62" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K62" s="45"/>
+      <c r="K62" s="34"/>
       <c r="L62" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M62" s="34" t="s">
         <v>211</v>
       </c>
       <c r="N62" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="O62" s="62"/>
+        <v>374</v>
+      </c>
+      <c r="O62" s="59"/>
       <c r="P62" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q62" s="45"/>
-      <c r="R62" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q62" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R62" s="45"/>
       <c r="S62" s="44"/>
       <c r="T62" s="44"/>
       <c r="U62" s="44"/>
       <c r="V62" s="44"/>
       <c r="W62" s="44"/>
       <c r="X62" s="44"/>
-    </row>
-    <row r="63" spans="1:24" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y62" s="44"/>
+    </row>
+    <row r="63" spans="1:25" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -6393,38 +6642,41 @@
       <c r="H63" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I63" s="51" t="s">
+      <c r="I63" s="48" t="s">
         <v>197</v>
       </c>
       <c r="J63" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K63" s="45"/>
+      <c r="K63" s="34"/>
       <c r="L63" s="34" t="s">
         <v>211</v>
       </c>
       <c r="M63" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="N63" s="81" t="s">
-        <v>397</v>
-      </c>
-      <c r="O63" s="82"/>
-      <c r="P63" s="81" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q63" s="45"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="54" t="s">
+      <c r="N63" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="O63" s="59"/>
+      <c r="P63" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q63" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R63" s="45"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="T63" s="44"/>
       <c r="U63" s="44"/>
       <c r="V63" s="44"/>
       <c r="W63" s="44"/>
       <c r="X63" s="44"/>
-    </row>
-    <row r="64" spans="1:24" ht="132.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y63" s="44"/>
+    </row>
+    <row r="64" spans="1:25" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -6435,13 +6687,13 @@
       <c r="H64" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I64" s="51" t="s">
+      <c r="I64" s="48" t="s">
         <v>198</v>
       </c>
       <c r="J64" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K64" s="45"/>
+      <c r="K64" s="34"/>
       <c r="L64" s="34" t="s">
         <v>211</v>
       </c>
@@ -6449,24 +6701,27 @@
         <v>211</v>
       </c>
       <c r="N64" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="O64" s="62"/>
+        <v>375</v>
+      </c>
+      <c r="O64" s="59"/>
       <c r="P64" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q64" s="45"/>
-      <c r="R64" s="44"/>
-      <c r="S64" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q64" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R64" s="45"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="T64" s="44"/>
       <c r="U64" s="44"/>
       <c r="V64" s="44"/>
       <c r="W64" s="44"/>
       <c r="X64" s="44"/>
-    </row>
-    <row r="65" spans="1:24" ht="93.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y64" s="44"/>
+    </row>
+    <row r="65" spans="1:25" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -6477,13 +6732,13 @@
       <c r="H65" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I65" s="51" t="s">
+      <c r="I65" s="48" t="s">
         <v>199</v>
       </c>
       <c r="J65" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K65" s="45"/>
+      <c r="K65" s="34"/>
       <c r="L65" s="34" t="s">
         <v>211</v>
       </c>
@@ -6491,24 +6746,27 @@
         <v>211</v>
       </c>
       <c r="N65" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="O65" s="62"/>
+        <v>307</v>
+      </c>
+      <c r="O65" s="59"/>
       <c r="P65" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q65" s="45"/>
-      <c r="R65" s="44"/>
-      <c r="S65" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q65" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R65" s="45"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="T65" s="44"/>
       <c r="U65" s="44"/>
       <c r="V65" s="44"/>
       <c r="W65" s="44"/>
       <c r="X65" s="44"/>
-    </row>
-    <row r="66" spans="1:24" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y65" s="44"/>
+    </row>
+    <row r="66" spans="1:25" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -6519,38 +6777,41 @@
       <c r="H66" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I66" s="51" t="s">
+      <c r="I66" s="48" t="s">
         <v>200</v>
       </c>
       <c r="J66" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K66" s="45"/>
+      <c r="K66" s="34"/>
       <c r="L66" s="34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M66" s="34" t="s">
         <v>211</v>
       </c>
       <c r="N66" s="49" t="s">
-        <v>321</v>
-      </c>
-      <c r="O66" s="62"/>
+        <v>319</v>
+      </c>
+      <c r="O66" s="59"/>
       <c r="P66" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q66" s="45"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q66" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="R66" s="45"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="T66" s="44"/>
       <c r="U66" s="44"/>
       <c r="V66" s="44"/>
       <c r="W66" s="44"/>
       <c r="X66" s="44"/>
-    </row>
-    <row r="67" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y66" s="44"/>
+    </row>
+    <row r="67" spans="1:25" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -6561,36 +6822,39 @@
       <c r="H67" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I67" s="51" t="s">
+      <c r="I67" s="48" t="s">
         <v>201</v>
       </c>
       <c r="J67" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K67" s="45"/>
+      <c r="K67" s="34"/>
       <c r="L67" s="34" t="s">
         <v>211</v>
       </c>
       <c r="M67" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="N67" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="O67" s="58"/>
+      <c r="N67" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="O67" s="55"/>
       <c r="P67" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q67" s="45"/>
-      <c r="R67" s="44"/>
+        <v>376</v>
+      </c>
+      <c r="Q67" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R67" s="45"/>
       <c r="S67" s="44"/>
       <c r="T67" s="44"/>
       <c r="U67" s="44"/>
       <c r="V67" s="44"/>
       <c r="W67" s="44"/>
       <c r="X67" s="44"/>
-    </row>
-    <row r="68" spans="1:24" ht="128.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y67" s="44"/>
+    </row>
+    <row r="68" spans="1:25" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -6601,13 +6865,13 @@
       <c r="H68" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I68" s="51" t="s">
+      <c r="I68" s="48" t="s">
         <v>202</v>
       </c>
       <c r="J68" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K68" s="45"/>
+      <c r="K68" s="34"/>
       <c r="L68" s="34" t="s">
         <v>211</v>
       </c>
@@ -6615,22 +6879,25 @@
         <v>211</v>
       </c>
       <c r="N68" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="O68" s="62"/>
+        <v>308</v>
+      </c>
+      <c r="O68" s="59"/>
       <c r="P68" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q68" s="45"/>
-      <c r="R68" s="44"/>
-      <c r="S68" s="52"/>
-      <c r="T68" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q68" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R68" s="45"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="51"/>
       <c r="U68" s="44"/>
       <c r="V68" s="44"/>
       <c r="W68" s="44"/>
       <c r="X68" s="44"/>
-    </row>
-    <row r="69" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y68" s="44"/>
+    </row>
+    <row r="69" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -6641,13 +6908,13 @@
       <c r="H69" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I69" s="67" t="s">
+      <c r="I69" s="48" t="s">
         <v>203</v>
       </c>
       <c r="J69" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K69" s="45"/>
+      <c r="K69" s="34"/>
       <c r="L69" s="34" t="s">
         <v>211</v>
       </c>
@@ -6655,22 +6922,25 @@
         <v>211</v>
       </c>
       <c r="N69" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="O69" s="62"/>
+        <v>377</v>
+      </c>
+      <c r="O69" s="59"/>
       <c r="P69" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q69" s="45"/>
-      <c r="R69" s="44"/>
-      <c r="S69" s="53"/>
-      <c r="T69" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q69" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R69" s="45"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="52"/>
       <c r="U69" s="44"/>
       <c r="V69" s="44"/>
       <c r="W69" s="44"/>
       <c r="X69" s="44"/>
-    </row>
-    <row r="70" spans="1:24" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y69" s="44"/>
+    </row>
+    <row r="70" spans="1:25" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -6679,38 +6949,41 @@
       <c r="F70" s="44"/>
       <c r="G70" s="44"/>
       <c r="H70" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="I70" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="I70" s="48" t="s">
         <v>204</v>
       </c>
       <c r="J70" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K70" s="45"/>
+      <c r="K70" s="34"/>
       <c r="L70" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M70" s="34" t="s">
         <v>211</v>
       </c>
       <c r="N70" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="O70" s="62"/>
+        <v>249</v>
+      </c>
+      <c r="O70" s="59"/>
       <c r="P70" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q70" s="45"/>
-      <c r="R70" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q70" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R70" s="45"/>
       <c r="S70" s="44"/>
       <c r="T70" s="44"/>
       <c r="U70" s="44"/>
       <c r="V70" s="44"/>
       <c r="W70" s="44"/>
       <c r="X70" s="44"/>
-    </row>
-    <row r="71" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y70" s="44"/>
+    </row>
+    <row r="71" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -6719,15 +6992,15 @@
       <c r="F71" s="44"/>
       <c r="G71" s="44"/>
       <c r="H71" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="I71" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="I71" s="48" t="s">
         <v>205</v>
       </c>
       <c r="J71" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K71" s="45"/>
+      <c r="K71" s="34"/>
       <c r="L71" s="34" t="s">
         <v>211</v>
       </c>
@@ -6735,22 +7008,25 @@
         <v>211</v>
       </c>
       <c r="N71" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="O71" s="62"/>
+        <v>310</v>
+      </c>
+      <c r="O71" s="59"/>
       <c r="P71" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q71" s="45"/>
-      <c r="R71" s="44"/>
-      <c r="S71" s="54"/>
-      <c r="T71" s="44"/>
+        <v>292</v>
+      </c>
+      <c r="Q71" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R71" s="45"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="53"/>
       <c r="U71" s="44"/>
       <c r="V71" s="44"/>
       <c r="W71" s="44"/>
       <c r="X71" s="44"/>
-    </row>
-    <row r="72" spans="1:24" ht="94.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y71" s="44"/>
+    </row>
+    <row r="72" spans="1:25" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -6759,38 +7035,41 @@
       <c r="F72" s="44"/>
       <c r="G72" s="44"/>
       <c r="H72" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="I72" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="I72" s="48" t="s">
         <v>206</v>
       </c>
       <c r="J72" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K72" s="45"/>
+      <c r="K72" s="34"/>
       <c r="L72" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M72" s="34" t="s">
         <v>211</v>
       </c>
       <c r="N72" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="O72" s="62"/>
+        <v>390</v>
+      </c>
+      <c r="O72" s="59"/>
       <c r="P72" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q72" s="45"/>
-      <c r="R72" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q72" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="R72" s="45"/>
       <c r="S72" s="44"/>
       <c r="T72" s="44"/>
       <c r="U72" s="44"/>
       <c r="V72" s="44"/>
       <c r="W72" s="44"/>
       <c r="X72" s="44"/>
-    </row>
-    <row r="73" spans="1:24" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y72" s="44"/>
+    </row>
+    <row r="73" spans="1:25" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -6799,16 +7078,16 @@
       <c r="F73" s="44"/>
       <c r="G73" s="44"/>
       <c r="H73" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="I73" s="51" t="s">
-        <v>260</v>
+        <v>247</v>
+      </c>
+      <c r="I73" s="48" t="s">
+        <v>405</v>
       </c>
       <c r="J73" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K73" s="45" t="s">
-        <v>259</v>
+      <c r="K73" s="34" t="s">
+        <v>258</v>
       </c>
       <c r="L73" s="34" t="s">
         <v>211</v>
@@ -6817,22 +7096,25 @@
         <v>211</v>
       </c>
       <c r="N73" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="O73" s="62"/>
+        <v>277</v>
+      </c>
+      <c r="O73" s="59"/>
       <c r="P73" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q73" s="45"/>
-      <c r="R73" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q73" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R73" s="45"/>
       <c r="S73" s="44"/>
       <c r="T73" s="44"/>
       <c r="U73" s="44"/>
       <c r="V73" s="44"/>
       <c r="W73" s="44"/>
       <c r="X73" s="44"/>
-    </row>
-    <row r="74" spans="1:24" ht="214.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y73" s="44"/>
+    </row>
+    <row r="74" spans="1:25" ht="168.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -6841,38 +7123,41 @@
       <c r="F74" s="44"/>
       <c r="G74" s="44"/>
       <c r="H74" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="I74" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="I74" s="48" t="s">
         <v>207</v>
       </c>
       <c r="J74" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K74" s="45"/>
+      <c r="K74" s="34"/>
       <c r="L74" s="34" t="s">
         <v>211</v>
       </c>
       <c r="M74" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="N74" s="81" t="s">
-        <v>394</v>
-      </c>
-      <c r="O74" s="82"/>
-      <c r="P74" s="81" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q74" s="45"/>
-      <c r="R74" s="44"/>
-      <c r="S74" s="53"/>
-      <c r="T74" s="44"/>
+      <c r="N74" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="O74" s="59"/>
+      <c r="P74" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q74" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R74" s="45"/>
+      <c r="S74" s="44"/>
+      <c r="T74" s="52"/>
       <c r="U74" s="44"/>
       <c r="V74" s="44"/>
       <c r="W74" s="44"/>
       <c r="X74" s="44"/>
-    </row>
-    <row r="75" spans="1:24" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y74" s="44"/>
+    </row>
+    <row r="75" spans="1:25" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -6881,36 +7166,41 @@
       <c r="F75" s="44"/>
       <c r="G75" s="44"/>
       <c r="H75" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="I75" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="I75" s="78" t="s">
         <v>208</v>
       </c>
       <c r="J75" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K75" s="45"/>
+      <c r="K75" s="34"/>
       <c r="L75" s="34" t="s">
         <v>211</v>
       </c>
       <c r="M75" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="N75" s="50" t="s">
-        <v>395</v>
-      </c>
-      <c r="O75" s="74"/>
-      <c r="P75" s="50"/>
-      <c r="Q75" s="45"/>
-      <c r="R75" s="44"/>
-      <c r="S75" s="53"/>
-      <c r="T75" s="44"/>
+      <c r="N75" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="O75" s="76"/>
+      <c r="P75" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q75" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="R75" s="45"/>
+      <c r="S75" s="44"/>
+      <c r="T75" s="52"/>
       <c r="U75" s="44"/>
       <c r="V75" s="44"/>
       <c r="W75" s="44"/>
       <c r="X75" s="44"/>
-    </row>
-    <row r="76" spans="1:24" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y75" s="44"/>
+    </row>
+    <row r="76" spans="1:25" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -6919,38 +7209,41 @@
       <c r="F76" s="44"/>
       <c r="G76" s="44"/>
       <c r="H76" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="I76" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="I76" s="48" t="s">
         <v>209</v>
       </c>
       <c r="J76" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K76" s="45"/>
+      <c r="K76" s="34"/>
       <c r="L76" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M76" s="34" t="s">
         <v>211</v>
       </c>
       <c r="N76" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="O76" s="62"/>
+        <v>382</v>
+      </c>
+      <c r="O76" s="59"/>
       <c r="P76" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q76" s="45"/>
-      <c r="R76" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q76" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R76" s="45"/>
       <c r="S76" s="44"/>
       <c r="T76" s="44"/>
       <c r="U76" s="44"/>
       <c r="V76" s="44"/>
       <c r="W76" s="44"/>
       <c r="X76" s="44"/>
-    </row>
-    <row r="77" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y76" s="44"/>
+    </row>
+    <row r="77" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -6959,15 +7252,15 @@
       <c r="F77" s="44"/>
       <c r="G77" s="44"/>
       <c r="H77" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="I77" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="I77" s="48" t="s">
         <v>210</v>
       </c>
       <c r="J77" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K77" s="45"/>
+      <c r="K77" s="34"/>
       <c r="L77" s="34" t="s">
         <v>211</v>
       </c>
@@ -6975,24 +7268,27 @@
         <v>211</v>
       </c>
       <c r="N77" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="O77" s="62">
+        <v>265</v>
+      </c>
+      <c r="O77" s="59">
         <v>206</v>
       </c>
       <c r="P77" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q77" s="45"/>
-      <c r="R77" s="44"/>
-      <c r="S77" s="54"/>
-      <c r="T77" s="44"/>
+        <v>284</v>
+      </c>
+      <c r="Q77" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="R77" s="45"/>
+      <c r="S77" s="44"/>
+      <c r="T77" s="53"/>
       <c r="U77" s="44"/>
       <c r="V77" s="44"/>
       <c r="W77" s="44"/>
       <c r="X77" s="44"/>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y77" s="44"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -7001,24 +7297,25 @@
       <c r="F78" s="44"/>
       <c r="G78" s="44"/>
       <c r="H78" s="47"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="46"/>
-      <c r="O78" s="64"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="61"/>
       <c r="P78" s="46"/>
-      <c r="Q78" s="45"/>
-      <c r="R78" s="44"/>
+      <c r="Q78" s="46"/>
+      <c r="R78" s="45"/>
       <c r="S78" s="44"/>
       <c r="T78" s="44"/>
       <c r="U78" s="44"/>
       <c r="V78" s="44"/>
       <c r="W78" s="44"/>
       <c r="X78" s="44"/>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y78" s="44"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -7027,24 +7324,25 @@
       <c r="F79" s="44"/>
       <c r="G79" s="44"/>
       <c r="H79" s="47"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="45"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="46"/>
-      <c r="O79" s="64"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="34"/>
+      <c r="O79" s="61"/>
       <c r="P79" s="46"/>
-      <c r="Q79" s="45"/>
-      <c r="R79" s="44"/>
+      <c r="Q79" s="46"/>
+      <c r="R79" s="45"/>
       <c r="S79" s="44"/>
       <c r="T79" s="44"/>
       <c r="U79" s="44"/>
       <c r="V79" s="44"/>
       <c r="W79" s="44"/>
       <c r="X79" s="44"/>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y79" s="44"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -7053,24 +7351,25 @@
       <c r="F80" s="44"/>
       <c r="G80" s="44"/>
       <c r="H80" s="47"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="44"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="46"/>
-      <c r="O80" s="64"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="34"/>
+      <c r="N80" s="34"/>
+      <c r="O80" s="61"/>
       <c r="P80" s="46"/>
-      <c r="Q80" s="45"/>
-      <c r="R80" s="44"/>
+      <c r="Q80" s="46"/>
+      <c r="R80" s="45"/>
       <c r="S80" s="44"/>
       <c r="T80" s="44"/>
       <c r="U80" s="44"/>
       <c r="V80" s="44"/>
       <c r="W80" s="44"/>
       <c r="X80" s="44"/>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y80" s="44"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -7079,24 +7378,25 @@
       <c r="F81" s="44"/>
       <c r="G81" s="44"/>
       <c r="H81" s="47"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="44"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="46"/>
-      <c r="O81" s="64"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="61"/>
       <c r="P81" s="46"/>
-      <c r="Q81" s="45"/>
-      <c r="R81" s="44"/>
+      <c r="Q81" s="46"/>
+      <c r="R81" s="45"/>
       <c r="S81" s="44"/>
       <c r="T81" s="44"/>
       <c r="U81" s="44"/>
       <c r="V81" s="44"/>
       <c r="W81" s="44"/>
       <c r="X81" s="44"/>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y81" s="44"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -7105,24 +7405,25 @@
       <c r="F82" s="44"/>
       <c r="G82" s="44"/>
       <c r="H82" s="47"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="44"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="46"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="46"/>
-      <c r="O82" s="64"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="34"/>
+      <c r="O82" s="61"/>
       <c r="P82" s="46"/>
-      <c r="Q82" s="45"/>
-      <c r="R82" s="44"/>
+      <c r="Q82" s="46"/>
+      <c r="R82" s="45"/>
       <c r="S82" s="44"/>
       <c r="T82" s="44"/>
       <c r="U82" s="44"/>
       <c r="V82" s="44"/>
       <c r="W82" s="44"/>
       <c r="X82" s="44"/>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y82" s="44"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -7131,24 +7432,25 @@
       <c r="F83" s="44"/>
       <c r="G83" s="44"/>
       <c r="H83" s="47"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="44"/>
-      <c r="K83" s="45"/>
-      <c r="L83" s="46"/>
-      <c r="M83" s="46"/>
-      <c r="N83" s="46"/>
-      <c r="O83" s="64"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="34"/>
+      <c r="O83" s="61"/>
       <c r="P83" s="46"/>
-      <c r="Q83" s="45"/>
-      <c r="R83" s="44"/>
+      <c r="Q83" s="46"/>
+      <c r="R83" s="45"/>
       <c r="S83" s="44"/>
       <c r="T83" s="44"/>
       <c r="U83" s="44"/>
       <c r="V83" s="44"/>
       <c r="W83" s="44"/>
       <c r="X83" s="44"/>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y83" s="44"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -7157,24 +7459,25 @@
       <c r="F84" s="44"/>
       <c r="G84" s="44"/>
       <c r="H84" s="47"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="44"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="46"/>
-      <c r="M84" s="46"/>
-      <c r="N84" s="46"/>
-      <c r="O84" s="64"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="34"/>
+      <c r="O84" s="61"/>
       <c r="P84" s="46"/>
-      <c r="Q84" s="45"/>
-      <c r="R84" s="44"/>
+      <c r="Q84" s="46"/>
+      <c r="R84" s="45"/>
       <c r="S84" s="44"/>
       <c r="T84" s="44"/>
       <c r="U84" s="44"/>
       <c r="V84" s="44"/>
       <c r="W84" s="44"/>
       <c r="X84" s="44"/>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y84" s="44"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -7183,24 +7486,25 @@
       <c r="F85" s="44"/>
       <c r="G85" s="44"/>
       <c r="H85" s="47"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="46"/>
-      <c r="M85" s="46"/>
-      <c r="N85" s="46"/>
-      <c r="O85" s="64"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="34"/>
+      <c r="O85" s="61"/>
       <c r="P85" s="46"/>
-      <c r="Q85" s="45"/>
-      <c r="R85" s="44"/>
+      <c r="Q85" s="46"/>
+      <c r="R85" s="45"/>
       <c r="S85" s="44"/>
       <c r="T85" s="44"/>
       <c r="U85" s="44"/>
       <c r="V85" s="44"/>
       <c r="W85" s="44"/>
       <c r="X85" s="44"/>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y85" s="44"/>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -7209,24 +7513,25 @@
       <c r="F86" s="44"/>
       <c r="G86" s="44"/>
       <c r="H86" s="47"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="45"/>
-      <c r="L86" s="46"/>
-      <c r="M86" s="46"/>
-      <c r="N86" s="46"/>
-      <c r="O86" s="64"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="34"/>
+      <c r="O86" s="61"/>
       <c r="P86" s="46"/>
-      <c r="Q86" s="45"/>
-      <c r="R86" s="44"/>
+      <c r="Q86" s="46"/>
+      <c r="R86" s="45"/>
       <c r="S86" s="44"/>
       <c r="T86" s="44"/>
       <c r="U86" s="44"/>
       <c r="V86" s="44"/>
       <c r="W86" s="44"/>
       <c r="X86" s="44"/>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y86" s="44"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -7235,24 +7540,25 @@
       <c r="F87" s="44"/>
       <c r="G87" s="44"/>
       <c r="H87" s="47"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="46"/>
-      <c r="N87" s="46"/>
-      <c r="O87" s="64"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+      <c r="O87" s="61"/>
       <c r="P87" s="46"/>
-      <c r="Q87" s="45"/>
-      <c r="R87" s="44"/>
+      <c r="Q87" s="46"/>
+      <c r="R87" s="45"/>
       <c r="S87" s="44"/>
       <c r="T87" s="44"/>
       <c r="U87" s="44"/>
       <c r="V87" s="44"/>
       <c r="W87" s="44"/>
       <c r="X87" s="44"/>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y87" s="44"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -7261,24 +7567,25 @@
       <c r="F88" s="44"/>
       <c r="G88" s="44"/>
       <c r="H88" s="47"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="46"/>
-      <c r="M88" s="46"/>
-      <c r="N88" s="46"/>
-      <c r="O88" s="64"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+      <c r="O88" s="61"/>
       <c r="P88" s="46"/>
-      <c r="Q88" s="45"/>
-      <c r="R88" s="44"/>
+      <c r="Q88" s="46"/>
+      <c r="R88" s="45"/>
       <c r="S88" s="44"/>
       <c r="T88" s="44"/>
       <c r="U88" s="44"/>
       <c r="V88" s="44"/>
       <c r="W88" s="44"/>
       <c r="X88" s="44"/>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y88" s="44"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -7287,24 +7594,25 @@
       <c r="F89" s="44"/>
       <c r="G89" s="44"/>
       <c r="H89" s="47"/>
-      <c r="I89" s="45"/>
-      <c r="J89" s="44"/>
-      <c r="K89" s="45"/>
-      <c r="L89" s="46"/>
-      <c r="M89" s="46"/>
-      <c r="N89" s="46"/>
-      <c r="O89" s="64"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="34"/>
+      <c r="O89" s="61"/>
       <c r="P89" s="46"/>
-      <c r="Q89" s="45"/>
-      <c r="R89" s="44"/>
+      <c r="Q89" s="46"/>
+      <c r="R89" s="45"/>
       <c r="S89" s="44"/>
       <c r="T89" s="44"/>
       <c r="U89" s="44"/>
       <c r="V89" s="44"/>
       <c r="W89" s="44"/>
       <c r="X89" s="44"/>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y89" s="44"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -7313,24 +7621,25 @@
       <c r="F90" s="44"/>
       <c r="G90" s="44"/>
       <c r="H90" s="47"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="46"/>
-      <c r="N90" s="46"/>
-      <c r="O90" s="64"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="34"/>
+      <c r="N90" s="34"/>
+      <c r="O90" s="61"/>
       <c r="P90" s="46"/>
-      <c r="Q90" s="45"/>
-      <c r="R90" s="44"/>
+      <c r="Q90" s="46"/>
+      <c r="R90" s="45"/>
       <c r="S90" s="44"/>
       <c r="T90" s="44"/>
       <c r="U90" s="44"/>
       <c r="V90" s="44"/>
       <c r="W90" s="44"/>
       <c r="X90" s="44"/>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y90" s="44"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -7339,24 +7648,25 @@
       <c r="F91" s="44"/>
       <c r="G91" s="44"/>
       <c r="H91" s="47"/>
-      <c r="I91" s="45"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="45"/>
-      <c r="L91" s="46"/>
-      <c r="M91" s="46"/>
-      <c r="N91" s="46"/>
-      <c r="O91" s="64"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="34"/>
+      <c r="N91" s="34"/>
+      <c r="O91" s="61"/>
       <c r="P91" s="46"/>
-      <c r="Q91" s="45"/>
-      <c r="R91" s="44"/>
+      <c r="Q91" s="46"/>
+      <c r="R91" s="45"/>
       <c r="S91" s="44"/>
       <c r="T91" s="44"/>
       <c r="U91" s="44"/>
       <c r="V91" s="44"/>
       <c r="W91" s="44"/>
       <c r="X91" s="44"/>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y91" s="44"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -7365,24 +7675,25 @@
       <c r="F92" s="44"/>
       <c r="G92" s="44"/>
       <c r="H92" s="47"/>
-      <c r="I92" s="45"/>
-      <c r="J92" s="44"/>
-      <c r="K92" s="45"/>
-      <c r="L92" s="46"/>
-      <c r="M92" s="46"/>
-      <c r="N92" s="46"/>
-      <c r="O92" s="64"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="34"/>
+      <c r="O92" s="61"/>
       <c r="P92" s="46"/>
-      <c r="Q92" s="45"/>
-      <c r="R92" s="44"/>
+      <c r="Q92" s="46"/>
+      <c r="R92" s="45"/>
       <c r="S92" s="44"/>
       <c r="T92" s="44"/>
       <c r="U92" s="44"/>
       <c r="V92" s="44"/>
       <c r="W92" s="44"/>
       <c r="X92" s="44"/>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y92" s="44"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -7391,24 +7702,25 @@
       <c r="F93" s="44"/>
       <c r="G93" s="44"/>
       <c r="H93" s="47"/>
-      <c r="I93" s="45"/>
-      <c r="J93" s="44"/>
-      <c r="K93" s="45"/>
-      <c r="L93" s="46"/>
-      <c r="M93" s="46"/>
-      <c r="N93" s="46"/>
-      <c r="O93" s="64"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="34"/>
+      <c r="N93" s="34"/>
+      <c r="O93" s="61"/>
       <c r="P93" s="46"/>
-      <c r="Q93" s="45"/>
-      <c r="R93" s="44"/>
+      <c r="Q93" s="46"/>
+      <c r="R93" s="45"/>
       <c r="S93" s="44"/>
       <c r="T93" s="44"/>
       <c r="U93" s="44"/>
       <c r="V93" s="44"/>
       <c r="W93" s="44"/>
       <c r="X93" s="44"/>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y93" s="44"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -7417,24 +7729,25 @@
       <c r="F94" s="44"/>
       <c r="G94" s="44"/>
       <c r="H94" s="47"/>
-      <c r="I94" s="45"/>
-      <c r="J94" s="44"/>
-      <c r="K94" s="45"/>
-      <c r="L94" s="46"/>
-      <c r="M94" s="46"/>
-      <c r="N94" s="46"/>
-      <c r="O94" s="64"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="34"/>
+      <c r="M94" s="34"/>
+      <c r="N94" s="34"/>
+      <c r="O94" s="61"/>
       <c r="P94" s="46"/>
-      <c r="Q94" s="45"/>
-      <c r="R94" s="44"/>
+      <c r="Q94" s="46"/>
+      <c r="R94" s="45"/>
       <c r="S94" s="44"/>
       <c r="T94" s="44"/>
       <c r="U94" s="44"/>
       <c r="V94" s="44"/>
       <c r="W94" s="44"/>
       <c r="X94" s="44"/>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y94" s="44"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -7443,24 +7756,25 @@
       <c r="F95" s="44"/>
       <c r="G95" s="44"/>
       <c r="H95" s="47"/>
-      <c r="I95" s="45"/>
-      <c r="J95" s="44"/>
-      <c r="K95" s="45"/>
-      <c r="L95" s="46"/>
-      <c r="M95" s="46"/>
-      <c r="N95" s="46"/>
-      <c r="O95" s="64"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="34"/>
+      <c r="M95" s="34"/>
+      <c r="N95" s="34"/>
+      <c r="O95" s="61"/>
       <c r="P95" s="46"/>
-      <c r="Q95" s="45"/>
-      <c r="R95" s="44"/>
+      <c r="Q95" s="46"/>
+      <c r="R95" s="45"/>
       <c r="S95" s="44"/>
       <c r="T95" s="44"/>
       <c r="U95" s="44"/>
       <c r="V95" s="44"/>
       <c r="W95" s="44"/>
       <c r="X95" s="44"/>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y95" s="44"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -7469,24 +7783,25 @@
       <c r="F96" s="44"/>
       <c r="G96" s="44"/>
       <c r="H96" s="47"/>
-      <c r="I96" s="45"/>
-      <c r="J96" s="44"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="46"/>
-      <c r="M96" s="46"/>
-      <c r="N96" s="46"/>
-      <c r="O96" s="64"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="34"/>
+      <c r="M96" s="34"/>
+      <c r="N96" s="34"/>
+      <c r="O96" s="61"/>
       <c r="P96" s="46"/>
-      <c r="Q96" s="45"/>
-      <c r="R96" s="44"/>
+      <c r="Q96" s="46"/>
+      <c r="R96" s="45"/>
       <c r="S96" s="44"/>
       <c r="T96" s="44"/>
       <c r="U96" s="44"/>
       <c r="V96" s="44"/>
       <c r="W96" s="44"/>
       <c r="X96" s="44"/>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y96" s="44"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -7495,24 +7810,25 @@
       <c r="F97" s="44"/>
       <c r="G97" s="44"/>
       <c r="H97" s="47"/>
-      <c r="I97" s="45"/>
-      <c r="J97" s="44"/>
-      <c r="K97" s="45"/>
-      <c r="L97" s="46"/>
-      <c r="M97" s="46"/>
-      <c r="N97" s="46"/>
-      <c r="O97" s="64"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="34"/>
+      <c r="M97" s="34"/>
+      <c r="N97" s="34"/>
+      <c r="O97" s="61"/>
       <c r="P97" s="46"/>
-      <c r="Q97" s="45"/>
-      <c r="R97" s="44"/>
+      <c r="Q97" s="46"/>
+      <c r="R97" s="45"/>
       <c r="S97" s="44"/>
       <c r="T97" s="44"/>
       <c r="U97" s="44"/>
       <c r="V97" s="44"/>
       <c r="W97" s="44"/>
       <c r="X97" s="44"/>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y97" s="44"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -7521,24 +7837,25 @@
       <c r="F98" s="44"/>
       <c r="G98" s="44"/>
       <c r="H98" s="47"/>
-      <c r="I98" s="45"/>
-      <c r="J98" s="44"/>
-      <c r="K98" s="45"/>
-      <c r="L98" s="46"/>
-      <c r="M98" s="46"/>
-      <c r="N98" s="46"/>
-      <c r="O98" s="64"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="34"/>
+      <c r="M98" s="34"/>
+      <c r="N98" s="34"/>
+      <c r="O98" s="61"/>
       <c r="P98" s="46"/>
-      <c r="Q98" s="45"/>
-      <c r="R98" s="44"/>
+      <c r="Q98" s="46"/>
+      <c r="R98" s="45"/>
       <c r="S98" s="44"/>
       <c r="T98" s="44"/>
       <c r="U98" s="44"/>
       <c r="V98" s="44"/>
       <c r="W98" s="44"/>
       <c r="X98" s="44"/>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y98" s="44"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -7547,24 +7864,25 @@
       <c r="F99" s="44"/>
       <c r="G99" s="44"/>
       <c r="H99" s="47"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="44"/>
-      <c r="K99" s="45"/>
-      <c r="L99" s="46"/>
-      <c r="M99" s="46"/>
-      <c r="N99" s="46"/>
-      <c r="O99" s="64"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="34"/>
+      <c r="L99" s="34"/>
+      <c r="M99" s="34"/>
+      <c r="N99" s="34"/>
+      <c r="O99" s="61"/>
       <c r="P99" s="46"/>
-      <c r="Q99" s="45"/>
-      <c r="R99" s="44"/>
+      <c r="Q99" s="46"/>
+      <c r="R99" s="45"/>
       <c r="S99" s="44"/>
       <c r="T99" s="44"/>
       <c r="U99" s="44"/>
       <c r="V99" s="44"/>
       <c r="W99" s="44"/>
       <c r="X99" s="44"/>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y99" s="44"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -7573,24 +7891,25 @@
       <c r="F100" s="44"/>
       <c r="G100" s="44"/>
       <c r="H100" s="47"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="44"/>
-      <c r="K100" s="45"/>
-      <c r="L100" s="46"/>
-      <c r="M100" s="46"/>
-      <c r="N100" s="46"/>
-      <c r="O100" s="64"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="34"/>
+      <c r="M100" s="34"/>
+      <c r="N100" s="34"/>
+      <c r="O100" s="61"/>
       <c r="P100" s="46"/>
-      <c r="Q100" s="45"/>
-      <c r="R100" s="44"/>
+      <c r="Q100" s="46"/>
+      <c r="R100" s="45"/>
       <c r="S100" s="44"/>
       <c r="T100" s="44"/>
       <c r="U100" s="44"/>
       <c r="V100" s="44"/>
       <c r="W100" s="44"/>
       <c r="X100" s="44"/>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y100" s="44"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -7599,24 +7918,25 @@
       <c r="F101" s="44"/>
       <c r="G101" s="44"/>
       <c r="H101" s="47"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="44"/>
-      <c r="K101" s="45"/>
-      <c r="L101" s="46"/>
-      <c r="M101" s="46"/>
-      <c r="N101" s="46"/>
-      <c r="O101" s="64"/>
+      <c r="I101" s="34"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="34"/>
+      <c r="L101" s="34"/>
+      <c r="M101" s="34"/>
+      <c r="N101" s="34"/>
+      <c r="O101" s="61"/>
       <c r="P101" s="46"/>
-      <c r="Q101" s="45"/>
-      <c r="R101" s="44"/>
+      <c r="Q101" s="46"/>
+      <c r="R101" s="45"/>
       <c r="S101" s="44"/>
       <c r="T101" s="44"/>
       <c r="U101" s="44"/>
       <c r="V101" s="44"/>
       <c r="W101" s="44"/>
       <c r="X101" s="44"/>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y101" s="44"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -7625,24 +7945,25 @@
       <c r="F102" s="44"/>
       <c r="G102" s="44"/>
       <c r="H102" s="47"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="44"/>
-      <c r="K102" s="45"/>
-      <c r="L102" s="46"/>
-      <c r="M102" s="46"/>
-      <c r="N102" s="46"/>
-      <c r="O102" s="64"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="34"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="34"/>
+      <c r="N102" s="34"/>
+      <c r="O102" s="61"/>
       <c r="P102" s="46"/>
-      <c r="Q102" s="45"/>
-      <c r="R102" s="44"/>
+      <c r="Q102" s="46"/>
+      <c r="R102" s="45"/>
       <c r="S102" s="44"/>
       <c r="T102" s="44"/>
       <c r="U102" s="44"/>
       <c r="V102" s="44"/>
       <c r="W102" s="44"/>
       <c r="X102" s="44"/>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y102" s="44"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -7651,24 +7972,25 @@
       <c r="F103" s="44"/>
       <c r="G103" s="44"/>
       <c r="H103" s="47"/>
-      <c r="I103" s="45"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="45"/>
-      <c r="L103" s="46"/>
-      <c r="M103" s="46"/>
-      <c r="N103" s="46"/>
-      <c r="O103" s="64"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="34"/>
+      <c r="O103" s="61"/>
       <c r="P103" s="46"/>
-      <c r="Q103" s="45"/>
-      <c r="R103" s="44"/>
+      <c r="Q103" s="46"/>
+      <c r="R103" s="45"/>
       <c r="S103" s="44"/>
       <c r="T103" s="44"/>
       <c r="U103" s="44"/>
       <c r="V103" s="44"/>
       <c r="W103" s="44"/>
       <c r="X103" s="44"/>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y103" s="44"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -7677,24 +7999,25 @@
       <c r="F104" s="44"/>
       <c r="G104" s="44"/>
       <c r="H104" s="47"/>
-      <c r="I104" s="45"/>
-      <c r="J104" s="44"/>
-      <c r="K104" s="45"/>
-      <c r="L104" s="46"/>
-      <c r="M104" s="46"/>
-      <c r="N104" s="46"/>
-      <c r="O104" s="64"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="34"/>
+      <c r="L104" s="34"/>
+      <c r="M104" s="34"/>
+      <c r="N104" s="34"/>
+      <c r="O104" s="61"/>
       <c r="P104" s="46"/>
-      <c r="Q104" s="45"/>
-      <c r="R104" s="44"/>
+      <c r="Q104" s="46"/>
+      <c r="R104" s="45"/>
       <c r="S104" s="44"/>
       <c r="T104" s="44"/>
       <c r="U104" s="44"/>
       <c r="V104" s="44"/>
       <c r="W104" s="44"/>
       <c r="X104" s="44"/>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y104" s="44"/>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -7703,24 +8026,25 @@
       <c r="F105" s="44"/>
       <c r="G105" s="44"/>
       <c r="H105" s="47"/>
-      <c r="I105" s="45"/>
-      <c r="J105" s="44"/>
-      <c r="K105" s="45"/>
-      <c r="L105" s="46"/>
-      <c r="M105" s="46"/>
-      <c r="N105" s="46"/>
-      <c r="O105" s="64"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="34"/>
+      <c r="L105" s="34"/>
+      <c r="M105" s="34"/>
+      <c r="N105" s="34"/>
+      <c r="O105" s="61"/>
       <c r="P105" s="46"/>
-      <c r="Q105" s="45"/>
-      <c r="R105" s="44"/>
+      <c r="Q105" s="46"/>
+      <c r="R105" s="45"/>
       <c r="S105" s="44"/>
       <c r="T105" s="44"/>
       <c r="U105" s="44"/>
       <c r="V105" s="44"/>
       <c r="W105" s="44"/>
       <c r="X105" s="44"/>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y105" s="44"/>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -7729,24 +8053,25 @@
       <c r="F106" s="44"/>
       <c r="G106" s="44"/>
       <c r="H106" s="47"/>
-      <c r="I106" s="45"/>
-      <c r="J106" s="44"/>
-      <c r="K106" s="45"/>
-      <c r="L106" s="46"/>
-      <c r="M106" s="46"/>
-      <c r="N106" s="46"/>
-      <c r="O106" s="64"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="33"/>
+      <c r="K106" s="34"/>
+      <c r="L106" s="34"/>
+      <c r="M106" s="34"/>
+      <c r="N106" s="34"/>
+      <c r="O106" s="61"/>
       <c r="P106" s="46"/>
-      <c r="Q106" s="45"/>
-      <c r="R106" s="44"/>
+      <c r="Q106" s="46"/>
+      <c r="R106" s="45"/>
       <c r="S106" s="44"/>
       <c r="T106" s="44"/>
       <c r="U106" s="44"/>
       <c r="V106" s="44"/>
       <c r="W106" s="44"/>
       <c r="X106" s="44"/>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y106" s="44"/>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -7755,24 +8080,25 @@
       <c r="F107" s="44"/>
       <c r="G107" s="44"/>
       <c r="H107" s="47"/>
-      <c r="I107" s="45"/>
-      <c r="J107" s="44"/>
-      <c r="K107" s="45"/>
-      <c r="L107" s="46"/>
-      <c r="M107" s="46"/>
-      <c r="N107" s="46"/>
-      <c r="O107" s="64"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="34"/>
+      <c r="L107" s="34"/>
+      <c r="M107" s="34"/>
+      <c r="N107" s="34"/>
+      <c r="O107" s="61"/>
       <c r="P107" s="46"/>
-      <c r="Q107" s="45"/>
-      <c r="R107" s="44"/>
+      <c r="Q107" s="46"/>
+      <c r="R107" s="45"/>
       <c r="S107" s="44"/>
       <c r="T107" s="44"/>
       <c r="U107" s="44"/>
       <c r="V107" s="44"/>
       <c r="W107" s="44"/>
       <c r="X107" s="44"/>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y107" s="44"/>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -7781,24 +8107,25 @@
       <c r="F108" s="44"/>
       <c r="G108" s="44"/>
       <c r="H108" s="47"/>
-      <c r="I108" s="45"/>
-      <c r="J108" s="44"/>
-      <c r="K108" s="45"/>
-      <c r="L108" s="46"/>
-      <c r="M108" s="46"/>
-      <c r="N108" s="46"/>
-      <c r="O108" s="64"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="34"/>
+      <c r="M108" s="34"/>
+      <c r="N108" s="34"/>
+      <c r="O108" s="61"/>
       <c r="P108" s="46"/>
-      <c r="Q108" s="45"/>
-      <c r="R108" s="44"/>
+      <c r="Q108" s="46"/>
+      <c r="R108" s="45"/>
       <c r="S108" s="44"/>
       <c r="T108" s="44"/>
       <c r="U108" s="44"/>
       <c r="V108" s="44"/>
       <c r="W108" s="44"/>
       <c r="X108" s="44"/>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y108" s="44"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -7807,24 +8134,25 @@
       <c r="F109" s="44"/>
       <c r="G109" s="44"/>
       <c r="H109" s="47"/>
-      <c r="I109" s="45"/>
-      <c r="J109" s="44"/>
-      <c r="K109" s="45"/>
-      <c r="L109" s="46"/>
-      <c r="M109" s="46"/>
-      <c r="N109" s="46"/>
-      <c r="O109" s="64"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="34"/>
+      <c r="L109" s="34"/>
+      <c r="M109" s="34"/>
+      <c r="N109" s="34"/>
+      <c r="O109" s="61"/>
       <c r="P109" s="46"/>
-      <c r="Q109" s="45"/>
-      <c r="R109" s="44"/>
+      <c r="Q109" s="46"/>
+      <c r="R109" s="45"/>
       <c r="S109" s="44"/>
       <c r="T109" s="44"/>
       <c r="U109" s="44"/>
       <c r="V109" s="44"/>
       <c r="W109" s="44"/>
       <c r="X109" s="44"/>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y109" s="44"/>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -7833,24 +8161,25 @@
       <c r="F110" s="44"/>
       <c r="G110" s="44"/>
       <c r="H110" s="47"/>
-      <c r="I110" s="45"/>
-      <c r="J110" s="44"/>
-      <c r="K110" s="45"/>
-      <c r="L110" s="46"/>
-      <c r="M110" s="46"/>
-      <c r="N110" s="46"/>
-      <c r="O110" s="64"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="33"/>
+      <c r="K110" s="34"/>
+      <c r="L110" s="34"/>
+      <c r="M110" s="34"/>
+      <c r="N110" s="34"/>
+      <c r="O110" s="61"/>
       <c r="P110" s="46"/>
-      <c r="Q110" s="45"/>
-      <c r="R110" s="44"/>
+      <c r="Q110" s="46"/>
+      <c r="R110" s="45"/>
       <c r="S110" s="44"/>
       <c r="T110" s="44"/>
       <c r="U110" s="44"/>
       <c r="V110" s="44"/>
       <c r="W110" s="44"/>
       <c r="X110" s="44"/>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y110" s="44"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -7859,24 +8188,25 @@
       <c r="F111" s="44"/>
       <c r="G111" s="44"/>
       <c r="H111" s="47"/>
-      <c r="I111" s="45"/>
-      <c r="J111" s="44"/>
-      <c r="K111" s="45"/>
-      <c r="L111" s="46"/>
-      <c r="M111" s="46"/>
-      <c r="N111" s="46"/>
-      <c r="O111" s="64"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="34"/>
+      <c r="L111" s="34"/>
+      <c r="M111" s="34"/>
+      <c r="N111" s="34"/>
+      <c r="O111" s="61"/>
       <c r="P111" s="46"/>
-      <c r="Q111" s="45"/>
-      <c r="R111" s="44"/>
+      <c r="Q111" s="46"/>
+      <c r="R111" s="45"/>
       <c r="S111" s="44"/>
       <c r="T111" s="44"/>
       <c r="U111" s="44"/>
       <c r="V111" s="44"/>
       <c r="W111" s="44"/>
       <c r="X111" s="44"/>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y111" s="44"/>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -7885,24 +8215,25 @@
       <c r="F112" s="44"/>
       <c r="G112" s="44"/>
       <c r="H112" s="47"/>
-      <c r="I112" s="45"/>
-      <c r="J112" s="44"/>
-      <c r="K112" s="45"/>
-      <c r="L112" s="46"/>
-      <c r="M112" s="46"/>
-      <c r="N112" s="46"/>
-      <c r="O112" s="64"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="34"/>
+      <c r="L112" s="34"/>
+      <c r="M112" s="34"/>
+      <c r="N112" s="34"/>
+      <c r="O112" s="61"/>
       <c r="P112" s="46"/>
-      <c r="Q112" s="45"/>
-      <c r="R112" s="44"/>
+      <c r="Q112" s="46"/>
+      <c r="R112" s="45"/>
       <c r="S112" s="44"/>
       <c r="T112" s="44"/>
       <c r="U112" s="44"/>
       <c r="V112" s="44"/>
       <c r="W112" s="44"/>
       <c r="X112" s="44"/>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y112" s="44"/>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -7911,24 +8242,25 @@
       <c r="F113" s="44"/>
       <c r="G113" s="44"/>
       <c r="H113" s="47"/>
-      <c r="I113" s="45"/>
-      <c r="J113" s="44"/>
-      <c r="K113" s="45"/>
-      <c r="L113" s="46"/>
-      <c r="M113" s="46"/>
-      <c r="N113" s="46"/>
-      <c r="O113" s="64"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="34"/>
+      <c r="L113" s="34"/>
+      <c r="M113" s="34"/>
+      <c r="N113" s="34"/>
+      <c r="O113" s="61"/>
       <c r="P113" s="46"/>
-      <c r="Q113" s="45"/>
-      <c r="R113" s="44"/>
+      <c r="Q113" s="46"/>
+      <c r="R113" s="45"/>
       <c r="S113" s="44"/>
       <c r="T113" s="44"/>
       <c r="U113" s="44"/>
       <c r="V113" s="44"/>
       <c r="W113" s="44"/>
       <c r="X113" s="44"/>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y113" s="44"/>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -7937,24 +8269,25 @@
       <c r="F114" s="44"/>
       <c r="G114" s="44"/>
       <c r="H114" s="47"/>
-      <c r="I114" s="45"/>
-      <c r="J114" s="44"/>
-      <c r="K114" s="45"/>
-      <c r="L114" s="46"/>
-      <c r="M114" s="46"/>
-      <c r="N114" s="46"/>
-      <c r="O114" s="64"/>
+      <c r="I114" s="34"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="34"/>
+      <c r="L114" s="34"/>
+      <c r="M114" s="34"/>
+      <c r="N114" s="34"/>
+      <c r="O114" s="61"/>
       <c r="P114" s="46"/>
-      <c r="Q114" s="45"/>
-      <c r="R114" s="44"/>
+      <c r="Q114" s="46"/>
+      <c r="R114" s="45"/>
       <c r="S114" s="44"/>
       <c r="T114" s="44"/>
       <c r="U114" s="44"/>
       <c r="V114" s="44"/>
       <c r="W114" s="44"/>
       <c r="X114" s="44"/>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y114" s="44"/>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -7963,24 +8296,25 @@
       <c r="F115" s="44"/>
       <c r="G115" s="44"/>
       <c r="H115" s="47"/>
-      <c r="I115" s="45"/>
-      <c r="J115" s="44"/>
-      <c r="K115" s="45"/>
-      <c r="L115" s="46"/>
-      <c r="M115" s="46"/>
-      <c r="N115" s="46"/>
-      <c r="O115" s="64"/>
+      <c r="I115" s="34"/>
+      <c r="J115" s="33"/>
+      <c r="K115" s="34"/>
+      <c r="L115" s="34"/>
+      <c r="M115" s="34"/>
+      <c r="N115" s="34"/>
+      <c r="O115" s="61"/>
       <c r="P115" s="46"/>
-      <c r="Q115" s="45"/>
-      <c r="R115" s="44"/>
+      <c r="Q115" s="46"/>
+      <c r="R115" s="45"/>
       <c r="S115" s="44"/>
       <c r="T115" s="44"/>
       <c r="U115" s="44"/>
       <c r="V115" s="44"/>
       <c r="W115" s="44"/>
       <c r="X115" s="44"/>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y115" s="44"/>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -7989,24 +8323,25 @@
       <c r="F116" s="44"/>
       <c r="G116" s="44"/>
       <c r="H116" s="47"/>
-      <c r="I116" s="45"/>
-      <c r="J116" s="44"/>
-      <c r="K116" s="45"/>
-      <c r="L116" s="46"/>
-      <c r="M116" s="46"/>
-      <c r="N116" s="46"/>
-      <c r="O116" s="64"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="34"/>
+      <c r="L116" s="34"/>
+      <c r="M116" s="34"/>
+      <c r="N116" s="34"/>
+      <c r="O116" s="61"/>
       <c r="P116" s="46"/>
-      <c r="Q116" s="45"/>
-      <c r="R116" s="44"/>
+      <c r="Q116" s="46"/>
+      <c r="R116" s="45"/>
       <c r="S116" s="44"/>
       <c r="T116" s="44"/>
       <c r="U116" s="44"/>
       <c r="V116" s="44"/>
       <c r="W116" s="44"/>
       <c r="X116" s="44"/>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y116" s="44"/>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -8015,24 +8350,25 @@
       <c r="F117" s="44"/>
       <c r="G117" s="44"/>
       <c r="H117" s="47"/>
-      <c r="I117" s="45"/>
-      <c r="J117" s="44"/>
-      <c r="K117" s="45"/>
-      <c r="L117" s="46"/>
-      <c r="M117" s="46"/>
-      <c r="N117" s="46"/>
-      <c r="O117" s="64"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="34"/>
+      <c r="L117" s="34"/>
+      <c r="M117" s="34"/>
+      <c r="N117" s="34"/>
+      <c r="O117" s="61"/>
       <c r="P117" s="46"/>
-      <c r="Q117" s="45"/>
-      <c r="R117" s="44"/>
+      <c r="Q117" s="46"/>
+      <c r="R117" s="45"/>
       <c r="S117" s="44"/>
       <c r="T117" s="44"/>
       <c r="U117" s="44"/>
       <c r="V117" s="44"/>
       <c r="W117" s="44"/>
       <c r="X117" s="44"/>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y117" s="44"/>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -8041,24 +8377,25 @@
       <c r="F118" s="44"/>
       <c r="G118" s="44"/>
       <c r="H118" s="47"/>
-      <c r="I118" s="45"/>
-      <c r="J118" s="44"/>
-      <c r="K118" s="45"/>
-      <c r="L118" s="46"/>
-      <c r="M118" s="46"/>
-      <c r="N118" s="46"/>
-      <c r="O118" s="64"/>
+      <c r="I118" s="34"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="34"/>
+      <c r="L118" s="34"/>
+      <c r="M118" s="34"/>
+      <c r="N118" s="34"/>
+      <c r="O118" s="61"/>
       <c r="P118" s="46"/>
-      <c r="Q118" s="45"/>
-      <c r="R118" s="44"/>
+      <c r="Q118" s="46"/>
+      <c r="R118" s="45"/>
       <c r="S118" s="44"/>
       <c r="T118" s="44"/>
       <c r="U118" s="44"/>
       <c r="V118" s="44"/>
       <c r="W118" s="44"/>
       <c r="X118" s="44"/>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y118" s="44"/>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -8067,24 +8404,25 @@
       <c r="F119" s="44"/>
       <c r="G119" s="44"/>
       <c r="H119" s="47"/>
-      <c r="I119" s="45"/>
-      <c r="J119" s="44"/>
-      <c r="K119" s="45"/>
-      <c r="L119" s="46"/>
-      <c r="M119" s="46"/>
-      <c r="N119" s="46"/>
-      <c r="O119" s="64"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="34"/>
+      <c r="L119" s="34"/>
+      <c r="M119" s="34"/>
+      <c r="N119" s="34"/>
+      <c r="O119" s="61"/>
       <c r="P119" s="46"/>
-      <c r="Q119" s="45"/>
-      <c r="R119" s="44"/>
+      <c r="Q119" s="46"/>
+      <c r="R119" s="45"/>
       <c r="S119" s="44"/>
       <c r="T119" s="44"/>
       <c r="U119" s="44"/>
       <c r="V119" s="44"/>
       <c r="W119" s="44"/>
       <c r="X119" s="44"/>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y119" s="44"/>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -8093,24 +8431,25 @@
       <c r="F120" s="44"/>
       <c r="G120" s="44"/>
       <c r="H120" s="47"/>
-      <c r="I120" s="45"/>
-      <c r="J120" s="44"/>
-      <c r="K120" s="45"/>
-      <c r="L120" s="46"/>
-      <c r="M120" s="46"/>
-      <c r="N120" s="46"/>
-      <c r="O120" s="64"/>
+      <c r="I120" s="34"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="34"/>
+      <c r="L120" s="34"/>
+      <c r="M120" s="34"/>
+      <c r="N120" s="34"/>
+      <c r="O120" s="61"/>
       <c r="P120" s="46"/>
-      <c r="Q120" s="45"/>
-      <c r="R120" s="44"/>
+      <c r="Q120" s="46"/>
+      <c r="R120" s="45"/>
       <c r="S120" s="44"/>
       <c r="T120" s="44"/>
       <c r="U120" s="44"/>
       <c r="V120" s="44"/>
       <c r="W120" s="44"/>
       <c r="X120" s="44"/>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y120" s="44"/>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -8119,24 +8458,25 @@
       <c r="F121" s="44"/>
       <c r="G121" s="44"/>
       <c r="H121" s="47"/>
-      <c r="I121" s="45"/>
-      <c r="J121" s="44"/>
-      <c r="K121" s="45"/>
-      <c r="L121" s="46"/>
-      <c r="M121" s="46"/>
-      <c r="N121" s="46"/>
-      <c r="O121" s="64"/>
+      <c r="I121" s="34"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="34"/>
+      <c r="L121" s="34"/>
+      <c r="M121" s="34"/>
+      <c r="N121" s="34"/>
+      <c r="O121" s="61"/>
       <c r="P121" s="46"/>
-      <c r="Q121" s="45"/>
-      <c r="R121" s="44"/>
+      <c r="Q121" s="46"/>
+      <c r="R121" s="45"/>
       <c r="S121" s="44"/>
       <c r="T121" s="44"/>
       <c r="U121" s="44"/>
       <c r="V121" s="44"/>
       <c r="W121" s="44"/>
       <c r="X121" s="44"/>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y121" s="44"/>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -8145,24 +8485,25 @@
       <c r="F122" s="44"/>
       <c r="G122" s="44"/>
       <c r="H122" s="47"/>
-      <c r="I122" s="45"/>
-      <c r="J122" s="44"/>
-      <c r="K122" s="45"/>
-      <c r="L122" s="46"/>
-      <c r="M122" s="46"/>
-      <c r="N122" s="46"/>
-      <c r="O122" s="64"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="33"/>
+      <c r="K122" s="34"/>
+      <c r="L122" s="34"/>
+      <c r="M122" s="34"/>
+      <c r="N122" s="34"/>
+      <c r="O122" s="61"/>
       <c r="P122" s="46"/>
-      <c r="Q122" s="45"/>
-      <c r="R122" s="44"/>
+      <c r="Q122" s="46"/>
+      <c r="R122" s="45"/>
       <c r="S122" s="44"/>
       <c r="T122" s="44"/>
       <c r="U122" s="44"/>
       <c r="V122" s="44"/>
       <c r="W122" s="44"/>
       <c r="X122" s="44"/>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y122" s="44"/>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -8171,24 +8512,25 @@
       <c r="F123" s="44"/>
       <c r="G123" s="44"/>
       <c r="H123" s="47"/>
-      <c r="I123" s="45"/>
-      <c r="J123" s="44"/>
-      <c r="K123" s="45"/>
-      <c r="L123" s="46"/>
-      <c r="M123" s="46"/>
-      <c r="N123" s="46"/>
-      <c r="O123" s="64"/>
+      <c r="I123" s="34"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="34"/>
+      <c r="L123" s="34"/>
+      <c r="M123" s="34"/>
+      <c r="N123" s="34"/>
+      <c r="O123" s="61"/>
       <c r="P123" s="46"/>
-      <c r="Q123" s="45"/>
-      <c r="R123" s="44"/>
+      <c r="Q123" s="46"/>
+      <c r="R123" s="45"/>
       <c r="S123" s="44"/>
       <c r="T123" s="44"/>
       <c r="U123" s="44"/>
       <c r="V123" s="44"/>
       <c r="W123" s="44"/>
       <c r="X123" s="44"/>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y123" s="44"/>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -8197,24 +8539,25 @@
       <c r="F124" s="44"/>
       <c r="G124" s="44"/>
       <c r="H124" s="47"/>
-      <c r="I124" s="45"/>
-      <c r="J124" s="44"/>
-      <c r="K124" s="45"/>
-      <c r="L124" s="46"/>
-      <c r="M124" s="46"/>
-      <c r="N124" s="46"/>
-      <c r="O124" s="64"/>
+      <c r="I124" s="34"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="34"/>
+      <c r="L124" s="34"/>
+      <c r="M124" s="34"/>
+      <c r="N124" s="34"/>
+      <c r="O124" s="61"/>
       <c r="P124" s="46"/>
-      <c r="Q124" s="45"/>
-      <c r="R124" s="44"/>
+      <c r="Q124" s="46"/>
+      <c r="R124" s="45"/>
       <c r="S124" s="44"/>
       <c r="T124" s="44"/>
       <c r="U124" s="44"/>
       <c r="V124" s="44"/>
       <c r="W124" s="44"/>
       <c r="X124" s="44"/>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y124" s="44"/>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -8223,24 +8566,25 @@
       <c r="F125" s="44"/>
       <c r="G125" s="44"/>
       <c r="H125" s="47"/>
-      <c r="I125" s="45"/>
-      <c r="J125" s="44"/>
-      <c r="K125" s="45"/>
-      <c r="L125" s="46"/>
-      <c r="M125" s="46"/>
-      <c r="N125" s="46"/>
-      <c r="O125" s="64"/>
+      <c r="I125" s="34"/>
+      <c r="J125" s="33"/>
+      <c r="K125" s="34"/>
+      <c r="L125" s="34"/>
+      <c r="M125" s="34"/>
+      <c r="N125" s="34"/>
+      <c r="O125" s="61"/>
       <c r="P125" s="46"/>
-      <c r="Q125" s="45"/>
-      <c r="R125" s="44"/>
+      <c r="Q125" s="46"/>
+      <c r="R125" s="45"/>
       <c r="S125" s="44"/>
       <c r="T125" s="44"/>
       <c r="U125" s="44"/>
       <c r="V125" s="44"/>
       <c r="W125" s="44"/>
       <c r="X125" s="44"/>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y125" s="44"/>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -8249,24 +8593,25 @@
       <c r="F126" s="44"/>
       <c r="G126" s="44"/>
       <c r="H126" s="47"/>
-      <c r="I126" s="45"/>
-      <c r="J126" s="44"/>
-      <c r="K126" s="45"/>
-      <c r="L126" s="46"/>
-      <c r="M126" s="46"/>
-      <c r="N126" s="46"/>
-      <c r="O126" s="64"/>
+      <c r="I126" s="34"/>
+      <c r="J126" s="33"/>
+      <c r="K126" s="34"/>
+      <c r="L126" s="34"/>
+      <c r="M126" s="34"/>
+      <c r="N126" s="34"/>
+      <c r="O126" s="61"/>
       <c r="P126" s="46"/>
-      <c r="Q126" s="45"/>
-      <c r="R126" s="44"/>
+      <c r="Q126" s="46"/>
+      <c r="R126" s="45"/>
       <c r="S126" s="44"/>
       <c r="T126" s="44"/>
       <c r="U126" s="44"/>
       <c r="V126" s="44"/>
       <c r="W126" s="44"/>
       <c r="X126" s="44"/>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y126" s="44"/>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -8275,24 +8620,25 @@
       <c r="F127" s="44"/>
       <c r="G127" s="44"/>
       <c r="H127" s="47"/>
-      <c r="I127" s="45"/>
-      <c r="J127" s="44"/>
-      <c r="K127" s="45"/>
-      <c r="L127" s="46"/>
-      <c r="M127" s="46"/>
-      <c r="N127" s="46"/>
-      <c r="O127" s="64"/>
+      <c r="I127" s="34"/>
+      <c r="J127" s="33"/>
+      <c r="K127" s="34"/>
+      <c r="L127" s="34"/>
+      <c r="M127" s="34"/>
+      <c r="N127" s="34"/>
+      <c r="O127" s="61"/>
       <c r="P127" s="46"/>
-      <c r="Q127" s="45"/>
-      <c r="R127" s="44"/>
+      <c r="Q127" s="46"/>
+      <c r="R127" s="45"/>
       <c r="S127" s="44"/>
       <c r="T127" s="44"/>
       <c r="U127" s="44"/>
       <c r="V127" s="44"/>
       <c r="W127" s="44"/>
       <c r="X127" s="44"/>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y127" s="44"/>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -8301,24 +8647,25 @@
       <c r="F128" s="44"/>
       <c r="G128" s="44"/>
       <c r="H128" s="47"/>
-      <c r="I128" s="45"/>
-      <c r="J128" s="44"/>
-      <c r="K128" s="45"/>
-      <c r="L128" s="46"/>
-      <c r="M128" s="46"/>
-      <c r="N128" s="46"/>
-      <c r="O128" s="64"/>
+      <c r="I128" s="34"/>
+      <c r="J128" s="33"/>
+      <c r="K128" s="34"/>
+      <c r="L128" s="34"/>
+      <c r="M128" s="34"/>
+      <c r="N128" s="34"/>
+      <c r="O128" s="61"/>
       <c r="P128" s="46"/>
-      <c r="Q128" s="45"/>
-      <c r="R128" s="44"/>
+      <c r="Q128" s="46"/>
+      <c r="R128" s="45"/>
       <c r="S128" s="44"/>
       <c r="T128" s="44"/>
       <c r="U128" s="44"/>
       <c r="V128" s="44"/>
       <c r="W128" s="44"/>
       <c r="X128" s="44"/>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y128" s="44"/>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -8327,24 +8674,25 @@
       <c r="F129" s="44"/>
       <c r="G129" s="44"/>
       <c r="H129" s="47"/>
-      <c r="I129" s="45"/>
-      <c r="J129" s="44"/>
-      <c r="K129" s="45"/>
-      <c r="L129" s="46"/>
-      <c r="M129" s="46"/>
-      <c r="N129" s="46"/>
-      <c r="O129" s="64"/>
+      <c r="I129" s="34"/>
+      <c r="J129" s="33"/>
+      <c r="K129" s="34"/>
+      <c r="L129" s="34"/>
+      <c r="M129" s="34"/>
+      <c r="N129" s="34"/>
+      <c r="O129" s="61"/>
       <c r="P129" s="46"/>
-      <c r="Q129" s="45"/>
-      <c r="R129" s="44"/>
+      <c r="Q129" s="46"/>
+      <c r="R129" s="45"/>
       <c r="S129" s="44"/>
       <c r="T129" s="44"/>
       <c r="U129" s="44"/>
       <c r="V129" s="44"/>
       <c r="W129" s="44"/>
       <c r="X129" s="44"/>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y129" s="44"/>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -8353,24 +8701,25 @@
       <c r="F130" s="44"/>
       <c r="G130" s="44"/>
       <c r="H130" s="47"/>
-      <c r="I130" s="45"/>
-      <c r="J130" s="44"/>
-      <c r="K130" s="45"/>
-      <c r="L130" s="46"/>
-      <c r="M130" s="46"/>
-      <c r="N130" s="46"/>
-      <c r="O130" s="64"/>
+      <c r="I130" s="34"/>
+      <c r="J130" s="33"/>
+      <c r="K130" s="34"/>
+      <c r="L130" s="34"/>
+      <c r="M130" s="34"/>
+      <c r="N130" s="34"/>
+      <c r="O130" s="61"/>
       <c r="P130" s="46"/>
-      <c r="Q130" s="45"/>
-      <c r="R130" s="44"/>
+      <c r="Q130" s="46"/>
+      <c r="R130" s="45"/>
       <c r="S130" s="44"/>
       <c r="T130" s="44"/>
       <c r="U130" s="44"/>
       <c r="V130" s="44"/>
       <c r="W130" s="44"/>
       <c r="X130" s="44"/>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y130" s="44"/>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -8379,24 +8728,25 @@
       <c r="F131" s="44"/>
       <c r="G131" s="44"/>
       <c r="H131" s="47"/>
-      <c r="I131" s="45"/>
-      <c r="J131" s="44"/>
-      <c r="K131" s="45"/>
-      <c r="L131" s="46"/>
-      <c r="M131" s="46"/>
-      <c r="N131" s="46"/>
-      <c r="O131" s="64"/>
+      <c r="I131" s="34"/>
+      <c r="J131" s="33"/>
+      <c r="K131" s="34"/>
+      <c r="L131" s="34"/>
+      <c r="M131" s="34"/>
+      <c r="N131" s="34"/>
+      <c r="O131" s="61"/>
       <c r="P131" s="46"/>
-      <c r="Q131" s="45"/>
-      <c r="R131" s="44"/>
+      <c r="Q131" s="46"/>
+      <c r="R131" s="45"/>
       <c r="S131" s="44"/>
       <c r="T131" s="44"/>
       <c r="U131" s="44"/>
       <c r="V131" s="44"/>
       <c r="W131" s="44"/>
       <c r="X131" s="44"/>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y131" s="44"/>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -8405,24 +8755,25 @@
       <c r="F132" s="44"/>
       <c r="G132" s="44"/>
       <c r="H132" s="47"/>
-      <c r="I132" s="45"/>
-      <c r="J132" s="44"/>
-      <c r="K132" s="45"/>
-      <c r="L132" s="46"/>
-      <c r="M132" s="46"/>
-      <c r="N132" s="46"/>
-      <c r="O132" s="64"/>
+      <c r="I132" s="34"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="34"/>
+      <c r="L132" s="34"/>
+      <c r="M132" s="34"/>
+      <c r="N132" s="34"/>
+      <c r="O132" s="61"/>
       <c r="P132" s="46"/>
-      <c r="Q132" s="45"/>
-      <c r="R132" s="44"/>
+      <c r="Q132" s="46"/>
+      <c r="R132" s="45"/>
       <c r="S132" s="44"/>
       <c r="T132" s="44"/>
       <c r="U132" s="44"/>
       <c r="V132" s="44"/>
       <c r="W132" s="44"/>
       <c r="X132" s="44"/>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y132" s="44"/>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -8431,24 +8782,25 @@
       <c r="F133" s="44"/>
       <c r="G133" s="44"/>
       <c r="H133" s="47"/>
-      <c r="I133" s="45"/>
-      <c r="J133" s="44"/>
-      <c r="K133" s="45"/>
-      <c r="L133" s="46"/>
-      <c r="M133" s="46"/>
-      <c r="N133" s="46"/>
-      <c r="O133" s="64"/>
+      <c r="I133" s="34"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="34"/>
+      <c r="L133" s="34"/>
+      <c r="M133" s="34"/>
+      <c r="N133" s="34"/>
+      <c r="O133" s="61"/>
       <c r="P133" s="46"/>
-      <c r="Q133" s="45"/>
-      <c r="R133" s="44"/>
+      <c r="Q133" s="46"/>
+      <c r="R133" s="45"/>
       <c r="S133" s="44"/>
       <c r="T133" s="44"/>
       <c r="U133" s="44"/>
       <c r="V133" s="44"/>
       <c r="W133" s="44"/>
       <c r="X133" s="44"/>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y133" s="44"/>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -8457,24 +8809,25 @@
       <c r="F134" s="44"/>
       <c r="G134" s="44"/>
       <c r="H134" s="47"/>
-      <c r="I134" s="45"/>
-      <c r="J134" s="44"/>
-      <c r="K134" s="45"/>
-      <c r="L134" s="46"/>
-      <c r="M134" s="46"/>
-      <c r="N134" s="46"/>
-      <c r="O134" s="64"/>
+      <c r="I134" s="34"/>
+      <c r="J134" s="33"/>
+      <c r="K134" s="34"/>
+      <c r="L134" s="34"/>
+      <c r="M134" s="34"/>
+      <c r="N134" s="34"/>
+      <c r="O134" s="61"/>
       <c r="P134" s="46"/>
-      <c r="Q134" s="45"/>
-      <c r="R134" s="44"/>
+      <c r="Q134" s="46"/>
+      <c r="R134" s="45"/>
       <c r="S134" s="44"/>
       <c r="T134" s="44"/>
       <c r="U134" s="44"/>
       <c r="V134" s="44"/>
       <c r="W134" s="44"/>
       <c r="X134" s="44"/>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y134" s="44"/>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -8483,24 +8836,25 @@
       <c r="F135" s="44"/>
       <c r="G135" s="44"/>
       <c r="H135" s="47"/>
-      <c r="I135" s="44"/>
-      <c r="J135" s="44"/>
-      <c r="K135" s="45"/>
-      <c r="L135" s="46"/>
-      <c r="M135" s="46"/>
-      <c r="N135" s="46"/>
-      <c r="O135" s="64"/>
+      <c r="I135" s="33"/>
+      <c r="J135" s="33"/>
+      <c r="K135" s="34"/>
+      <c r="L135" s="34"/>
+      <c r="M135" s="34"/>
+      <c r="N135" s="34"/>
+      <c r="O135" s="61"/>
       <c r="P135" s="46"/>
-      <c r="Q135" s="45"/>
-      <c r="R135" s="44"/>
+      <c r="Q135" s="46"/>
+      <c r="R135" s="45"/>
       <c r="S135" s="44"/>
       <c r="T135" s="44"/>
       <c r="U135" s="44"/>
       <c r="V135" s="44"/>
       <c r="W135" s="44"/>
       <c r="X135" s="44"/>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y135" s="44"/>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -8509,24 +8863,25 @@
       <c r="F136" s="44"/>
       <c r="G136" s="44"/>
       <c r="H136" s="47"/>
-      <c r="I136" s="44"/>
-      <c r="J136" s="44"/>
-      <c r="K136" s="45"/>
-      <c r="L136" s="46"/>
-      <c r="M136" s="46"/>
-      <c r="N136" s="46"/>
-      <c r="O136" s="64"/>
+      <c r="I136" s="33"/>
+      <c r="J136" s="33"/>
+      <c r="K136" s="34"/>
+      <c r="L136" s="34"/>
+      <c r="M136" s="34"/>
+      <c r="N136" s="34"/>
+      <c r="O136" s="61"/>
       <c r="P136" s="46"/>
-      <c r="Q136" s="45"/>
-      <c r="R136" s="44"/>
+      <c r="Q136" s="46"/>
+      <c r="R136" s="45"/>
       <c r="S136" s="44"/>
       <c r="T136" s="44"/>
       <c r="U136" s="44"/>
       <c r="V136" s="44"/>
       <c r="W136" s="44"/>
       <c r="X136" s="44"/>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y136" s="44"/>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -8535,24 +8890,25 @@
       <c r="F137" s="44"/>
       <c r="G137" s="44"/>
       <c r="H137" s="47"/>
-      <c r="I137" s="44"/>
-      <c r="J137" s="44"/>
-      <c r="K137" s="45"/>
-      <c r="L137" s="46"/>
-      <c r="M137" s="46"/>
-      <c r="N137" s="46"/>
-      <c r="O137" s="64"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="34"/>
+      <c r="L137" s="34"/>
+      <c r="M137" s="34"/>
+      <c r="N137" s="34"/>
+      <c r="O137" s="61"/>
       <c r="P137" s="46"/>
-      <c r="Q137" s="45"/>
-      <c r="R137" s="44"/>
+      <c r="Q137" s="46"/>
+      <c r="R137" s="45"/>
       <c r="S137" s="44"/>
       <c r="T137" s="44"/>
       <c r="U137" s="44"/>
       <c r="V137" s="44"/>
       <c r="W137" s="44"/>
       <c r="X137" s="44"/>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y137" s="44"/>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -8561,24 +8917,25 @@
       <c r="F138" s="44"/>
       <c r="G138" s="44"/>
       <c r="H138" s="47"/>
-      <c r="I138" s="44"/>
-      <c r="J138" s="44"/>
-      <c r="K138" s="45"/>
-      <c r="L138" s="46"/>
-      <c r="M138" s="46"/>
-      <c r="N138" s="46"/>
-      <c r="O138" s="64"/>
+      <c r="I138" s="33"/>
+      <c r="J138" s="33"/>
+      <c r="K138" s="34"/>
+      <c r="L138" s="34"/>
+      <c r="M138" s="34"/>
+      <c r="N138" s="34"/>
+      <c r="O138" s="61"/>
       <c r="P138" s="46"/>
-      <c r="Q138" s="45"/>
-      <c r="R138" s="44"/>
+      <c r="Q138" s="46"/>
+      <c r="R138" s="45"/>
       <c r="S138" s="44"/>
       <c r="T138" s="44"/>
       <c r="U138" s="44"/>
       <c r="V138" s="44"/>
       <c r="W138" s="44"/>
       <c r="X138" s="44"/>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y138" s="44"/>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -8587,24 +8944,25 @@
       <c r="F139" s="44"/>
       <c r="G139" s="44"/>
       <c r="H139" s="47"/>
-      <c r="I139" s="44"/>
-      <c r="J139" s="44"/>
-      <c r="K139" s="45"/>
-      <c r="L139" s="46"/>
-      <c r="M139" s="46"/>
-      <c r="N139" s="46"/>
-      <c r="O139" s="64"/>
+      <c r="I139" s="33"/>
+      <c r="J139" s="33"/>
+      <c r="K139" s="34"/>
+      <c r="L139" s="34"/>
+      <c r="M139" s="34"/>
+      <c r="N139" s="34"/>
+      <c r="O139" s="61"/>
       <c r="P139" s="46"/>
-      <c r="Q139" s="45"/>
-      <c r="R139" s="44"/>
+      <c r="Q139" s="46"/>
+      <c r="R139" s="45"/>
       <c r="S139" s="44"/>
       <c r="T139" s="44"/>
       <c r="U139" s="44"/>
       <c r="V139" s="44"/>
       <c r="W139" s="44"/>
       <c r="X139" s="44"/>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y139" s="44"/>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -8613,24 +8971,25 @@
       <c r="F140" s="44"/>
       <c r="G140" s="44"/>
       <c r="H140" s="47"/>
-      <c r="I140" s="44"/>
-      <c r="J140" s="44"/>
-      <c r="K140" s="45"/>
-      <c r="L140" s="46"/>
-      <c r="M140" s="46"/>
-      <c r="N140" s="46"/>
-      <c r="O140" s="64"/>
+      <c r="I140" s="33"/>
+      <c r="J140" s="33"/>
+      <c r="K140" s="34"/>
+      <c r="L140" s="34"/>
+      <c r="M140" s="34"/>
+      <c r="N140" s="34"/>
+      <c r="O140" s="61"/>
       <c r="P140" s="46"/>
-      <c r="Q140" s="45"/>
-      <c r="R140" s="44"/>
+      <c r="Q140" s="46"/>
+      <c r="R140" s="45"/>
       <c r="S140" s="44"/>
       <c r="T140" s="44"/>
       <c r="U140" s="44"/>
       <c r="V140" s="44"/>
       <c r="W140" s="44"/>
       <c r="X140" s="44"/>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y140" s="44"/>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -8639,24 +8998,25 @@
       <c r="F141" s="44"/>
       <c r="G141" s="44"/>
       <c r="H141" s="47"/>
-      <c r="I141" s="44"/>
-      <c r="J141" s="44"/>
-      <c r="K141" s="45"/>
-      <c r="L141" s="46"/>
-      <c r="M141" s="46"/>
-      <c r="N141" s="46"/>
-      <c r="O141" s="64"/>
+      <c r="I141" s="33"/>
+      <c r="J141" s="33"/>
+      <c r="K141" s="34"/>
+      <c r="L141" s="34"/>
+      <c r="M141" s="34"/>
+      <c r="N141" s="34"/>
+      <c r="O141" s="61"/>
       <c r="P141" s="46"/>
-      <c r="Q141" s="45"/>
-      <c r="R141" s="44"/>
+      <c r="Q141" s="46"/>
+      <c r="R141" s="45"/>
       <c r="S141" s="44"/>
       <c r="T141" s="44"/>
       <c r="U141" s="44"/>
       <c r="V141" s="44"/>
       <c r="W141" s="44"/>
       <c r="X141" s="44"/>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y141" s="44"/>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -8665,24 +9025,25 @@
       <c r="F142" s="44"/>
       <c r="G142" s="44"/>
       <c r="H142" s="47"/>
-      <c r="I142" s="44"/>
-      <c r="J142" s="44"/>
-      <c r="K142" s="45"/>
-      <c r="L142" s="46"/>
-      <c r="M142" s="46"/>
-      <c r="N142" s="46"/>
-      <c r="O142" s="64"/>
+      <c r="I142" s="33"/>
+      <c r="J142" s="33"/>
+      <c r="K142" s="34"/>
+      <c r="L142" s="34"/>
+      <c r="M142" s="34"/>
+      <c r="N142" s="34"/>
+      <c r="O142" s="61"/>
       <c r="P142" s="46"/>
-      <c r="Q142" s="45"/>
-      <c r="R142" s="44"/>
+      <c r="Q142" s="46"/>
+      <c r="R142" s="45"/>
       <c r="S142" s="44"/>
       <c r="T142" s="44"/>
       <c r="U142" s="44"/>
       <c r="V142" s="44"/>
       <c r="W142" s="44"/>
       <c r="X142" s="44"/>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y142" s="44"/>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -8691,24 +9052,25 @@
       <c r="F143" s="44"/>
       <c r="G143" s="44"/>
       <c r="H143" s="47"/>
-      <c r="I143" s="44"/>
-      <c r="J143" s="44"/>
-      <c r="K143" s="45"/>
-      <c r="L143" s="46"/>
-      <c r="M143" s="46"/>
-      <c r="N143" s="46"/>
-      <c r="O143" s="64"/>
+      <c r="I143" s="33"/>
+      <c r="J143" s="33"/>
+      <c r="K143" s="34"/>
+      <c r="L143" s="34"/>
+      <c r="M143" s="34"/>
+      <c r="N143" s="34"/>
+      <c r="O143" s="61"/>
       <c r="P143" s="46"/>
-      <c r="Q143" s="45"/>
-      <c r="R143" s="44"/>
+      <c r="Q143" s="46"/>
+      <c r="R143" s="45"/>
       <c r="S143" s="44"/>
       <c r="T143" s="44"/>
       <c r="U143" s="44"/>
       <c r="V143" s="44"/>
       <c r="W143" s="44"/>
       <c r="X143" s="44"/>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y143" s="44"/>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -8717,24 +9079,25 @@
       <c r="F144" s="44"/>
       <c r="G144" s="44"/>
       <c r="H144" s="47"/>
-      <c r="I144" s="44"/>
-      <c r="J144" s="44"/>
-      <c r="K144" s="45"/>
-      <c r="L144" s="46"/>
-      <c r="M144" s="46"/>
-      <c r="N144" s="46"/>
-      <c r="O144" s="64"/>
+      <c r="I144" s="33"/>
+      <c r="J144" s="33"/>
+      <c r="K144" s="34"/>
+      <c r="L144" s="34"/>
+      <c r="M144" s="34"/>
+      <c r="N144" s="34"/>
+      <c r="O144" s="61"/>
       <c r="P144" s="46"/>
-      <c r="Q144" s="45"/>
-      <c r="R144" s="44"/>
+      <c r="Q144" s="46"/>
+      <c r="R144" s="45"/>
       <c r="S144" s="44"/>
       <c r="T144" s="44"/>
       <c r="U144" s="44"/>
       <c r="V144" s="44"/>
       <c r="W144" s="44"/>
       <c r="X144" s="44"/>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y144" s="44"/>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -8743,24 +9106,25 @@
       <c r="F145" s="44"/>
       <c r="G145" s="44"/>
       <c r="H145" s="47"/>
-      <c r="I145" s="44"/>
-      <c r="J145" s="44"/>
-      <c r="K145" s="45"/>
-      <c r="L145" s="46"/>
-      <c r="M145" s="46"/>
-      <c r="N145" s="46"/>
-      <c r="O145" s="64"/>
+      <c r="I145" s="33"/>
+      <c r="J145" s="33"/>
+      <c r="K145" s="34"/>
+      <c r="L145" s="34"/>
+      <c r="M145" s="34"/>
+      <c r="N145" s="34"/>
+      <c r="O145" s="61"/>
       <c r="P145" s="46"/>
-      <c r="Q145" s="45"/>
-      <c r="R145" s="44"/>
+      <c r="Q145" s="46"/>
+      <c r="R145" s="45"/>
       <c r="S145" s="44"/>
       <c r="T145" s="44"/>
       <c r="U145" s="44"/>
       <c r="V145" s="44"/>
       <c r="W145" s="44"/>
       <c r="X145" s="44"/>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y145" s="44"/>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -8769,24 +9133,25 @@
       <c r="F146" s="44"/>
       <c r="G146" s="44"/>
       <c r="H146" s="47"/>
-      <c r="I146" s="44"/>
-      <c r="J146" s="44"/>
-      <c r="K146" s="45"/>
-      <c r="L146" s="46"/>
-      <c r="M146" s="46"/>
-      <c r="N146" s="46"/>
-      <c r="O146" s="64"/>
+      <c r="I146" s="33"/>
+      <c r="J146" s="33"/>
+      <c r="K146" s="34"/>
+      <c r="L146" s="34"/>
+      <c r="M146" s="34"/>
+      <c r="N146" s="34"/>
+      <c r="O146" s="61"/>
       <c r="P146" s="46"/>
-      <c r="Q146" s="45"/>
-      <c r="R146" s="44"/>
+      <c r="Q146" s="46"/>
+      <c r="R146" s="45"/>
       <c r="S146" s="44"/>
       <c r="T146" s="44"/>
       <c r="U146" s="44"/>
       <c r="V146" s="44"/>
       <c r="W146" s="44"/>
       <c r="X146" s="44"/>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y146" s="44"/>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -8795,24 +9160,25 @@
       <c r="F147" s="44"/>
       <c r="G147" s="44"/>
       <c r="H147" s="47"/>
-      <c r="I147" s="44"/>
-      <c r="J147" s="44"/>
-      <c r="K147" s="45"/>
-      <c r="L147" s="46"/>
-      <c r="M147" s="46"/>
-      <c r="N147" s="46"/>
-      <c r="O147" s="64"/>
+      <c r="I147" s="33"/>
+      <c r="J147" s="33"/>
+      <c r="K147" s="34"/>
+      <c r="L147" s="34"/>
+      <c r="M147" s="34"/>
+      <c r="N147" s="34"/>
+      <c r="O147" s="61"/>
       <c r="P147" s="46"/>
-      <c r="Q147" s="45"/>
-      <c r="R147" s="44"/>
+      <c r="Q147" s="46"/>
+      <c r="R147" s="45"/>
       <c r="S147" s="44"/>
       <c r="T147" s="44"/>
       <c r="U147" s="44"/>
       <c r="V147" s="44"/>
       <c r="W147" s="44"/>
       <c r="X147" s="44"/>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y147" s="44"/>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -8821,24 +9187,25 @@
       <c r="F148" s="44"/>
       <c r="G148" s="44"/>
       <c r="H148" s="47"/>
-      <c r="I148" s="44"/>
-      <c r="J148" s="44"/>
-      <c r="K148" s="45"/>
-      <c r="L148" s="46"/>
-      <c r="M148" s="46"/>
-      <c r="N148" s="46"/>
-      <c r="O148" s="64"/>
+      <c r="I148" s="33"/>
+      <c r="J148" s="33"/>
+      <c r="K148" s="34"/>
+      <c r="L148" s="34"/>
+      <c r="M148" s="34"/>
+      <c r="N148" s="34"/>
+      <c r="O148" s="61"/>
       <c r="P148" s="46"/>
-      <c r="Q148" s="45"/>
-      <c r="R148" s="44"/>
+      <c r="Q148" s="46"/>
+      <c r="R148" s="45"/>
       <c r="S148" s="44"/>
       <c r="T148" s="44"/>
       <c r="U148" s="44"/>
       <c r="V148" s="44"/>
       <c r="W148" s="44"/>
       <c r="X148" s="44"/>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y148" s="44"/>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -8847,24 +9214,25 @@
       <c r="F149" s="44"/>
       <c r="G149" s="44"/>
       <c r="H149" s="47"/>
-      <c r="I149" s="44"/>
-      <c r="J149" s="44"/>
-      <c r="K149" s="45"/>
-      <c r="L149" s="46"/>
-      <c r="M149" s="46"/>
-      <c r="N149" s="46"/>
-      <c r="O149" s="64"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="33"/>
+      <c r="K149" s="34"/>
+      <c r="L149" s="34"/>
+      <c r="M149" s="34"/>
+      <c r="N149" s="34"/>
+      <c r="O149" s="61"/>
       <c r="P149" s="46"/>
-      <c r="Q149" s="45"/>
-      <c r="R149" s="44"/>
+      <c r="Q149" s="46"/>
+      <c r="R149" s="45"/>
       <c r="S149" s="44"/>
       <c r="T149" s="44"/>
       <c r="U149" s="44"/>
       <c r="V149" s="44"/>
       <c r="W149" s="44"/>
       <c r="X149" s="44"/>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y149" s="44"/>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -8873,24 +9241,25 @@
       <c r="F150" s="44"/>
       <c r="G150" s="44"/>
       <c r="H150" s="47"/>
-      <c r="I150" s="44"/>
-      <c r="J150" s="44"/>
-      <c r="K150" s="45"/>
-      <c r="L150" s="46"/>
-      <c r="M150" s="46"/>
-      <c r="N150" s="46"/>
-      <c r="O150" s="64"/>
+      <c r="I150" s="33"/>
+      <c r="J150" s="33"/>
+      <c r="K150" s="34"/>
+      <c r="L150" s="34"/>
+      <c r="M150" s="34"/>
+      <c r="N150" s="34"/>
+      <c r="O150" s="61"/>
       <c r="P150" s="46"/>
-      <c r="Q150" s="45"/>
-      <c r="R150" s="44"/>
+      <c r="Q150" s="46"/>
+      <c r="R150" s="45"/>
       <c r="S150" s="44"/>
       <c r="T150" s="44"/>
       <c r="U150" s="44"/>
       <c r="V150" s="44"/>
       <c r="W150" s="44"/>
       <c r="X150" s="44"/>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y150" s="44"/>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -8899,24 +9268,25 @@
       <c r="F151" s="44"/>
       <c r="G151" s="44"/>
       <c r="H151" s="47"/>
-      <c r="I151" s="44"/>
-      <c r="J151" s="44"/>
-      <c r="K151" s="45"/>
-      <c r="L151" s="46"/>
-      <c r="M151" s="46"/>
-      <c r="N151" s="46"/>
-      <c r="O151" s="64"/>
+      <c r="I151" s="33"/>
+      <c r="J151" s="33"/>
+      <c r="K151" s="34"/>
+      <c r="L151" s="34"/>
+      <c r="M151" s="34"/>
+      <c r="N151" s="34"/>
+      <c r="O151" s="61"/>
       <c r="P151" s="46"/>
-      <c r="Q151" s="45"/>
-      <c r="R151" s="44"/>
+      <c r="Q151" s="46"/>
+      <c r="R151" s="45"/>
       <c r="S151" s="44"/>
       <c r="T151" s="44"/>
       <c r="U151" s="44"/>
       <c r="V151" s="44"/>
       <c r="W151" s="44"/>
       <c r="X151" s="44"/>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y151" s="44"/>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -8925,24 +9295,25 @@
       <c r="F152" s="44"/>
       <c r="G152" s="44"/>
       <c r="H152" s="47"/>
-      <c r="I152" s="44"/>
-      <c r="J152" s="44"/>
-      <c r="K152" s="45"/>
-      <c r="L152" s="46"/>
-      <c r="M152" s="46"/>
-      <c r="N152" s="46"/>
-      <c r="O152" s="64"/>
+      <c r="I152" s="33"/>
+      <c r="J152" s="33"/>
+      <c r="K152" s="34"/>
+      <c r="L152" s="34"/>
+      <c r="M152" s="34"/>
+      <c r="N152" s="34"/>
+      <c r="O152" s="61"/>
       <c r="P152" s="46"/>
-      <c r="Q152" s="45"/>
-      <c r="R152" s="44"/>
+      <c r="Q152" s="46"/>
+      <c r="R152" s="45"/>
       <c r="S152" s="44"/>
       <c r="T152" s="44"/>
       <c r="U152" s="44"/>
       <c r="V152" s="44"/>
       <c r="W152" s="44"/>
       <c r="X152" s="44"/>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y152" s="44"/>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -8951,24 +9322,25 @@
       <c r="F153" s="44"/>
       <c r="G153" s="44"/>
       <c r="H153" s="47"/>
-      <c r="I153" s="44"/>
-      <c r="J153" s="44"/>
-      <c r="K153" s="45"/>
-      <c r="L153" s="46"/>
-      <c r="M153" s="46"/>
-      <c r="N153" s="46"/>
-      <c r="O153" s="64"/>
+      <c r="I153" s="33"/>
+      <c r="J153" s="33"/>
+      <c r="K153" s="34"/>
+      <c r="L153" s="34"/>
+      <c r="M153" s="34"/>
+      <c r="N153" s="34"/>
+      <c r="O153" s="61"/>
       <c r="P153" s="46"/>
-      <c r="Q153" s="45"/>
-      <c r="R153" s="44"/>
+      <c r="Q153" s="46"/>
+      <c r="R153" s="45"/>
       <c r="S153" s="44"/>
       <c r="T153" s="44"/>
       <c r="U153" s="44"/>
       <c r="V153" s="44"/>
       <c r="W153" s="44"/>
       <c r="X153" s="44"/>
-    </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y153" s="44"/>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -8977,24 +9349,25 @@
       <c r="F154" s="44"/>
       <c r="G154" s="44"/>
       <c r="H154" s="47"/>
-      <c r="I154" s="44"/>
-      <c r="J154" s="44"/>
-      <c r="K154" s="45"/>
-      <c r="L154" s="46"/>
-      <c r="M154" s="46"/>
-      <c r="N154" s="46"/>
-      <c r="O154" s="64"/>
+      <c r="I154" s="33"/>
+      <c r="J154" s="33"/>
+      <c r="K154" s="34"/>
+      <c r="L154" s="34"/>
+      <c r="M154" s="34"/>
+      <c r="N154" s="34"/>
+      <c r="O154" s="61"/>
       <c r="P154" s="46"/>
-      <c r="Q154" s="45"/>
-      <c r="R154" s="44"/>
+      <c r="Q154" s="46"/>
+      <c r="R154" s="45"/>
       <c r="S154" s="44"/>
       <c r="T154" s="44"/>
       <c r="U154" s="44"/>
       <c r="V154" s="44"/>
       <c r="W154" s="44"/>
       <c r="X154" s="44"/>
-    </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y154" s="44"/>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -9003,24 +9376,25 @@
       <c r="F155" s="44"/>
       <c r="G155" s="44"/>
       <c r="H155" s="47"/>
-      <c r="I155" s="44"/>
-      <c r="J155" s="44"/>
-      <c r="K155" s="45"/>
-      <c r="L155" s="46"/>
-      <c r="M155" s="46"/>
-      <c r="N155" s="46"/>
-      <c r="O155" s="64"/>
+      <c r="I155" s="33"/>
+      <c r="J155" s="33"/>
+      <c r="K155" s="34"/>
+      <c r="L155" s="34"/>
+      <c r="M155" s="34"/>
+      <c r="N155" s="34"/>
+      <c r="O155" s="61"/>
       <c r="P155" s="46"/>
-      <c r="Q155" s="45"/>
-      <c r="R155" s="44"/>
+      <c r="Q155" s="46"/>
+      <c r="R155" s="45"/>
       <c r="S155" s="44"/>
       <c r="T155" s="44"/>
       <c r="U155" s="44"/>
       <c r="V155" s="44"/>
       <c r="W155" s="44"/>
       <c r="X155" s="44"/>
-    </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y155" s="44"/>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -9029,24 +9403,25 @@
       <c r="F156" s="44"/>
       <c r="G156" s="44"/>
       <c r="H156" s="47"/>
-      <c r="I156" s="44"/>
-      <c r="J156" s="44"/>
-      <c r="K156" s="45"/>
-      <c r="L156" s="46"/>
-      <c r="M156" s="46"/>
-      <c r="N156" s="46"/>
-      <c r="O156" s="64"/>
+      <c r="I156" s="33"/>
+      <c r="J156" s="33"/>
+      <c r="K156" s="34"/>
+      <c r="L156" s="34"/>
+      <c r="M156" s="34"/>
+      <c r="N156" s="34"/>
+      <c r="O156" s="61"/>
       <c r="P156" s="46"/>
-      <c r="Q156" s="45"/>
-      <c r="R156" s="44"/>
+      <c r="Q156" s="46"/>
+      <c r="R156" s="45"/>
       <c r="S156" s="44"/>
       <c r="T156" s="44"/>
       <c r="U156" s="44"/>
       <c r="V156" s="44"/>
       <c r="W156" s="44"/>
       <c r="X156" s="44"/>
-    </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y156" s="44"/>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -9055,24 +9430,25 @@
       <c r="F157" s="44"/>
       <c r="G157" s="44"/>
       <c r="H157" s="47"/>
-      <c r="I157" s="44"/>
-      <c r="J157" s="44"/>
-      <c r="K157" s="45"/>
-      <c r="L157" s="46"/>
-      <c r="M157" s="46"/>
-      <c r="N157" s="46"/>
-      <c r="O157" s="64"/>
+      <c r="I157" s="33"/>
+      <c r="J157" s="33"/>
+      <c r="K157" s="34"/>
+      <c r="L157" s="34"/>
+      <c r="M157" s="34"/>
+      <c r="N157" s="34"/>
+      <c r="O157" s="61"/>
       <c r="P157" s="46"/>
-      <c r="Q157" s="45"/>
-      <c r="R157" s="44"/>
+      <c r="Q157" s="46"/>
+      <c r="R157" s="45"/>
       <c r="S157" s="44"/>
       <c r="T157" s="44"/>
       <c r="U157" s="44"/>
       <c r="V157" s="44"/>
       <c r="W157" s="44"/>
       <c r="X157" s="44"/>
-    </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y157" s="44"/>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -9081,24 +9457,25 @@
       <c r="F158" s="44"/>
       <c r="G158" s="44"/>
       <c r="H158" s="47"/>
-      <c r="I158" s="44"/>
-      <c r="J158" s="44"/>
-      <c r="K158" s="45"/>
-      <c r="L158" s="46"/>
-      <c r="M158" s="46"/>
-      <c r="N158" s="46"/>
-      <c r="O158" s="64"/>
+      <c r="I158" s="33"/>
+      <c r="J158" s="33"/>
+      <c r="K158" s="34"/>
+      <c r="L158" s="34"/>
+      <c r="M158" s="34"/>
+      <c r="N158" s="34"/>
+      <c r="O158" s="61"/>
       <c r="P158" s="46"/>
-      <c r="Q158" s="45"/>
-      <c r="R158" s="44"/>
+      <c r="Q158" s="46"/>
+      <c r="R158" s="45"/>
       <c r="S158" s="44"/>
       <c r="T158" s="44"/>
       <c r="U158" s="44"/>
       <c r="V158" s="44"/>
       <c r="W158" s="44"/>
       <c r="X158" s="44"/>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y158" s="44"/>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -9107,24 +9484,25 @@
       <c r="F159" s="44"/>
       <c r="G159" s="44"/>
       <c r="H159" s="47"/>
-      <c r="I159" s="44"/>
-      <c r="J159" s="44"/>
-      <c r="K159" s="45"/>
-      <c r="L159" s="46"/>
-      <c r="M159" s="46"/>
-      <c r="N159" s="46"/>
-      <c r="O159" s="64"/>
+      <c r="I159" s="33"/>
+      <c r="J159" s="33"/>
+      <c r="K159" s="34"/>
+      <c r="L159" s="34"/>
+      <c r="M159" s="34"/>
+      <c r="N159" s="34"/>
+      <c r="O159" s="61"/>
       <c r="P159" s="46"/>
-      <c r="Q159" s="45"/>
-      <c r="R159" s="44"/>
+      <c r="Q159" s="46"/>
+      <c r="R159" s="45"/>
       <c r="S159" s="44"/>
       <c r="T159" s="44"/>
       <c r="U159" s="44"/>
       <c r="V159" s="44"/>
       <c r="W159" s="44"/>
       <c r="X159" s="44"/>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y159" s="44"/>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -9133,24 +9511,25 @@
       <c r="F160" s="44"/>
       <c r="G160" s="44"/>
       <c r="H160" s="47"/>
-      <c r="I160" s="44"/>
-      <c r="J160" s="44"/>
-      <c r="K160" s="45"/>
-      <c r="L160" s="46"/>
-      <c r="M160" s="46"/>
-      <c r="N160" s="46"/>
-      <c r="O160" s="64"/>
+      <c r="I160" s="33"/>
+      <c r="J160" s="33"/>
+      <c r="K160" s="34"/>
+      <c r="L160" s="34"/>
+      <c r="M160" s="34"/>
+      <c r="N160" s="34"/>
+      <c r="O160" s="61"/>
       <c r="P160" s="46"/>
-      <c r="Q160" s="45"/>
-      <c r="R160" s="44"/>
+      <c r="Q160" s="46"/>
+      <c r="R160" s="45"/>
       <c r="S160" s="44"/>
       <c r="T160" s="44"/>
       <c r="U160" s="44"/>
       <c r="V160" s="44"/>
       <c r="W160" s="44"/>
       <c r="X160" s="44"/>
-    </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y160" s="44"/>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -9159,24 +9538,25 @@
       <c r="F161" s="44"/>
       <c r="G161" s="44"/>
       <c r="H161" s="47"/>
-      <c r="I161" s="44"/>
-      <c r="J161" s="44"/>
-      <c r="K161" s="45"/>
-      <c r="L161" s="46"/>
-      <c r="M161" s="46"/>
-      <c r="N161" s="46"/>
-      <c r="O161" s="64"/>
+      <c r="I161" s="33"/>
+      <c r="J161" s="33"/>
+      <c r="K161" s="34"/>
+      <c r="L161" s="34"/>
+      <c r="M161" s="34"/>
+      <c r="N161" s="34"/>
+      <c r="O161" s="61"/>
       <c r="P161" s="46"/>
-      <c r="Q161" s="45"/>
-      <c r="R161" s="44"/>
+      <c r="Q161" s="46"/>
+      <c r="R161" s="45"/>
       <c r="S161" s="44"/>
       <c r="T161" s="44"/>
       <c r="U161" s="44"/>
       <c r="V161" s="44"/>
       <c r="W161" s="44"/>
       <c r="X161" s="44"/>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y161" s="44"/>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -9185,24 +9565,25 @@
       <c r="F162" s="44"/>
       <c r="G162" s="44"/>
       <c r="H162" s="47"/>
-      <c r="I162" s="44"/>
-      <c r="J162" s="44"/>
-      <c r="K162" s="45"/>
-      <c r="L162" s="46"/>
-      <c r="M162" s="46"/>
-      <c r="N162" s="46"/>
-      <c r="O162" s="64"/>
+      <c r="I162" s="33"/>
+      <c r="J162" s="33"/>
+      <c r="K162" s="34"/>
+      <c r="L162" s="34"/>
+      <c r="M162" s="34"/>
+      <c r="N162" s="34"/>
+      <c r="O162" s="61"/>
       <c r="P162" s="46"/>
-      <c r="Q162" s="45"/>
-      <c r="R162" s="44"/>
+      <c r="Q162" s="46"/>
+      <c r="R162" s="45"/>
       <c r="S162" s="44"/>
       <c r="T162" s="44"/>
       <c r="U162" s="44"/>
       <c r="V162" s="44"/>
       <c r="W162" s="44"/>
       <c r="X162" s="44"/>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y162" s="44"/>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -9211,24 +9592,25 @@
       <c r="F163" s="44"/>
       <c r="G163" s="44"/>
       <c r="H163" s="47"/>
-      <c r="I163" s="44"/>
-      <c r="J163" s="44"/>
-      <c r="K163" s="45"/>
-      <c r="L163" s="46"/>
-      <c r="M163" s="46"/>
-      <c r="N163" s="46"/>
-      <c r="O163" s="64"/>
+      <c r="I163" s="33"/>
+      <c r="J163" s="33"/>
+      <c r="K163" s="34"/>
+      <c r="L163" s="34"/>
+      <c r="M163" s="34"/>
+      <c r="N163" s="34"/>
+      <c r="O163" s="61"/>
       <c r="P163" s="46"/>
-      <c r="Q163" s="45"/>
-      <c r="R163" s="44"/>
+      <c r="Q163" s="46"/>
+      <c r="R163" s="45"/>
       <c r="S163" s="44"/>
       <c r="T163" s="44"/>
       <c r="U163" s="44"/>
       <c r="V163" s="44"/>
       <c r="W163" s="44"/>
       <c r="X163" s="44"/>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y163" s="44"/>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -9237,24 +9619,25 @@
       <c r="F164" s="44"/>
       <c r="G164" s="44"/>
       <c r="H164" s="47"/>
-      <c r="I164" s="44"/>
-      <c r="J164" s="44"/>
-      <c r="K164" s="45"/>
-      <c r="L164" s="46"/>
-      <c r="M164" s="46"/>
-      <c r="N164" s="46"/>
-      <c r="O164" s="64"/>
+      <c r="I164" s="33"/>
+      <c r="J164" s="33"/>
+      <c r="K164" s="34"/>
+      <c r="L164" s="34"/>
+      <c r="M164" s="34"/>
+      <c r="N164" s="34"/>
+      <c r="O164" s="61"/>
       <c r="P164" s="46"/>
-      <c r="Q164" s="45"/>
-      <c r="R164" s="44"/>
+      <c r="Q164" s="46"/>
+      <c r="R164" s="45"/>
       <c r="S164" s="44"/>
       <c r="T164" s="44"/>
       <c r="U164" s="44"/>
       <c r="V164" s="44"/>
       <c r="W164" s="44"/>
       <c r="X164" s="44"/>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y164" s="44"/>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -9263,24 +9646,25 @@
       <c r="F165" s="44"/>
       <c r="G165" s="44"/>
       <c r="H165" s="47"/>
-      <c r="I165" s="44"/>
-      <c r="J165" s="44"/>
-      <c r="K165" s="45"/>
-      <c r="L165" s="46"/>
-      <c r="M165" s="46"/>
-      <c r="N165" s="46"/>
-      <c r="O165" s="64"/>
+      <c r="I165" s="33"/>
+      <c r="J165" s="33"/>
+      <c r="K165" s="34"/>
+      <c r="L165" s="34"/>
+      <c r="M165" s="34"/>
+      <c r="N165" s="34"/>
+      <c r="O165" s="61"/>
       <c r="P165" s="46"/>
-      <c r="Q165" s="45"/>
-      <c r="R165" s="44"/>
+      <c r="Q165" s="46"/>
+      <c r="R165" s="45"/>
       <c r="S165" s="44"/>
       <c r="T165" s="44"/>
       <c r="U165" s="44"/>
       <c r="V165" s="44"/>
       <c r="W165" s="44"/>
       <c r="X165" s="44"/>
-    </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y165" s="44"/>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -9289,24 +9673,25 @@
       <c r="F166" s="44"/>
       <c r="G166" s="44"/>
       <c r="H166" s="47"/>
-      <c r="I166" s="44"/>
-      <c r="J166" s="44"/>
-      <c r="K166" s="45"/>
-      <c r="L166" s="46"/>
-      <c r="M166" s="46"/>
-      <c r="N166" s="46"/>
-      <c r="O166" s="64"/>
+      <c r="I166" s="33"/>
+      <c r="J166" s="33"/>
+      <c r="K166" s="34"/>
+      <c r="L166" s="34"/>
+      <c r="M166" s="34"/>
+      <c r="N166" s="34"/>
+      <c r="O166" s="61"/>
       <c r="P166" s="46"/>
-      <c r="Q166" s="45"/>
-      <c r="R166" s="44"/>
+      <c r="Q166" s="46"/>
+      <c r="R166" s="45"/>
       <c r="S166" s="44"/>
       <c r="T166" s="44"/>
       <c r="U166" s="44"/>
       <c r="V166" s="44"/>
       <c r="W166" s="44"/>
       <c r="X166" s="44"/>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y166" s="44"/>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -9315,24 +9700,25 @@
       <c r="F167" s="44"/>
       <c r="G167" s="44"/>
       <c r="H167" s="47"/>
-      <c r="I167" s="44"/>
-      <c r="J167" s="44"/>
-      <c r="K167" s="45"/>
-      <c r="L167" s="46"/>
-      <c r="M167" s="46"/>
-      <c r="N167" s="46"/>
-      <c r="O167" s="64"/>
+      <c r="I167" s="33"/>
+      <c r="J167" s="33"/>
+      <c r="K167" s="34"/>
+      <c r="L167" s="34"/>
+      <c r="M167" s="34"/>
+      <c r="N167" s="34"/>
+      <c r="O167" s="61"/>
       <c r="P167" s="46"/>
-      <c r="Q167" s="45"/>
-      <c r="R167" s="44"/>
+      <c r="Q167" s="46"/>
+      <c r="R167" s="45"/>
       <c r="S167" s="44"/>
       <c r="T167" s="44"/>
       <c r="U167" s="44"/>
       <c r="V167" s="44"/>
       <c r="W167" s="44"/>
       <c r="X167" s="44"/>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y167" s="44"/>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -9341,24 +9727,25 @@
       <c r="F168" s="44"/>
       <c r="G168" s="44"/>
       <c r="H168" s="47"/>
-      <c r="I168" s="44"/>
-      <c r="J168" s="44"/>
-      <c r="K168" s="45"/>
-      <c r="L168" s="46"/>
-      <c r="M168" s="46"/>
-      <c r="N168" s="46"/>
-      <c r="O168" s="64"/>
+      <c r="I168" s="33"/>
+      <c r="J168" s="33"/>
+      <c r="K168" s="34"/>
+      <c r="L168" s="34"/>
+      <c r="M168" s="34"/>
+      <c r="N168" s="34"/>
+      <c r="O168" s="61"/>
       <c r="P168" s="46"/>
-      <c r="Q168" s="45"/>
-      <c r="R168" s="44"/>
+      <c r="Q168" s="46"/>
+      <c r="R168" s="45"/>
       <c r="S168" s="44"/>
       <c r="T168" s="44"/>
       <c r="U168" s="44"/>
       <c r="V168" s="44"/>
       <c r="W168" s="44"/>
       <c r="X168" s="44"/>
-    </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y168" s="44"/>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -9367,24 +9754,25 @@
       <c r="F169" s="44"/>
       <c r="G169" s="44"/>
       <c r="H169" s="47"/>
-      <c r="I169" s="44"/>
-      <c r="J169" s="44"/>
-      <c r="K169" s="45"/>
-      <c r="L169" s="46"/>
-      <c r="M169" s="46"/>
-      <c r="N169" s="46"/>
-      <c r="O169" s="64"/>
+      <c r="I169" s="33"/>
+      <c r="J169" s="33"/>
+      <c r="K169" s="34"/>
+      <c r="L169" s="34"/>
+      <c r="M169" s="34"/>
+      <c r="N169" s="34"/>
+      <c r="O169" s="61"/>
       <c r="P169" s="46"/>
-      <c r="Q169" s="45"/>
-      <c r="R169" s="44"/>
+      <c r="Q169" s="46"/>
+      <c r="R169" s="45"/>
       <c r="S169" s="44"/>
       <c r="T169" s="44"/>
       <c r="U169" s="44"/>
       <c r="V169" s="44"/>
       <c r="W169" s="44"/>
       <c r="X169" s="44"/>
-    </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y169" s="44"/>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" s="44"/>
       <c r="B170" s="44"/>
       <c r="C170" s="44"/>
@@ -9393,24 +9781,25 @@
       <c r="F170" s="44"/>
       <c r="G170" s="44"/>
       <c r="H170" s="47"/>
-      <c r="I170" s="44"/>
-      <c r="J170" s="44"/>
-      <c r="K170" s="45"/>
-      <c r="L170" s="46"/>
-      <c r="M170" s="46"/>
-      <c r="N170" s="46"/>
-      <c r="O170" s="64"/>
+      <c r="I170" s="33"/>
+      <c r="J170" s="33"/>
+      <c r="K170" s="34"/>
+      <c r="L170" s="34"/>
+      <c r="M170" s="34"/>
+      <c r="N170" s="34"/>
+      <c r="O170" s="61"/>
       <c r="P170" s="46"/>
-      <c r="Q170" s="45"/>
-      <c r="R170" s="44"/>
+      <c r="Q170" s="46"/>
+      <c r="R170" s="45"/>
       <c r="S170" s="44"/>
       <c r="T170" s="44"/>
       <c r="U170" s="44"/>
       <c r="V170" s="44"/>
       <c r="W170" s="44"/>
       <c r="X170" s="44"/>
-    </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y170" s="44"/>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" s="44"/>
       <c r="B171" s="44"/>
       <c r="C171" s="44"/>
@@ -9419,24 +9808,25 @@
       <c r="F171" s="44"/>
       <c r="G171" s="44"/>
       <c r="H171" s="47"/>
-      <c r="I171" s="44"/>
-      <c r="J171" s="44"/>
-      <c r="K171" s="45"/>
-      <c r="L171" s="46"/>
-      <c r="M171" s="46"/>
-      <c r="N171" s="46"/>
-      <c r="O171" s="64"/>
+      <c r="I171" s="33"/>
+      <c r="J171" s="33"/>
+      <c r="K171" s="34"/>
+      <c r="L171" s="34"/>
+      <c r="M171" s="34"/>
+      <c r="N171" s="34"/>
+      <c r="O171" s="61"/>
       <c r="P171" s="46"/>
-      <c r="Q171" s="45"/>
-      <c r="R171" s="44"/>
+      <c r="Q171" s="46"/>
+      <c r="R171" s="45"/>
       <c r="S171" s="44"/>
       <c r="T171" s="44"/>
       <c r="U171" s="44"/>
       <c r="V171" s="44"/>
       <c r="W171" s="44"/>
       <c r="X171" s="44"/>
-    </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y171" s="44"/>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" s="44"/>
       <c r="B172" s="44"/>
       <c r="C172" s="44"/>
@@ -9445,24 +9835,25 @@
       <c r="F172" s="44"/>
       <c r="G172" s="44"/>
       <c r="H172" s="47"/>
-      <c r="I172" s="44"/>
-      <c r="J172" s="44"/>
-      <c r="K172" s="45"/>
-      <c r="L172" s="46"/>
-      <c r="M172" s="46"/>
-      <c r="N172" s="46"/>
-      <c r="O172" s="64"/>
+      <c r="I172" s="33"/>
+      <c r="J172" s="33"/>
+      <c r="K172" s="34"/>
+      <c r="L172" s="34"/>
+      <c r="M172" s="34"/>
+      <c r="N172" s="34"/>
+      <c r="O172" s="61"/>
       <c r="P172" s="46"/>
-      <c r="Q172" s="45"/>
-      <c r="R172" s="44"/>
+      <c r="Q172" s="46"/>
+      <c r="R172" s="45"/>
       <c r="S172" s="44"/>
       <c r="T172" s="44"/>
       <c r="U172" s="44"/>
       <c r="V172" s="44"/>
       <c r="W172" s="44"/>
       <c r="X172" s="44"/>
-    </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y172" s="44"/>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" s="44"/>
       <c r="B173" s="44"/>
       <c r="C173" s="44"/>
@@ -9471,24 +9862,25 @@
       <c r="F173" s="44"/>
       <c r="G173" s="44"/>
       <c r="H173" s="47"/>
-      <c r="I173" s="44"/>
-      <c r="J173" s="44"/>
-      <c r="K173" s="45"/>
-      <c r="L173" s="46"/>
-      <c r="M173" s="46"/>
-      <c r="N173" s="46"/>
-      <c r="O173" s="64"/>
+      <c r="I173" s="33"/>
+      <c r="J173" s="33"/>
+      <c r="K173" s="34"/>
+      <c r="L173" s="34"/>
+      <c r="M173" s="34"/>
+      <c r="N173" s="34"/>
+      <c r="O173" s="61"/>
       <c r="P173" s="46"/>
-      <c r="Q173" s="45"/>
-      <c r="R173" s="44"/>
+      <c r="Q173" s="46"/>
+      <c r="R173" s="45"/>
       <c r="S173" s="44"/>
       <c r="T173" s="44"/>
       <c r="U173" s="44"/>
       <c r="V173" s="44"/>
       <c r="W173" s="44"/>
       <c r="X173" s="44"/>
-    </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y173" s="44"/>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" s="44"/>
       <c r="B174" s="44"/>
       <c r="C174" s="44"/>
@@ -9497,24 +9889,25 @@
       <c r="F174" s="44"/>
       <c r="G174" s="44"/>
       <c r="H174" s="47"/>
-      <c r="I174" s="44"/>
-      <c r="J174" s="44"/>
-      <c r="K174" s="45"/>
-      <c r="L174" s="46"/>
-      <c r="M174" s="46"/>
-      <c r="N174" s="46"/>
-      <c r="O174" s="64"/>
+      <c r="I174" s="33"/>
+      <c r="J174" s="33"/>
+      <c r="K174" s="34"/>
+      <c r="L174" s="34"/>
+      <c r="M174" s="34"/>
+      <c r="N174" s="34"/>
+      <c r="O174" s="61"/>
       <c r="P174" s="46"/>
-      <c r="Q174" s="45"/>
-      <c r="R174" s="44"/>
+      <c r="Q174" s="46"/>
+      <c r="R174" s="45"/>
       <c r="S174" s="44"/>
       <c r="T174" s="44"/>
       <c r="U174" s="44"/>
       <c r="V174" s="44"/>
       <c r="W174" s="44"/>
       <c r="X174" s="44"/>
-    </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y174" s="44"/>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" s="44"/>
       <c r="B175" s="44"/>
       <c r="C175" s="44"/>
@@ -9523,24 +9916,25 @@
       <c r="F175" s="44"/>
       <c r="G175" s="44"/>
       <c r="H175" s="47"/>
-      <c r="I175" s="44"/>
-      <c r="J175" s="44"/>
-      <c r="K175" s="45"/>
-      <c r="L175" s="46"/>
-      <c r="M175" s="46"/>
-      <c r="N175" s="46"/>
-      <c r="O175" s="64"/>
+      <c r="I175" s="33"/>
+      <c r="J175" s="33"/>
+      <c r="K175" s="34"/>
+      <c r="L175" s="34"/>
+      <c r="M175" s="34"/>
+      <c r="N175" s="34"/>
+      <c r="O175" s="61"/>
       <c r="P175" s="46"/>
-      <c r="Q175" s="45"/>
-      <c r="R175" s="44"/>
+      <c r="Q175" s="46"/>
+      <c r="R175" s="45"/>
       <c r="S175" s="44"/>
       <c r="T175" s="44"/>
       <c r="U175" s="44"/>
       <c r="V175" s="44"/>
       <c r="W175" s="44"/>
       <c r="X175" s="44"/>
-    </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y175" s="44"/>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" s="44"/>
       <c r="B176" s="44"/>
       <c r="C176" s="44"/>
@@ -9549,24 +9943,25 @@
       <c r="F176" s="44"/>
       <c r="G176" s="44"/>
       <c r="H176" s="47"/>
-      <c r="I176" s="44"/>
-      <c r="J176" s="44"/>
-      <c r="K176" s="45"/>
-      <c r="L176" s="46"/>
-      <c r="M176" s="46"/>
-      <c r="N176" s="46"/>
-      <c r="O176" s="64"/>
+      <c r="I176" s="33"/>
+      <c r="J176" s="33"/>
+      <c r="K176" s="34"/>
+      <c r="L176" s="34"/>
+      <c r="M176" s="34"/>
+      <c r="N176" s="34"/>
+      <c r="O176" s="61"/>
       <c r="P176" s="46"/>
-      <c r="Q176" s="45"/>
-      <c r="R176" s="44"/>
+      <c r="Q176" s="46"/>
+      <c r="R176" s="45"/>
       <c r="S176" s="44"/>
       <c r="T176" s="44"/>
       <c r="U176" s="44"/>
       <c r="V176" s="44"/>
       <c r="W176" s="44"/>
       <c r="X176" s="44"/>
-    </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y176" s="44"/>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" s="44"/>
       <c r="B177" s="44"/>
       <c r="C177" s="44"/>
@@ -9575,24 +9970,25 @@
       <c r="F177" s="44"/>
       <c r="G177" s="44"/>
       <c r="H177" s="47"/>
-      <c r="I177" s="44"/>
-      <c r="J177" s="44"/>
-      <c r="K177" s="45"/>
-      <c r="L177" s="46"/>
-      <c r="M177" s="46"/>
-      <c r="N177" s="46"/>
-      <c r="O177" s="64"/>
+      <c r="I177" s="33"/>
+      <c r="J177" s="33"/>
+      <c r="K177" s="34"/>
+      <c r="L177" s="34"/>
+      <c r="M177" s="34"/>
+      <c r="N177" s="34"/>
+      <c r="O177" s="61"/>
       <c r="P177" s="46"/>
-      <c r="Q177" s="45"/>
-      <c r="R177" s="44"/>
+      <c r="Q177" s="46"/>
+      <c r="R177" s="45"/>
       <c r="S177" s="44"/>
       <c r="T177" s="44"/>
       <c r="U177" s="44"/>
       <c r="V177" s="44"/>
       <c r="W177" s="44"/>
       <c r="X177" s="44"/>
-    </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y177" s="44"/>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" s="44"/>
       <c r="B178" s="44"/>
       <c r="C178" s="44"/>
@@ -9601,30 +9997,28 @@
       <c r="F178" s="44"/>
       <c r="G178" s="44"/>
       <c r="H178" s="47"/>
-      <c r="I178" s="44"/>
-      <c r="J178" s="44"/>
-      <c r="K178" s="45"/>
-      <c r="L178" s="46"/>
-      <c r="M178" s="46"/>
-      <c r="N178" s="46"/>
-      <c r="O178" s="64"/>
+      <c r="I178" s="33"/>
+      <c r="J178" s="33"/>
+      <c r="K178" s="34"/>
+      <c r="L178" s="34"/>
+      <c r="M178" s="34"/>
+      <c r="N178" s="34"/>
+      <c r="O178" s="61"/>
       <c r="P178" s="46"/>
-      <c r="Q178" s="45"/>
-      <c r="R178" s="44"/>
+      <c r="Q178" s="46"/>
+      <c r="R178" s="45"/>
       <c r="S178" s="44"/>
       <c r="T178" s="44"/>
       <c r="U178" s="44"/>
       <c r="V178" s="44"/>
       <c r="W178" s="44"/>
       <c r="X178" s="44"/>
+      <c r="Y178" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X77" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="8">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:X72">
-      <sortCondition sortBy="cellColor" ref="I1:I77" dxfId="1"/>
+  <autoFilter ref="A1:Y77" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:Y72">
+      <sortCondition sortBy="cellColor" ref="I1:I77" dxfId="0"/>
     </sortState>
   </autoFilter>
   <dataConsolidate/>
@@ -9657,13 +10051,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D48" sqref="D48:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="59"/>
+    <col min="1" max="1" width="9.109375" style="56"/>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="4" max="4" width="66.44140625" style="2" customWidth="1"/>
     <col min="5" max="6" width="17.44140625" style="2" customWidth="1"/>
@@ -9671,58 +10065,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s">
         <v>253</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>254</v>
       </c>
-      <c r="C1" t="s">
-        <v>255</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F2" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" t="s">
         <v>256</v>
       </c>
-      <c r="B4" t="s">
-        <v>257</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F6" s="2">
         <v>20</v>
@@ -9730,10 +10124,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F7" s="2">
         <v>20</v>
@@ -9741,10 +10135,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F8" s="2">
         <v>16</v>
@@ -9752,10 +10146,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F9" s="2">
         <v>12</v>
@@ -9763,445 +10157,445 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F10" s="2">
         <v>32000</v>
       </c>
       <c r="G10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F13" s="2">
         <v>32000</v>
       </c>
       <c r="G13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" t="s">
         <v>273</v>
       </c>
-      <c r="B15" t="s">
-        <v>274</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F17" s="2">
         <v>32000</v>
       </c>
       <c r="G17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D18" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>322</v>
-      </c>
-      <c r="F18" s="58">
+        <v>379</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F18" s="55">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" t="s">
         <v>281</v>
       </c>
-      <c r="B20" t="s">
-        <v>282</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22" t="s">
         <v>283</v>
-      </c>
-      <c r="G22" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F23" s="2">
         <v>32000</v>
       </c>
       <c r="G23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F24" s="2">
         <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" t="s">
         <v>301</v>
       </c>
-      <c r="B26" t="s">
-        <v>302</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F26" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F28" s="55">
+        <v>16</v>
+      </c>
+      <c r="G28" s="64"/>
+      <c r="H28" s="55"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D29" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F29" s="55">
+        <v>10</v>
+      </c>
+      <c r="G29" s="64"/>
+      <c r="H29" s="55"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D30" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="G30" s="64"/>
+      <c r="H30" s="55"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D31" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="G31" s="64"/>
+      <c r="H31" s="55"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="B33" t="s">
         <v>325</v>
       </c>
-      <c r="B28" t="s">
-        <v>326</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="E28" s="68" t="s">
-        <v>322</v>
-      </c>
-      <c r="F28" s="58">
-        <v>16</v>
-      </c>
-      <c r="G28" s="68"/>
-      <c r="H28" s="58"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D29" s="68" t="s">
-        <v>347</v>
-      </c>
-      <c r="E29" s="68" t="s">
-        <v>322</v>
-      </c>
-      <c r="F29" s="58">
-        <v>10</v>
-      </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="58"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D30" s="68" t="s">
-        <v>348</v>
-      </c>
-      <c r="E30" s="68" t="s">
-        <v>323</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="G30" s="68"/>
-      <c r="H30" s="58"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D31" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="E31" s="68" t="s">
-        <v>323</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="G31" s="68"/>
-      <c r="H31" s="58"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
-        <v>365</v>
-      </c>
-      <c r="B33" t="s">
-        <v>327</v>
-      </c>
       <c r="D33" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="E33" s="69" t="s">
-        <v>322</v>
+        <v>330</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>320</v>
       </c>
       <c r="F33" s="32">
         <v>16</v>
       </c>
       <c r="G33" s="19"/>
-      <c r="H33" s="69"/>
+      <c r="H33" s="65"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="69"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D34" s="19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="F34" s="70">
+        <v>320</v>
+      </c>
+      <c r="F34" s="66">
         <v>20</v>
       </c>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="69"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D35" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="E35" s="69" t="s">
-        <v>328</v>
+        <v>332</v>
+      </c>
+      <c r="E35" s="65" t="s">
+        <v>326</v>
       </c>
       <c r="F35" s="32">
         <v>10</v>
       </c>
       <c r="G35" s="19"/>
-      <c r="H35" s="69"/>
+      <c r="H35" s="65"/>
       <c r="I35" s="32"/>
-      <c r="J35" s="69"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E36" t="s">
-        <v>322</v>
-      </c>
-      <c r="F36" s="71">
+        <v>320</v>
+      </c>
+      <c r="F36" s="67">
         <v>15</v>
       </c>
-      <c r="I36" s="71"/>
+      <c r="I36" s="67"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D37" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="E37" s="69" t="s">
-        <v>328</v>
+        <v>334</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>326</v>
       </c>
       <c r="F37" s="32">
         <v>10</v>
       </c>
       <c r="G37" s="19"/>
-      <c r="H37" s="69"/>
+      <c r="H37" s="65"/>
       <c r="I37" s="32"/>
-      <c r="J37" s="69"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D38" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="E38" s="69" t="s">
-        <v>322</v>
+        <v>335</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>320</v>
       </c>
       <c r="F38" s="32">
         <v>10</v>
       </c>
       <c r="G38" s="19"/>
-      <c r="H38" s="69"/>
+      <c r="H38" s="65"/>
       <c r="I38" s="32"/>
-      <c r="J38" s="69"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" s="64">
+        <v>10</v>
+      </c>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D40" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F40" s="64">
+        <v>20</v>
+      </c>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D41" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="E39" s="68" t="s">
-        <v>322</v>
-      </c>
-      <c r="F39" s="68">
+      <c r="E41" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="F41" s="64">
         <v>10</v>
       </c>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D40" s="68" t="s">
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D42" s="64" t="s">
         <v>339</v>
       </c>
-      <c r="E40" s="68" t="s">
-        <v>322</v>
-      </c>
-      <c r="F40" s="68">
-        <v>20</v>
-      </c>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D41" s="68" t="s">
+      <c r="E42" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F42" s="64">
+        <v>10</v>
+      </c>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D43" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="E41" s="68" t="s">
-        <v>328</v>
-      </c>
-      <c r="F41" s="68">
-        <v>10</v>
-      </c>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D42" s="68" t="s">
-        <v>341</v>
-      </c>
-      <c r="E42" s="68" t="s">
-        <v>322</v>
-      </c>
-      <c r="F42" s="68">
-        <v>10</v>
-      </c>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-    </row>
-    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D43" s="68" t="s">
-        <v>342</v>
-      </c>
-      <c r="E43" s="68" t="s">
-        <v>329</v>
-      </c>
-      <c r="F43" s="68">
+      <c r="E43" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="F43" s="64">
         <v>3</v>
       </c>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D44" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="E44" s="69" t="s">
-        <v>330</v>
+        <v>341</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>328</v>
       </c>
       <c r="F44" s="32">
         <v>3</v>
       </c>
       <c r="G44" s="19"/>
-      <c r="H44" s="69"/>
+      <c r="H44" s="65"/>
       <c r="I44" s="32"/>
-      <c r="J44" s="69"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E45" t="s">
-        <v>328</v>
-      </c>
-      <c r="F45" s="71">
+        <v>326</v>
+      </c>
+      <c r="F45" s="67">
         <v>10</v>
       </c>
-      <c r="I45" s="71"/>
+      <c r="I45" s="67"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E46" t="s">
-        <v>322</v>
-      </c>
-      <c r="F46" s="71">
+        <v>320</v>
+      </c>
+      <c r="F46" s="67">
         <v>15</v>
       </c>
-      <c r="I46" s="71"/>
+      <c r="I46" s="67"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D47" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="E47" s="69" t="s">
-        <v>330</v>
+        <v>344</v>
+      </c>
+      <c r="E47" s="65" t="s">
+        <v>328</v>
       </c>
       <c r="F47" s="32">
         <v>3</v>
       </c>
       <c r="G47" s="19"/>
-      <c r="H47" s="69"/>
+      <c r="H47" s="65"/>
       <c r="I47" s="32"/>
-      <c r="J47" s="69"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F48" s="2">
         <v>32000</v>
@@ -10209,13 +10603,13 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F50" s="2">
         <v>20</v>
@@ -10223,71 +10617,71 @@
     </row>
     <row r="52" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>368</v>
+      </c>
+      <c r="D52" s="64" t="s">
         <v>370</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="E52" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="F52" s="55" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D53" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="E53" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="F53" s="55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D54" s="64" t="s">
         <v>372</v>
       </c>
-      <c r="E52" s="68" t="s">
-        <v>323</v>
-      </c>
-      <c r="F52" s="58" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D53" s="68" t="s">
+      <c r="E54" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="F54" s="55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D55" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="E53" s="68" t="s">
-        <v>323</v>
-      </c>
-      <c r="F53" s="58" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D54" s="68" t="s">
-        <v>374</v>
-      </c>
-      <c r="E54" s="68" t="s">
-        <v>323</v>
-      </c>
-      <c r="F54" s="58" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D55" s="68" t="s">
-        <v>375</v>
-      </c>
-      <c r="E55" s="68" t="s">
+      <c r="E55" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F55" s="55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D56" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="E56" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="F56" s="55" t="s">
         <v>322</v>
-      </c>
-      <c r="F55" s="58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D56" s="68" t="s">
-        <v>383</v>
-      </c>
-      <c r="E56" s="68" t="s">
-        <v>323</v>
-      </c>
-      <c r="F56" s="58" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F58" s="2">
         <v>8</v>
@@ -10295,13 +10689,13 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D60" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F60" s="2">
         <v>32000</v>
@@ -10309,13 +10703,13 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D62" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F62" s="2">
         <v>50</v>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440BEF91-BD08-42F9-B3AE-8985F8807491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4282B71D-A5F3-4FE6-8492-8268A5260916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Summary" sheetId="6" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="410">
   <si>
     <t>Test Status</t>
   </si>
@@ -900,20 +900,6 @@
     <t>A new field to be created. CONTRACT.STE_REMARKS</t>
   </si>
   <si>
-    <t>Map ITEM_INFO via ITEM_ instead of directly from STOREITEM.
-Please verify the following fields:
-MAXLEVEL
-MINLEVEL
-SSTOCK
-DELIVERYTIME
-ISSUE1YRAGO
-ISSUE2YRAGO
-CURBALTOTAL
-AVBLBALANCE
-RESERVEDQTY
-ORDERQTY</t>
-  </si>
-  <si>
     <t>Map to new fields: STE_CSWNSUPPLIER</t>
   </si>
   <si>
@@ -957,16 +943,6 @@
 WHEN DEM_STATUS=51 THEN 'CAN'
 WHEN DEM_STATUS=52 THEN 'WAPPR'
 WHEN DEM_STATUS=57 THEN 'APPR'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material Requisions status mapping:
-4.
-   48 - 0 - No Issued - APPR
-   49 - 1 - Part Issued  - APPR
-   50 - 2 - Issue Completed - CLOSE
-   51 - 3 - Cancelled -  CAN
-   52 - 4 - Not Validated - WAPPR
-   57 - 9- Directly Issued - CLOSE </t>
   </si>
   <si>
     <t xml:space="preserve">Default the properties as standard values based on when contract type is selected as “BLANKET”,”PRICE” using scripts.
@@ -1587,6 +1563,15 @@
   </si>
   <si>
     <t>New calculated field</t>
+  </si>
+  <si>
+    <t>CHARTOFACCOUNTS</t>
+  </si>
+  <si>
+    <t>New custom column: CHARTOFACCOUNTS.STE_MIGRATIONSOURCE</t>
+  </si>
+  <si>
+    <t>New custom column: MATRECTRANS.STE_MIGRATIONSOURCE</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1868,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2070,6 +2055,12 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2085,17 +2076,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3047,18 +3031,18 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="3" t="s">
         <v>61</v>
       </c>
@@ -3879,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="H73" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3952,13 +3936,13 @@
       </c>
       <c r="N1" s="30"/>
       <c r="O1" s="58" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R1" s="30" t="s">
         <v>53</v>
@@ -4005,22 +3989,22 @@
       </c>
       <c r="K2" s="36"/>
       <c r="L2" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>230</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R2" s="34"/>
       <c r="S2" s="36"/>
@@ -4050,20 +4034,20 @@
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="34" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M3" s="34" t="s">
         <v>231</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O3" s="59"/>
       <c r="P3" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R3" s="34"/>
       <c r="S3" s="36"/>
@@ -4099,14 +4083,14 @@
         <v>133</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O4" s="59"/>
       <c r="P4" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R4" s="34"/>
       <c r="S4" s="36"/>
@@ -4142,16 +4126,16 @@
         <v>232</v>
       </c>
       <c r="N5" s="34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O5" s="59">
         <v>309</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R5" s="34"/>
       <c r="S5" s="36"/>
@@ -4189,14 +4173,14 @@
         <v>232</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O6" s="59"/>
       <c r="P6" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R6" s="34"/>
       <c r="S6" s="36"/>
@@ -4234,16 +4218,16 @@
         <v>135</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O7" s="59" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="36"/>
@@ -4279,16 +4263,16 @@
         <v>136</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O8" s="59" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R8" s="34"/>
       <c r="S8" s="36"/>
@@ -4327,13 +4311,13 @@
         <v>236</v>
       </c>
       <c r="O9" s="59" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="36"/>
@@ -4369,14 +4353,14 @@
         <v>165</v>
       </c>
       <c r="N10" s="49" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O10" s="69"/>
       <c r="P10" s="49" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Q10" s="49" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R10" s="45"/>
       <c r="S10" s="44"/>
@@ -4412,16 +4396,16 @@
         <v>139</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O11" s="59" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R11" s="34"/>
       <c r="S11" s="36"/>
@@ -4457,16 +4441,16 @@
         <v>140</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O12" s="59" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R12" s="34"/>
       <c r="S12" s="36"/>
@@ -4489,7 +4473,7 @@
         <v>65</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J13" s="33" t="s">
         <v>121</v>
@@ -4501,17 +4485,17 @@
       <c r="M13" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="N13" s="75" t="s">
-        <v>289</v>
+      <c r="N13" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="O13" s="59" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R13" s="34"/>
       <c r="S13" s="36"/>
@@ -4547,14 +4531,14 @@
         <v>142</v>
       </c>
       <c r="N14" s="34" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O14" s="59"/>
       <c r="P14" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R14" s="34"/>
       <c r="S14" s="36"/>
@@ -4592,14 +4576,14 @@
         <v>142</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="O15" s="59"/>
       <c r="P15" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="36"/>
@@ -4637,14 +4621,14 @@
         <v>138</v>
       </c>
       <c r="N16" s="49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O16" s="59"/>
       <c r="P16" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R16" s="34"/>
       <c r="S16" s="36"/>
@@ -4680,14 +4664,14 @@
         <v>144</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O17" s="59"/>
       <c r="P17" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R17" s="34"/>
       <c r="S17" s="36"/>
@@ -4723,14 +4707,14 @@
         <v>145</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O18" s="60"/>
       <c r="P18" s="32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R18" s="45"/>
       <c r="S18" s="44"/>
@@ -4766,16 +4750,16 @@
         <v>142</v>
       </c>
       <c r="N19" s="34" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O19" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R19" s="45"/>
       <c r="S19" s="44"/>
@@ -4813,14 +4797,14 @@
         <v>146</v>
       </c>
       <c r="N20" s="34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O20" s="59"/>
       <c r="P20" s="34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R20" s="45"/>
       <c r="S20" s="44"/>
@@ -4858,14 +4842,14 @@
         <v>143</v>
       </c>
       <c r="N21" s="49" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="O21" s="59"/>
       <c r="P21" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q21" s="50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R21" s="34"/>
       <c r="S21" s="36"/>
@@ -4903,10 +4887,10 @@
       <c r="N22" s="34"/>
       <c r="O22" s="59"/>
       <c r="P22" s="34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R22" s="45"/>
       <c r="S22" s="44"/>
@@ -4942,14 +4926,14 @@
         <v>149</v>
       </c>
       <c r="N23" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O23" s="59"/>
       <c r="P23" s="34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R23" s="45"/>
       <c r="S23" s="44"/>
@@ -4985,14 +4969,14 @@
         <v>151</v>
       </c>
       <c r="N24" s="34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O24" s="59"/>
       <c r="P24" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R24" s="45"/>
       <c r="S24" s="44"/>
@@ -5028,14 +5012,14 @@
         <v>153</v>
       </c>
       <c r="N25" s="34" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O25" s="68"/>
-      <c r="P25" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q25" s="75" t="s">
-        <v>284</v>
+      <c r="P25" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="34" t="s">
+        <v>282</v>
       </c>
       <c r="R25" s="45"/>
       <c r="S25" s="44"/>
@@ -5073,14 +5057,14 @@
         <v>159</v>
       </c>
       <c r="N26" s="34" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O26" s="59"/>
       <c r="P26" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q26" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R26" s="45"/>
       <c r="S26" s="44"/>
@@ -5120,10 +5104,10 @@
       </c>
       <c r="O27" s="59"/>
       <c r="P27" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q27" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R27" s="45"/>
       <c r="S27" s="44"/>
@@ -5159,14 +5143,14 @@
         <v>161</v>
       </c>
       <c r="N28" s="34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O28" s="59"/>
       <c r="P28" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q28" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R28" s="45"/>
       <c r="S28" s="44"/>
@@ -5204,14 +5188,14 @@
         <v>147</v>
       </c>
       <c r="N29" s="49" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O29" s="59"/>
       <c r="P29" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q29" s="50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R29" s="45"/>
       <c r="S29" s="44"/>
@@ -5247,14 +5231,14 @@
         <v>232</v>
       </c>
       <c r="N30" s="34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O30" s="59"/>
       <c r="P30" s="34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q30" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R30" s="45"/>
       <c r="S30" s="44"/>
@@ -5290,14 +5274,14 @@
         <v>162</v>
       </c>
       <c r="N31" s="49" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O31" s="59"/>
       <c r="P31" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q31" s="50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R31" s="45"/>
       <c r="S31" s="44"/>
@@ -5337,10 +5321,10 @@
       </c>
       <c r="O32" s="59"/>
       <c r="P32" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q32" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R32" s="45"/>
       <c r="S32" s="44"/>
@@ -5370,20 +5354,20 @@
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M33" s="34" t="s">
         <v>162</v>
       </c>
       <c r="N33" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O33" s="59"/>
       <c r="P33" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q33" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R33" s="45"/>
       <c r="S33" s="44"/>
@@ -5413,20 +5397,20 @@
       </c>
       <c r="K34" s="34"/>
       <c r="L34" s="34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M34" s="34" t="s">
         <v>162</v>
       </c>
       <c r="N34" s="34" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O34" s="59"/>
       <c r="P34" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q34" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R34" s="45"/>
       <c r="S34" s="44"/>
@@ -5462,14 +5446,14 @@
         <v>165</v>
       </c>
       <c r="N35" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O35" s="59"/>
       <c r="P35" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q35" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R35" s="45"/>
       <c r="S35" s="44"/>
@@ -5505,14 +5489,14 @@
         <v>170</v>
       </c>
       <c r="N36" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O36" s="59"/>
       <c r="P36" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q36" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R36" s="45"/>
       <c r="S36" s="44"/>
@@ -5548,14 +5532,14 @@
         <v>170</v>
       </c>
       <c r="N37" s="34" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O37" s="59"/>
       <c r="P37" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q37" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R37" s="45"/>
       <c r="S37" s="44"/>
@@ -5595,10 +5579,10 @@
       </c>
       <c r="O38" s="59"/>
       <c r="P38" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q38" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R38" s="45"/>
       <c r="S38" s="44"/>
@@ -5636,10 +5620,10 @@
       <c r="N39" s="34"/>
       <c r="O39" s="59"/>
       <c r="P39" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q39" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R39" s="45"/>
       <c r="S39" s="44"/>
@@ -5679,10 +5663,10 @@
       </c>
       <c r="O40" s="59"/>
       <c r="P40" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q40" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R40" s="45"/>
       <c r="S40" s="44"/>
@@ -5724,10 +5708,10 @@
       </c>
       <c r="O41" s="59"/>
       <c r="P41" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q41" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R41" s="45"/>
       <c r="S41" s="44"/>
@@ -5763,14 +5747,14 @@
         <v>211</v>
       </c>
       <c r="N42" s="49" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O42" s="59"/>
       <c r="P42" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q42" s="50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R42" s="45"/>
       <c r="S42" s="44"/>
@@ -5806,14 +5790,14 @@
         <v>211</v>
       </c>
       <c r="N43" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O43" s="59"/>
       <c r="P43" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q43" s="50" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="R43" s="45"/>
       <c r="S43" s="44"/>
@@ -5855,10 +5839,10 @@
       </c>
       <c r="O44" s="59"/>
       <c r="P44" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q44" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R44" s="45"/>
       <c r="S44" s="44"/>
@@ -5896,10 +5880,10 @@
       <c r="N45" s="34"/>
       <c r="O45" s="59"/>
       <c r="P45" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q45" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R45" s="45"/>
       <c r="S45" s="44"/>
@@ -5937,10 +5921,10 @@
       <c r="N46" s="34"/>
       <c r="O46" s="59"/>
       <c r="P46" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q46" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R46" s="45"/>
       <c r="S46" s="44"/>
@@ -5965,7 +5949,7 @@
         <v>79</v>
       </c>
       <c r="I47" s="34" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J47" s="33" t="s">
         <v>121</v>
@@ -5980,10 +5964,10 @@
       <c r="N47" s="34"/>
       <c r="O47" s="59"/>
       <c r="P47" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q47" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R47" s="45"/>
       <c r="S47" s="44"/>
@@ -6023,10 +6007,10 @@
       <c r="N48" s="34"/>
       <c r="O48" s="59"/>
       <c r="P48" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q48" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R48" s="45"/>
       <c r="S48" s="44"/>
@@ -6064,10 +6048,10 @@
       <c r="N49" s="34"/>
       <c r="O49" s="59"/>
       <c r="P49" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q49" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R49" s="45"/>
       <c r="S49" s="44"/>
@@ -6107,10 +6091,10 @@
       <c r="N50" s="34"/>
       <c r="O50" s="59"/>
       <c r="P50" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q50" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R50" s="45"/>
       <c r="S50" s="44"/>
@@ -6150,10 +6134,10 @@
       <c r="N51" s="34"/>
       <c r="O51" s="59"/>
       <c r="P51" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q51" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R51" s="45"/>
       <c r="S51" s="44"/>
@@ -6191,10 +6175,10 @@
       <c r="N52" s="34"/>
       <c r="O52" s="59"/>
       <c r="P52" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q52" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R52" s="45"/>
       <c r="S52" s="44"/>
@@ -6234,10 +6218,10 @@
       <c r="N53" s="34"/>
       <c r="O53" s="59"/>
       <c r="P53" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q53" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R53" s="45"/>
       <c r="S53" s="44"/>
@@ -6275,10 +6259,10 @@
       <c r="N54" s="34"/>
       <c r="O54" s="59"/>
       <c r="P54" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q54" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R54" s="45"/>
       <c r="S54" s="44"/>
@@ -6318,10 +6302,10 @@
       <c r="N55" s="34"/>
       <c r="O55" s="59"/>
       <c r="P55" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q55" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R55" s="45"/>
       <c r="S55" s="44"/>
@@ -6361,10 +6345,10 @@
       <c r="N56" s="34"/>
       <c r="O56" s="59"/>
       <c r="P56" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q56" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R56" s="45"/>
       <c r="S56" s="44"/>
@@ -6404,10 +6388,10 @@
       <c r="N57" s="34"/>
       <c r="O57" s="59"/>
       <c r="P57" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q57" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R57" s="45"/>
       <c r="S57" s="44"/>
@@ -6445,10 +6429,10 @@
       <c r="N58" s="34"/>
       <c r="O58" s="59"/>
       <c r="P58" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q58" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R58" s="45"/>
       <c r="S58" s="44"/>
@@ -6484,14 +6468,14 @@
         <v>211</v>
       </c>
       <c r="N59" s="34" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O59" s="59"/>
       <c r="P59" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q59" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R59" s="45"/>
       <c r="S59" s="44"/>
@@ -6513,7 +6497,7 @@
       <c r="H60" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="I60" s="77" t="s">
+      <c r="I60" s="70" t="s">
         <v>193</v>
       </c>
       <c r="J60" s="33" t="s">
@@ -6527,14 +6511,14 @@
         <v>221</v>
       </c>
       <c r="N60" s="34" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="O60" s="59"/>
       <c r="P60" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q60" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R60" s="45"/>
       <c r="S60" s="44"/>
@@ -6570,14 +6554,14 @@
         <v>211</v>
       </c>
       <c r="N61" s="34" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O61" s="59"/>
       <c r="P61" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q61" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R61" s="45"/>
       <c r="S61" s="44"/>
@@ -6607,20 +6591,20 @@
       </c>
       <c r="K62" s="34"/>
       <c r="L62" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M62" s="34" t="s">
         <v>211</v>
       </c>
       <c r="N62" s="34" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="O62" s="59"/>
       <c r="P62" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q62" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R62" s="45"/>
       <c r="S62" s="44"/>
@@ -6656,14 +6640,14 @@
         <v>211</v>
       </c>
       <c r="N63" s="34" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O63" s="59"/>
       <c r="P63" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q63" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R63" s="45"/>
       <c r="S63" s="44"/>
@@ -6701,14 +6685,14 @@
         <v>211</v>
       </c>
       <c r="N64" s="34" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="O64" s="59"/>
       <c r="P64" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q64" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R64" s="45"/>
       <c r="S64" s="44"/>
@@ -6746,14 +6730,14 @@
         <v>211</v>
       </c>
       <c r="N65" s="34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O65" s="59"/>
       <c r="P65" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q65" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R65" s="45"/>
       <c r="S65" s="44"/>
@@ -6785,20 +6769,20 @@
       </c>
       <c r="K66" s="34"/>
       <c r="L66" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M66" s="34" t="s">
         <v>211</v>
       </c>
       <c r="N66" s="49" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O66" s="59"/>
       <c r="P66" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q66" s="50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R66" s="45"/>
       <c r="S66" s="44"/>
@@ -6836,14 +6820,14 @@
         <v>211</v>
       </c>
       <c r="N67" s="63" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O67" s="55"/>
       <c r="P67" s="34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Q67" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R67" s="45"/>
       <c r="S67" s="44"/>
@@ -6879,14 +6863,14 @@
         <v>211</v>
       </c>
       <c r="N68" s="34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O68" s="59"/>
       <c r="P68" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q68" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R68" s="45"/>
       <c r="S68" s="44"/>
@@ -6922,14 +6906,14 @@
         <v>211</v>
       </c>
       <c r="N69" s="34" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O69" s="59"/>
       <c r="P69" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q69" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R69" s="45"/>
       <c r="S69" s="44"/>
@@ -6949,7 +6933,7 @@
       <c r="F70" s="44"/>
       <c r="G70" s="44"/>
       <c r="H70" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I70" s="48" t="s">
         <v>204</v>
@@ -6959,20 +6943,20 @@
       </c>
       <c r="K70" s="34"/>
       <c r="L70" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M70" s="34" t="s">
         <v>211</v>
       </c>
       <c r="N70" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O70" s="59"/>
       <c r="P70" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q70" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R70" s="45"/>
       <c r="S70" s="44"/>
@@ -6992,7 +6976,7 @@
       <c r="F71" s="44"/>
       <c r="G71" s="44"/>
       <c r="H71" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I71" s="48" t="s">
         <v>205</v>
@@ -7008,14 +6992,14 @@
         <v>211</v>
       </c>
       <c r="N71" s="34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O71" s="59"/>
       <c r="P71" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q71" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R71" s="45"/>
       <c r="S71" s="44"/>
@@ -7035,7 +7019,7 @@
       <c r="F72" s="44"/>
       <c r="G72" s="44"/>
       <c r="H72" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I72" s="48" t="s">
         <v>206</v>
@@ -7045,20 +7029,20 @@
       </c>
       <c r="K72" s="34"/>
       <c r="L72" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M72" s="34" t="s">
         <v>211</v>
       </c>
       <c r="N72" s="49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O72" s="59"/>
       <c r="P72" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q72" s="50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R72" s="45"/>
       <c r="S72" s="44"/>
@@ -7078,16 +7062,16 @@
       <c r="F73" s="44"/>
       <c r="G73" s="44"/>
       <c r="H73" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I73" s="48" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J73" s="33" t="s">
         <v>121</v>
       </c>
       <c r="K73" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L73" s="34" t="s">
         <v>211</v>
@@ -7096,14 +7080,14 @@
         <v>211</v>
       </c>
       <c r="N73" s="34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O73" s="59"/>
       <c r="P73" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q73" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R73" s="45"/>
       <c r="S73" s="44"/>
@@ -7123,7 +7107,7 @@
       <c r="F74" s="44"/>
       <c r="G74" s="44"/>
       <c r="H74" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I74" s="48" t="s">
         <v>207</v>
@@ -7139,14 +7123,14 @@
         <v>211</v>
       </c>
       <c r="N74" s="34" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O74" s="59"/>
       <c r="P74" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q74" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R74" s="45"/>
       <c r="S74" s="44"/>
@@ -7166,9 +7150,9 @@
       <c r="F75" s="44"/>
       <c r="G75" s="44"/>
       <c r="H75" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I75" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="I75" s="71" t="s">
         <v>208</v>
       </c>
       <c r="J75" s="33" t="s">
@@ -7182,14 +7166,14 @@
         <v>211</v>
       </c>
       <c r="N75" s="49" t="s">
-        <v>393</v>
-      </c>
-      <c r="O75" s="76"/>
+        <v>391</v>
+      </c>
+      <c r="O75" s="59"/>
       <c r="P75" s="49" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Q75" s="50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R75" s="45"/>
       <c r="S75" s="44"/>
@@ -7209,7 +7193,7 @@
       <c r="F76" s="44"/>
       <c r="G76" s="44"/>
       <c r="H76" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I76" s="48" t="s">
         <v>209</v>
@@ -7219,20 +7203,20 @@
       </c>
       <c r="K76" s="34"/>
       <c r="L76" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M76" s="34" t="s">
         <v>211</v>
       </c>
       <c r="N76" s="34" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O76" s="59"/>
       <c r="P76" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q76" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R76" s="45"/>
       <c r="S76" s="44"/>
@@ -7252,7 +7236,7 @@
       <c r="F77" s="44"/>
       <c r="G77" s="44"/>
       <c r="H77" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I77" s="48" t="s">
         <v>210</v>
@@ -7268,16 +7252,16 @@
         <v>211</v>
       </c>
       <c r="N77" s="34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O77" s="59">
         <v>206</v>
       </c>
       <c r="P77" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q77" s="50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R77" s="45"/>
       <c r="S77" s="44"/>
@@ -10049,10 +10033,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:F48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10066,24 +10050,24 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" t="s">
         <v>252</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>253</v>
       </c>
-      <c r="C1" t="s">
-        <v>254</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F2" s="2">
         <v>20</v>
@@ -10091,32 +10075,32 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
         <v>255</v>
       </c>
-      <c r="B4" t="s">
-        <v>256</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F6" s="2">
         <v>20</v>
@@ -10124,10 +10108,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F7" s="2">
         <v>20</v>
@@ -10135,10 +10119,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F8" s="2">
         <v>16</v>
@@ -10146,10 +10130,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F9" s="2">
         <v>12</v>
@@ -10157,82 +10141,82 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F10" s="2">
         <v>32000</v>
       </c>
       <c r="G10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F13" s="2">
         <v>32000</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F17" s="2">
         <v>32000</v>
       </c>
       <c r="G17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D18" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E18" s="64" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F18" s="55">
         <v>16</v>
@@ -10240,54 +10224,54 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F23" s="2">
         <v>32000</v>
       </c>
       <c r="G23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F24" s="2">
         <v>110</v>
@@ -10295,16 +10279,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F26" s="2">
         <v>12</v>
@@ -10312,16 +10296,16 @@
     </row>
     <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F28" s="55">
         <v>16</v>
@@ -10331,10 +10315,10 @@
     </row>
     <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D29" s="64" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F29" s="55">
         <v>10</v>
@@ -10344,42 +10328,42 @@
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D30" s="64" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D31" s="64" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F31" s="55" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G31" s="64"/>
       <c r="H31" s="55"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F33" s="32">
         <v>16</v>
@@ -10391,10 +10375,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D34" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F34" s="66">
         <v>20</v>
@@ -10406,10 +10390,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D35" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E35" s="65" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F35" s="32">
         <v>10</v>
@@ -10421,10 +10405,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F36" s="67">
         <v>15</v>
@@ -10433,10 +10417,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D37" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F37" s="32">
         <v>10</v>
@@ -10448,10 +10432,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D38" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F38" s="32">
         <v>10</v>
@@ -10463,10 +10447,10 @@
     </row>
     <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D39" s="64" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F39" s="64">
         <v>10</v>
@@ -10478,10 +10462,10 @@
     </row>
     <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D40" s="64" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F40" s="64">
         <v>20</v>
@@ -10493,10 +10477,10 @@
     </row>
     <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D41" s="64" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F41" s="64">
         <v>10</v>
@@ -10508,10 +10492,10 @@
     </row>
     <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D42" s="64" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E42" s="64" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F42" s="64">
         <v>10</v>
@@ -10523,10 +10507,10 @@
     </row>
     <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D43" s="64" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E43" s="64" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F43" s="64">
         <v>3</v>
@@ -10538,10 +10522,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D44" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E44" s="65" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F44" s="32">
         <v>3</v>
@@ -10553,10 +10537,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E45" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F45" s="67">
         <v>10</v>
@@ -10565,10 +10549,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E46" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F46" s="67">
         <v>15</v>
@@ -10577,10 +10561,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D47" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E47" s="65" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F47" s="32">
         <v>3</v>
@@ -10592,131 +10576,175 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F48" s="2">
         <v>32000</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F50" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>366</v>
+      </c>
+      <c r="D52" s="64" t="s">
         <v>368</v>
       </c>
-      <c r="D52" s="64" t="s">
+      <c r="E52" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="F52" s="55" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D53" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="E53" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="F53" s="55" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D54" s="64" t="s">
         <v>370</v>
       </c>
-      <c r="E52" s="64" t="s">
-        <v>321</v>
-      </c>
-      <c r="F52" s="55" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D53" s="64" t="s">
+      <c r="E54" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="F54" s="55" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D55" s="64" t="s">
         <v>371</v>
       </c>
-      <c r="E53" s="64" t="s">
-        <v>321</v>
-      </c>
-      <c r="F53" s="55" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D54" s="64" t="s">
-        <v>372</v>
-      </c>
-      <c r="E54" s="64" t="s">
-        <v>321</v>
-      </c>
-      <c r="F54" s="55" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D55" s="64" t="s">
-        <v>373</v>
-      </c>
       <c r="E55" s="64" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F55" s="55">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D56" s="64" t="s">
+        <v>379</v>
+      </c>
+      <c r="E56" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="F56" s="55" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>381</v>
       </c>
-      <c r="E56" s="64" t="s">
-        <v>321</v>
-      </c>
-      <c r="F56" s="55" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>383</v>
-      </c>
       <c r="D58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F58" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D60" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F60" s="2">
         <v>32000</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D62" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F62" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D63"/>
+    <row r="63" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="77"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>407</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F64" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>323</v>
+      </c>
+      <c r="D66" t="s">
+        <v>392</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F66" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>383</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F68" s="2">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4282B71D-A5F3-4FE6-8492-8268A5260916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAC31D9-F69A-4331-A587-B55322DEDC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="413">
   <si>
     <t>Test Status</t>
   </si>
@@ -1492,13 +1492,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TR_ITEMS &gt;&gt; cswn_tr_items
-H_TRANSFER &gt;&gt; cswn_h_transfer
-H_TR_ITEMS &gt;&gt; NO DATA
-Create record: MATRECTRANS (IssueType= 'SHIPTRANSFER')
-</t>
-  </si>
-  <si>
     <t>New custom column: SERVRECTRANS.STE_CSWNRECEIPTREMARK</t>
   </si>
   <si>
@@ -1572,6 +1565,23 @@
   </si>
   <si>
     <t>New custom column: MATRECTRANS.STE_MIGRATIONSOURCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR_ITEMS &gt;&gt; cswn_tr_items
+H_TRANSFER &gt;&gt; cswn_h_transfer
+H_TR_ITEMS &gt;&gt; NO DATA
+H_TRANSFER is parent of H_TR_ITEMS. Since H_TR_ITEMS is empty, no need to migrate H_TRANSFER (ie. no detail data such as quantity, etc)
+Create record: MATRECTRANS (IssueType= 'SHIPTRANSFER')
+</t>
+  </si>
+  <si>
+    <t>POLINE</t>
+  </si>
+  <si>
+    <t>New custom column: POLINE.STE_CSWNSAPGL</t>
+  </si>
+  <si>
+    <t>Need to extend POLINE.GLDEBITACCT to 110 char</t>
   </si>
 </sst>
 </file>
@@ -3864,7 +3874,7 @@
   <dimension ref="A1:Z178"/>
   <sheetViews>
     <sheetView topLeftCell="H73" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N75" sqref="N75"/>
+      <selection activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3939,10 +3949,10 @@
         <v>276</v>
       </c>
       <c r="P1" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q1" s="30" t="s">
         <v>395</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>396</v>
       </c>
       <c r="R1" s="30" t="s">
         <v>53</v>
@@ -4357,10 +4367,10 @@
       </c>
       <c r="O10" s="69"/>
       <c r="P10" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q10" s="49" t="s">
         <v>397</v>
-      </c>
-      <c r="Q10" s="49" t="s">
-        <v>398</v>
       </c>
       <c r="R10" s="45"/>
       <c r="S10" s="44"/>
@@ -4531,7 +4541,7 @@
         <v>142</v>
       </c>
       <c r="N14" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O14" s="59"/>
       <c r="P14" s="34" t="s">
@@ -4576,7 +4586,7 @@
         <v>142</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O15" s="59"/>
       <c r="P15" s="34" t="s">
@@ -4849,7 +4859,7 @@
         <v>282</v>
       </c>
       <c r="Q21" s="50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R21" s="34"/>
       <c r="S21" s="36"/>
@@ -5195,7 +5205,7 @@
         <v>282</v>
       </c>
       <c r="Q29" s="50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R29" s="45"/>
       <c r="S29" s="44"/>
@@ -5281,7 +5291,7 @@
         <v>282</v>
       </c>
       <c r="Q31" s="50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R31" s="45"/>
       <c r="S31" s="44"/>
@@ -5403,7 +5413,7 @@
         <v>162</v>
       </c>
       <c r="N34" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O34" s="59"/>
       <c r="P34" s="34" t="s">
@@ -5754,7 +5764,7 @@
         <v>282</v>
       </c>
       <c r="Q42" s="50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R42" s="45"/>
       <c r="S42" s="44"/>
@@ -5797,7 +5807,7 @@
         <v>282</v>
       </c>
       <c r="Q43" s="50" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R43" s="45"/>
       <c r="S43" s="44"/>
@@ -5880,10 +5890,10 @@
       <c r="N45" s="34"/>
       <c r="O45" s="59"/>
       <c r="P45" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q45" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R45" s="45"/>
       <c r="S45" s="44"/>
@@ -5921,10 +5931,10 @@
       <c r="N46" s="34"/>
       <c r="O46" s="59"/>
       <c r="P46" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q46" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R46" s="45"/>
       <c r="S46" s="44"/>
@@ -5964,10 +5974,10 @@
       <c r="N47" s="34"/>
       <c r="O47" s="59"/>
       <c r="P47" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q47" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R47" s="45"/>
       <c r="S47" s="44"/>
@@ -6007,10 +6017,10 @@
       <c r="N48" s="34"/>
       <c r="O48" s="59"/>
       <c r="P48" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q48" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R48" s="45"/>
       <c r="S48" s="44"/>
@@ -6048,10 +6058,10 @@
       <c r="N49" s="34"/>
       <c r="O49" s="59"/>
       <c r="P49" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q49" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R49" s="45"/>
       <c r="S49" s="44"/>
@@ -6091,10 +6101,10 @@
       <c r="N50" s="34"/>
       <c r="O50" s="59"/>
       <c r="P50" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q50" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R50" s="45"/>
       <c r="S50" s="44"/>
@@ -6134,10 +6144,10 @@
       <c r="N51" s="34"/>
       <c r="O51" s="59"/>
       <c r="P51" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q51" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R51" s="45"/>
       <c r="S51" s="44"/>
@@ -6175,10 +6185,10 @@
       <c r="N52" s="34"/>
       <c r="O52" s="59"/>
       <c r="P52" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q52" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R52" s="45"/>
       <c r="S52" s="44"/>
@@ -6218,10 +6228,10 @@
       <c r="N53" s="34"/>
       <c r="O53" s="59"/>
       <c r="P53" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q53" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R53" s="45"/>
       <c r="S53" s="44"/>
@@ -6259,10 +6269,10 @@
       <c r="N54" s="34"/>
       <c r="O54" s="59"/>
       <c r="P54" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q54" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R54" s="45"/>
       <c r="S54" s="44"/>
@@ -6302,10 +6312,10 @@
       <c r="N55" s="34"/>
       <c r="O55" s="59"/>
       <c r="P55" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q55" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R55" s="45"/>
       <c r="S55" s="44"/>
@@ -6345,10 +6355,10 @@
       <c r="N56" s="34"/>
       <c r="O56" s="59"/>
       <c r="P56" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q56" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R56" s="45"/>
       <c r="S56" s="44"/>
@@ -6388,10 +6398,10 @@
       <c r="N57" s="34"/>
       <c r="O57" s="59"/>
       <c r="P57" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q57" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R57" s="45"/>
       <c r="S57" s="44"/>
@@ -6429,10 +6439,10 @@
       <c r="N58" s="34"/>
       <c r="O58" s="59"/>
       <c r="P58" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q58" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R58" s="45"/>
       <c r="S58" s="44"/>
@@ -6468,7 +6478,7 @@
         <v>211</v>
       </c>
       <c r="N59" s="34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O59" s="59"/>
       <c r="P59" s="34" t="s">
@@ -6640,7 +6650,7 @@
         <v>211</v>
       </c>
       <c r="N63" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O63" s="59"/>
       <c r="P63" s="34" t="s">
@@ -6782,7 +6792,7 @@
         <v>282</v>
       </c>
       <c r="Q66" s="50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R66" s="45"/>
       <c r="S66" s="44"/>
@@ -7042,7 +7052,7 @@
         <v>282</v>
       </c>
       <c r="Q72" s="50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R72" s="45"/>
       <c r="S72" s="44"/>
@@ -7065,7 +7075,7 @@
         <v>246</v>
       </c>
       <c r="I73" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J73" s="33" t="s">
         <v>121</v>
@@ -7166,14 +7176,14 @@
         <v>211</v>
       </c>
       <c r="N75" s="49" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="O75" s="59"/>
       <c r="P75" s="49" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q75" s="50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R75" s="45"/>
       <c r="S75" s="44"/>
@@ -7261,7 +7271,7 @@
         <v>282</v>
       </c>
       <c r="Q77" s="50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R77" s="45"/>
       <c r="S77" s="44"/>
@@ -10033,10 +10043,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10576,7 +10586,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>318</v>
@@ -10706,10 +10716,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>406</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>318</v>
@@ -10723,7 +10733,7 @@
         <v>323</v>
       </c>
       <c r="D66" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>318</v>
@@ -10737,13 +10747,32 @@
         <v>383</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F68" s="2">
         <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>410</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F70" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="2" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAC31D9-F69A-4331-A587-B55322DEDC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770F6342-63FB-4660-9B41-97C4B4272B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="417">
   <si>
     <t>Test Status</t>
   </si>
@@ -1582,6 +1582,18 @@
   </si>
   <si>
     <t>Need to extend POLINE.GLDEBITACCT to 110 char</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <t>PERSON.BARCODE extend to 16</t>
+  </si>
+  <si>
+    <t>TLOAMASSETGRP</t>
+  </si>
+  <si>
+    <t>STE_CSWNAUTHORITY</t>
   </si>
 </sst>
 </file>
@@ -2071,6 +2083,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2085,11 +2102,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3041,18 +3053,18 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="3" t="s">
         <v>61</v>
       </c>
@@ -10043,10 +10055,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10709,10 +10721,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="77"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
+    <row r="63" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="72"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
@@ -10728,7 +10740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>323</v>
       </c>
@@ -10742,7 +10754,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>383</v>
       </c>
@@ -10756,7 +10768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>410</v>
       </c>
@@ -10770,9 +10782,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D71" s="2" t="s">
         <v>412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="72"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>413</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>415</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F75" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770F6342-63FB-4660-9B41-97C4B4272B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0895AFCF-F764-438C-BE57-B0212AA6906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="422">
   <si>
     <t>Test Status</t>
   </si>
@@ -1594,6 +1594,21 @@
   </si>
   <si>
     <t>STE_CSWNAUTHORITY</t>
+  </si>
+  <si>
+    <t>invlot</t>
+  </si>
+  <si>
+    <t>New custom column: INVLOT.STE_MIGRATIONID</t>
+  </si>
+  <si>
+    <t>New custom column: INVLOT.STE_MIGRATIONDATE</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -10055,10 +10070,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10813,6 +10828,25 @@
       </c>
       <c r="F75" s="2">
         <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>417</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0895AFCF-F764-438C-BE57-B0212AA6906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839D1112-6550-4E15-9C0E-AAB1F7B4FE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="427">
   <si>
     <t>Test Status</t>
   </si>
@@ -1593,9 +1593,6 @@
     <t>TLOAMASSETGRP</t>
   </si>
   <si>
-    <t>STE_CSWNAUTHORITY</t>
-  </si>
-  <si>
     <t>invlot</t>
   </si>
   <si>
@@ -1609,6 +1606,24 @@
   </si>
   <si>
     <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>invoicecost</t>
+  </si>
+  <si>
+    <t>invoicecost.gldebitacct extend to 110</t>
+  </si>
+  <si>
+    <t>New custom column: TLOAMASSETGRP.STE_CSWNAUTHORITY</t>
+  </si>
+  <si>
+    <t>invtrans</t>
+  </si>
+  <si>
+    <t>New custom column: INVTRANS.STE_MIGRATIONTS</t>
+  </si>
+  <si>
+    <t>integer</t>
   </si>
 </sst>
 </file>
@@ -10070,10 +10085,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10821,7 +10836,7 @@
         <v>415</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>318</v>
@@ -10832,21 +10847,40 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>416</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D78" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>421</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>424</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839D1112-6550-4E15-9C0E-AAB1F7B4FE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59595D43-F0EC-46E7-B2D5-6A65FDFC8636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="432">
   <si>
     <t>Test Status</t>
   </si>
@@ -1624,6 +1624,21 @@
   </si>
   <si>
     <t>integer</t>
+  </si>
+  <si>
+    <t>GLCOMPONENTS</t>
+  </si>
+  <si>
+    <t>New custom column: GLCOMPONENTS.STE_MIGRATIONID</t>
+  </si>
+  <si>
+    <t>New custom column: GLCOMPONENTS.STE_MIGRATIONDATE</t>
+  </si>
+  <si>
+    <t>New custom column: GLCOMPONENTS.STE_MIGRATIONSOURCE</t>
+  </si>
+  <si>
+    <t>New custom column: GLCOMPONENTS.STE_COSTCENTREDEPT</t>
   </si>
 </sst>
 </file>
@@ -10085,10 +10100,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+      <selection activeCell="E87" sqref="E87:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10872,7 +10887,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>424</v>
       </c>
@@ -10881,6 +10896,47 @@
       </c>
       <c r="E82" s="2" t="s">
         <v>426</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>427</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D85" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D86" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F86" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D87" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F87" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59595D43-F0EC-46E7-B2D5-6A65FDFC8636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BC60DC-DF0F-46C7-A600-6CC4BFC8A2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="441">
   <si>
     <t>Test Status</t>
   </si>
@@ -1639,6 +1639,34 @@
   </si>
   <si>
     <t>New custom column: GLCOMPONENTS.STE_COSTCENTREDEPT</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>New custom column: ITEM.STE_CSWNITEMNO</t>
+  </si>
+  <si>
+    <t>New custom column: ITEM.STE_SPARECRITICAL</t>
+  </si>
+  <si>
+    <t>PERSONANCESTOR</t>
+  </si>
+  <si>
+    <t>New custom column: PERSONANCESTOR.STE_MIGRATIONID</t>
+  </si>
+  <si>
+    <t>New custom column: PERSONANCESTOR.STE_MIGRATIONDATE</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extend ste_itempartno to 60 char
+</t>
   </si>
 </sst>
 </file>
@@ -10100,10 +10128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87:F87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10937,6 +10965,66 @@
       </c>
       <c r="F87" s="2">
         <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>432</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F89" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D90" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F90" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>435</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D93" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>438</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>439</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BC60DC-DF0F-46C7-A600-6CC4BFC8A2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F395018-B308-43AB-BAEC-FFFCE2866811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="444">
   <si>
     <t>Test Status</t>
   </si>
@@ -1667,6 +1667,16 @@
   <si>
     <t xml:space="preserve">extend ste_itempartno to 60 char
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extend itemnum to 40 char
+</t>
+  </si>
+  <si>
+    <t>STE_CSWNASSETSLHIST</t>
+  </si>
+  <si>
+    <t>extend STE_CSWNSNO to 30 char</t>
   </si>
 </sst>
 </file>
@@ -10128,10 +10138,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11025,6 +11035,19 @@
       </c>
       <c r="D97" s="2" t="s">
         <v>440</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D98" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>442</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F395018-B308-43AB-BAEC-FFFCE2866811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375B1382-1B79-4194-8D23-8AA4A42BD554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="441">
   <si>
     <t>Test Status</t>
   </si>
@@ -1078,9 +1078,6 @@
     <t>Custom column: ste_actualstartdate (date) mapped from PO_VALID_FM</t>
   </si>
   <si>
-    <t>Not mapped yet but derived column exist. Check with gareth!</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -1659,12 +1656,6 @@
     <t>New custom column: PERSONANCESTOR.STE_MIGRATIONDATE</t>
   </si>
   <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
     <t xml:space="preserve">extend ste_itempartno to 60 char
 </t>
   </si>
@@ -1683,7 +1674,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1791,6 +1782,12 @@
       <color rgb="FF0000FF"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1973,7 +1970,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2185,6 +2182,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4044,10 +4044,10 @@
         <v>276</v>
       </c>
       <c r="P1" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q1" s="30" t="s">
         <v>394</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>395</v>
       </c>
       <c r="R1" s="30" t="s">
         <v>53</v>
@@ -4100,16 +4100,16 @@
         <v>230</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O2" s="59" t="s">
         <v>278</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R2" s="34"/>
       <c r="S2" s="36"/>
@@ -4139,20 +4139,20 @@
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M3" s="34" t="s">
         <v>231</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O3" s="59"/>
       <c r="P3" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R3" s="34"/>
       <c r="S3" s="36"/>
@@ -4188,14 +4188,14 @@
         <v>133</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O4" s="59"/>
       <c r="P4" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R4" s="34"/>
       <c r="S4" s="36"/>
@@ -4231,16 +4231,16 @@
         <v>232</v>
       </c>
       <c r="N5" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O5" s="59">
         <v>309</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R5" s="34"/>
       <c r="S5" s="36"/>
@@ -4278,14 +4278,14 @@
         <v>232</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O6" s="59"/>
       <c r="P6" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R6" s="34"/>
       <c r="S6" s="36"/>
@@ -4323,16 +4323,16 @@
         <v>135</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O7" s="59" t="s">
         <v>278</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="36"/>
@@ -4368,16 +4368,16 @@
         <v>136</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O8" s="59" t="s">
         <v>278</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R8" s="34"/>
       <c r="S8" s="36"/>
@@ -4419,10 +4419,10 @@
         <v>278</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="36"/>
@@ -4458,14 +4458,14 @@
         <v>165</v>
       </c>
       <c r="N10" s="49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O10" s="69"/>
       <c r="P10" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q10" s="49" t="s">
         <v>396</v>
-      </c>
-      <c r="Q10" s="49" t="s">
-        <v>397</v>
       </c>
       <c r="R10" s="45"/>
       <c r="S10" s="44"/>
@@ -4507,10 +4507,10 @@
         <v>278</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R11" s="34"/>
       <c r="S11" s="36"/>
@@ -4552,10 +4552,10 @@
         <v>278</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R12" s="34"/>
       <c r="S12" s="36"/>
@@ -4591,16 +4591,16 @@
         <v>141</v>
       </c>
       <c r="N13" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="O13" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="O13" s="59" t="s">
-        <v>288</v>
-      </c>
       <c r="P13" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R13" s="34"/>
       <c r="S13" s="36"/>
@@ -4636,14 +4636,14 @@
         <v>142</v>
       </c>
       <c r="N14" s="34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O14" s="59"/>
       <c r="P14" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R14" s="34"/>
       <c r="S14" s="36"/>
@@ -4681,14 +4681,14 @@
         <v>142</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O15" s="59"/>
       <c r="P15" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="36"/>
@@ -4726,14 +4726,14 @@
         <v>138</v>
       </c>
       <c r="N16" s="49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O16" s="59"/>
       <c r="P16" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R16" s="34"/>
       <c r="S16" s="36"/>
@@ -4769,14 +4769,14 @@
         <v>144</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O17" s="59"/>
       <c r="P17" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R17" s="34"/>
       <c r="S17" s="36"/>
@@ -4812,14 +4812,14 @@
         <v>145</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O18" s="60"/>
       <c r="P18" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R18" s="45"/>
       <c r="S18" s="44"/>
@@ -4855,16 +4855,16 @@
         <v>142</v>
       </c>
       <c r="N19" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O19" s="59" t="s">
         <v>254</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R19" s="45"/>
       <c r="S19" s="44"/>
@@ -4902,14 +4902,14 @@
         <v>146</v>
       </c>
       <c r="N20" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O20" s="59"/>
       <c r="P20" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R20" s="45"/>
       <c r="S20" s="44"/>
@@ -4947,14 +4947,14 @@
         <v>143</v>
       </c>
       <c r="N21" s="49" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O21" s="59"/>
       <c r="P21" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q21" s="50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R21" s="34"/>
       <c r="S21" s="36"/>
@@ -4992,10 +4992,10 @@
       <c r="N22" s="34"/>
       <c r="O22" s="59"/>
       <c r="P22" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R22" s="45"/>
       <c r="S22" s="44"/>
@@ -5031,14 +5031,14 @@
         <v>149</v>
       </c>
       <c r="N23" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O23" s="59"/>
       <c r="P23" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R23" s="45"/>
       <c r="S23" s="44"/>
@@ -5074,14 +5074,14 @@
         <v>151</v>
       </c>
       <c r="N24" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O24" s="59"/>
       <c r="P24" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R24" s="45"/>
       <c r="S24" s="44"/>
@@ -5117,14 +5117,14 @@
         <v>153</v>
       </c>
       <c r="N25" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O25" s="68"/>
       <c r="P25" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R25" s="45"/>
       <c r="S25" s="44"/>
@@ -5162,14 +5162,14 @@
         <v>159</v>
       </c>
       <c r="N26" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O26" s="59"/>
       <c r="P26" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q26" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R26" s="45"/>
       <c r="S26" s="44"/>
@@ -5209,10 +5209,10 @@
       </c>
       <c r="O27" s="59"/>
       <c r="P27" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q27" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R27" s="45"/>
       <c r="S27" s="44"/>
@@ -5248,14 +5248,14 @@
         <v>161</v>
       </c>
       <c r="N28" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O28" s="59"/>
       <c r="P28" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q28" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R28" s="45"/>
       <c r="S28" s="44"/>
@@ -5293,14 +5293,14 @@
         <v>147</v>
       </c>
       <c r="N29" s="49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O29" s="59"/>
       <c r="P29" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q29" s="50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R29" s="45"/>
       <c r="S29" s="44"/>
@@ -5336,14 +5336,14 @@
         <v>232</v>
       </c>
       <c r="N30" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O30" s="59"/>
       <c r="P30" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q30" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R30" s="45"/>
       <c r="S30" s="44"/>
@@ -5379,14 +5379,14 @@
         <v>162</v>
       </c>
       <c r="N31" s="49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O31" s="59"/>
       <c r="P31" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q31" s="50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R31" s="45"/>
       <c r="S31" s="44"/>
@@ -5426,10 +5426,10 @@
       </c>
       <c r="O32" s="59"/>
       <c r="P32" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q32" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R32" s="45"/>
       <c r="S32" s="44"/>
@@ -5465,14 +5465,14 @@
         <v>162</v>
       </c>
       <c r="N33" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O33" s="59"/>
       <c r="P33" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q33" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R33" s="45"/>
       <c r="S33" s="44"/>
@@ -5508,14 +5508,14 @@
         <v>162</v>
       </c>
       <c r="N34" s="34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O34" s="59"/>
       <c r="P34" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q34" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R34" s="45"/>
       <c r="S34" s="44"/>
@@ -5555,10 +5555,10 @@
       </c>
       <c r="O35" s="59"/>
       <c r="P35" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q35" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R35" s="45"/>
       <c r="S35" s="44"/>
@@ -5598,10 +5598,10 @@
       </c>
       <c r="O36" s="59"/>
       <c r="P36" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q36" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R36" s="45"/>
       <c r="S36" s="44"/>
@@ -5637,14 +5637,14 @@
         <v>170</v>
       </c>
       <c r="N37" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O37" s="59"/>
       <c r="P37" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q37" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R37" s="45"/>
       <c r="S37" s="44"/>
@@ -5684,10 +5684,10 @@
       </c>
       <c r="O38" s="59"/>
       <c r="P38" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q38" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R38" s="45"/>
       <c r="S38" s="44"/>
@@ -5725,10 +5725,10 @@
       <c r="N39" s="34"/>
       <c r="O39" s="59"/>
       <c r="P39" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q39" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R39" s="45"/>
       <c r="S39" s="44"/>
@@ -5768,10 +5768,10 @@
       </c>
       <c r="O40" s="59"/>
       <c r="P40" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q40" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R40" s="45"/>
       <c r="S40" s="44"/>
@@ -5813,10 +5813,10 @@
       </c>
       <c r="O41" s="59"/>
       <c r="P41" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q41" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R41" s="45"/>
       <c r="S41" s="44"/>
@@ -5852,14 +5852,14 @@
         <v>211</v>
       </c>
       <c r="N42" s="49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O42" s="59"/>
       <c r="P42" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q42" s="50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R42" s="45"/>
       <c r="S42" s="44"/>
@@ -5899,10 +5899,10 @@
       </c>
       <c r="O43" s="59"/>
       <c r="P43" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q43" s="50" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R43" s="45"/>
       <c r="S43" s="44"/>
@@ -5944,10 +5944,10 @@
       </c>
       <c r="O44" s="59"/>
       <c r="P44" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q44" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R44" s="45"/>
       <c r="S44" s="44"/>
@@ -5985,10 +5985,10 @@
       <c r="N45" s="34"/>
       <c r="O45" s="59"/>
       <c r="P45" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q45" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R45" s="45"/>
       <c r="S45" s="44"/>
@@ -6026,10 +6026,10 @@
       <c r="N46" s="34"/>
       <c r="O46" s="59"/>
       <c r="P46" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q46" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R46" s="45"/>
       <c r="S46" s="44"/>
@@ -6069,10 +6069,10 @@
       <c r="N47" s="34"/>
       <c r="O47" s="59"/>
       <c r="P47" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q47" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R47" s="45"/>
       <c r="S47" s="44"/>
@@ -6112,10 +6112,10 @@
       <c r="N48" s="34"/>
       <c r="O48" s="59"/>
       <c r="P48" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q48" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R48" s="45"/>
       <c r="S48" s="44"/>
@@ -6153,10 +6153,10 @@
       <c r="N49" s="34"/>
       <c r="O49" s="59"/>
       <c r="P49" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q49" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R49" s="45"/>
       <c r="S49" s="44"/>
@@ -6196,10 +6196,10 @@
       <c r="N50" s="34"/>
       <c r="O50" s="59"/>
       <c r="P50" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q50" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R50" s="45"/>
       <c r="S50" s="44"/>
@@ -6239,10 +6239,10 @@
       <c r="N51" s="34"/>
       <c r="O51" s="59"/>
       <c r="P51" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q51" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R51" s="45"/>
       <c r="S51" s="44"/>
@@ -6280,10 +6280,10 @@
       <c r="N52" s="34"/>
       <c r="O52" s="59"/>
       <c r="P52" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q52" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R52" s="45"/>
       <c r="S52" s="44"/>
@@ -6323,10 +6323,10 @@
       <c r="N53" s="34"/>
       <c r="O53" s="59"/>
       <c r="P53" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q53" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R53" s="45"/>
       <c r="S53" s="44"/>
@@ -6364,10 +6364,10 @@
       <c r="N54" s="34"/>
       <c r="O54" s="59"/>
       <c r="P54" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q54" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R54" s="45"/>
       <c r="S54" s="44"/>
@@ -6407,10 +6407,10 @@
       <c r="N55" s="34"/>
       <c r="O55" s="59"/>
       <c r="P55" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q55" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R55" s="45"/>
       <c r="S55" s="44"/>
@@ -6450,10 +6450,10 @@
       <c r="N56" s="34"/>
       <c r="O56" s="59"/>
       <c r="P56" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q56" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R56" s="45"/>
       <c r="S56" s="44"/>
@@ -6493,10 +6493,10 @@
       <c r="N57" s="34"/>
       <c r="O57" s="59"/>
       <c r="P57" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q57" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R57" s="45"/>
       <c r="S57" s="44"/>
@@ -6534,10 +6534,10 @@
       <c r="N58" s="34"/>
       <c r="O58" s="59"/>
       <c r="P58" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q58" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R58" s="45"/>
       <c r="S58" s="44"/>
@@ -6573,14 +6573,14 @@
         <v>211</v>
       </c>
       <c r="N59" s="34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O59" s="59"/>
       <c r="P59" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q59" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R59" s="45"/>
       <c r="S59" s="44"/>
@@ -6616,14 +6616,14 @@
         <v>221</v>
       </c>
       <c r="N60" s="34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O60" s="59"/>
       <c r="P60" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q60" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R60" s="45"/>
       <c r="S60" s="44"/>
@@ -6659,14 +6659,14 @@
         <v>211</v>
       </c>
       <c r="N61" s="34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O61" s="59"/>
       <c r="P61" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q61" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R61" s="45"/>
       <c r="S61" s="44"/>
@@ -6702,14 +6702,14 @@
         <v>211</v>
       </c>
       <c r="N62" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O62" s="59"/>
       <c r="P62" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q62" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R62" s="45"/>
       <c r="S62" s="44"/>
@@ -6745,14 +6745,14 @@
         <v>211</v>
       </c>
       <c r="N63" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O63" s="59"/>
       <c r="P63" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q63" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R63" s="45"/>
       <c r="S63" s="44"/>
@@ -6790,14 +6790,14 @@
         <v>211</v>
       </c>
       <c r="N64" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O64" s="59"/>
       <c r="P64" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q64" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R64" s="45"/>
       <c r="S64" s="44"/>
@@ -6835,14 +6835,14 @@
         <v>211</v>
       </c>
       <c r="N65" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O65" s="59"/>
       <c r="P65" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q65" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R65" s="45"/>
       <c r="S65" s="44"/>
@@ -6874,20 +6874,20 @@
       </c>
       <c r="K66" s="34"/>
       <c r="L66" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M66" s="34" t="s">
         <v>211</v>
       </c>
       <c r="N66" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O66" s="59"/>
       <c r="P66" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q66" s="50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R66" s="45"/>
       <c r="S66" s="44"/>
@@ -6925,14 +6925,14 @@
         <v>211</v>
       </c>
       <c r="N67" s="63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O67" s="55"/>
       <c r="P67" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q67" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R67" s="45"/>
       <c r="S67" s="44"/>
@@ -6968,14 +6968,14 @@
         <v>211</v>
       </c>
       <c r="N68" s="34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O68" s="59"/>
       <c r="P68" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q68" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R68" s="45"/>
       <c r="S68" s="44"/>
@@ -7011,14 +7011,14 @@
         <v>211</v>
       </c>
       <c r="N69" s="34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O69" s="59"/>
       <c r="P69" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q69" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R69" s="45"/>
       <c r="S69" s="44"/>
@@ -7058,10 +7058,10 @@
       </c>
       <c r="O70" s="59"/>
       <c r="P70" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q70" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R70" s="45"/>
       <c r="S70" s="44"/>
@@ -7097,14 +7097,14 @@
         <v>211</v>
       </c>
       <c r="N71" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O71" s="59"/>
       <c r="P71" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q71" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R71" s="45"/>
       <c r="S71" s="44"/>
@@ -7140,14 +7140,14 @@
         <v>211</v>
       </c>
       <c r="N72" s="49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O72" s="59"/>
       <c r="P72" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q72" s="50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R72" s="45"/>
       <c r="S72" s="44"/>
@@ -7170,7 +7170,7 @@
         <v>246</v>
       </c>
       <c r="I73" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J73" s="33" t="s">
         <v>121</v>
@@ -7189,10 +7189,10 @@
       </c>
       <c r="O73" s="59"/>
       <c r="P73" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q73" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R73" s="45"/>
       <c r="S73" s="44"/>
@@ -7228,14 +7228,14 @@
         <v>211</v>
       </c>
       <c r="N74" s="34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O74" s="59"/>
       <c r="P74" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q74" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R74" s="45"/>
       <c r="S74" s="44"/>
@@ -7271,14 +7271,14 @@
         <v>211</v>
       </c>
       <c r="N75" s="49" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O75" s="59"/>
       <c r="P75" s="49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q75" s="50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R75" s="45"/>
       <c r="S75" s="44"/>
@@ -7314,14 +7314,14 @@
         <v>211</v>
       </c>
       <c r="N76" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O76" s="59"/>
       <c r="P76" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q76" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R76" s="45"/>
       <c r="S76" s="44"/>
@@ -7363,10 +7363,10 @@
         <v>206</v>
       </c>
       <c r="P77" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q77" s="50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R77" s="45"/>
       <c r="S77" s="44"/>
@@ -10138,10 +10138,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10169,10 +10169,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F2" s="2">
         <v>20</v>
@@ -10202,10 +10202,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F6" s="2">
         <v>20</v>
@@ -10213,10 +10213,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F7" s="2">
         <v>20</v>
@@ -10224,10 +10224,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F8" s="2">
         <v>16</v>
@@ -10235,10 +10235,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F9" s="2">
         <v>12</v>
@@ -10246,16 +10246,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F10" s="2">
-        <v>32000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="F10" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -10271,16 +10268,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F13" s="2">
-        <v>32000</v>
-      </c>
-      <c r="G13" t="s">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="F13" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -10296,32 +10290,29 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F17" s="2">
-        <v>32000</v>
-      </c>
-      <c r="G17" t="s">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="F17" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D18" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E18" s="64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F18" s="55">
         <v>16</v>
@@ -10335,48 +10326,42 @@
         <v>279</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="80" t="s">
         <v>280</v>
-      </c>
-      <c r="G22" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F23" s="2">
-        <v>32000</v>
-      </c>
-      <c r="G23" t="s">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="F23" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F24" s="2">
         <v>110</v>
@@ -10384,16 +10369,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="B26" t="s">
         <v>298</v>
       </c>
-      <c r="B26" t="s">
-        <v>299</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F26" s="2">
         <v>12</v>
@@ -10401,16 +10386,16 @@
     </row>
     <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="B28" t="s">
         <v>321</v>
       </c>
-      <c r="B28" t="s">
-        <v>322</v>
-      </c>
       <c r="D28" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F28" s="55">
         <v>16</v>
@@ -10420,10 +10405,10 @@
     </row>
     <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D29" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F29" s="55">
         <v>10</v>
@@ -10433,42 +10418,42 @@
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D30" s="64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E30" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="F30" s="55" t="s">
         <v>319</v>
-      </c>
-      <c r="F30" s="55" t="s">
-        <v>320</v>
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D31" s="64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E31" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="F31" s="55" t="s">
         <v>319</v>
-      </c>
-      <c r="F31" s="55" t="s">
-        <v>320</v>
       </c>
       <c r="G31" s="64"/>
       <c r="H31" s="55"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F33" s="32">
         <v>16</v>
@@ -10480,10 +10465,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D34" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F34" s="66">
         <v>20</v>
@@ -10495,10 +10480,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D35" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E35" s="65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F35" s="32">
         <v>10</v>
@@ -10510,10 +10495,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F36" s="67">
         <v>15</v>
@@ -10522,10 +10507,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D37" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F37" s="32">
         <v>10</v>
@@ -10537,10 +10522,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D38" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F38" s="32">
         <v>10</v>
@@ -10552,10 +10537,10 @@
     </row>
     <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D39" s="64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F39" s="64">
         <v>10</v>
@@ -10567,10 +10552,10 @@
     </row>
     <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D40" s="64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F40" s="64">
         <v>20</v>
@@ -10582,10 +10567,10 @@
     </row>
     <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D41" s="64" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F41" s="64">
         <v>10</v>
@@ -10597,10 +10582,10 @@
     </row>
     <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D42" s="64" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E42" s="64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F42" s="64">
         <v>10</v>
@@ -10612,10 +10597,10 @@
     </row>
     <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D43" s="64" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E43" s="64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F43" s="64">
         <v>3</v>
@@ -10627,10 +10612,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D44" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E44" s="65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F44" s="32">
         <v>3</v>
@@ -10642,10 +10627,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F45" s="67">
         <v>10</v>
@@ -10654,10 +10639,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F46" s="67">
         <v>15</v>
@@ -10666,10 +10651,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D47" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E47" s="65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F47" s="32">
         <v>3</v>
@@ -10681,24 +10666,24 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F48" s="2">
-        <v>32000</v>
+        <v>317</v>
+      </c>
+      <c r="F48" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>361</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F50" s="2">
         <v>20</v>
@@ -10706,46 +10691,46 @@
     </row>
     <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D52" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E52" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="F52" s="55" t="s">
         <v>319</v>
-      </c>
-      <c r="F52" s="55" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D53" s="64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E53" s="64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F53" s="55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D54" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E54" s="64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F54" s="55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D55" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E55" s="64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F55" s="55">
         <v>20</v>
@@ -10753,24 +10738,24 @@
     </row>
     <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D56" s="64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E56" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="F56" s="55" t="s">
         <v>319</v>
-      </c>
-      <c r="F56" s="55" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D58" t="s">
         <v>249</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F58" s="2">
         <v>8</v>
@@ -10778,27 +10763,27 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>382</v>
+      </c>
+      <c r="D60" t="s">
         <v>383</v>
       </c>
-      <c r="D60" t="s">
-        <v>384</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F60" s="2">
-        <v>32000</v>
+        <v>317</v>
+      </c>
+      <c r="F60" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>384</v>
+      </c>
+      <c r="D62" t="s">
         <v>385</v>
       </c>
-      <c r="D62" t="s">
-        <v>386</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F62" s="2">
         <v>50</v>
@@ -10811,13 +10796,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>405</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F64" s="2">
         <v>50</v>
@@ -10825,27 +10810,27 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D66" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F66" s="2">
-        <v>32000</v>
+        <v>317</v>
+      </c>
+      <c r="F66" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F68" s="2">
         <v>50</v>
@@ -10853,13 +10838,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>409</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>411</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F70" s="2">
         <v>20</v>
@@ -10867,7 +10852,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D71" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -10878,21 +10863,21 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>412</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F75" s="2">
         <v>16</v>
@@ -10900,67 +10885,67 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>415</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D78" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>420</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
+        <v>423</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
+        <v>426</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D85" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D86" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F86" s="2">
         <v>50</v>
@@ -10968,10 +10953,10 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D87" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F87" s="2">
         <v>50</v>
@@ -10979,13 +10964,13 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
+        <v>431</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F89" s="2">
         <v>30</v>
@@ -10993,10 +10978,10 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D90" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F90" s="2">
         <v>2</v>
@@ -11004,50 +10989,42 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
+        <v>434</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D93" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>431</v>
+      </c>
+      <c r="D95" s="80" t="s">
         <v>437</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    </row>
+    <row r="96" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D96" s="80" t="s">
         <v>438</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>439</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D98" s="80" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="D98" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>442</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375B1382-1B79-4194-8D23-8AA4A42BD554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B3151D-1346-4D96-A4DA-31ECF6A3240D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="442">
   <si>
     <t>Test Status</t>
   </si>
@@ -1668,6 +1668,9 @@
   </si>
   <si>
     <t>extend STE_CSWNSNO to 30 char</t>
+  </si>
+  <si>
+    <t>New custom column: INVENTORY.STE_FIRSTPROCDATE</t>
   </si>
 </sst>
 </file>
@@ -2168,6 +2171,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2182,9 +2188,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3136,18 +3139,18 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77" t="s">
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="3" t="s">
         <v>61</v>
       </c>
@@ -10138,10 +10141,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10341,7 +10344,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="80" t="s">
+      <c r="D22" s="75" t="s">
         <v>280</v>
       </c>
     </row>
@@ -11010,21 +11013,40 @@
       <c r="B95" t="s">
         <v>431</v>
       </c>
-      <c r="D95" s="80" t="s">
+      <c r="D95" s="75" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="D96" s="80" t="s">
+      <c r="D96" s="75" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>439</v>
       </c>
-      <c r="D98" s="80" t="s">
+      <c r="D98" s="75" t="s">
         <v>440</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="72"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+    </row>
+    <row r="102" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>365</v>
+      </c>
+      <c r="D102" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B3151D-1346-4D96-A4DA-31ECF6A3240D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998D2760-B3CE-4422-990B-330F9E6BCA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3648" yWindow="3288" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Summary" sheetId="6" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="448">
   <si>
     <t>Test Status</t>
   </si>
@@ -1671,6 +1671,24 @@
   </si>
   <si>
     <t>New custom column: INVENTORY.STE_FIRSTPROCDATE</t>
+  </si>
+  <si>
+    <t>INVLOT</t>
+  </si>
+  <si>
+    <t>New custom column: INVLOT.STE_MIGRATIONTS</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>Need to recreate</t>
+  </si>
+  <si>
+    <t>PO.STE_MIGRATIONTS</t>
+  </si>
+  <si>
+    <t>RFQ.STE_MIGRATIONTS</t>
   </si>
 </sst>
 </file>
@@ -3108,7 +3126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" zoomScale="64" zoomScaleNormal="70" zoomScalePageLayoutView="64" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A25" zoomScale="64" zoomScaleNormal="70" zoomScalePageLayoutView="64" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3971,7 +3989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z178"/>
   <sheetViews>
-    <sheetView topLeftCell="H73" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="H79" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
@@ -10141,10 +10159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11047,6 +11065,36 @@
       </c>
       <c r="E102" s="2" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>442</v>
+      </c>
+      <c r="D104" s="64" t="s">
+        <v>443</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>445</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D107" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998D2760-B3CE-4422-990B-330F9E6BCA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AF7B62-A8F0-4C47-B8E9-B955BB65B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3648" yWindow="3288" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Summary" sheetId="6" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="455">
   <si>
     <t>Test Status</t>
   </si>
@@ -1690,12 +1690,765 @@
   <si>
     <t>RFQ.STE_MIGRATIONTS</t>
   </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PLUSTMTRCHNG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PLUSTMTRCHNG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PLUSTMTRCHNG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONTS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INTEGER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>-- PLUSTMTRCHNG</t>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PLUSTASSETSTHIST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PLUSTASSETSTHIST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PLUSTASSETSTHIST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONTS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INTEGER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1810,8 +2563,46 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6C5151"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1869,6 +2660,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1991,7 +2788,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2206,6 +3003,20 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10159,10 +10970,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:E108"/>
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11095,6 +11906,57 @@
       </c>
       <c r="E107" s="2" t="s">
         <v>444</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="81"/>
+      <c r="B109" s="82"/>
+      <c r="C109" s="82"/>
+      <c r="D109" s="83"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="83"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="86" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="84" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="84" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="84" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="85"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="86" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="84" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="84" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="84" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AF7B62-A8F0-4C47-B8E9-B955BB65B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441B1688-A3BF-442A-858C-CFAA3083A03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="456">
   <si>
     <t>Test Status</t>
   </si>
@@ -2443,12 +2443,164 @@
       <t>;</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AMCREW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONSOURCE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2598,6 +2750,18 @@
     <font>
       <sz val="10"/>
       <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF956037"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF8E00C6"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -2788,7 +2952,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2989,6 +3153,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3004,20 +3182,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3968,18 +4133,18 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78" t="s">
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
       <c r="K3" s="3" t="s">
         <v>61</v>
       </c>
@@ -10970,10 +11135,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11909,54 +12074,65 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="81"/>
-      <c r="B109" s="82"/>
-      <c r="C109" s="82"/>
-      <c r="D109" s="83"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83"/>
+      <c r="A109" s="76"/>
+      <c r="B109" s="77"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="78"/>
+      <c r="E109" s="78"/>
+      <c r="F109" s="78"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="86" t="s">
+      <c r="B111" s="81" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="84" t="s">
+      <c r="B112" s="79" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="84" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="79" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="84" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="79" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="85"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="86" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="80"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="81" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="84" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="79" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="84" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="79" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="84" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="79" t="s">
         <v>454</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="72"/>
+      <c r="D121" s="74"/>
+      <c r="E121" s="74"/>
+      <c r="F121" s="74"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="87" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441B1688-A3BF-442A-858C-CFAA3083A03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19F3B4D-3EB9-42E6-A13C-9A63871BE75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Test Summary" sheetId="6" r:id="rId1"/>
     <sheet name="PR Summary" sheetId="14" r:id="rId2"/>
     <sheet name="Custom Column" sheetId="15" r:id="rId3"/>
-    <sheet name="Drop down list" sheetId="12" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId4"/>
+    <sheet name="Drop down list" sheetId="12" state="hidden" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PR Summary'!$A$1:$Y$77</definedName>
@@ -100,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="468">
   <si>
     <t>Test Status</t>
   </si>
@@ -2584,6 +2585,1425 @@
         <family val="3"/>
       </rPr>
       <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.MATRECTRANS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNACPQTY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(15,2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.MATRECTRANS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNRTNTOSUPL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(15,2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.SERVRECTRANS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNACPQTY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(15,2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.SERVRECTRANS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNRTNTOSUPL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(15,2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ALNDOMAIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ALNDOMAIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ALNDOMAIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONSOURCE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> MAXIMO.ALNDOMAIN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONTS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INTEGER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.MATRECTRANS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNRCTQTY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(15,2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.SERVRECTRANS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNRCTQTY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(15,2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.MATRECTRANS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNRCTVAL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(13,5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.SERVRECTRANS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNRCTVAL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(13,5)</t>
     </r>
     <r>
       <rPr>
@@ -3167,6 +4587,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3182,7 +4603,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4133,18 +5553,18 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="3" t="s">
         <v>61</v>
       </c>
@@ -11135,10 +12555,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12131,8 +13551,74 @@
       <c r="F121" s="74"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="87" t="s">
+      <c r="B123" s="82" t="s">
         <v>455</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="72"/>
+      <c r="D125" s="74"/>
+      <c r="E125" s="74"/>
+      <c r="F125" s="74"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="82" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="82" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="82" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="82" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="82" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="82" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="82" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="82" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="79" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="79" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="79" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="79" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -12141,6 +13627,437 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB0FA25-43E2-4113-AAE9-BB13F1213158}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>10981</v>
+      </c>
+      <c r="B1">
+        <v>9381</v>
+      </c>
+      <c r="C1">
+        <v>2621101</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10981</v>
+      </c>
+      <c r="B2">
+        <v>9382</v>
+      </c>
+      <c r="C2">
+        <v>2621102</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10981</v>
+      </c>
+      <c r="B3">
+        <v>9383</v>
+      </c>
+      <c r="C3">
+        <v>2621103</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10981</v>
+      </c>
+      <c r="B4">
+        <v>9384</v>
+      </c>
+      <c r="C4">
+        <v>2621104</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10981</v>
+      </c>
+      <c r="B5">
+        <v>9385</v>
+      </c>
+      <c r="C5">
+        <v>2621105</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10981</v>
+      </c>
+      <c r="B6">
+        <v>9386</v>
+      </c>
+      <c r="C6">
+        <v>2621106</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10981</v>
+      </c>
+      <c r="B7">
+        <v>9387</v>
+      </c>
+      <c r="C7">
+        <v>2621107</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10981</v>
+      </c>
+      <c r="B8">
+        <v>9388</v>
+      </c>
+      <c r="C8">
+        <v>2621108</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10981</v>
+      </c>
+      <c r="B9">
+        <v>9389</v>
+      </c>
+      <c r="C9">
+        <v>2621109</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10981</v>
+      </c>
+      <c r="B10">
+        <v>9390</v>
+      </c>
+      <c r="C10">
+        <v>2621110</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10981</v>
+      </c>
+      <c r="B11">
+        <v>9391</v>
+      </c>
+      <c r="C11">
+        <v>2621111</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10981</v>
+      </c>
+      <c r="B12">
+        <v>9392</v>
+      </c>
+      <c r="C12">
+        <v>2621112</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10981</v>
+      </c>
+      <c r="B13">
+        <v>9393</v>
+      </c>
+      <c r="C13">
+        <v>2621113</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10981</v>
+      </c>
+      <c r="B14">
+        <v>9394</v>
+      </c>
+      <c r="C14">
+        <v>2621114</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10981</v>
+      </c>
+      <c r="B15">
+        <v>9395</v>
+      </c>
+      <c r="C15">
+        <v>2621115</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10981</v>
+      </c>
+      <c r="B16">
+        <v>9396</v>
+      </c>
+      <c r="C16">
+        <v>2621116</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19F3B4D-3EB9-42E6-A13C-9A63871BE75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF94581-7B2A-4FC1-A4F7-190FD8A271A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="469">
   <si>
     <t>Test Status</t>
   </si>
@@ -4004,6 +4004,95 @@
         <family val="3"/>
       </rPr>
       <t>(13,5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> MAXIMO.MR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNDEMTYPE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INTEGER</t>
     </r>
     <r>
       <rPr>
@@ -12555,10 +12644,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135:XFD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13573,22 +13662,22 @@
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="82" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="82" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="82" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="82" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
@@ -13619,6 +13708,11 @@
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="79" t="s">
         <v>463</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="79" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF94581-7B2A-4FC1-A4F7-190FD8A271A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83F0AA5-0E3E-4C45-B90A-76A08D846C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="474">
   <si>
     <t>Test Status</t>
   </si>
@@ -4093,6 +4093,532 @@
         <family val="3"/>
       </rPr>
       <t>INTEGER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> MAXIMO.ITEM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_NONSTOCKFLAG"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.COMPMASTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNSUPLTYPE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.COMPANIES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNSUPLTYPE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.INVOICE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNSTRING3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR(20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.INVOICELINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNITEMBASEVAL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(18,2)</t>
     </r>
     <r>
       <rPr>
@@ -12644,10 +13170,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:XFD136"/>
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13713,6 +14239,31 @@
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="79" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="79" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="82" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="82" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="82" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="82" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83F0AA5-0E3E-4C45-B90A-76A08D846C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ADF9DE-901F-455A-816C-60732EC93FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="481">
   <si>
     <t>Test Status</t>
   </si>
@@ -4619,6 +4619,827 @@
         <family val="3"/>
       </rPr>
       <t>(18,2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.CALENDAR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CALENDAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.WORKPERIOD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WORKPERIOD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.PERSONCAL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PERSONCAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INVOICE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNISSUEDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DATE</t>
     </r>
     <r>
       <rPr>
@@ -13170,10 +13991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14251,19 +15072,60 @@
         <v>473</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" s="82" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" s="82" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B147" s="82" t="s">
         <v>472</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="72"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="74"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="79" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="79" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="79" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="79" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="79" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="79" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="79" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ADF9DE-901F-455A-816C-60732EC93FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B04DB83-9CE9-4BF6-9DE3-AF835C694A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="484">
   <si>
     <t>Test Status</t>
   </si>
@@ -5450,6 +5450,119 @@
       </rPr>
       <t>;</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.PERSONGROUP </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_DEPARTMENT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR(16)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>RESIZE LOCATIONS.STE_TUNNEL TO 8 CHAR</t>
+  </si>
+  <si>
+    <t>RESIZE LOCATIONS.STE_TRAINAREA TO 4 CHAR</t>
   </si>
 </sst>
 </file>
@@ -5808,7 +5921,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6038,6 +6151,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -13991,10 +14111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15126,6 +15246,23 @@
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B157" s="79" t="s">
         <v>480</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="88" t="s">
+        <v>481</v>
+      </c>
+      <c r="C158" s="89"/>
+      <c r="D158" s="90"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="79" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="79" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B04DB83-9CE9-4BF6-9DE3-AF835C694A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCC75BC-C82C-4F3E-834A-9713B62D371C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Summary" sheetId="6" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="488">
   <si>
     <t>Test Status</t>
   </si>
@@ -5452,6 +5452,12 @@
     </r>
   </si>
   <si>
+    <t>RESIZE LOCATIONS.STE_TUNNEL TO 8 CHAR</t>
+  </si>
+  <si>
+    <t>RESIZE LOCATIONS.STE_TRAINAREA TO 4 CHAR</t>
+  </si>
+  <si>
     <r>
       <t>ALTER</t>
     </r>
@@ -5499,7 +5505,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">.PERSONGROUP </t>
+      <t xml:space="preserve">.STE_ITEM_MAINTENTITY </t>
     </r>
     <r>
       <rPr>
@@ -5527,7 +5533,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"STE_DEPARTMENT"</t>
+      <t>"STE_MIGRATIONID"</t>
     </r>
     <r>
       <rPr>
@@ -5546,6 +5552,238 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>STE_ITEM_MAINTENTITY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.ROUTES </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_LOCTYPE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>VARCHAR(16)</t>
     </r>
     <r>
@@ -5559,10 +5797,10 @@
     </r>
   </si>
   <si>
-    <t>RESIZE LOCATIONS.STE_TUNNEL TO 8 CHAR</t>
-  </si>
-  <si>
-    <t>RESIZE LOCATIONS.STE_TRAINAREA TO 4 CHAR</t>
+    <t>RESIZE LOCATIONS.STE_VIADUCT TO 8 CHAR.</t>
+  </si>
+  <si>
+    <t>RESIZE LOCATIONS.STE_TRACKNO TO 8 CHAR.</t>
   </si>
 </sst>
 </file>
@@ -5921,7 +6159,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6151,13 +6389,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14111,10 +14342,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15249,11 +15480,9 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B158" s="88" t="s">
+      <c r="B158" s="79" t="s">
         <v>481</v>
       </c>
-      <c r="C158" s="89"/>
-      <c r="D158" s="90"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B159" s="79" t="s">
@@ -15263,6 +15492,32 @@
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B160" s="79" t="s">
         <v>483</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="79" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="79" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="72"/>
+      <c r="D164" s="74"/>
+      <c r="E164" s="74"/>
+      <c r="F164" s="74"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCC75BC-C82C-4F3E-834A-9713B62D371C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F59792-38AB-4E2B-B31A-4F0B22948DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Summary" sheetId="6" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="499">
   <si>
     <t>Test Status</t>
   </si>
@@ -5801,6 +5801,1259 @@
   </si>
   <si>
     <t>RESIZE LOCATIONS.STE_TRACKNO TO 8 CHAR.</t>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PLUSTWOQUALFLG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PLUSTWOQUALFLG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WOANCESTOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WOANCESTOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WOSERVICEADDRESS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WOSERVICEADDRESS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WOSTATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WOSTATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WORKVIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WORKVIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>RESIZE LOCATIONS.STE_VIADUCTCOLUMNPIERCODE TO 8 CHAR.</t>
   </si>
 </sst>
 </file>
@@ -14342,10 +15595,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180:XFD180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15519,6 +16772,67 @@
       <c r="B167" t="s">
         <v>487</v>
       </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="79" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B169" s="79" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="79" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="79" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B172" s="79" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B173" s="79" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B174" s="79" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B175" s="79" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B176" s="79" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B177" s="79" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="72"/>
+      <c r="D180" s="74"/>
+      <c r="E180" s="74"/>
+      <c r="F180" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F59792-38AB-4E2B-B31A-4F0B22948DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD43578-A601-4406-A595-221A683EC3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="503">
   <si>
     <t>Test Status</t>
   </si>
@@ -7054,6 +7054,506 @@
   </si>
   <si>
     <t>RESIZE LOCATIONS.STE_VIADUCTCOLUMNPIERCODE TO 8 CHAR.</t>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LOCANCESTOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LOCANCESTOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LOCHIERARCHY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LOCHIERARCHY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -15595,10 +16095,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J180"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180:XFD180"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="B185" activeCellId="1" sqref="B184 B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16833,6 +17333,26 @@
       <c r="D180" s="74"/>
       <c r="E180" s="74"/>
       <c r="F180" s="74"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B182" s="79" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B183" s="79" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="79" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B185" s="79" t="s">
+        <v>502</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD43578-A601-4406-A595-221A683EC3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8325E362-B4D3-4026-B6F4-CD82CBBF8D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="509">
   <si>
     <t>Test Status</t>
   </si>
@@ -7488,6 +7488,702 @@
         <family val="3"/>
       </rPr>
       <t>LOCHIERARCHY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.LABORSTATUS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LABORSTATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.LOCOPER </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LOCOPER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.LOCSTATUS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LOCSTATUS</t>
     </r>
     <r>
       <rPr>
@@ -16095,10 +16791,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J185"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="B185" activeCellId="1" sqref="B184 B185"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190:B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17352,6 +18048,36 @@
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B185" s="79" t="s">
         <v>502</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B186" s="79" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B187" s="79" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B188" s="79" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B189" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B190" s="79" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B191" s="79" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8325E362-B4D3-4026-B6F4-CD82CBBF8D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B78D7E-4EEC-4D35-ABF3-7A9E2F39D1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="514">
   <si>
     <t>Test Status</t>
   </si>
@@ -8184,6 +8184,649 @@
         <family val="3"/>
       </rPr>
       <t>LOCSTATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LABTRANS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONWOREF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ROUTES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNAUTHORITY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.WORKORDER </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNEQAUTHORITY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.STE_ALTFAILURECODE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>STE_ALTFAILURECODE</t>
     </r>
     <r>
       <rPr>
@@ -16791,10 +17434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J191"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190:B191"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194:XFD194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18078,6 +18721,37 @@
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B191" s="79" t="s">
         <v>508</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B192" s="82" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="72"/>
+      <c r="D194" s="74"/>
+      <c r="E194" s="74"/>
+      <c r="F194" s="74"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B196" s="82" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B197" s="82" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B198" s="79" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B199" s="79" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B78D7E-4EEC-4D35-ABF3-7A9E2F39D1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3498454A-6009-49A2-9E10-F7A91A22F2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="526">
   <si>
     <t>Test Status</t>
   </si>
@@ -8827,6 +8827,1018 @@
         <family val="3"/>
       </rPr>
       <t>STE_ALTFAILURECODE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ITEM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_LINE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ASSET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_ORIGITEMNUM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>1032_Fix_FailureReport</t>
+  </si>
+  <si>
+    <t>1031_Fix_Workorder</t>
+  </si>
+  <si>
+    <t>1033_Fix_Item_Line</t>
+  </si>
+  <si>
+    <t>1037_Fix_Asset_RotatingItem</t>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INVRESERVE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INVRESERVE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INVUSE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INVUSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INVUSELINE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INVUSELINE</t>
     </r>
     <r>
       <rPr>
@@ -17434,10 +18446,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194:XFD194"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204:B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17445,7 +18457,8 @@
     <col min="1" max="1" width="9.109375" style="56"/>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="4" max="4" width="66.44140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="56.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18738,6 +19751,9 @@
       <c r="B196" s="82" t="s">
         <v>510</v>
       </c>
+      <c r="E196" s="2" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B197" s="82" t="s">
@@ -18748,10 +19764,59 @@
       <c r="B198" s="79" t="s">
         <v>512</v>
       </c>
+      <c r="E198" s="2" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B199" s="79" t="s">
         <v>513</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B201" s="79" t="s">
+        <v>514</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B202" s="79" t="s">
+        <v>515</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B204" s="79" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B205" s="79" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B206" s="79" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B207" s="79" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B208" s="79" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="79" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3498454A-6009-49A2-9E10-F7A91A22F2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E8F30B-A5E4-4F29-ACA5-433EEDB380A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="528">
   <si>
     <t>Test Status</t>
   </si>
@@ -9895,6 +9895,292 @@
         <family val="3"/>
       </rPr>
       <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INVUSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNDEMREF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INVUSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNORIGDEMREF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(8)</t>
     </r>
     <r>
       <rPr>
@@ -18446,10 +18732,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204:B209"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213:XFD213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19814,10 +20100,26 @@
         <v>524</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B209" s="79" t="s">
         <v>525</v>
       </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B210" s="79" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B211" s="79" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="72"/>
+      <c r="D213" s="74"/>
+      <c r="E213" s="74"/>
+      <c r="F213" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E8F30B-A5E4-4F29-ACA5-433EEDB380A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{1DF6449F-6221-40D4-9A62-A30105C38B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,11 +33,7 @@
     <definedName name="TestVer">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -101,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="534">
   <si>
     <t>Test Status</t>
   </si>
@@ -10153,6 +10149,549 @@
         <family val="3"/>
       </rPr>
       <t>"STE_CSWNORIGDEMREF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(8)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>RESIZE INVUSE.STE_CSWNDEMREF TO VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>RESIZE INVUSE.STE_CSWNORIGDEMREF TO VARCHAR(10)</t>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> MAXIMO.INVUSE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNISSREF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MRLINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONSOURCE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNDEMREF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.ITEM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNBUYCURR"</t>
     </r>
     <r>
       <rPr>
@@ -18732,10 +19271,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J213"/>
+  <dimension ref="A1:J220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:XFD213"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -20120,6 +20659,36 @@
       <c r="D213" s="74"/>
       <c r="E213" s="74"/>
       <c r="F213" s="74"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B217" s="82" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B218" s="79" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B219" s="79" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B220" s="79" t="s">
+        <v>533</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{1DF6449F-6221-40D4-9A62-A30105C38B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{5FD202EC-BC31-49FC-A718-2123CBB569F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="536">
   <si>
     <t>Test Status</t>
   </si>
@@ -10720,6 +10720,134 @@
         <family val="3"/>
       </rPr>
       <t>(8)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>RESIZE GLCOMPONENTS.STE_COSTCENTREDEPT TO VARCHAR(8)</t>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MATUSETRANS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DROP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COLUMN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>STE_ORIGMRNUM</t>
     </r>
     <r>
       <rPr>
@@ -11088,7 +11216,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11318,6 +11446,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -19271,10 +19404,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J220"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="D239" sqref="D239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -20688,6 +20821,22 @@
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B220" s="79" t="s">
         <v>533</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="88"/>
+      <c r="D222" s="90"/>
+      <c r="E222" s="90"/>
+      <c r="F222" s="90"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="82" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{5FD202EC-BC31-49FC-A718-2123CBB569F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{60598C80-8C4F-4EF5-BCD1-F84F230A08CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="540">
   <si>
     <t>Test Status</t>
   </si>
@@ -10848,6 +10848,614 @@
         <family val="3"/>
       </rPr>
       <t>STE_ORIGMRNUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RFQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_PONUM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNPRREF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RFQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNRFQREF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNPOREF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -13234,8 +13842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z178"/>
   <sheetViews>
-    <sheetView topLeftCell="H79" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P75" sqref="P75"/>
+    <sheetView topLeftCell="A25" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19404,10 +20012,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J225"/>
+  <dimension ref="A1:J229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="D239" sqref="D239"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224:B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -20837,6 +21445,26 @@
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" s="82" t="s">
         <v>535</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="79" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="79" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="79" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="79" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{60598C80-8C4F-4EF5-BCD1-F84F230A08CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEAAF89-4813-477E-98B3-378EF3888C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,6 @@
     <definedName name="TestVer">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="555">
   <si>
     <t>Test Status</t>
   </si>
@@ -11456,6 +11455,1836 @@
         <family val="3"/>
       </rPr>
       <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.ITEM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNITEMCC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.MRSTATUS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MRSTATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INVSTATUS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INVSTATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.MRCOST </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MRCOST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ITEMSTATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ITEMSTATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ITEMORGSTATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ITEMORGSTATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INVUSELINESPLIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INVUSELINESPLIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INVUSESTATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INVUSESTATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
     </r>
     <r>
       <rPr>
@@ -11824,7 +13653,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -12055,10 +13884,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -20012,10 +21839,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J229"/>
+  <dimension ref="A1:J250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224:B229"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21431,40 +23258,134 @@
         <v>533</v>
       </c>
     </row>
-    <row r="222" spans="1:6" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="88"/>
-      <c r="D222" s="90"/>
-      <c r="E222" s="90"/>
-      <c r="F222" s="90"/>
+    <row r="222" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="72"/>
+      <c r="D222" s="74"/>
+      <c r="E222" s="74"/>
+      <c r="F222" s="74"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B225" s="82" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B226" s="79" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B227" s="79" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B228" s="79" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B229" s="79" t="s">
         <v>539</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="72"/>
+      <c r="D231" s="74"/>
+      <c r="E231" s="74"/>
+      <c r="F231" s="74"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B233" s="79" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B234" s="79" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B235" s="79" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B236" s="79" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B237" s="79" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B238" s="79"/>
+    </row>
+    <row r="239" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="72"/>
+      <c r="B239" s="88"/>
+      <c r="D239" s="74"/>
+      <c r="E239" s="74"/>
+      <c r="F239" s="74"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B240" s="79"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="79" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="79" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="79" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="79" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="79" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="79" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="79" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="79" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="79" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="79" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEAAF89-4813-477E-98B3-378EF3888C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E997F1-9008-4081-8C13-5569EF098DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="557">
   <si>
     <t>Test Status</t>
   </si>
@@ -13285,6 +13285,134 @@
         <family val="3"/>
       </rPr>
       <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>RESIZE ITEM.STE_CSWNITEMCC TO VARCHAR(16)</t>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INVUSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_COSWINCC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR(16)</t>
     </r>
     <r>
       <rPr>
@@ -21839,10 +21967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J250"/>
+  <dimension ref="A1:J252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -23340,52 +23468,62 @@
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" s="79" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" s="79" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" s="79" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" s="79" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" s="79" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" s="79" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" s="79" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" s="79" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" s="79" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" s="79" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="79" t="s">
         <v>554</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="79" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E997F1-9008-4081-8C13-5569EF098DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541C4562-2917-4CDE-BA36-85456B595DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="561">
   <si>
     <t>Test Status</t>
   </si>
@@ -13413,6 +13413,515 @@
         <family val="3"/>
       </rPr>
       <t>VARCHAR(16)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.TICKET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_COSWINCC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR(16)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INVENTORY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_COSWINCC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.ASSET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNEQCOSC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.ROUTES </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNEQCOSC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -13997,6 +14506,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14011,9 +14523,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14965,18 +15474,18 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="88"/>
       <c r="K3" s="3" t="s">
         <v>61</v>
       </c>
@@ -21967,10 +22476,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J252"/>
+  <dimension ref="A1:J256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="C245" sqref="C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -23458,7 +23967,7 @@
     </row>
     <row r="239" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="72"/>
-      <c r="B239" s="88"/>
+      <c r="B239" s="83"/>
       <c r="D239" s="74"/>
       <c r="E239" s="74"/>
       <c r="F239" s="74"/>
@@ -23524,6 +24033,26 @@
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" s="79" t="s">
         <v>556</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="79" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="79" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="79" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="79" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541C4562-2917-4CDE-BA36-85456B595DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36DEB8E-CE7F-469F-8A5C-04FA553FF8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="562">
   <si>
     <t>Test Status</t>
   </si>
@@ -13913,6 +13913,140 @@
         <family val="3"/>
       </rPr>
       <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.ASSETTRANS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_CSWNEMZONE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -22476,10 +22610,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J256"/>
+  <dimension ref="A1:J260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="C245" sqref="C245"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="A258" sqref="A258:XFD258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -24053,6 +24187,17 @@
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" s="79" t="s">
         <v>560</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="72"/>
+      <c r="D258" s="74"/>
+      <c r="E258" s="74"/>
+      <c r="F258" s="74"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B260" s="79" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36DEB8E-CE7F-469F-8A5C-04FA553FF8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB540B0-27D7-4DD3-8FBE-E0F2A8EED95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="568">
   <si>
     <t>Test Status</t>
   </si>
@@ -14056,6 +14056,702 @@
         <family val="3"/>
       </rPr>
       <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.DOCINFO </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DOCINFO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.DOCLINKS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DOCLINKS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.IMGLIB </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IMGLIB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
     </r>
     <r>
       <rPr>
@@ -22610,10 +23306,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J260"/>
+  <dimension ref="A1:J269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="A258" sqref="A258:XFD258"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -24198,6 +24894,42 @@
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B260" s="79" t="s">
         <v>561</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="72"/>
+      <c r="D262" s="74"/>
+      <c r="E262" s="74"/>
+      <c r="F262" s="74"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B264" s="79" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B265" s="79" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B266" s="79" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B267" s="79" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B268" s="79" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B269" s="79" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB540B0-27D7-4DD3-8FBE-E0F2A8EED95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069368F4-C3AF-4190-B327-4329AA645261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="578">
   <si>
     <t>Test Status</t>
   </si>
@@ -14752,6 +14752,1076 @@
         <family val="3"/>
       </rPr>
       <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INSPECTIONFORM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.INSPECTIONFORM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INSPQUESTION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.INSPQUESTION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INSPFIELD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BIGINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.INSPFIELD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONDATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INSPQUESTION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_WEIGHTAGE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL(8,2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.INSPQUESTION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_BASELINE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL(8,2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INSPFIELD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_WEIGHTAGE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL(8,2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.INSPFIELD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_BASELINE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL(8,2)</t>
     </r>
     <r>
       <rPr>
@@ -23306,10 +24376,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J269"/>
+  <dimension ref="A1:J282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="B279" sqref="B279:B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -24930,6 +26000,62 @@
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B269" s="79" t="s">
         <v>567</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="72"/>
+      <c r="D271" s="74"/>
+      <c r="E271" s="74"/>
+      <c r="F271" s="74"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="79" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="79" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="79" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="79" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="79" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="79" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="79" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="79" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" s="79" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" s="79" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069368F4-C3AF-4190-B327-4329AA645261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D9B9CA-6E5E-41F0-BB06-327C5E9F38C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="589">
   <si>
     <t>Test Status</t>
   </si>
@@ -15832,6 +15832,455 @@
       </rPr>
       <t>;</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INSPQUESTION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONSOURCE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INSPFIELD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONSOURCE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>RESIZE INSPFIELDOPTION.DESCRIPTION TO 250 CHAR.</t>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INSPECTIONFORM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_TEMPLATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INSPQUESTION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_INDEXSCORE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL(8,2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>ALTER TABLE MAXIMO.INVOICEMATCH ADD "STE_MIGRATIONID" BIGINT;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE MAXIMO.INVOICEMATCH ADD "STE_MIGRATIONDATE" TIMESTAMP;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE MAXIMO.INVOICETRANS  ADD "STE_MIGRATIONID" BIGINT;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE MAXIMO.INVOICETRANS  ADD "STE_MIGRATIONDATE" TIMESTAMP;</t>
+  </si>
+  <si>
+    <t>RESIZE INVOICETRANS.LINECOST TO DECIMAL(15,5).</t>
+  </si>
+  <si>
+    <t>RESIZE INVOICETRANS.CURRENCYLINECOST TO DECIMAL(12,2).</t>
   </si>
 </sst>
 </file>
@@ -24376,10 +24825,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J282"/>
+  <dimension ref="A1:J299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279:B282"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="B294" sqref="B294:B299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -26008,54 +26457,121 @@
       <c r="E271" s="74"/>
       <c r="F271" s="74"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B273" s="79" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B274" s="79" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B275" s="79" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B276" s="79" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B277" s="79" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B278" s="79" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B279" s="79" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B280" s="79" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B281" s="79" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B282" s="79" t="s">
         <v>577</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="72"/>
+      <c r="D284" s="74"/>
+      <c r="E284" s="74"/>
+      <c r="F284" s="74"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B286" s="79" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B287" s="79" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B288" s="79" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B289" s="79" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="72"/>
+      <c r="D292" s="74"/>
+      <c r="E292" s="74"/>
+      <c r="F292" s="74"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D9B9CA-6E5E-41F0-BB06-327C5E9F38C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59675538-FA78-41E7-88E1-BE87EE626403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="596">
   <si>
     <t>Test Status</t>
   </si>
@@ -15551,70 +15551,1081 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INSPFIELD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_WEIGHTAGE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL(8,2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO.INSPFIELD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_BASELINE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL(8,2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INSPQUESTION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONSOURCE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INSPFIELD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_MIGRATIONSOURCE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAXIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.INSPECTIONFORM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6C5151"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"STE_TEMPLATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>ALTER TABLE MAXIMO.INVOICEMATCH ADD "STE_MIGRATIONID" BIGINT;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE MAXIMO.INVOICEMATCH ADD "STE_MIGRATIONDATE" TIMESTAMP;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE MAXIMO.INVOICETRANS  ADD "STE_MIGRATIONID" BIGINT;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE MAXIMO.INVOICETRANS  ADD "STE_MIGRATIONDATE" TIMESTAMP;</t>
+  </si>
+  <si>
+    <t>RESIZE INVOICETRANS.LINECOST TO DECIMAL(15,5).</t>
+  </si>
+  <si>
+    <t>RESIZE INVOICETRANS.CURRENCYLINECOST TO DECIMAL(12,2).</t>
+  </si>
+  <si>
+    <t>ALTER TABLE MAXIMO.INSPECTIONFORM ADD "STE_ASSETGROUP" VARCHAR(16);</t>
+  </si>
+  <si>
+    <t>ALTER TABLE MAXIMO.INSPECTIONFORM ADD "STE_ASSETNAME" VARCHAR(50);</t>
+  </si>
+  <si>
+    <t>ALTER TABLE MAXIMO.INSPECTIONFORM ADD "STE_ASSETCRITICALITY" VARCHAR(50);</t>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> MAXIMO.INSPECTIONFORM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> STE_PHYSICALBASELINE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> MAXIMO.INSPECTIONFORM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> STE_FUNCTIONALBASELINE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> MAXIMO.INSPQUESTION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> STE_SYSTEMLEVEL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> MAXIMO.INSPQUESTION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> STE_ISFUNCTIONAL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SMALLINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF956037"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>MAXIMO.INSPQUESTION</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
         <sz val="10"/>
         <color rgb="FF800000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>ADD</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
         <sz val="10"/>
         <color rgb="FF6C5151"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>"STE_BASELINE"</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
         <sz val="10"/>
         <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>DECIMAL(8,2)</t>
     </r>
     <r>
       <rPr>
+        <strike/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>;</t>
     </r>
@@ -15625,669 +16636,127 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
         <sz val="10"/>
         <color rgb="FF800000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>TABLE</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
         <sz val="10"/>
         <color rgb="FF956037"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>MAXIMO</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">.INSPFIELD </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.INSPQUESTION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
         <sz val="10"/>
         <color rgb="FF800000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>ADD</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
         <sz val="10"/>
         <color rgb="FF6C5151"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"STE_WEIGHTAGE"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"STE_INDEXSCORE"</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
         <sz val="10"/>
         <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>DECIMAL(8,2)</t>
     </r>
     <r>
       <rPr>
+        <strike/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>;</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>ALTER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>TABLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF956037"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>MAXIMO.INSPFIELD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ADD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6C5151"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"STE_BASELINE"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>DECIMAL(8,2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ALTER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>TABLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF956037"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>MAXIMO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">.INSPQUESTION </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ADD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6C5151"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"STE_MIGRATIONSOURCE"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>VARCHAR(50)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ALTER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>TABLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF956037"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>MAXIMO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">.INSPFIELD </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ADD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6C5151"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"STE_MIGRATIONSOURCE"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>VARCHAR(50)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>RESIZE INSPFIELDOPTION.DESCRIPTION TO 250 CHAR.</t>
-  </si>
-  <si>
-    <r>
-      <t>ALTER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>TABLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF956037"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>MAXIMO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">.INSPECTIONFORM </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ADD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6C5151"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"STE_TEMPLATE"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>VARCHAR(50)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ALTER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>TABLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF956037"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>MAXIMO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">.INSPQUESTION </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ADD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6C5151"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"STE_INDEXSCORE"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>DECIMAL(8,2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>ALTER TABLE MAXIMO.INVOICEMATCH ADD "STE_MIGRATIONID" BIGINT;</t>
-  </si>
-  <si>
-    <t>ALTER TABLE MAXIMO.INVOICEMATCH ADD "STE_MIGRATIONDATE" TIMESTAMP;</t>
-  </si>
-  <si>
-    <t>ALTER TABLE MAXIMO.INVOICETRANS  ADD "STE_MIGRATIONID" BIGINT;</t>
-  </si>
-  <si>
-    <t>ALTER TABLE MAXIMO.INVOICETRANS  ADD "STE_MIGRATIONDATE" TIMESTAMP;</t>
-  </si>
-  <si>
-    <t>RESIZE INVOICETRANS.LINECOST TO DECIMAL(15,5).</t>
-  </si>
-  <si>
-    <t>RESIZE INVOICETRANS.CURRENCYLINECOST TO DECIMAL(12,2).</t>
+    <t>RESIZE INSPFIELDOPTION.DESCRIPTION TO 1000 CHAR.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -16451,6 +16920,56 @@
       <color rgb="FF8E00C6"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF956037"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF6C5151"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF000080"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -16639,7 +17158,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -16872,6 +17391,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -24825,10 +25351,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB88DB5-3756-408C-974A-7C21E554649F}">
-  <dimension ref="A1:J299"/>
+  <dimension ref="A1:J309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="B294" sqref="B294:B299"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -26493,18 +27019,20 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B280" s="79" t="s">
-        <v>575</v>
-      </c>
+      <c r="B280" s="89" t="s">
+        <v>593</v>
+      </c>
+      <c r="C280" s="90"/>
+      <c r="D280" s="91"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B281" s="79" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B282" s="79" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="284" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -26515,63 +27043,109 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B286" s="79" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B287" s="79" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B288" s="79" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B289" s="79" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B289" s="89" t="s">
+        <v>594</v>
+      </c>
+      <c r="C289" s="90"/>
+      <c r="D289" s="91"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="72"/>
       <c r="D292" s="74"/>
       <c r="E292" s="74"/>
       <c r="F292" s="74"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B295" t="s">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B296" t="s">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B297" t="s">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="72"/>
+      <c r="B301" s="73"/>
+      <c r="C301" s="73"/>
+      <c r="D301" s="74"/>
+      <c r="E301" s="74"/>
+      <c r="F301" s="74"/>
+      <c r="G301" s="73"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B298" t="s">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B299" t="s">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
         <v>588</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" s="79" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" s="79" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" s="79" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" s="79" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
